--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -44689,7 +44689,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>5174305</v>
+        <v>5174308</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44701,73 +44701,73 @@
         <v>44779.4375</v>
       </c>
       <c r="F497" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G497" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H497">
+        <v>0</v>
+      </c>
+      <c r="I497">
+        <v>4</v>
+      </c>
+      <c r="J497" t="s">
+        <v>51</v>
+      </c>
+      <c r="K497">
         <v>3</v>
-      </c>
-      <c r="I497">
-        <v>1</v>
-      </c>
-      <c r="J497" t="s">
-        <v>52</v>
-      </c>
-      <c r="K497">
-        <v>2.1</v>
       </c>
       <c r="L497">
         <v>3.6</v>
       </c>
       <c r="M497">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N497">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O497">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P497">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q497">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R497">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S497">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T497">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U497">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V497">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W497">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X497">
         <v>-1</v>
       </c>
       <c r="Y497">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z497">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA497">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB497">
-        <v>0.9099999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC497">
         <v>-1</v>
@@ -44867,7 +44867,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>5174307</v>
+        <v>5174305</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44879,73 +44879,73 @@
         <v>44779.4375</v>
       </c>
       <c r="F499" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G499" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H499">
+        <v>3</v>
+      </c>
+      <c r="I499">
         <v>1</v>
       </c>
-      <c r="I499">
+      <c r="J499" t="s">
+        <v>52</v>
+      </c>
+      <c r="K499">
+        <v>2.1</v>
+      </c>
+      <c r="L499">
+        <v>3.6</v>
+      </c>
+      <c r="M499">
+        <v>3.2</v>
+      </c>
+      <c r="N499">
         <v>2</v>
       </c>
-      <c r="J499" t="s">
-        <v>51</v>
-      </c>
-      <c r="K499">
-        <v>2.75</v>
-      </c>
-      <c r="L499">
-        <v>3.5</v>
-      </c>
-      <c r="M499">
-        <v>2.4</v>
-      </c>
-      <c r="N499">
-        <v>3.4</v>
-      </c>
       <c r="O499">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P499">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q499">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R499">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S499">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="T499">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U499">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V499">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W499">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X499">
         <v>-1</v>
       </c>
       <c r="Y499">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z499">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA499">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB499">
-        <v>0.95</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC499">
         <v>-1</v>
@@ -44956,7 +44956,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>5174308</v>
+        <v>5174306</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -44968,73 +44968,73 @@
         <v>44779.4375</v>
       </c>
       <c r="F500" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G500" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J500" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K500">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L500">
         <v>3.6</v>
       </c>
       <c r="M500">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N500">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="O500">
         <v>3.6</v>
       </c>
       <c r="P500">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q500">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R500">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="S500">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="T500">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U500">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="V500">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W500">
         <v>-1</v>
       </c>
       <c r="X500">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y500">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z500">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA500">
-        <v>0.8400000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB500">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC500">
         <v>-1</v>
@@ -45045,7 +45045,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>5174306</v>
+        <v>5174307</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45057,73 +45057,73 @@
         <v>44779.4375</v>
       </c>
       <c r="F501" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G501" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501">
         <v>2</v>
       </c>
       <c r="J501" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K501">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L501">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M501">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N501">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O501">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P501">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q501">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R501">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S501">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="T501">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U501">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V501">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W501">
         <v>-1</v>
       </c>
       <c r="X501">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y501">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z501">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA501">
-        <v>0.5249999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB501">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AC501">
         <v>-1</v>
@@ -51097,7 +51097,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>5174432</v>
+        <v>5174429</v>
       </c>
       <c r="C569" t="s">
         <v>28</v>
@@ -51109,76 +51109,76 @@
         <v>44842.4375</v>
       </c>
       <c r="F569" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G569" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H569">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I569">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J569" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K569">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L569">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M569">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N569">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O569">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P569">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="Q569">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R569">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S569">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T569">
         <v>2.75</v>
       </c>
       <c r="U569">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V569">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W569">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X569">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y569">
         <v>-1</v>
       </c>
       <c r="Z569">
-        <v>0.95</v>
+        <v>0.485</v>
       </c>
       <c r="AA569">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB569">
-        <v>0.5049999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC569">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="570" spans="1:29">
@@ -51275,7 +51275,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5174429</v>
+        <v>5174432</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51287,76 +51287,76 @@
         <v>44842.4375</v>
       </c>
       <c r="F571" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G571" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J571" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K571">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L571">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M571">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N571">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O571">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P571">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q571">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R571">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S571">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T571">
         <v>2.75</v>
       </c>
       <c r="U571">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="V571">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W571">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X571">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>0.485</v>
+        <v>0.95</v>
       </c>
       <c r="AA571">
+        <v>-1</v>
+      </c>
+      <c r="AB571">
+        <v>0.5049999999999999</v>
+      </c>
+      <c r="AC571">
         <v>-0.5</v>
-      </c>
-      <c r="AB571">
-        <v>-1</v>
-      </c>
-      <c r="AC571">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -54390,7 +54390,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5174470</v>
+        <v>5174467</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54402,13 +54402,13 @@
         <v>44870.47916666666</v>
       </c>
       <c r="F606" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G606" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606">
         <v>3</v>
@@ -54417,40 +54417,40 @@
         <v>51</v>
       </c>
       <c r="K606">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="L606">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M606">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="N606">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="O606">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P606">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q606">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R606">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S606">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T606">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U606">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="V606">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="W606">
         <v>-1</v>
@@ -54459,16 +54459,16 @@
         <v>-1</v>
       </c>
       <c r="Y606">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z606">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA606">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB606">
-        <v>0.9299999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AC606">
         <v>-1</v>
@@ -54657,7 +54657,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>5174467</v>
+        <v>5174470</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54669,13 +54669,13 @@
         <v>44870.47916666666</v>
       </c>
       <c r="F609" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G609" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I609">
         <v>3</v>
@@ -54684,41 +54684,41 @@
         <v>51</v>
       </c>
       <c r="K609">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="L609">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M609">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="N609">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="O609">
+        <v>6.5</v>
+      </c>
+      <c r="P609">
+        <v>1.25</v>
+      </c>
+      <c r="Q609">
+        <v>1.75</v>
+      </c>
+      <c r="R609">
+        <v>2.02</v>
+      </c>
+      <c r="S609">
+        <v>1.88</v>
+      </c>
+      <c r="T609">
         <v>3.75</v>
       </c>
-      <c r="P609">
-        <v>2.45</v>
-      </c>
-      <c r="Q609">
-        <v>0</v>
-      </c>
-      <c r="R609">
+      <c r="U609">
+        <v>1.93</v>
+      </c>
+      <c r="V609">
         <v>1.97</v>
       </c>
-      <c r="S609">
-        <v>1.93</v>
-      </c>
-      <c r="T609">
-        <v>3</v>
-      </c>
-      <c r="U609">
-        <v>2.04</v>
-      </c>
-      <c r="V609">
-        <v>1.86</v>
-      </c>
       <c r="W609">
         <v>-1</v>
       </c>
@@ -54726,16 +54726,16 @@
         <v>-1</v>
       </c>
       <c r="Y609">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="Z609">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA609">
+        <v>-1</v>
+      </c>
+      <c r="AB609">
         <v>0.9299999999999999</v>
-      </c>
-      <c r="AB609">
-        <v>1.04</v>
       </c>
       <c r="AC609">
         <v>-1</v>
@@ -56704,7 +56704,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5174492</v>
+        <v>5174498</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56716,76 +56716,76 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F632" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G632" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H632">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I632">
         <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K632">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L632">
         <v>3.6</v>
       </c>
       <c r="M632">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N632">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O632">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P632">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q632">
         <v>-0.25</v>
       </c>
       <c r="R632">
+        <v>1.97</v>
+      </c>
+      <c r="S632">
+        <v>1.93</v>
+      </c>
+      <c r="T632">
+        <v>2.5</v>
+      </c>
+      <c r="U632">
+        <v>1.99</v>
+      </c>
+      <c r="V632">
         <v>1.91</v>
       </c>
-      <c r="S632">
-        <v>1.99</v>
-      </c>
-      <c r="T632">
-        <v>2.25</v>
-      </c>
-      <c r="U632">
-        <v>2.02</v>
-      </c>
-      <c r="V632">
-        <v>1.88</v>
-      </c>
       <c r="W632">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X632">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y632">
         <v>-1</v>
       </c>
       <c r="Z632">
+        <v>-0.5</v>
+      </c>
+      <c r="AA632">
+        <v>0.465</v>
+      </c>
+      <c r="AB632">
+        <v>-1</v>
+      </c>
+      <c r="AC632">
         <v>0.9099999999999999</v>
-      </c>
-      <c r="AA632">
-        <v>-1</v>
-      </c>
-      <c r="AB632">
-        <v>1.02</v>
-      </c>
-      <c r="AC632">
-        <v>-1</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56793,7 +56793,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5174498</v>
+        <v>5174492</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56805,76 +56805,76 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F633" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G633" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I633">
         <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K633">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L633">
         <v>3.6</v>
       </c>
       <c r="M633">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N633">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O633">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P633">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q633">
         <v>-0.25</v>
       </c>
       <c r="R633">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S633">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T633">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U633">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V633">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W633">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X633">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y633">
         <v>-1</v>
       </c>
       <c r="Z633">
-        <v>-0.5</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA633">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB633">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC633">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -57861,7 +57861,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>5174507</v>
+        <v>5174501</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57873,40 +57873,40 @@
         <v>44951.6875</v>
       </c>
       <c r="F645" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G645" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H645">
         <v>1</v>
       </c>
       <c r="I645">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J645" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K645">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L645">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M645">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N645">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O645">
+        <v>3.4</v>
+      </c>
+      <c r="P645">
         <v>3.1</v>
       </c>
-      <c r="P645">
-        <v>2.6</v>
-      </c>
       <c r="Q645">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R645">
         <v>2.06</v>
@@ -57915,34 +57915,34 @@
         <v>1.84</v>
       </c>
       <c r="T645">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U645">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V645">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W645">
         <v>-1</v>
       </c>
       <c r="X645">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y645">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z645">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA645">
-        <v>0.8400000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="AB645">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC645">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -57950,7 +57950,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5174504</v>
+        <v>5174507</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57962,49 +57962,49 @@
         <v>44951.6875</v>
       </c>
       <c r="F646" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G646" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H646">
         <v>1</v>
       </c>
       <c r="I646">
+        <v>2</v>
+      </c>
+      <c r="J646" t="s">
+        <v>51</v>
+      </c>
+      <c r="K646">
+        <v>2.6</v>
+      </c>
+      <c r="L646">
+        <v>3.25</v>
+      </c>
+      <c r="M646">
+        <v>2.7</v>
+      </c>
+      <c r="N646">
+        <v>2.9</v>
+      </c>
+      <c r="O646">
+        <v>3.1</v>
+      </c>
+      <c r="P646">
+        <v>2.6</v>
+      </c>
+      <c r="Q646">
         <v>0</v>
       </c>
-      <c r="J646" t="s">
-        <v>52</v>
-      </c>
-      <c r="K646">
-        <v>2.9</v>
-      </c>
-      <c r="L646">
-        <v>3.4</v>
-      </c>
-      <c r="M646">
-        <v>2.375</v>
-      </c>
-      <c r="N646">
-        <v>3.1</v>
-      </c>
-      <c r="O646">
-        <v>3.75</v>
-      </c>
-      <c r="P646">
-        <v>2.15</v>
-      </c>
-      <c r="Q646">
-        <v>0.25</v>
-      </c>
       <c r="R646">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S646">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T646">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U646">
         <v>1.98</v>
@@ -58013,25 +58013,25 @@
         <v>1.92</v>
       </c>
       <c r="W646">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X646">
         <v>-1</v>
       </c>
       <c r="Y646">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z646">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA646">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB646">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC646">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="647" spans="1:29">
@@ -58039,7 +58039,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>5174501</v>
+        <v>5174504</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58051,76 +58051,76 @@
         <v>44951.6875</v>
       </c>
       <c r="F647" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G647" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H647">
         <v>1</v>
       </c>
       <c r="I647">
+        <v>0</v>
+      </c>
+      <c r="J647" t="s">
+        <v>52</v>
+      </c>
+      <c r="K647">
+        <v>2.9</v>
+      </c>
+      <c r="L647">
+        <v>3.4</v>
+      </c>
+      <c r="M647">
+        <v>2.375</v>
+      </c>
+      <c r="N647">
+        <v>3.1</v>
+      </c>
+      <c r="O647">
+        <v>3.75</v>
+      </c>
+      <c r="P647">
+        <v>2.15</v>
+      </c>
+      <c r="Q647">
+        <v>0.25</v>
+      </c>
+      <c r="R647">
+        <v>2</v>
+      </c>
+      <c r="S647">
+        <v>1.9</v>
+      </c>
+      <c r="T647">
+        <v>3</v>
+      </c>
+      <c r="U647">
+        <v>1.98</v>
+      </c>
+      <c r="V647">
+        <v>1.92</v>
+      </c>
+      <c r="W647">
+        <v>2.1</v>
+      </c>
+      <c r="X647">
+        <v>-1</v>
+      </c>
+      <c r="Y647">
+        <v>-1</v>
+      </c>
+      <c r="Z647">
         <v>1</v>
       </c>
-      <c r="J647" t="s">
-        <v>53</v>
-      </c>
-      <c r="K647">
-        <v>2.3</v>
-      </c>
-      <c r="L647">
-        <v>3.5</v>
-      </c>
-      <c r="M647">
-        <v>2.875</v>
-      </c>
-      <c r="N647">
-        <v>2.3</v>
-      </c>
-      <c r="O647">
-        <v>3.4</v>
-      </c>
-      <c r="P647">
-        <v>3.1</v>
-      </c>
-      <c r="Q647">
-        <v>-0.25</v>
-      </c>
-      <c r="R647">
-        <v>2.06</v>
-      </c>
-      <c r="S647">
-        <v>1.84</v>
-      </c>
-      <c r="T647">
-        <v>2.5</v>
-      </c>
-      <c r="U647">
-        <v>1.91</v>
-      </c>
-      <c r="V647">
-        <v>1.99</v>
-      </c>
-      <c r="W647">
-        <v>-1</v>
-      </c>
-      <c r="X647">
-        <v>2.4</v>
-      </c>
-      <c r="Y647">
-        <v>-1</v>
-      </c>
-      <c r="Z647">
-        <v>-0.5</v>
-      </c>
       <c r="AA647">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="AB647">
         <v>-1</v>
       </c>
       <c r="AC647">
-        <v>0.99</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58484,7 +58484,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5174516</v>
+        <v>5174511</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58496,13 +58496,13 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F652" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G652" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I652">
         <v>1</v>
@@ -58511,43 +58511,43 @@
         <v>52</v>
       </c>
       <c r="K652">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L652">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M652">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N652">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="O652">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P652">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q652">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R652">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S652">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T652">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U652">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V652">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W652">
-        <v>2.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X652">
         <v>-1</v>
@@ -58556,16 +58556,16 @@
         <v>-1</v>
       </c>
       <c r="Z652">
-        <v>0.8400000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA652">
         <v>-1</v>
       </c>
       <c r="AB652">
-        <v>0.42</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC652">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -58573,7 +58573,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5174511</v>
+        <v>5174514</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58585,76 +58585,76 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F653" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G653" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H653">
+        <v>0</v>
+      </c>
+      <c r="I653">
+        <v>2</v>
+      </c>
+      <c r="J653" t="s">
+        <v>51</v>
+      </c>
+      <c r="K653">
         <v>3</v>
       </c>
-      <c r="I653">
-        <v>1</v>
-      </c>
-      <c r="J653" t="s">
-        <v>52</v>
-      </c>
-      <c r="K653">
-        <v>1.533</v>
-      </c>
       <c r="L653">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M653">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="N653">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="O653">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P653">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q653">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R653">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="S653">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="T653">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U653">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V653">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="W653">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X653">
         <v>-1</v>
       </c>
       <c r="Y653">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z653">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA653">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB653">
-        <v>0.8600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC653">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="654" spans="1:29">
@@ -58662,7 +58662,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5174514</v>
+        <v>5174516</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58674,76 +58674,76 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F654" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G654" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654">
+        <v>1</v>
+      </c>
+      <c r="J654" t="s">
+        <v>52</v>
+      </c>
+      <c r="K654">
+        <v>2.6</v>
+      </c>
+      <c r="L654">
+        <v>3.4</v>
+      </c>
+      <c r="M654">
+        <v>2.6</v>
+      </c>
+      <c r="N654">
+        <v>3.5</v>
+      </c>
+      <c r="O654">
+        <v>3.6</v>
+      </c>
+      <c r="P654">
         <v>2</v>
       </c>
-      <c r="J654" t="s">
-        <v>51</v>
-      </c>
-      <c r="K654">
-        <v>3</v>
-      </c>
-      <c r="L654">
-        <v>3.25</v>
-      </c>
-      <c r="M654">
-        <v>2.375</v>
-      </c>
-      <c r="N654">
-        <v>3.6</v>
-      </c>
-      <c r="O654">
-        <v>3.1</v>
-      </c>
-      <c r="P654">
-        <v>2.2</v>
-      </c>
       <c r="Q654">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R654">
+        <v>1.84</v>
+      </c>
+      <c r="S654">
         <v>2.06</v>
       </c>
-      <c r="S654">
-        <v>1.87</v>
-      </c>
       <c r="T654">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U654">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V654">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="W654">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z654">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA654">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB654">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AC654">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -63112,7 +63112,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>5174568</v>
+        <v>5174563</v>
       </c>
       <c r="C704" t="s">
         <v>28</v>
@@ -63124,76 +63124,76 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F704" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G704" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J704" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K704">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L704">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M704">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N704">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O704">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P704">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q704">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R704">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="S704">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="T704">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U704">
-        <v>2.025</v>
+        <v>2.01</v>
       </c>
       <c r="V704">
-        <v>1.775</v>
+        <v>1.89</v>
       </c>
       <c r="W704">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X704">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y704">
         <v>-1</v>
       </c>
       <c r="Z704">
-        <v>0.4350000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AA704">
+        <v>-1</v>
+      </c>
+      <c r="AB704">
         <v>-0.5</v>
       </c>
-      <c r="AB704">
-        <v>-1</v>
-      </c>
       <c r="AC704">
-        <v>0.7749999999999999</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="705" spans="1:29">
@@ -63290,7 +63290,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>5174563</v>
+        <v>5174568</v>
       </c>
       <c r="C706" t="s">
         <v>28</v>
@@ -63302,76 +63302,76 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F706" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G706" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H706">
+        <v>1</v>
+      </c>
+      <c r="I706">
+        <v>1</v>
+      </c>
+      <c r="J706" t="s">
+        <v>53</v>
+      </c>
+      <c r="K706">
+        <v>2.75</v>
+      </c>
+      <c r="L706">
+        <v>3.4</v>
+      </c>
+      <c r="M706">
+        <v>2.45</v>
+      </c>
+      <c r="N706">
         <v>3</v>
       </c>
-      <c r="I706">
-        <v>0</v>
-      </c>
-      <c r="J706" t="s">
-        <v>52</v>
-      </c>
-      <c r="K706">
-        <v>1.4</v>
-      </c>
-      <c r="L706">
-        <v>5</v>
-      </c>
-      <c r="M706">
-        <v>6.5</v>
-      </c>
-      <c r="N706">
-        <v>1.4</v>
-      </c>
       <c r="O706">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P706">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q706">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R706">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="S706">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="T706">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U706">
-        <v>2.01</v>
+        <v>2.025</v>
       </c>
       <c r="V706">
-        <v>1.89</v>
+        <v>1.775</v>
       </c>
       <c r="W706">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X706">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y706">
         <v>-1</v>
       </c>
       <c r="Z706">
-        <v>1.01</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AA706">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB706">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC706">
-        <v>0.445</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="707" spans="1:29">
@@ -64002,7 +64002,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>5174578</v>
+        <v>5174577</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64014,76 +64014,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F714" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G714" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H714">
         <v>1</v>
       </c>
       <c r="I714">
+        <v>0</v>
+      </c>
+      <c r="J714" t="s">
+        <v>52</v>
+      </c>
+      <c r="K714">
+        <v>6.5</v>
+      </c>
+      <c r="L714">
+        <v>4</v>
+      </c>
+      <c r="M714">
+        <v>1.533</v>
+      </c>
+      <c r="N714">
+        <v>5.75</v>
+      </c>
+      <c r="O714">
+        <v>4.2</v>
+      </c>
+      <c r="P714">
+        <v>1.55</v>
+      </c>
+      <c r="Q714">
         <v>1</v>
       </c>
-      <c r="J714" t="s">
-        <v>53</v>
-      </c>
-      <c r="K714">
-        <v>2.2</v>
-      </c>
-      <c r="L714">
-        <v>3.4</v>
-      </c>
-      <c r="M714">
-        <v>3.2</v>
-      </c>
-      <c r="N714">
-        <v>2.4</v>
-      </c>
-      <c r="O714">
-        <v>3.4</v>
-      </c>
-      <c r="P714">
-        <v>2.9</v>
-      </c>
-      <c r="Q714">
-        <v>-0.25</v>
-      </c>
       <c r="R714">
-        <v>2.125</v>
+        <v>1.93</v>
       </c>
       <c r="S714">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="T714">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U714">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="V714">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="W714">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X714">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y714">
         <v>-1</v>
       </c>
       <c r="Z714">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA714">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
       <c r="AB714">
         <v>-1</v>
       </c>
       <c r="AC714">
-        <v>0.8700000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64091,7 +64091,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>5174575</v>
+        <v>5174578</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64103,76 +64103,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F715" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G715" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H715">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I715">
         <v>1</v>
       </c>
       <c r="J715" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K715">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L715">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M715">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N715">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O715">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P715">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q715">
+        <v>-0.25</v>
+      </c>
+      <c r="R715">
+        <v>2.125</v>
+      </c>
+      <c r="S715">
+        <v>1.81</v>
+      </c>
+      <c r="T715">
+        <v>2.5</v>
+      </c>
+      <c r="U715">
+        <v>2.03</v>
+      </c>
+      <c r="V715">
+        <v>1.87</v>
+      </c>
+      <c r="W715">
+        <v>-1</v>
+      </c>
+      <c r="X715">
+        <v>2.4</v>
+      </c>
+      <c r="Y715">
+        <v>-1</v>
+      </c>
+      <c r="Z715">
         <v>-0.5</v>
       </c>
-      <c r="R715">
-        <v>1.95</v>
-      </c>
-      <c r="S715">
-        <v>1.95</v>
-      </c>
-      <c r="T715">
-        <v>2.75</v>
-      </c>
-      <c r="U715">
-        <v>2.01</v>
-      </c>
-      <c r="V715">
-        <v>1.89</v>
-      </c>
-      <c r="W715">
-        <v>0.909</v>
-      </c>
-      <c r="X715">
-        <v>-1</v>
-      </c>
-      <c r="Y715">
-        <v>-1</v>
-      </c>
-      <c r="Z715">
-        <v>0.95</v>
-      </c>
       <c r="AA715">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
       <c r="AB715">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC715">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="716" spans="1:29">
@@ -64180,7 +64180,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>5174577</v>
+        <v>5174575</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64192,58 +64192,58 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F716" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G716" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H716">
+        <v>3</v>
+      </c>
+      <c r="I716">
         <v>1</v>
-      </c>
-      <c r="I716">
-        <v>0</v>
       </c>
       <c r="J716" t="s">
         <v>52</v>
       </c>
       <c r="K716">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="L716">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M716">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="N716">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="O716">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P716">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q716">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R716">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S716">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T716">
         <v>2.75</v>
       </c>
       <c r="U716">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="V716">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="W716">
-        <v>4.75</v>
+        <v>0.909</v>
       </c>
       <c r="X716">
         <v>-1</v>
@@ -64252,16 +64252,16 @@
         <v>-1</v>
       </c>
       <c r="Z716">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA716">
         <v>-1</v>
       </c>
       <c r="AB716">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC716">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -65426,7 +65426,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>5174596</v>
+        <v>5174591</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65438,55 +65438,55 @@
         <v>45024.4375</v>
       </c>
       <c r="F730" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G730" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H730">
+        <v>0</v>
+      </c>
+      <c r="I730">
         <v>1</v>
-      </c>
-      <c r="I730">
-        <v>3</v>
       </c>
       <c r="J730" t="s">
         <v>51</v>
       </c>
       <c r="K730">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="L730">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M730">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N730">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="O730">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P730">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="Q730">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R730">
+        <v>1.88</v>
+      </c>
+      <c r="S730">
         <v>2.02</v>
       </c>
-      <c r="S730">
-        <v>1.88</v>
-      </c>
       <c r="T730">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U730">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V730">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="W730">
         <v>-1</v>
@@ -65495,19 +65495,19 @@
         <v>-1</v>
       </c>
       <c r="Y730">
-        <v>1.15</v>
+        <v>0.45</v>
       </c>
       <c r="Z730">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA730">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB730">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC730">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -65515,7 +65515,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>5174589</v>
+        <v>5174596</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65527,76 +65527,76 @@
         <v>45024.4375</v>
       </c>
       <c r="F731" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G731" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I731">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J731" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K731">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="L731">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M731">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N731">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="O731">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P731">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q731">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R731">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="S731">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="T731">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U731">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V731">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="W731">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X731">
         <v>-1</v>
       </c>
       <c r="Y731">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z731">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA731">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB731">
-        <v>0.475</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC731">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -65693,7 +65693,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5174592</v>
+        <v>5174589</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65705,76 +65705,76 @@
         <v>45024.4375</v>
       </c>
       <c r="F733" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G733" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H733">
         <v>2</v>
       </c>
       <c r="I733">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J733" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K733">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L733">
         <v>3.8</v>
       </c>
       <c r="M733">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N733">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O733">
         <v>4</v>
       </c>
       <c r="P733">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q733">
         <v>-0.75</v>
       </c>
       <c r="R733">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="S733">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="T733">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U733">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V733">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W733">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X733">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y733">
         <v>-1</v>
       </c>
       <c r="Z733">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="AA733">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB733">
-        <v>0.8600000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC733">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="734" spans="1:29">
@@ -65782,7 +65782,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5174591</v>
+        <v>5174592</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65794,76 +65794,76 @@
         <v>45024.4375</v>
       </c>
       <c r="F734" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G734" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J734" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K734">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="L734">
+        <v>3.8</v>
+      </c>
+      <c r="M734">
+        <v>4</v>
+      </c>
+      <c r="N734">
+        <v>1.7</v>
+      </c>
+      <c r="O734">
+        <v>4</v>
+      </c>
+      <c r="P734">
         <v>4.75</v>
       </c>
-      <c r="M734">
-        <v>1.5</v>
-      </c>
-      <c r="N734">
-        <v>6.5</v>
-      </c>
-      <c r="O734">
-        <v>5</v>
-      </c>
-      <c r="P734">
-        <v>1.45</v>
-      </c>
       <c r="Q734">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R734">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S734">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T734">
+        <v>2.5</v>
+      </c>
+      <c r="U734">
+        <v>1.86</v>
+      </c>
+      <c r="V734">
+        <v>2.04</v>
+      </c>
+      <c r="W734">
+        <v>-1</v>
+      </c>
+      <c r="X734">
         <v>3</v>
       </c>
-      <c r="U734">
-        <v>1.9</v>
-      </c>
-      <c r="V734">
-        <v>2</v>
-      </c>
-      <c r="W734">
-        <v>-1</v>
-      </c>
-      <c r="X734">
-        <v>-1</v>
-      </c>
       <c r="Y734">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z734">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA734">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB734">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC734">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="735" spans="1:29">
@@ -68897,7 +68897,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>5424754</v>
+        <v>5424751</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68909,76 +68909,76 @@
         <v>45052.4375</v>
       </c>
       <c r="F769" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G769" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H769">
+        <v>0</v>
+      </c>
+      <c r="I769">
         <v>1</v>
       </c>
-      <c r="I769">
-        <v>0</v>
-      </c>
       <c r="J769" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K769">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L769">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M769">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N769">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O769">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P769">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q769">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R769">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S769">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T769">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U769">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V769">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W769">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X769">
         <v>-1</v>
       </c>
       <c r="Y769">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z769">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA769">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB769">
         <v>-1</v>
       </c>
       <c r="AC769">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -68986,7 +68986,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>5424751</v>
+        <v>5424753</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -68998,76 +68998,76 @@
         <v>45052.4375</v>
       </c>
       <c r="F770" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G770" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770">
         <v>0</v>
       </c>
-      <c r="I770">
-        <v>1</v>
-      </c>
       <c r="J770" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K770">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L770">
+        <v>4</v>
+      </c>
+      <c r="M770">
+        <v>4.333</v>
+      </c>
+      <c r="N770">
+        <v>2.05</v>
+      </c>
+      <c r="O770">
+        <v>3.75</v>
+      </c>
+      <c r="P770">
         <v>3.4</v>
       </c>
-      <c r="M770">
-        <v>2</v>
-      </c>
-      <c r="N770">
-        <v>4</v>
-      </c>
-      <c r="O770">
-        <v>3.8</v>
-      </c>
-      <c r="P770">
-        <v>1.85</v>
-      </c>
       <c r="Q770">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R770">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S770">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T770">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U770">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V770">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="W770">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X770">
         <v>-1</v>
       </c>
       <c r="Y770">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z770">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA770">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB770">
         <v>-1</v>
       </c>
       <c r="AC770">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -69075,7 +69075,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>5424753</v>
+        <v>5424754</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69087,13 +69087,13 @@
         <v>45052.4375</v>
       </c>
       <c r="F771" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G771" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771">
         <v>0</v>
@@ -69102,43 +69102,43 @@
         <v>52</v>
       </c>
       <c r="K771">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="L771">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M771">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N771">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O771">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P771">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q771">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R771">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="S771">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="T771">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U771">
+        <v>1.97</v>
+      </c>
+      <c r="V771">
         <v>1.93</v>
       </c>
-      <c r="V771">
-        <v>1.97</v>
-      </c>
       <c r="W771">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="X771">
         <v>-1</v>
@@ -69147,7 +69147,7 @@
         <v>-1</v>
       </c>
       <c r="Z771">
-        <v>1.07</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA771">
         <v>-1</v>
@@ -69156,7 +69156,7 @@
         <v>-1</v>
       </c>
       <c r="AC771">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="772" spans="1:29">
@@ -87077,19 +87077,19 @@
         <v>1.5</v>
       </c>
       <c r="R973">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S973">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T973">
         <v>3.25</v>
       </c>
       <c r="U973">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V973">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87112,7 +87112,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6847702</v>
+        <v>6847699</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87124,46 +87124,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F974" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G974" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K974">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L974">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M974">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N974">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O974">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P974">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q974">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R974">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S974">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="T974">
         <v>2.75</v>
       </c>
       <c r="U974">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="V974">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W974">
         <v>0</v>
@@ -87225,10 +87225,10 @@
         <v>-0.25</v>
       </c>
       <c r="R975">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S975">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T975">
         <v>2.5</v>
@@ -87260,7 +87260,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>6847699</v>
+        <v>6847697</v>
       </c>
       <c r="C976" t="s">
         <v>28</v>
@@ -87272,46 +87272,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F976" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G976" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K976">
-        <v>2.9</v>
+        <v>1.111</v>
       </c>
       <c r="L976">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M976">
-        <v>2.25</v>
+        <v>19</v>
       </c>
       <c r="N976">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="O976">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P976">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="Q976">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R976">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S976">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T976">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U976">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V976">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="W976">
         <v>0</v>
@@ -87334,7 +87334,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>6847697</v>
+        <v>6847702</v>
       </c>
       <c r="C977" t="s">
         <v>28</v>
@@ -87346,46 +87346,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F977" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G977" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K977">
-        <v>1.111</v>
+        <v>2.1</v>
       </c>
       <c r="L977">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="M977">
-        <v>19</v>
+        <v>3.5</v>
       </c>
       <c r="N977">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="O977">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P977">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="Q977">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R977">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="S977">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="T977">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U977">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V977">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87435,31 +87435,31 @@
         <v>2.5</v>
       </c>
       <c r="N978">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O978">
         <v>3.5</v>
       </c>
       <c r="P978">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q978">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R978">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="S978">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="T978">
         <v>2.5</v>
       </c>
       <c r="U978">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="V978">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="W978">
         <v>0</v>
@@ -87509,31 +87509,31 @@
         <v>3.25</v>
       </c>
       <c r="N979">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O979">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P979">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q979">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R979">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="S979">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="T979">
         <v>3</v>
       </c>
       <c r="U979">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V979">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W979">
         <v>0</v>
@@ -87604,10 +87604,10 @@
         <v>3</v>
       </c>
       <c r="U980">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V980">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W980">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -47181,7 +47181,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>5174387</v>
+        <v>5174388</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47193,76 +47193,76 @@
         <v>44800.4375</v>
       </c>
       <c r="F525" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G525" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H525">
+        <v>0</v>
+      </c>
+      <c r="I525">
         <v>1</v>
       </c>
-      <c r="I525">
-        <v>0</v>
-      </c>
       <c r="J525" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K525">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L525">
+        <v>4.333</v>
+      </c>
+      <c r="M525">
+        <v>1.615</v>
+      </c>
+      <c r="N525">
         <v>4.2</v>
       </c>
-      <c r="M525">
+      <c r="O525">
         <v>4.333</v>
       </c>
-      <c r="N525">
-        <v>1.4</v>
-      </c>
-      <c r="O525">
-        <v>5</v>
-      </c>
       <c r="P525">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="Q525">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R525">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="S525">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="T525">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U525">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="V525">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="W525">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X525">
         <v>-1</v>
       </c>
       <c r="Y525">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z525">
         <v>-0.5</v>
       </c>
       <c r="AA525">
-        <v>0.53</v>
+        <v>0.465</v>
       </c>
       <c r="AB525">
         <v>-1</v>
       </c>
       <c r="AC525">
-        <v>0.8500000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47270,7 +47270,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>5174388</v>
+        <v>5174387</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47282,76 +47282,76 @@
         <v>44800.4375</v>
       </c>
       <c r="F526" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G526" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H526">
+        <v>1</v>
+      </c>
+      <c r="I526">
         <v>0</v>
       </c>
-      <c r="I526">
-        <v>1</v>
-      </c>
       <c r="J526" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K526">
+        <v>1.7</v>
+      </c>
+      <c r="L526">
         <v>4.2</v>
       </c>
-      <c r="L526">
+      <c r="M526">
         <v>4.333</v>
       </c>
-      <c r="M526">
-        <v>1.615</v>
-      </c>
       <c r="N526">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="O526">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P526">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="Q526">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R526">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="S526">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="T526">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U526">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="V526">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="W526">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X526">
         <v>-1</v>
       </c>
       <c r="Y526">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z526">
         <v>-0.5</v>
       </c>
       <c r="AA526">
-        <v>0.465</v>
+        <v>0.53</v>
       </c>
       <c r="AB526">
         <v>-1</v>
       </c>
       <c r="AC526">
-        <v>0.9199999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -51097,7 +51097,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>5174429</v>
+        <v>5174432</v>
       </c>
       <c r="C569" t="s">
         <v>28</v>
@@ -51109,76 +51109,76 @@
         <v>44842.4375</v>
       </c>
       <c r="F569" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G569" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J569" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K569">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L569">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M569">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N569">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O569">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P569">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q569">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R569">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S569">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T569">
         <v>2.75</v>
       </c>
       <c r="U569">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="V569">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W569">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X569">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y569">
         <v>-1</v>
       </c>
       <c r="Z569">
-        <v>0.485</v>
+        <v>0.95</v>
       </c>
       <c r="AA569">
+        <v>-1</v>
+      </c>
+      <c r="AB569">
+        <v>0.5049999999999999</v>
+      </c>
+      <c r="AC569">
         <v>-0.5</v>
-      </c>
-      <c r="AB569">
-        <v>-1</v>
-      </c>
-      <c r="AC569">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="570" spans="1:29">
@@ -51275,7 +51275,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5174432</v>
+        <v>5174429</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51287,76 +51287,76 @@
         <v>44842.4375</v>
       </c>
       <c r="F571" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G571" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H571">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K571">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L571">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M571">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="N571">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O571">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P571">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="Q571">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R571">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S571">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T571">
         <v>2.75</v>
       </c>
       <c r="U571">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V571">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W571">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X571">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>0.95</v>
+        <v>0.485</v>
       </c>
       <c r="AA571">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB571">
-        <v>0.5049999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC571">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -54390,7 +54390,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5174467</v>
+        <v>5174470</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54402,13 +54402,13 @@
         <v>44870.47916666666</v>
       </c>
       <c r="F606" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G606" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I606">
         <v>3</v>
@@ -54417,41 +54417,41 @@
         <v>51</v>
       </c>
       <c r="K606">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="L606">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M606">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="N606">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="O606">
+        <v>6.5</v>
+      </c>
+      <c r="P606">
+        <v>1.25</v>
+      </c>
+      <c r="Q606">
+        <v>1.75</v>
+      </c>
+      <c r="R606">
+        <v>2.02</v>
+      </c>
+      <c r="S606">
+        <v>1.88</v>
+      </c>
+      <c r="T606">
         <v>3.75</v>
       </c>
-      <c r="P606">
-        <v>2.45</v>
-      </c>
-      <c r="Q606">
-        <v>0</v>
-      </c>
-      <c r="R606">
+      <c r="U606">
+        <v>1.93</v>
+      </c>
+      <c r="V606">
         <v>1.97</v>
       </c>
-      <c r="S606">
-        <v>1.93</v>
-      </c>
-      <c r="T606">
-        <v>3</v>
-      </c>
-      <c r="U606">
-        <v>2.04</v>
-      </c>
-      <c r="V606">
-        <v>1.86</v>
-      </c>
       <c r="W606">
         <v>-1</v>
       </c>
@@ -54459,16 +54459,16 @@
         <v>-1</v>
       </c>
       <c r="Y606">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="Z606">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA606">
+        <v>-1</v>
+      </c>
+      <c r="AB606">
         <v>0.9299999999999999</v>
-      </c>
-      <c r="AB606">
-        <v>1.04</v>
       </c>
       <c r="AC606">
         <v>-1</v>
@@ -54657,7 +54657,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>5174470</v>
+        <v>5174467</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54669,13 +54669,13 @@
         <v>44870.47916666666</v>
       </c>
       <c r="F609" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G609" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609">
         <v>3</v>
@@ -54684,40 +54684,40 @@
         <v>51</v>
       </c>
       <c r="K609">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="L609">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M609">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="N609">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="O609">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P609">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q609">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R609">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S609">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T609">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U609">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="V609">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="W609">
         <v>-1</v>
@@ -54726,16 +54726,16 @@
         <v>-1</v>
       </c>
       <c r="Y609">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z609">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA609">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB609">
-        <v>0.9299999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AC609">
         <v>-1</v>
@@ -56704,7 +56704,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5174498</v>
+        <v>5174492</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56716,76 +56716,76 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F632" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G632" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I632">
         <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K632">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L632">
         <v>3.6</v>
       </c>
       <c r="M632">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N632">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O632">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P632">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q632">
         <v>-0.25</v>
       </c>
       <c r="R632">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S632">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T632">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U632">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V632">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W632">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X632">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y632">
         <v>-1</v>
       </c>
       <c r="Z632">
-        <v>-0.5</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA632">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB632">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC632">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56793,7 +56793,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5174492</v>
+        <v>5174498</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56805,76 +56805,76 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F633" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G633" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H633">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I633">
         <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K633">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L633">
         <v>3.6</v>
       </c>
       <c r="M633">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N633">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O633">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P633">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q633">
         <v>-0.25</v>
       </c>
       <c r="R633">
+        <v>1.97</v>
+      </c>
+      <c r="S633">
+        <v>1.93</v>
+      </c>
+      <c r="T633">
+        <v>2.5</v>
+      </c>
+      <c r="U633">
+        <v>1.99</v>
+      </c>
+      <c r="V633">
         <v>1.91</v>
       </c>
-      <c r="S633">
-        <v>1.99</v>
-      </c>
-      <c r="T633">
-        <v>2.25</v>
-      </c>
-      <c r="U633">
-        <v>2.02</v>
-      </c>
-      <c r="V633">
-        <v>1.88</v>
-      </c>
       <c r="W633">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X633">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y633">
         <v>-1</v>
       </c>
       <c r="Z633">
+        <v>-0.5</v>
+      </c>
+      <c r="AA633">
+        <v>0.465</v>
+      </c>
+      <c r="AB633">
+        <v>-1</v>
+      </c>
+      <c r="AC633">
         <v>0.9099999999999999</v>
-      </c>
-      <c r="AA633">
-        <v>-1</v>
-      </c>
-      <c r="AB633">
-        <v>1.02</v>
-      </c>
-      <c r="AC633">
-        <v>-1</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -57861,7 +57861,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>5174501</v>
+        <v>5174507</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57873,40 +57873,40 @@
         <v>44951.6875</v>
       </c>
       <c r="F645" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G645" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H645">
         <v>1</v>
       </c>
       <c r="I645">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J645" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K645">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L645">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M645">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N645">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O645">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P645">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q645">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R645">
         <v>2.06</v>
@@ -57915,34 +57915,34 @@
         <v>1.84</v>
       </c>
       <c r="T645">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U645">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V645">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W645">
         <v>-1</v>
       </c>
       <c r="X645">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y645">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z645">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA645">
-        <v>0.42</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB645">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC645">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -57950,7 +57950,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5174507</v>
+        <v>5174504</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57962,49 +57962,49 @@
         <v>44951.6875</v>
       </c>
       <c r="F646" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G646" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H646">
         <v>1</v>
       </c>
       <c r="I646">
+        <v>0</v>
+      </c>
+      <c r="J646" t="s">
+        <v>52</v>
+      </c>
+      <c r="K646">
+        <v>2.9</v>
+      </c>
+      <c r="L646">
+        <v>3.4</v>
+      </c>
+      <c r="M646">
+        <v>2.375</v>
+      </c>
+      <c r="N646">
+        <v>3.1</v>
+      </c>
+      <c r="O646">
+        <v>3.75</v>
+      </c>
+      <c r="P646">
+        <v>2.15</v>
+      </c>
+      <c r="Q646">
+        <v>0.25</v>
+      </c>
+      <c r="R646">
         <v>2</v>
       </c>
-      <c r="J646" t="s">
-        <v>51</v>
-      </c>
-      <c r="K646">
-        <v>2.6</v>
-      </c>
-      <c r="L646">
-        <v>3.25</v>
-      </c>
-      <c r="M646">
-        <v>2.7</v>
-      </c>
-      <c r="N646">
-        <v>2.9</v>
-      </c>
-      <c r="O646">
-        <v>3.1</v>
-      </c>
-      <c r="P646">
-        <v>2.6</v>
-      </c>
-      <c r="Q646">
-        <v>0</v>
-      </c>
-      <c r="R646">
-        <v>2.06</v>
-      </c>
       <c r="S646">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T646">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U646">
         <v>1.98</v>
@@ -58013,25 +58013,25 @@
         <v>1.92</v>
       </c>
       <c r="W646">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X646">
         <v>-1</v>
       </c>
       <c r="Y646">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z646">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA646">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB646">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC646">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="647" spans="1:29">
@@ -58039,7 +58039,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>5174504</v>
+        <v>5174501</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58051,76 +58051,76 @@
         <v>44951.6875</v>
       </c>
       <c r="F647" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G647" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H647">
         <v>1</v>
       </c>
       <c r="I647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K647">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L647">
+        <v>3.5</v>
+      </c>
+      <c r="M647">
+        <v>2.875</v>
+      </c>
+      <c r="N647">
+        <v>2.3</v>
+      </c>
+      <c r="O647">
         <v>3.4</v>
       </c>
-      <c r="M647">
-        <v>2.375</v>
-      </c>
-      <c r="N647">
+      <c r="P647">
         <v>3.1</v>
       </c>
-      <c r="O647">
-        <v>3.75</v>
-      </c>
-      <c r="P647">
-        <v>2.15</v>
-      </c>
       <c r="Q647">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R647">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S647">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T647">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U647">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V647">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W647">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X647">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y647">
         <v>-1</v>
       </c>
       <c r="Z647">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA647">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AB647">
         <v>-1</v>
       </c>
       <c r="AC647">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58484,7 +58484,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5174511</v>
+        <v>5174516</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58496,13 +58496,13 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F652" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G652" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H652">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I652">
         <v>1</v>
@@ -58511,44 +58511,44 @@
         <v>52</v>
       </c>
       <c r="K652">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="L652">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M652">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N652">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="O652">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P652">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q652">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R652">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S652">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T652">
+        <v>2.75</v>
+      </c>
+      <c r="U652">
+        <v>1.84</v>
+      </c>
+      <c r="V652">
+        <v>2.06</v>
+      </c>
+      <c r="W652">
         <v>2.5</v>
       </c>
-      <c r="U652">
-        <v>1.86</v>
-      </c>
-      <c r="V652">
-        <v>2.04</v>
-      </c>
-      <c r="W652">
-        <v>0.6499999999999999</v>
-      </c>
       <c r="X652">
         <v>-1</v>
       </c>
@@ -58556,16 +58556,16 @@
         <v>-1</v>
       </c>
       <c r="Z652">
-        <v>0.8500000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA652">
         <v>-1</v>
       </c>
       <c r="AB652">
-        <v>0.8600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="AC652">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -58573,7 +58573,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5174514</v>
+        <v>5174511</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58585,76 +58585,76 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F653" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G653" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I653">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J653" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K653">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="L653">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M653">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="N653">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="O653">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P653">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q653">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R653">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="S653">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T653">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U653">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V653">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="W653">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X653">
         <v>-1</v>
       </c>
       <c r="Y653">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z653">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA653">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB653">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC653">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="654" spans="1:29">
@@ -58662,7 +58662,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5174516</v>
+        <v>5174514</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58674,76 +58674,76 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F654" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G654" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H654">
+        <v>0</v>
+      </c>
+      <c r="I654">
         <v>2</v>
       </c>
-      <c r="I654">
-        <v>1</v>
-      </c>
       <c r="J654" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K654">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L654">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M654">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N654">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O654">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P654">
+        <v>2.2</v>
+      </c>
+      <c r="Q654">
+        <v>0.25</v>
+      </c>
+      <c r="R654">
+        <v>2.06</v>
+      </c>
+      <c r="S654">
+        <v>1.87</v>
+      </c>
+      <c r="T654">
         <v>2</v>
       </c>
-      <c r="Q654">
-        <v>0.5</v>
-      </c>
-      <c r="R654">
-        <v>1.84</v>
-      </c>
-      <c r="S654">
-        <v>2.06</v>
-      </c>
-      <c r="T654">
-        <v>2.75</v>
-      </c>
       <c r="U654">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V654">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="W654">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z654">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA654">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB654">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AC654">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -64002,7 +64002,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>5174577</v>
+        <v>5174578</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64014,76 +64014,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F714" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G714" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H714">
         <v>1</v>
       </c>
       <c r="I714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J714" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K714">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L714">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M714">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="N714">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="O714">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P714">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q714">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R714">
-        <v>1.93</v>
+        <v>2.125</v>
       </c>
       <c r="S714">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="T714">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U714">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="V714">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W714">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X714">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y714">
         <v>-1</v>
       </c>
       <c r="Z714">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA714">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
       <c r="AB714">
         <v>-1</v>
       </c>
       <c r="AC714">
-        <v>0.9299999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64091,7 +64091,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>5174578</v>
+        <v>5174575</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64103,76 +64103,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F715" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G715" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I715">
         <v>1</v>
       </c>
       <c r="J715" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K715">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L715">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M715">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N715">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O715">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P715">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q715">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R715">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S715">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T715">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U715">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V715">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W715">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X715">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y715">
         <v>-1</v>
       </c>
       <c r="Z715">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA715">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
       <c r="AB715">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC715">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="716" spans="1:29">
@@ -64180,7 +64180,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>5174575</v>
+        <v>5174577</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64192,58 +64192,58 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F716" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G716" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H716">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I716">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J716" t="s">
         <v>52</v>
       </c>
       <c r="K716">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="L716">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M716">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="N716">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="O716">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P716">
-        <v>3.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q716">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R716">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S716">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T716">
         <v>2.75</v>
       </c>
       <c r="U716">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="V716">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="W716">
-        <v>0.909</v>
+        <v>4.75</v>
       </c>
       <c r="X716">
         <v>-1</v>
@@ -64252,16 +64252,16 @@
         <v>-1</v>
       </c>
       <c r="Z716">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA716">
         <v>-1</v>
       </c>
       <c r="AB716">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC716">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -65426,7 +65426,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>5174591</v>
+        <v>5174596</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65438,55 +65438,55 @@
         <v>45024.4375</v>
       </c>
       <c r="F730" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G730" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I730">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J730" t="s">
         <v>51</v>
       </c>
       <c r="K730">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="L730">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M730">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="N730">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O730">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P730">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q730">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R730">
+        <v>2.02</v>
+      </c>
+      <c r="S730">
         <v>1.88</v>
       </c>
-      <c r="S730">
-        <v>2.02</v>
-      </c>
       <c r="T730">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U730">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V730">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W730">
         <v>-1</v>
@@ -65495,19 +65495,19 @@
         <v>-1</v>
       </c>
       <c r="Y730">
-        <v>0.45</v>
+        <v>1.15</v>
       </c>
       <c r="Z730">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA730">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB730">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC730">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -65515,7 +65515,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>5174596</v>
+        <v>5174589</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65527,76 +65527,76 @@
         <v>45024.4375</v>
       </c>
       <c r="F731" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G731" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H731">
+        <v>2</v>
+      </c>
+      <c r="I731">
         <v>1</v>
       </c>
-      <c r="I731">
-        <v>3</v>
-      </c>
       <c r="J731" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K731">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="L731">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M731">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N731">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="O731">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P731">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q731">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R731">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="S731">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="T731">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U731">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V731">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W731">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X731">
         <v>-1</v>
       </c>
       <c r="Y731">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z731">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="AA731">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB731">
-        <v>0.8899999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC731">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -65693,7 +65693,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5174589</v>
+        <v>5174592</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65705,76 +65705,76 @@
         <v>45024.4375</v>
       </c>
       <c r="F733" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G733" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H733">
         <v>2</v>
       </c>
       <c r="I733">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J733" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K733">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L733">
         <v>3.8</v>
       </c>
       <c r="M733">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N733">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O733">
         <v>4</v>
       </c>
       <c r="P733">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q733">
         <v>-0.75</v>
       </c>
       <c r="R733">
+        <v>1.93</v>
+      </c>
+      <c r="S733">
+        <v>1.97</v>
+      </c>
+      <c r="T733">
+        <v>2.5</v>
+      </c>
+      <c r="U733">
         <v>1.86</v>
       </c>
-      <c r="S733">
+      <c r="V733">
         <v>2.04</v>
       </c>
-      <c r="T733">
-        <v>2.75</v>
-      </c>
-      <c r="U733">
-        <v>1.95</v>
-      </c>
-      <c r="V733">
-        <v>1.95</v>
-      </c>
       <c r="W733">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X733">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y733">
         <v>-1</v>
       </c>
       <c r="Z733">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA733">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB733">
-        <v>0.475</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC733">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="734" spans="1:29">
@@ -65782,7 +65782,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5174592</v>
+        <v>5174591</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65794,76 +65794,76 @@
         <v>45024.4375</v>
       </c>
       <c r="F734" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G734" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H734">
+        <v>0</v>
+      </c>
+      <c r="I734">
+        <v>1</v>
+      </c>
+      <c r="J734" t="s">
+        <v>51</v>
+      </c>
+      <c r="K734">
+        <v>5.75</v>
+      </c>
+      <c r="L734">
+        <v>4.75</v>
+      </c>
+      <c r="M734">
+        <v>1.5</v>
+      </c>
+      <c r="N734">
+        <v>6.5</v>
+      </c>
+      <c r="O734">
+        <v>5</v>
+      </c>
+      <c r="P734">
+        <v>1.45</v>
+      </c>
+      <c r="Q734">
+        <v>1.25</v>
+      </c>
+      <c r="R734">
+        <v>1.88</v>
+      </c>
+      <c r="S734">
+        <v>2.02</v>
+      </c>
+      <c r="T734">
+        <v>3</v>
+      </c>
+      <c r="U734">
+        <v>1.9</v>
+      </c>
+      <c r="V734">
         <v>2</v>
       </c>
-      <c r="I734">
-        <v>2</v>
-      </c>
-      <c r="J734" t="s">
-        <v>53</v>
-      </c>
-      <c r="K734">
-        <v>1.8</v>
-      </c>
-      <c r="L734">
-        <v>3.8</v>
-      </c>
-      <c r="M734">
-        <v>4</v>
-      </c>
-      <c r="N734">
-        <v>1.7</v>
-      </c>
-      <c r="O734">
-        <v>4</v>
-      </c>
-      <c r="P734">
-        <v>4.75</v>
-      </c>
-      <c r="Q734">
-        <v>-0.75</v>
-      </c>
-      <c r="R734">
-        <v>1.93</v>
-      </c>
-      <c r="S734">
-        <v>1.97</v>
-      </c>
-      <c r="T734">
-        <v>2.5</v>
-      </c>
-      <c r="U734">
-        <v>1.86</v>
-      </c>
-      <c r="V734">
-        <v>2.04</v>
-      </c>
       <c r="W734">
         <v>-1</v>
       </c>
       <c r="X734">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y734">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z734">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA734">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB734">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC734">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:29">
@@ -68897,7 +68897,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>5424751</v>
+        <v>5424754</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68909,76 +68909,76 @@
         <v>45052.4375</v>
       </c>
       <c r="F769" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G769" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H769">
+        <v>1</v>
+      </c>
+      <c r="I769">
         <v>0</v>
       </c>
-      <c r="I769">
-        <v>1</v>
-      </c>
       <c r="J769" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K769">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L769">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M769">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N769">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O769">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P769">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q769">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R769">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S769">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="T769">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U769">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V769">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W769">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X769">
         <v>-1</v>
       </c>
       <c r="Y769">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z769">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA769">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB769">
         <v>-1</v>
       </c>
       <c r="AC769">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -68986,7 +68986,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>5424753</v>
+        <v>5424751</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -68998,76 +68998,76 @@
         <v>45052.4375</v>
       </c>
       <c r="F770" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G770" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H770">
+        <v>0</v>
+      </c>
+      <c r="I770">
+        <v>1</v>
+      </c>
+      <c r="J770" t="s">
+        <v>51</v>
+      </c>
+      <c r="K770">
+        <v>3.5</v>
+      </c>
+      <c r="L770">
+        <v>3.4</v>
+      </c>
+      <c r="M770">
         <v>2</v>
       </c>
-      <c r="I770">
-        <v>0</v>
-      </c>
-      <c r="J770" t="s">
-        <v>52</v>
-      </c>
-      <c r="K770">
-        <v>1.727</v>
-      </c>
-      <c r="L770">
+      <c r="N770">
         <v>4</v>
       </c>
-      <c r="M770">
-        <v>4.333</v>
-      </c>
-      <c r="N770">
-        <v>2.05</v>
-      </c>
       <c r="O770">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P770">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q770">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R770">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S770">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T770">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U770">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V770">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W770">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X770">
         <v>-1</v>
       </c>
       <c r="Y770">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z770">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA770">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB770">
         <v>-1</v>
       </c>
       <c r="AC770">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -69075,7 +69075,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>5424754</v>
+        <v>5424753</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69087,13 +69087,13 @@
         <v>45052.4375</v>
       </c>
       <c r="F771" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G771" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I771">
         <v>0</v>
@@ -69102,43 +69102,43 @@
         <v>52</v>
       </c>
       <c r="K771">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="L771">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M771">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N771">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O771">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P771">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q771">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R771">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="S771">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="T771">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U771">
+        <v>1.93</v>
+      </c>
+      <c r="V771">
         <v>1.97</v>
       </c>
-      <c r="V771">
-        <v>1.93</v>
-      </c>
       <c r="W771">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="X771">
         <v>-1</v>
@@ -69147,7 +69147,7 @@
         <v>-1</v>
       </c>
       <c r="Z771">
-        <v>0.8400000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AA771">
         <v>-1</v>
@@ -69156,7 +69156,7 @@
         <v>-1</v>
       </c>
       <c r="AC771">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="772" spans="1:29">
@@ -83048,7 +83048,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>6847662</v>
+        <v>6847663</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83060,76 +83060,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F928" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G928" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H928">
+        <v>1</v>
+      </c>
+      <c r="I928">
+        <v>1</v>
+      </c>
+      <c r="J928" t="s">
+        <v>53</v>
+      </c>
+      <c r="K928">
+        <v>3.8</v>
+      </c>
+      <c r="L928">
+        <v>4.333</v>
+      </c>
+      <c r="M928">
+        <v>1.75</v>
+      </c>
+      <c r="N928">
         <v>3</v>
       </c>
-      <c r="I928">
-        <v>0</v>
-      </c>
-      <c r="J928" t="s">
-        <v>52</v>
-      </c>
-      <c r="K928">
-        <v>2.35</v>
-      </c>
-      <c r="L928">
-        <v>3.3</v>
-      </c>
-      <c r="M928">
+      <c r="O928">
+        <v>4</v>
+      </c>
+      <c r="P928">
+        <v>2.1</v>
+      </c>
+      <c r="Q928">
+        <v>0.25</v>
+      </c>
+      <c r="R928">
+        <v>1.99</v>
+      </c>
+      <c r="S928">
+        <v>1.91</v>
+      </c>
+      <c r="T928">
+        <v>3.25</v>
+      </c>
+      <c r="U928">
+        <v>2.02</v>
+      </c>
+      <c r="V928">
+        <v>1.88</v>
+      </c>
+      <c r="W928">
+        <v>-1</v>
+      </c>
+      <c r="X928">
         <v>3</v>
       </c>
-      <c r="N928">
-        <v>2.55</v>
-      </c>
-      <c r="O928">
-        <v>3.4</v>
-      </c>
-      <c r="P928">
-        <v>2.7</v>
-      </c>
-      <c r="Q928">
-        <v>0</v>
-      </c>
-      <c r="R928">
-        <v>1.88</v>
-      </c>
-      <c r="S928">
-        <v>2.02</v>
-      </c>
-      <c r="T928">
-        <v>2.5</v>
-      </c>
-      <c r="U928">
-        <v>2.07</v>
-      </c>
-      <c r="V928">
-        <v>1.83</v>
-      </c>
-      <c r="W928">
-        <v>1.55</v>
-      </c>
-      <c r="X928">
-        <v>-1</v>
-      </c>
       <c r="Y928">
         <v>-1</v>
       </c>
       <c r="Z928">
+        <v>0.495</v>
+      </c>
+      <c r="AA928">
+        <v>-0.5</v>
+      </c>
+      <c r="AB928">
+        <v>-1</v>
+      </c>
+      <c r="AC928">
         <v>0.8799999999999999</v>
-      </c>
-      <c r="AA928">
-        <v>-1</v>
-      </c>
-      <c r="AB928">
-        <v>1.07</v>
-      </c>
-      <c r="AC928">
-        <v>-1</v>
       </c>
     </row>
     <row r="929" spans="1:29">
@@ -83137,7 +83137,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>6847660</v>
+        <v>6847662</v>
       </c>
       <c r="C929" t="s">
         <v>28</v>
@@ -83149,76 +83149,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F929" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G929" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H929">
+        <v>3</v>
+      </c>
+      <c r="I929">
         <v>0</v>
       </c>
-      <c r="I929">
-        <v>1</v>
-      </c>
       <c r="J929" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K929">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="L929">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M929">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N929">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O929">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P929">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q929">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R929">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S929">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T929">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U929">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V929">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W929">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X929">
         <v>-1</v>
       </c>
       <c r="Y929">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z929">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA929">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB929">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC929">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="930" spans="1:29">
@@ -83315,7 +83315,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>6847663</v>
+        <v>6847660</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83327,76 +83327,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F931" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G931" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I931">
         <v>1</v>
       </c>
       <c r="J931" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K931">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L931">
+        <v>4</v>
+      </c>
+      <c r="M931">
         <v>4.333</v>
       </c>
-      <c r="M931">
-        <v>1.75</v>
-      </c>
       <c r="N931">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O931">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P931">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q931">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R931">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S931">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T931">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U931">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V931">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W931">
         <v>-1</v>
       </c>
       <c r="X931">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y931">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z931">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
       <c r="AA931">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB931">
         <v>-1</v>
       </c>
       <c r="AC931">
-        <v>0.8799999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="932" spans="1:29">
@@ -84116,7 +84116,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>6846945</v>
+        <v>6847668</v>
       </c>
       <c r="C940" t="s">
         <v>28</v>
@@ -84128,76 +84128,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F940" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G940" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H940">
+        <v>1</v>
+      </c>
+      <c r="I940">
         <v>2</v>
       </c>
-      <c r="I940">
-        <v>1</v>
-      </c>
       <c r="J940" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K940">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L940">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M940">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N940">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="O940">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P940">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="Q940">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R940">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S940">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T940">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U940">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V940">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W940">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X940">
         <v>-1</v>
       </c>
       <c r="Y940">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z940">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="AA940">
         <v>-0.5</v>
       </c>
       <c r="AB940">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC940">
-        <v>-0</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="941" spans="1:29">
@@ -84205,7 +84205,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>6847667</v>
+        <v>6847671</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84217,13 +84217,13 @@
         <v>45280.6875</v>
       </c>
       <c r="F941" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G941" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H941">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I941">
         <v>0</v>
@@ -84232,43 +84232,43 @@
         <v>52</v>
       </c>
       <c r="K941">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L941">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M941">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="N941">
-        <v>1.222</v>
+        <v>1.363</v>
       </c>
       <c r="O941">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="P941">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Q941">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R941">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S941">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T941">
         <v>3.25</v>
       </c>
       <c r="U941">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V941">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W941">
-        <v>0.222</v>
+        <v>0.363</v>
       </c>
       <c r="X941">
         <v>-1</v>
@@ -84277,16 +84277,16 @@
         <v>-1</v>
       </c>
       <c r="Z941">
-        <v>0.8500000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AA941">
         <v>-1</v>
       </c>
       <c r="AB941">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC941">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="942" spans="1:29">
@@ -84294,7 +84294,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>6847671</v>
+        <v>6846945</v>
       </c>
       <c r="C942" t="s">
         <v>28</v>
@@ -84306,49 +84306,49 @@
         <v>45280.6875</v>
       </c>
       <c r="F942" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G942" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H942">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I942">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J942" t="s">
         <v>52</v>
       </c>
       <c r="K942">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L942">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M942">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N942">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O942">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P942">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q942">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R942">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S942">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T942">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U942">
         <v>2.05</v>
@@ -84357,7 +84357,7 @@
         <v>1.85</v>
       </c>
       <c r="W942">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="X942">
         <v>-1</v>
@@ -84366,16 +84366,16 @@
         <v>-1</v>
       </c>
       <c r="Z942">
-        <v>1.01</v>
+        <v>0.46</v>
       </c>
       <c r="AA942">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB942">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC942">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="943" spans="1:29">
@@ -84383,7 +84383,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>6847668</v>
+        <v>6847667</v>
       </c>
       <c r="C943" t="s">
         <v>28</v>
@@ -84395,76 +84395,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F943" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G943" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I943">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J943" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K943">
+        <v>1.2</v>
+      </c>
+      <c r="L943">
         <v>6</v>
       </c>
-      <c r="L943">
-        <v>5.5</v>
-      </c>
       <c r="M943">
-        <v>1.363</v>
+        <v>13</v>
       </c>
       <c r="N943">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="O943">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P943">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="Q943">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R943">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S943">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T943">
         <v>3.25</v>
       </c>
       <c r="U943">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="V943">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W943">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X943">
         <v>-1</v>
       </c>
       <c r="Y943">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z943">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA943">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB943">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC943">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="944" spans="1:29">
@@ -86252,7 +86252,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>6847692</v>
+        <v>6847696</v>
       </c>
       <c r="C964" t="s">
         <v>28</v>
@@ -86264,76 +86264,76 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F964" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G964" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I964">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J964" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K964">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L964">
         <v>3.8</v>
       </c>
       <c r="M964">
-        <v>4.1</v>
+        <v>2.375</v>
       </c>
       <c r="N964">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O964">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P964">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q964">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R964">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S964">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T964">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U964">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V964">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W964">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X964">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y964">
         <v>-1</v>
       </c>
       <c r="Z964">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA964">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB964">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC964">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="965" spans="1:29">
@@ -86341,7 +86341,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>6847696</v>
+        <v>6847692</v>
       </c>
       <c r="C965" t="s">
         <v>28</v>
@@ -86353,76 +86353,76 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F965" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G965" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H965">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I965">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J965" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K965">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L965">
         <v>3.8</v>
       </c>
       <c r="M965">
-        <v>2.375</v>
+        <v>4.1</v>
       </c>
       <c r="N965">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O965">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P965">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q965">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R965">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S965">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T965">
+        <v>2.5</v>
+      </c>
+      <c r="U965">
+        <v>1.9</v>
+      </c>
+      <c r="V965">
+        <v>2</v>
+      </c>
+      <c r="W965">
+        <v>-1</v>
+      </c>
+      <c r="X965">
         <v>3</v>
       </c>
-      <c r="U965">
-        <v>2.02</v>
-      </c>
-      <c r="V965">
-        <v>1.88</v>
-      </c>
-      <c r="W965">
-        <v>1.55</v>
-      </c>
-      <c r="X965">
-        <v>-1</v>
-      </c>
       <c r="Y965">
         <v>-1</v>
       </c>
       <c r="Z965">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA965">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB965">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC965">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:29">
@@ -87077,19 +87077,19 @@
         <v>1.5</v>
       </c>
       <c r="R973">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S973">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T973">
         <v>3.25</v>
       </c>
       <c r="U973">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V973">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87112,7 +87112,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>6847699</v>
+        <v>6847702</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87124,46 +87124,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F974" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G974" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K974">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L974">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M974">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N974">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O974">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P974">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q974">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R974">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S974">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="T974">
         <v>2.75</v>
       </c>
       <c r="U974">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V974">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W974">
         <v>0</v>
@@ -87186,7 +87186,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>6847701</v>
+        <v>6847699</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87198,46 +87198,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F975" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G975" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K975">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L975">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M975">
+        <v>2.25</v>
+      </c>
+      <c r="N975">
+        <v>2.9</v>
+      </c>
+      <c r="O975">
         <v>3.6</v>
       </c>
-      <c r="N975">
-        <v>2.05</v>
-      </c>
-      <c r="O975">
-        <v>3.4</v>
-      </c>
       <c r="P975">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q975">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R975">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S975">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="T975">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U975">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="V975">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W975">
         <v>0</v>
@@ -87299,19 +87299,19 @@
         <v>-2.25</v>
       </c>
       <c r="R976">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S976">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T976">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U976">
+        <v>1.84</v>
+      </c>
+      <c r="V976">
         <v>2.06</v>
-      </c>
-      <c r="V976">
-        <v>1.84</v>
       </c>
       <c r="W976">
         <v>0</v>
@@ -87334,7 +87334,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>6847702</v>
+        <v>6847701</v>
       </c>
       <c r="C977" t="s">
         <v>28</v>
@@ -87346,46 +87346,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F977" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G977" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K977">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L977">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M977">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N977">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O977">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P977">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q977">
         <v>-0.25</v>
       </c>
       <c r="R977">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S977">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="T977">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U977">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V977">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87447,10 +87447,10 @@
         <v>0.25</v>
       </c>
       <c r="R978">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="S978">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="T978">
         <v>2.5</v>
@@ -87521,19 +87521,19 @@
         <v>-0.25</v>
       </c>
       <c r="R979">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S979">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T979">
         <v>3</v>
       </c>
       <c r="U979">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V979">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W979">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -44689,7 +44689,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>5174308</v>
+        <v>5174306</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44701,73 +44701,73 @@
         <v>44779.4375</v>
       </c>
       <c r="F497" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G497" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J497" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K497">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L497">
         <v>3.6</v>
       </c>
       <c r="M497">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N497">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="O497">
         <v>3.6</v>
       </c>
       <c r="P497">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q497">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R497">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="S497">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="T497">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U497">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="V497">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W497">
         <v>-1</v>
       </c>
       <c r="X497">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y497">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z497">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA497">
-        <v>0.8400000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB497">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC497">
         <v>-1</v>
@@ -44867,7 +44867,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>5174305</v>
+        <v>5174307</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44879,73 +44879,73 @@
         <v>44779.4375</v>
       </c>
       <c r="F499" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G499" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J499" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K499">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L499">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M499">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N499">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O499">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P499">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q499">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R499">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="S499">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="T499">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U499">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V499">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W499">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X499">
         <v>-1</v>
       </c>
       <c r="Y499">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z499">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA499">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB499">
-        <v>0.9099999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC499">
         <v>-1</v>
@@ -44956,7 +44956,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>5174306</v>
+        <v>5174308</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -44968,73 +44968,73 @@
         <v>44779.4375</v>
       </c>
       <c r="F500" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G500" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J500" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K500">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L500">
         <v>3.6</v>
       </c>
       <c r="M500">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N500">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O500">
         <v>3.6</v>
       </c>
       <c r="P500">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q500">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R500">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="S500">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="T500">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U500">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V500">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W500">
         <v>-1</v>
       </c>
       <c r="X500">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y500">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z500">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA500">
-        <v>0.5249999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB500">
-        <v>0.97</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC500">
         <v>-1</v>
@@ -45045,7 +45045,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>5174307</v>
+        <v>5174305</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45057,73 +45057,73 @@
         <v>44779.4375</v>
       </c>
       <c r="F501" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G501" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H501">
+        <v>3</v>
+      </c>
+      <c r="I501">
         <v>1</v>
       </c>
-      <c r="I501">
+      <c r="J501" t="s">
+        <v>52</v>
+      </c>
+      <c r="K501">
+        <v>2.1</v>
+      </c>
+      <c r="L501">
+        <v>3.6</v>
+      </c>
+      <c r="M501">
+        <v>3.2</v>
+      </c>
+      <c r="N501">
         <v>2</v>
       </c>
-      <c r="J501" t="s">
-        <v>51</v>
-      </c>
-      <c r="K501">
-        <v>2.75</v>
-      </c>
-      <c r="L501">
-        <v>3.5</v>
-      </c>
-      <c r="M501">
-        <v>2.4</v>
-      </c>
-      <c r="N501">
-        <v>3.4</v>
-      </c>
       <c r="O501">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P501">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q501">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R501">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S501">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="T501">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U501">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V501">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W501">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X501">
         <v>-1</v>
       </c>
       <c r="Y501">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z501">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA501">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB501">
-        <v>0.95</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC501">
         <v>-1</v>
@@ -46469,7 +46469,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>5174378</v>
+        <v>5174381</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46481,76 +46481,76 @@
         <v>44793.4375</v>
       </c>
       <c r="F517" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G517" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H517">
         <v>0</v>
       </c>
       <c r="I517">
+        <v>1</v>
+      </c>
+      <c r="J517" t="s">
+        <v>51</v>
+      </c>
+      <c r="K517">
+        <v>2.625</v>
+      </c>
+      <c r="L517">
+        <v>3.5</v>
+      </c>
+      <c r="M517">
+        <v>2.55</v>
+      </c>
+      <c r="N517">
+        <v>2.625</v>
+      </c>
+      <c r="O517">
+        <v>3.6</v>
+      </c>
+      <c r="P517">
+        <v>2.55</v>
+      </c>
+      <c r="Q517">
         <v>0</v>
       </c>
-      <c r="J517" t="s">
-        <v>53</v>
-      </c>
-      <c r="K517">
-        <v>1.909</v>
-      </c>
-      <c r="L517">
-        <v>3.75</v>
-      </c>
-      <c r="M517">
-        <v>3.75</v>
-      </c>
-      <c r="N517">
-        <v>1.833</v>
-      </c>
-      <c r="O517">
-        <v>3.8</v>
-      </c>
-      <c r="P517">
-        <v>4</v>
-      </c>
-      <c r="Q517">
-        <v>-0.5</v>
-      </c>
       <c r="R517">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="S517">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="T517">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U517">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V517">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W517">
         <v>-1</v>
       </c>
       <c r="X517">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y517">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z517">
         <v>-1</v>
       </c>
       <c r="AA517">
-        <v>1.06</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB517">
         <v>-1</v>
       </c>
       <c r="AC517">
-        <v>0.8700000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -46558,7 +46558,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>5174381</v>
+        <v>5174378</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46570,76 +46570,76 @@
         <v>44793.4375</v>
       </c>
       <c r="F518" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G518" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H518">
         <v>0</v>
       </c>
       <c r="I518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J518" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K518">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L518">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M518">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N518">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O518">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P518">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q518">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R518">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="S518">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="T518">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U518">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="V518">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="W518">
         <v>-1</v>
       </c>
       <c r="X518">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y518">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z518">
         <v>-1</v>
       </c>
       <c r="AA518">
-        <v>0.9299999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AB518">
         <v>-1</v>
       </c>
       <c r="AC518">
-        <v>0.95</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -47181,7 +47181,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>5174388</v>
+        <v>5174387</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47193,76 +47193,76 @@
         <v>44800.4375</v>
       </c>
       <c r="F525" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G525" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H525">
+        <v>1</v>
+      </c>
+      <c r="I525">
         <v>0</v>
       </c>
-      <c r="I525">
-        <v>1</v>
-      </c>
       <c r="J525" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K525">
+        <v>1.7</v>
+      </c>
+      <c r="L525">
         <v>4.2</v>
       </c>
-      <c r="L525">
+      <c r="M525">
         <v>4.333</v>
       </c>
-      <c r="M525">
-        <v>1.615</v>
-      </c>
       <c r="N525">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="O525">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P525">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="Q525">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R525">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="S525">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="T525">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U525">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="V525">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="W525">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X525">
         <v>-1</v>
       </c>
       <c r="Y525">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z525">
         <v>-0.5</v>
       </c>
       <c r="AA525">
-        <v>0.465</v>
+        <v>0.53</v>
       </c>
       <c r="AB525">
         <v>-1</v>
       </c>
       <c r="AC525">
-        <v>0.9199999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47270,7 +47270,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>5174387</v>
+        <v>5174388</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47282,76 +47282,76 @@
         <v>44800.4375</v>
       </c>
       <c r="F526" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G526" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H526">
+        <v>0</v>
+      </c>
+      <c r="I526">
         <v>1</v>
       </c>
-      <c r="I526">
-        <v>0</v>
-      </c>
       <c r="J526" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K526">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L526">
+        <v>4.333</v>
+      </c>
+      <c r="M526">
+        <v>1.615</v>
+      </c>
+      <c r="N526">
         <v>4.2</v>
       </c>
-      <c r="M526">
+      <c r="O526">
         <v>4.333</v>
       </c>
-      <c r="N526">
-        <v>1.4</v>
-      </c>
-      <c r="O526">
-        <v>5</v>
-      </c>
       <c r="P526">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="Q526">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R526">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="S526">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="T526">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U526">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="V526">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="W526">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X526">
         <v>-1</v>
       </c>
       <c r="Y526">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z526">
         <v>-0.5</v>
       </c>
       <c r="AA526">
-        <v>0.53</v>
+        <v>0.465</v>
       </c>
       <c r="AB526">
         <v>-1</v>
       </c>
       <c r="AC526">
-        <v>0.8500000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -54390,7 +54390,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5174470</v>
+        <v>5174469</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54402,55 +54402,55 @@
         <v>44870.47916666666</v>
       </c>
       <c r="F606" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G606" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H606">
+        <v>1</v>
+      </c>
+      <c r="I606">
         <v>2</v>
-      </c>
-      <c r="I606">
-        <v>3</v>
       </c>
       <c r="J606" t="s">
         <v>51</v>
       </c>
       <c r="K606">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="L606">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M606">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="N606">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="O606">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P606">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q606">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R606">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="S606">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="T606">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U606">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="V606">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="W606">
         <v>-1</v>
@@ -54459,19 +54459,19 @@
         <v>-1</v>
       </c>
       <c r="Y606">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Z606">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AA606">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
       <c r="AB606">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC606">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -54479,7 +54479,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5174469</v>
+        <v>5174466</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54491,55 +54491,55 @@
         <v>44870.47916666666</v>
       </c>
       <c r="F607" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G607" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J607" t="s">
         <v>51</v>
       </c>
       <c r="K607">
+        <v>2.05</v>
+      </c>
+      <c r="L607">
+        <v>3.5</v>
+      </c>
+      <c r="M607">
+        <v>3.4</v>
+      </c>
+      <c r="N607">
+        <v>2</v>
+      </c>
+      <c r="O607">
         <v>3.6</v>
       </c>
-      <c r="L607">
-        <v>4</v>
-      </c>
-      <c r="M607">
-        <v>1.85</v>
-      </c>
-      <c r="N607">
-        <v>4.2</v>
-      </c>
-      <c r="O607">
-        <v>4</v>
-      </c>
       <c r="P607">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q607">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R607">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="S607">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="T607">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U607">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V607">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="W607">
         <v>-1</v>
@@ -54548,19 +54548,19 @@
         <v>-1</v>
       </c>
       <c r="Y607">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z607">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA607">
-        <v>0.495</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB607">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC607">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54568,7 +54568,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5174466</v>
+        <v>5174467</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54580,13 +54580,13 @@
         <v>44870.47916666666</v>
       </c>
       <c r="F608" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G608" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I608">
         <v>3</v>
@@ -54595,40 +54595,40 @@
         <v>51</v>
       </c>
       <c r="K608">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L608">
         <v>3.5</v>
       </c>
       <c r="M608">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N608">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O608">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P608">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q608">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R608">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="S608">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="T608">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U608">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V608">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="W608">
         <v>-1</v>
@@ -54637,16 +54637,16 @@
         <v>-1</v>
       </c>
       <c r="Y608">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="Z608">
         <v>-1</v>
       </c>
       <c r="AA608">
-        <v>0.8899999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB608">
-        <v>0.9199999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AC608">
         <v>-1</v>
@@ -54657,7 +54657,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>5174467</v>
+        <v>5174470</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54669,13 +54669,13 @@
         <v>44870.47916666666</v>
       </c>
       <c r="F609" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G609" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I609">
         <v>3</v>
@@ -54684,41 +54684,41 @@
         <v>51</v>
       </c>
       <c r="K609">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="L609">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M609">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="N609">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="O609">
+        <v>6.5</v>
+      </c>
+      <c r="P609">
+        <v>1.25</v>
+      </c>
+      <c r="Q609">
+        <v>1.75</v>
+      </c>
+      <c r="R609">
+        <v>2.02</v>
+      </c>
+      <c r="S609">
+        <v>1.88</v>
+      </c>
+      <c r="T609">
         <v>3.75</v>
       </c>
-      <c r="P609">
-        <v>2.45</v>
-      </c>
-      <c r="Q609">
-        <v>0</v>
-      </c>
-      <c r="R609">
+      <c r="U609">
+        <v>1.93</v>
+      </c>
+      <c r="V609">
         <v>1.97</v>
       </c>
-      <c r="S609">
-        <v>1.93</v>
-      </c>
-      <c r="T609">
-        <v>3</v>
-      </c>
-      <c r="U609">
-        <v>2.04</v>
-      </c>
-      <c r="V609">
-        <v>1.86</v>
-      </c>
       <c r="W609">
         <v>-1</v>
       </c>
@@ -54726,16 +54726,16 @@
         <v>-1</v>
       </c>
       <c r="Y609">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="Z609">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA609">
+        <v>-1</v>
+      </c>
+      <c r="AB609">
         <v>0.9299999999999999</v>
-      </c>
-      <c r="AB609">
-        <v>1.04</v>
       </c>
       <c r="AC609">
         <v>-1</v>
@@ -55102,7 +55102,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>5174478</v>
+        <v>5174472</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55114,13 +55114,13 @@
         <v>44873.6875</v>
       </c>
       <c r="F614" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G614" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I614">
         <v>1</v>
@@ -55129,43 +55129,43 @@
         <v>52</v>
       </c>
       <c r="K614">
-        <v>3.8</v>
+        <v>1.166</v>
       </c>
       <c r="L614">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M614">
-        <v>1.909</v>
+        <v>11</v>
       </c>
       <c r="N614">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="O614">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="P614">
-        <v>2.625</v>
+        <v>13</v>
       </c>
       <c r="Q614">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R614">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S614">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T614">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U614">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V614">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W614">
-        <v>1.7</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X614">
         <v>-1</v>
@@ -55174,16 +55174,16 @@
         <v>-1</v>
       </c>
       <c r="Z614">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA614">
         <v>-1</v>
       </c>
       <c r="AB614">
-        <v>0.455</v>
+        <v>0.95</v>
       </c>
       <c r="AC614">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55191,7 +55191,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5174472</v>
+        <v>5174478</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55203,13 +55203,13 @@
         <v>44873.6875</v>
       </c>
       <c r="F615" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G615" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H615">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I615">
         <v>1</v>
@@ -55218,43 +55218,43 @@
         <v>52</v>
       </c>
       <c r="K615">
-        <v>1.166</v>
+        <v>3.8</v>
       </c>
       <c r="L615">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M615">
-        <v>11</v>
+        <v>1.909</v>
       </c>
       <c r="N615">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="O615">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="P615">
-        <v>13</v>
+        <v>2.625</v>
       </c>
       <c r="Q615">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R615">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S615">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T615">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U615">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V615">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W615">
-        <v>0.1659999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="X615">
         <v>-1</v>
@@ -55263,16 +55263,16 @@
         <v>-1</v>
       </c>
       <c r="Z615">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AA615">
         <v>-1</v>
       </c>
       <c r="AB615">
-        <v>0.95</v>
+        <v>0.455</v>
       </c>
       <c r="AC615">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55458,7 +55458,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>5174474</v>
+        <v>5174473</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55470,73 +55470,73 @@
         <v>44874.6875</v>
       </c>
       <c r="F618" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G618" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I618">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J618" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K618">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="L618">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M618">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="N618">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O618">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P618">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q618">
         <v>-0.75</v>
       </c>
       <c r="R618">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S618">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T618">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U618">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V618">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W618">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X618">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y618">
         <v>-1</v>
       </c>
       <c r="Z618">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA618">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB618">
-        <v>0.8700000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC618">
         <v>-1</v>
@@ -55547,7 +55547,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5174473</v>
+        <v>5174474</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55559,73 +55559,73 @@
         <v>44874.6875</v>
       </c>
       <c r="F619" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G619" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H619">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J619" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K619">
+        <v>1.45</v>
+      </c>
+      <c r="L619">
+        <v>4.5</v>
+      </c>
+      <c r="M619">
+        <v>5.75</v>
+      </c>
+      <c r="N619">
         <v>1.7</v>
       </c>
-      <c r="L619">
-        <v>3.6</v>
-      </c>
-      <c r="M619">
-        <v>4.75</v>
-      </c>
-      <c r="N619">
-        <v>1.75</v>
-      </c>
       <c r="O619">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P619">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q619">
         <v>-0.75</v>
       </c>
       <c r="R619">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S619">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T619">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U619">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V619">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="W619">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X619">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y619">
         <v>-1</v>
       </c>
       <c r="Z619">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA619">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB619">
-        <v>0.8500000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC619">
         <v>-1</v>
@@ -55992,7 +55992,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5174484</v>
+        <v>5174487</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -56004,76 +56004,76 @@
         <v>44877.47916666666</v>
       </c>
       <c r="F624" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G624" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H624">
+        <v>2</v>
+      </c>
+      <c r="I624">
+        <v>0</v>
+      </c>
+      <c r="J624" t="s">
+        <v>52</v>
+      </c>
+      <c r="K624">
+        <v>2.4</v>
+      </c>
+      <c r="L624">
+        <v>3.5</v>
+      </c>
+      <c r="M624">
+        <v>2.75</v>
+      </c>
+      <c r="N624">
+        <v>2.5</v>
+      </c>
+      <c r="O624">
+        <v>3.4</v>
+      </c>
+      <c r="P624">
+        <v>2.75</v>
+      </c>
+      <c r="Q624">
+        <v>0</v>
+      </c>
+      <c r="R624">
+        <v>1.86</v>
+      </c>
+      <c r="S624">
+        <v>2.04</v>
+      </c>
+      <c r="T624">
+        <v>2.5</v>
+      </c>
+      <c r="U624">
+        <v>1.9</v>
+      </c>
+      <c r="V624">
+        <v>2</v>
+      </c>
+      <c r="W624">
+        <v>1.5</v>
+      </c>
+      <c r="X624">
+        <v>-1</v>
+      </c>
+      <c r="Y624">
+        <v>-1</v>
+      </c>
+      <c r="Z624">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AA624">
+        <v>-1</v>
+      </c>
+      <c r="AB624">
+        <v>-1</v>
+      </c>
+      <c r="AC624">
         <v>1</v>
-      </c>
-      <c r="I624">
-        <v>2</v>
-      </c>
-      <c r="J624" t="s">
-        <v>51</v>
-      </c>
-      <c r="K624">
-        <v>1.85</v>
-      </c>
-      <c r="L624">
-        <v>3.8</v>
-      </c>
-      <c r="M624">
-        <v>3.6</v>
-      </c>
-      <c r="N624">
-        <v>2.1</v>
-      </c>
-      <c r="O624">
-        <v>3.75</v>
-      </c>
-      <c r="P624">
-        <v>3.2</v>
-      </c>
-      <c r="Q624">
-        <v>-0.25</v>
-      </c>
-      <c r="R624">
-        <v>1.78</v>
-      </c>
-      <c r="S624">
-        <v>2.125</v>
-      </c>
-      <c r="T624">
-        <v>2.75</v>
-      </c>
-      <c r="U624">
-        <v>1.96</v>
-      </c>
-      <c r="V624">
-        <v>1.94</v>
-      </c>
-      <c r="W624">
-        <v>-1</v>
-      </c>
-      <c r="X624">
-        <v>-1</v>
-      </c>
-      <c r="Y624">
-        <v>2.2</v>
-      </c>
-      <c r="Z624">
-        <v>-1</v>
-      </c>
-      <c r="AA624">
-        <v>1.125</v>
-      </c>
-      <c r="AB624">
-        <v>0.48</v>
-      </c>
-      <c r="AC624">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -56170,7 +56170,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>5174487</v>
+        <v>5174484</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56182,76 +56182,76 @@
         <v>44877.47916666666</v>
       </c>
       <c r="F626" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G626" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H626">
+        <v>1</v>
+      </c>
+      <c r="I626">
         <v>2</v>
       </c>
-      <c r="I626">
-        <v>0</v>
-      </c>
       <c r="J626" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K626">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L626">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M626">
+        <v>3.6</v>
+      </c>
+      <c r="N626">
+        <v>2.1</v>
+      </c>
+      <c r="O626">
+        <v>3.75</v>
+      </c>
+      <c r="P626">
+        <v>3.2</v>
+      </c>
+      <c r="Q626">
+        <v>-0.25</v>
+      </c>
+      <c r="R626">
+        <v>1.78</v>
+      </c>
+      <c r="S626">
+        <v>2.125</v>
+      </c>
+      <c r="T626">
         <v>2.75</v>
       </c>
-      <c r="N626">
-        <v>2.5</v>
-      </c>
-      <c r="O626">
-        <v>3.4</v>
-      </c>
-      <c r="P626">
-        <v>2.75</v>
-      </c>
-      <c r="Q626">
-        <v>0</v>
-      </c>
-      <c r="R626">
-        <v>1.86</v>
-      </c>
-      <c r="S626">
-        <v>2.04</v>
-      </c>
-      <c r="T626">
-        <v>2.5</v>
-      </c>
       <c r="U626">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V626">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="W626">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X626">
         <v>-1</v>
       </c>
       <c r="Y626">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z626">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA626">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB626">
-        <v>-1</v>
+        <v>0.48</v>
       </c>
       <c r="AC626">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="627" spans="1:29">
@@ -56793,7 +56793,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5174498</v>
+        <v>5174497</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56805,28 +56805,28 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F633" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G633" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I633">
         <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K633">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L633">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M633">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N633">
         <v>2.3</v>
@@ -56835,46 +56835,46 @@
         <v>3.5</v>
       </c>
       <c r="P633">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q633">
         <v>-0.25</v>
       </c>
       <c r="R633">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S633">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T633">
         <v>2.5</v>
       </c>
       <c r="U633">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="V633">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W633">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X633">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y633">
         <v>-1</v>
       </c>
       <c r="Z633">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AA633">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB633">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC633">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56882,7 +56882,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5174497</v>
+        <v>5174495</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56894,58 +56894,58 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F634" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G634" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H634">
         <v>3</v>
       </c>
       <c r="I634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J634" t="s">
         <v>52</v>
       </c>
       <c r="K634">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L634">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M634">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N634">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O634">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P634">
+        <v>8.5</v>
+      </c>
+      <c r="Q634">
+        <v>-1.5</v>
+      </c>
+      <c r="R634">
+        <v>1.98</v>
+      </c>
+      <c r="S634">
+        <v>1.95</v>
+      </c>
+      <c r="T634">
         <v>3</v>
       </c>
-      <c r="Q634">
-        <v>-0.25</v>
-      </c>
-      <c r="R634">
-        <v>2.02</v>
-      </c>
-      <c r="S634">
-        <v>1.88</v>
-      </c>
-      <c r="T634">
-        <v>2.5</v>
-      </c>
       <c r="U634">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="V634">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="W634">
-        <v>1.3</v>
+        <v>0.333</v>
       </c>
       <c r="X634">
         <v>-1</v>
@@ -56954,16 +56954,16 @@
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="AA634">
         <v>-1</v>
       </c>
       <c r="AB634">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC634">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -56971,7 +56971,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5174495</v>
+        <v>5174496</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56983,13 +56983,13 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F635" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G635" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H635">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I635">
         <v>0</v>
@@ -56998,43 +56998,43 @@
         <v>52</v>
       </c>
       <c r="K635">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L635">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M635">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N635">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O635">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P635">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q635">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R635">
+        <v>1.92</v>
+      </c>
+      <c r="S635">
         <v>1.98</v>
       </c>
-      <c r="S635">
-        <v>1.95</v>
-      </c>
       <c r="T635">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U635">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="V635">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="W635">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X635">
         <v>-1</v>
@@ -57043,16 +57043,16 @@
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>0.98</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA635">
         <v>-1</v>
       </c>
       <c r="AB635">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC635">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="636" spans="1:29">
@@ -57060,7 +57060,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>5174496</v>
+        <v>5174498</v>
       </c>
       <c r="C636" t="s">
         <v>28</v>
@@ -57072,76 +57072,76 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F636" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G636" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H636">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J636" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K636">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L636">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M636">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N636">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O636">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P636">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q636">
         <v>-0.25</v>
       </c>
       <c r="R636">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="S636">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T636">
         <v>2.5</v>
       </c>
       <c r="U636">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V636">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W636">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X636">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y636">
         <v>-1</v>
       </c>
       <c r="Z636">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA636">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB636">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC636">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="637" spans="1:29">
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>5174505</v>
+        <v>5174503</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,73 +57517,73 @@
         <v>44950.6875</v>
       </c>
       <c r="F641" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G641" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J641" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K641">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L641">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M641">
+        <v>3.75</v>
+      </c>
+      <c r="N641">
+        <v>2.1</v>
+      </c>
+      <c r="O641">
+        <v>3.6</v>
+      </c>
+      <c r="P641">
+        <v>3.3</v>
+      </c>
+      <c r="Q641">
+        <v>-0.25</v>
+      </c>
+      <c r="R641">
+        <v>1.84</v>
+      </c>
+      <c r="S641">
+        <v>2.06</v>
+      </c>
+      <c r="T641">
         <v>2.75</v>
       </c>
-      <c r="N641">
-        <v>2.875</v>
-      </c>
-      <c r="O641">
-        <v>3.4</v>
-      </c>
-      <c r="P641">
-        <v>2.4</v>
-      </c>
-      <c r="Q641">
-        <v>0.25</v>
-      </c>
-      <c r="R641">
-        <v>1.82</v>
-      </c>
-      <c r="S641">
-        <v>2.08</v>
-      </c>
-      <c r="T641">
-        <v>2.5</v>
-      </c>
       <c r="U641">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="V641">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="W641">
         <v>-1</v>
       </c>
       <c r="X641">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y641">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z641">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA641">
-        <v>1.08</v>
+        <v>0.53</v>
       </c>
       <c r="AB641">
-        <v>0.9299999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC641">
         <v>-1</v>
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>5174499</v>
+        <v>5174505</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,76 +57606,76 @@
         <v>44950.6875</v>
       </c>
       <c r="F642" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G642" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J642" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K642">
-        <v>1.166</v>
+        <v>2.5</v>
       </c>
       <c r="L642">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M642">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="N642">
-        <v>1.2</v>
+        <v>2.875</v>
       </c>
       <c r="O642">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P642">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="Q642">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R642">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="S642">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="T642">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U642">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V642">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="W642">
         <v>-1</v>
       </c>
       <c r="X642">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y642">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z642">
         <v>-1</v>
       </c>
       <c r="AA642">
-        <v>0.8799999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="AB642">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC642">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -57683,7 +57683,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>5174503</v>
+        <v>5174499</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57695,76 +57695,76 @@
         <v>44950.6875</v>
       </c>
       <c r="F643" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G643" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I643">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J643" t="s">
         <v>53</v>
       </c>
       <c r="K643">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L643">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M643">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="N643">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O643">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P643">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q643">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R643">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S643">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T643">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U643">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V643">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W643">
         <v>-1</v>
       </c>
       <c r="X643">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y643">
         <v>-1</v>
       </c>
       <c r="Z643">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA643">
-        <v>0.53</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB643">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC643">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="644" spans="1:29">
@@ -57950,7 +57950,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5174504</v>
+        <v>5174501</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57962,76 +57962,76 @@
         <v>44951.6875</v>
       </c>
       <c r="F646" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G646" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H646">
         <v>1</v>
       </c>
       <c r="I646">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J646" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K646">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L646">
+        <v>3.5</v>
+      </c>
+      <c r="M646">
+        <v>2.875</v>
+      </c>
+      <c r="N646">
+        <v>2.3</v>
+      </c>
+      <c r="O646">
         <v>3.4</v>
       </c>
-      <c r="M646">
-        <v>2.375</v>
-      </c>
-      <c r="N646">
+      <c r="P646">
         <v>3.1</v>
       </c>
-      <c r="O646">
-        <v>3.75</v>
-      </c>
-      <c r="P646">
-        <v>2.15</v>
-      </c>
       <c r="Q646">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R646">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S646">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T646">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U646">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V646">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W646">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X646">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y646">
         <v>-1</v>
       </c>
       <c r="Z646">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA646">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AB646">
         <v>-1</v>
       </c>
       <c r="AC646">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="647" spans="1:29">
@@ -58039,7 +58039,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>5174501</v>
+        <v>5174504</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58051,76 +58051,76 @@
         <v>44951.6875</v>
       </c>
       <c r="F647" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G647" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H647">
         <v>1</v>
       </c>
       <c r="I647">
+        <v>0</v>
+      </c>
+      <c r="J647" t="s">
+        <v>52</v>
+      </c>
+      <c r="K647">
+        <v>2.9</v>
+      </c>
+      <c r="L647">
+        <v>3.4</v>
+      </c>
+      <c r="M647">
+        <v>2.375</v>
+      </c>
+      <c r="N647">
+        <v>3.1</v>
+      </c>
+      <c r="O647">
+        <v>3.75</v>
+      </c>
+      <c r="P647">
+        <v>2.15</v>
+      </c>
+      <c r="Q647">
+        <v>0.25</v>
+      </c>
+      <c r="R647">
+        <v>2</v>
+      </c>
+      <c r="S647">
+        <v>1.9</v>
+      </c>
+      <c r="T647">
+        <v>3</v>
+      </c>
+      <c r="U647">
+        <v>1.98</v>
+      </c>
+      <c r="V647">
+        <v>1.92</v>
+      </c>
+      <c r="W647">
+        <v>2.1</v>
+      </c>
+      <c r="X647">
+        <v>-1</v>
+      </c>
+      <c r="Y647">
+        <v>-1</v>
+      </c>
+      <c r="Z647">
         <v>1</v>
       </c>
-      <c r="J647" t="s">
-        <v>53</v>
-      </c>
-      <c r="K647">
-        <v>2.3</v>
-      </c>
-      <c r="L647">
-        <v>3.5</v>
-      </c>
-      <c r="M647">
-        <v>2.875</v>
-      </c>
-      <c r="N647">
-        <v>2.3</v>
-      </c>
-      <c r="O647">
-        <v>3.4</v>
-      </c>
-      <c r="P647">
-        <v>3.1</v>
-      </c>
-      <c r="Q647">
-        <v>-0.25</v>
-      </c>
-      <c r="R647">
-        <v>2.06</v>
-      </c>
-      <c r="S647">
-        <v>1.84</v>
-      </c>
-      <c r="T647">
-        <v>2.5</v>
-      </c>
-      <c r="U647">
-        <v>1.91</v>
-      </c>
-      <c r="V647">
-        <v>1.99</v>
-      </c>
-      <c r="W647">
-        <v>-1</v>
-      </c>
-      <c r="X647">
-        <v>2.4</v>
-      </c>
-      <c r="Y647">
-        <v>-1</v>
-      </c>
-      <c r="Z647">
-        <v>-0.5</v>
-      </c>
       <c r="AA647">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="AB647">
         <v>-1</v>
       </c>
       <c r="AC647">
-        <v>0.99</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -64714,7 +64714,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>5174583</v>
+        <v>5174587</v>
       </c>
       <c r="C722" t="s">
         <v>28</v>
@@ -64726,76 +64726,76 @@
         <v>45017.4375</v>
       </c>
       <c r="F722" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G722" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J722" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K722">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="L722">
         <v>3.75</v>
       </c>
       <c r="M722">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="N722">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="O722">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P722">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q722">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R722">
+        <v>2.01</v>
+      </c>
+      <c r="S722">
         <v>1.89</v>
       </c>
-      <c r="S722">
-        <v>2.01</v>
-      </c>
       <c r="T722">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U722">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V722">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W722">
         <v>-1</v>
       </c>
       <c r="X722">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y722">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z722">
         <v>-1</v>
       </c>
       <c r="AA722">
-        <v>1.01</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB722">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC722">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="723" spans="1:29">
@@ -64803,7 +64803,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>5174587</v>
+        <v>5174586</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64815,73 +64815,73 @@
         <v>45017.4375</v>
       </c>
       <c r="F723" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G723" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J723" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K723">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="L723">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M723">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N723">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="O723">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P723">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q723">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R723">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="S723">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="T723">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U723">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="V723">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="W723">
         <v>-1</v>
       </c>
       <c r="X723">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y723">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z723">
         <v>-1</v>
       </c>
       <c r="AA723">
-        <v>0.8899999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB723">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC723">
         <v>-1</v>
@@ -64892,7 +64892,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>5174586</v>
+        <v>5174583</v>
       </c>
       <c r="C724" t="s">
         <v>28</v>
@@ -64904,61 +64904,61 @@
         <v>45017.4375</v>
       </c>
       <c r="F724" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G724" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I724">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J724" t="s">
         <v>53</v>
       </c>
       <c r="K724">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L724">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M724">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N724">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O724">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P724">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q724">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R724">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="S724">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="T724">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U724">
+        <v>2.06</v>
+      </c>
+      <c r="V724">
         <v>1.84</v>
       </c>
-      <c r="V724">
-        <v>2.06</v>
-      </c>
       <c r="W724">
         <v>-1</v>
       </c>
       <c r="X724">
-        <v>3.333</v>
+        <v>2.4</v>
       </c>
       <c r="Y724">
         <v>-1</v>
@@ -64967,13 +64967,13 @@
         <v>-1</v>
       </c>
       <c r="AA724">
-        <v>0.9099999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AB724">
-        <v>0.8400000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC724">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="725" spans="1:29">
@@ -64981,7 +64981,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>5174581</v>
+        <v>5174582</v>
       </c>
       <c r="C725" t="s">
         <v>28</v>
@@ -64993,73 +64993,73 @@
         <v>45017.4375</v>
       </c>
       <c r="F725" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G725" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H725">
+        <v>3</v>
+      </c>
+      <c r="I725">
         <v>0</v>
       </c>
-      <c r="I725">
-        <v>3</v>
-      </c>
       <c r="J725" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K725">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L725">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M725">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N725">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O725">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P725">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q725">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R725">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S725">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T725">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U725">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V725">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W725">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X725">
         <v>-1</v>
       </c>
       <c r="Y725">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z725">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA725">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB725">
-        <v>0.8700000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC725">
         <v>-1</v>
@@ -65070,7 +65070,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>5174582</v>
+        <v>5174581</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65082,73 +65082,73 @@
         <v>45017.4375</v>
       </c>
       <c r="F726" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G726" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H726">
+        <v>0</v>
+      </c>
+      <c r="I726">
         <v>3</v>
       </c>
-      <c r="I726">
-        <v>0</v>
-      </c>
       <c r="J726" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K726">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L726">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M726">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N726">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O726">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P726">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q726">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R726">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S726">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T726">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U726">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V726">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W726">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X726">
         <v>-1</v>
       </c>
       <c r="Y726">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z726">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA726">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB726">
-        <v>0.97</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC726">
         <v>-1</v>
@@ -79399,7 +79399,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>6847620</v>
+        <v>6847618</v>
       </c>
       <c r="C887" t="s">
         <v>28</v>
@@ -79411,76 +79411,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F887" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G887" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I887">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J887" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K887">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L887">
         <v>4</v>
       </c>
       <c r="M887">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N887">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O887">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P887">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="Q887">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R887">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="S887">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="T887">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U887">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="V887">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="W887">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X887">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y887">
         <v>-1</v>
       </c>
       <c r="Z887">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA887">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB887">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AC887">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="888" spans="1:29">
@@ -79488,7 +79488,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>6847618</v>
+        <v>6847620</v>
       </c>
       <c r="C888" t="s">
         <v>28</v>
@@ -79500,76 +79500,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F888" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G888" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H888">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I888">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J888" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K888">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L888">
         <v>4</v>
       </c>
       <c r="M888">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="N888">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="O888">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P888">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q888">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R888">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="S888">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="T888">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U888">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="V888">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="W888">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X888">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y888">
         <v>-1</v>
       </c>
       <c r="Z888">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA888">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB888">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AC888">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="889" spans="1:29">
@@ -84116,7 +84116,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>6847668</v>
+        <v>6847672</v>
       </c>
       <c r="C940" t="s">
         <v>28</v>
@@ -84128,76 +84128,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F940" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G940" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I940">
         <v>2</v>
       </c>
       <c r="J940" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K940">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L940">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M940">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N940">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O940">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P940">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q940">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R940">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S940">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T940">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U940">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="V940">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W940">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X940">
         <v>-1</v>
       </c>
       <c r="Y940">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z940">
-        <v>0.45</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA940">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB940">
-        <v>-0.5</v>
+        <v>1.04</v>
       </c>
       <c r="AC940">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="941" spans="1:29">
@@ -84205,7 +84205,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>6847671</v>
+        <v>6847668</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84217,76 +84217,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F941" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G941" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H941">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I941">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J941" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K941">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L941">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M941">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="N941">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="O941">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P941">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q941">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R941">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S941">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T941">
         <v>3.25</v>
       </c>
       <c r="U941">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V941">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W941">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X941">
         <v>-1</v>
       </c>
       <c r="Y941">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z941">
-        <v>1.01</v>
+        <v>0.45</v>
       </c>
       <c r="AA941">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB941">
         <v>-0.5</v>
       </c>
       <c r="AC941">
-        <v>0.425</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="942" spans="1:29">
@@ -84294,7 +84294,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>6846945</v>
+        <v>6847667</v>
       </c>
       <c r="C942" t="s">
         <v>28</v>
@@ -84306,58 +84306,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F942" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G942" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I942">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J942" t="s">
         <v>52</v>
       </c>
       <c r="K942">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L942">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M942">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="N942">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O942">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P942">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q942">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R942">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S942">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T942">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U942">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V942">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W942">
-        <v>0.7</v>
+        <v>0.222</v>
       </c>
       <c r="X942">
         <v>-1</v>
@@ -84366,16 +84366,16 @@
         <v>-1</v>
       </c>
       <c r="Z942">
-        <v>0.46</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA942">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB942">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC942">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="943" spans="1:29">
@@ -84383,7 +84383,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>6847667</v>
+        <v>6846945</v>
       </c>
       <c r="C943" t="s">
         <v>28</v>
@@ -84395,58 +84395,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F943" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G943" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H943">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I943">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J943" t="s">
         <v>52</v>
       </c>
       <c r="K943">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L943">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M943">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="N943">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="O943">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P943">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q943">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R943">
+        <v>1.92</v>
+      </c>
+      <c r="S943">
+        <v>1.98</v>
+      </c>
+      <c r="T943">
+        <v>3</v>
+      </c>
+      <c r="U943">
+        <v>2.05</v>
+      </c>
+      <c r="V943">
         <v>1.85</v>
       </c>
-      <c r="S943">
-        <v>2.05</v>
-      </c>
-      <c r="T943">
-        <v>3.25</v>
-      </c>
-      <c r="U943">
-        <v>1.9</v>
-      </c>
-      <c r="V943">
-        <v>2</v>
-      </c>
       <c r="W943">
-        <v>0.222</v>
+        <v>0.7</v>
       </c>
       <c r="X943">
         <v>-1</v>
@@ -84455,16 +84455,16 @@
         <v>-1</v>
       </c>
       <c r="Z943">
-        <v>0.8500000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="AA943">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB943">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC943">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="944" spans="1:29">
@@ -84472,7 +84472,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>6847672</v>
+        <v>6847671</v>
       </c>
       <c r="C944" t="s">
         <v>28</v>
@@ -84484,58 +84484,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F944" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G944" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H944">
         <v>3</v>
       </c>
       <c r="I944">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J944" t="s">
         <v>52</v>
       </c>
       <c r="K944">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L944">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M944">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N944">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="O944">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P944">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q944">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R944">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S944">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T944">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U944">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="V944">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W944">
-        <v>2.1</v>
+        <v>0.363</v>
       </c>
       <c r="X944">
         <v>-1</v>
@@ -84544,16 +84544,16 @@
         <v>-1</v>
       </c>
       <c r="Z944">
-        <v>0.9199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA944">
         <v>-1</v>
       </c>
       <c r="AB944">
-        <v>1.04</v>
+        <v>-0.5</v>
       </c>
       <c r="AC944">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="945" spans="1:29">
@@ -87012,10 +87012,10 @@
         <v>3.25</v>
       </c>
       <c r="U972">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V972">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W972">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -57861,7 +57861,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>5174507</v>
+        <v>5174501</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57873,40 +57873,40 @@
         <v>44951.6875</v>
       </c>
       <c r="F645" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G645" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H645">
         <v>1</v>
       </c>
       <c r="I645">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J645" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K645">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L645">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M645">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N645">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O645">
+        <v>3.4</v>
+      </c>
+      <c r="P645">
         <v>3.1</v>
       </c>
-      <c r="P645">
-        <v>2.6</v>
-      </c>
       <c r="Q645">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R645">
         <v>2.06</v>
@@ -57915,34 +57915,34 @@
         <v>1.84</v>
       </c>
       <c r="T645">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U645">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V645">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W645">
         <v>-1</v>
       </c>
       <c r="X645">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y645">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z645">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA645">
-        <v>0.8400000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="AB645">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC645">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -57950,7 +57950,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5174501</v>
+        <v>5174507</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57962,40 +57962,40 @@
         <v>44951.6875</v>
       </c>
       <c r="F646" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G646" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H646">
         <v>1</v>
       </c>
       <c r="I646">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J646" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K646">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L646">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M646">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N646">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O646">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P646">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q646">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R646">
         <v>2.06</v>
@@ -58004,34 +58004,34 @@
         <v>1.84</v>
       </c>
       <c r="T646">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U646">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V646">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W646">
         <v>-1</v>
       </c>
       <c r="X646">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y646">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z646">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA646">
-        <v>0.42</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB646">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC646">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="647" spans="1:29">
@@ -64714,7 +64714,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>5174587</v>
+        <v>5174583</v>
       </c>
       <c r="C722" t="s">
         <v>28</v>
@@ -64726,76 +64726,76 @@
         <v>45017.4375</v>
       </c>
       <c r="F722" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G722" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I722">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J722" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K722">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="L722">
         <v>3.75</v>
       </c>
       <c r="M722">
+        <v>5</v>
+      </c>
+      <c r="N722">
         <v>1.85</v>
       </c>
-      <c r="N722">
-        <v>4.2</v>
-      </c>
       <c r="O722">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P722">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q722">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R722">
+        <v>1.89</v>
+      </c>
+      <c r="S722">
         <v>2.01</v>
       </c>
-      <c r="S722">
-        <v>1.89</v>
-      </c>
       <c r="T722">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U722">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V722">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="W722">
         <v>-1</v>
       </c>
       <c r="X722">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y722">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z722">
         <v>-1</v>
       </c>
       <c r="AA722">
-        <v>0.8899999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AB722">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC722">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="723" spans="1:29">
@@ -64803,7 +64803,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>5174586</v>
+        <v>5174587</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64815,73 +64815,73 @@
         <v>45017.4375</v>
       </c>
       <c r="F723" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G723" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J723" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K723">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="L723">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M723">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N723">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="O723">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P723">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q723">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R723">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="S723">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="T723">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U723">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V723">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="W723">
         <v>-1</v>
       </c>
       <c r="X723">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y723">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z723">
         <v>-1</v>
       </c>
       <c r="AA723">
-        <v>0.9099999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB723">
-        <v>0.8400000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC723">
         <v>-1</v>
@@ -64892,7 +64892,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>5174583</v>
+        <v>5174586</v>
       </c>
       <c r="C724" t="s">
         <v>28</v>
@@ -64904,61 +64904,61 @@
         <v>45017.4375</v>
       </c>
       <c r="F724" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G724" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I724">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J724" t="s">
         <v>53</v>
       </c>
       <c r="K724">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L724">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M724">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N724">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="O724">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P724">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q724">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R724">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="S724">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="T724">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U724">
+        <v>1.84</v>
+      </c>
+      <c r="V724">
         <v>2.06</v>
       </c>
-      <c r="V724">
-        <v>1.84</v>
-      </c>
       <c r="W724">
         <v>-1</v>
       </c>
       <c r="X724">
-        <v>2.4</v>
+        <v>3.333</v>
       </c>
       <c r="Y724">
         <v>-1</v>
@@ -64967,13 +64967,13 @@
         <v>-1</v>
       </c>
       <c r="AA724">
-        <v>1.01</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB724">
-        <v>-0.5</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC724">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="725" spans="1:29">
@@ -64981,7 +64981,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>5174582</v>
+        <v>5174581</v>
       </c>
       <c r="C725" t="s">
         <v>28</v>
@@ -64993,73 +64993,73 @@
         <v>45017.4375</v>
       </c>
       <c r="F725" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G725" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H725">
+        <v>0</v>
+      </c>
+      <c r="I725">
         <v>3</v>
       </c>
-      <c r="I725">
-        <v>0</v>
-      </c>
       <c r="J725" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K725">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L725">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M725">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N725">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O725">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P725">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q725">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R725">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S725">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T725">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U725">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V725">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W725">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X725">
         <v>-1</v>
       </c>
       <c r="Y725">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z725">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA725">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB725">
-        <v>0.97</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC725">
         <v>-1</v>
@@ -65070,7 +65070,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>5174581</v>
+        <v>5174582</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65082,73 +65082,73 @@
         <v>45017.4375</v>
       </c>
       <c r="F726" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G726" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H726">
+        <v>3</v>
+      </c>
+      <c r="I726">
         <v>0</v>
       </c>
-      <c r="I726">
-        <v>3</v>
-      </c>
       <c r="J726" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K726">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L726">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M726">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N726">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O726">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P726">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q726">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R726">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S726">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T726">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U726">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V726">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W726">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X726">
         <v>-1</v>
       </c>
       <c r="Y726">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z726">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA726">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB726">
-        <v>0.8700000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC726">
         <v>-1</v>
@@ -70410,7 +70410,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5498845</v>
+        <v>5498842</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70422,76 +70422,76 @@
         <v>45066.4375</v>
       </c>
       <c r="F786" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G786" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I786">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J786" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K786">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L786">
         <v>3.4</v>
       </c>
       <c r="M786">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N786">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O786">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P786">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q786">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R786">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S786">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="T786">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U786">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="V786">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W786">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X786">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y786">
         <v>-1</v>
       </c>
       <c r="Z786">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA786">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB786">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC786">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70499,7 +70499,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>5498842</v>
+        <v>5498844</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70511,73 +70511,73 @@
         <v>45066.4375</v>
       </c>
       <c r="F787" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G787" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H787">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I787">
         <v>2</v>
       </c>
       <c r="J787" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K787">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="L787">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M787">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N787">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O787">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P787">
+        <v>2.375</v>
+      </c>
+      <c r="Q787">
+        <v>0.25</v>
+      </c>
+      <c r="R787">
+        <v>1.81</v>
+      </c>
+      <c r="S787">
+        <v>2.09</v>
+      </c>
+      <c r="T787">
         <v>3</v>
       </c>
-      <c r="Q787">
-        <v>-0.25</v>
-      </c>
-      <c r="R787">
-        <v>1.98</v>
-      </c>
-      <c r="S787">
-        <v>1.92</v>
-      </c>
-      <c r="T787">
-        <v>2.5</v>
-      </c>
       <c r="U787">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="V787">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W787">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X787">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y787">
         <v>-1</v>
       </c>
       <c r="Z787">
-        <v>0.98</v>
+        <v>0.405</v>
       </c>
       <c r="AA787">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB787">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC787">
         <v>-1</v>
@@ -70588,7 +70588,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>5498844</v>
+        <v>5498845</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70600,76 +70600,76 @@
         <v>45066.4375</v>
       </c>
       <c r="F788" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G788" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I788">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J788" t="s">
         <v>53</v>
       </c>
       <c r="K788">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L788">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M788">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N788">
+        <v>2.45</v>
+      </c>
+      <c r="O788">
+        <v>3.6</v>
+      </c>
+      <c r="P788">
         <v>2.7</v>
       </c>
-      <c r="O788">
-        <v>3.75</v>
-      </c>
-      <c r="P788">
-        <v>2.375</v>
-      </c>
       <c r="Q788">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R788">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S788">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="T788">
         <v>3</v>
       </c>
       <c r="U788">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="V788">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W788">
         <v>-1</v>
       </c>
       <c r="X788">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y788">
         <v>-1</v>
       </c>
       <c r="Z788">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="AA788">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB788">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC788">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="789" spans="1:29">
@@ -71656,7 +71656,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5544754</v>
+        <v>5540603</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71668,28 +71668,28 @@
         <v>45073.4375</v>
       </c>
       <c r="F800" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G800" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H800">
         <v>1</v>
       </c>
       <c r="I800">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J800" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K800">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L800">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M800">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="N800">
         <v>1.5</v>
@@ -71698,46 +71698,46 @@
         <v>4.75</v>
       </c>
       <c r="P800">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q800">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R800">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S800">
-        <v>1.775</v>
+        <v>2.08</v>
       </c>
       <c r="T800">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U800">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V800">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W800">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X800">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y800">
         <v>-1</v>
       </c>
       <c r="Z800">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA800">
-        <v>0.3875</v>
+        <v>1.08</v>
       </c>
       <c r="AB800">
         <v>-1</v>
       </c>
       <c r="AC800">
-        <v>0.8700000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -71745,7 +71745,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>5540603</v>
+        <v>5544754</v>
       </c>
       <c r="C801" t="s">
         <v>28</v>
@@ -71757,28 +71757,28 @@
         <v>45073.4375</v>
       </c>
       <c r="F801" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G801" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H801">
         <v>1</v>
       </c>
       <c r="I801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J801" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K801">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L801">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M801">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N801">
         <v>1.5</v>
@@ -71787,46 +71787,46 @@
         <v>4.75</v>
       </c>
       <c r="P801">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q801">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R801">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S801">
-        <v>2.08</v>
+        <v>1.775</v>
       </c>
       <c r="T801">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U801">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V801">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W801">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X801">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y801">
         <v>-1</v>
       </c>
       <c r="Z801">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA801">
-        <v>1.08</v>
+        <v>0.3875</v>
       </c>
       <c r="AB801">
         <v>-1</v>
       </c>
       <c r="AC801">
-        <v>0.8999999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="802" spans="1:29">
@@ -75394,7 +75394,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>6847581</v>
+        <v>6847583</v>
       </c>
       <c r="C842" t="s">
         <v>28</v>
@@ -75406,76 +75406,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F842" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G842" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842">
         <v>1</v>
       </c>
       <c r="J842" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K842">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L842">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M842">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N842">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O842">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P842">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="Q842">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R842">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="S842">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="T842">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U842">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V842">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W842">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X842">
         <v>-1</v>
       </c>
       <c r="Y842">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z842">
-        <v>-0.5</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA842">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB842">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC842">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="843" spans="1:29">
@@ -75483,7 +75483,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>6847583</v>
+        <v>6847581</v>
       </c>
       <c r="C843" t="s">
         <v>28</v>
@@ -75495,76 +75495,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F843" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G843" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843">
         <v>1</v>
       </c>
       <c r="J843" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K843">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L843">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M843">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="N843">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="O843">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P843">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q843">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R843">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="S843">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="T843">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U843">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V843">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="W843">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X843">
         <v>-1</v>
       </c>
       <c r="Y843">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z843">
-        <v>0.8200000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA843">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB843">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC843">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="844" spans="1:29">
@@ -76017,7 +76017,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>6847590</v>
+        <v>6847588</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76029,55 +76029,55 @@
         <v>45199.4375</v>
       </c>
       <c r="F849" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G849" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J849" t="s">
         <v>51</v>
       </c>
       <c r="K849">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L849">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M849">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N849">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O849">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P849">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q849">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R849">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="S849">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T849">
         <v>2.75</v>
       </c>
       <c r="U849">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V849">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W849">
         <v>-1</v>
@@ -76086,19 +76086,19 @@
         <v>-1</v>
       </c>
       <c r="Y849">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z849">
         <v>-1</v>
       </c>
       <c r="AA849">
-        <v>0.9299999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB849">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC849">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="850" spans="1:29">
@@ -76106,7 +76106,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>6847587</v>
+        <v>6847590</v>
       </c>
       <c r="C850" t="s">
         <v>28</v>
@@ -76118,13 +76118,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F850" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G850" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I850">
         <v>3</v>
@@ -76133,40 +76133,40 @@
         <v>51</v>
       </c>
       <c r="K850">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L850">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M850">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="N850">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O850">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P850">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q850">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R850">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="S850">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="T850">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U850">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V850">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="W850">
         <v>-1</v>
@@ -76175,19 +76175,19 @@
         <v>-1</v>
       </c>
       <c r="Y850">
-        <v>0.6000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="Z850">
         <v>-1</v>
       </c>
       <c r="AA850">
-        <v>0.99</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB850">
-        <v>0</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC850">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="851" spans="1:29">
@@ -76195,7 +76195,7 @@
         <v>849</v>
       </c>
       <c r="B851">
-        <v>6847588</v>
+        <v>6846935</v>
       </c>
       <c r="C851" t="s">
         <v>28</v>
@@ -76207,76 +76207,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F851" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G851" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H851">
+        <v>2</v>
+      </c>
+      <c r="I851">
         <v>0</v>
       </c>
-      <c r="I851">
+      <c r="J851" t="s">
+        <v>52</v>
+      </c>
+      <c r="K851">
         <v>2</v>
       </c>
-      <c r="J851" t="s">
-        <v>51</v>
-      </c>
-      <c r="K851">
-        <v>2.3</v>
-      </c>
       <c r="L851">
+        <v>3.6</v>
+      </c>
+      <c r="M851">
+        <v>3.5</v>
+      </c>
+      <c r="N851">
+        <v>2.15</v>
+      </c>
+      <c r="O851">
         <v>3.4</v>
       </c>
-      <c r="M851">
-        <v>3</v>
-      </c>
-      <c r="N851">
-        <v>2.7</v>
-      </c>
-      <c r="O851">
-        <v>3.5</v>
-      </c>
       <c r="P851">
+        <v>3.3</v>
+      </c>
+      <c r="Q851">
+        <v>-0.25</v>
+      </c>
+      <c r="R851">
+        <v>1.9</v>
+      </c>
+      <c r="S851">
+        <v>2</v>
+      </c>
+      <c r="T851">
         <v>2.5</v>
       </c>
-      <c r="Q851">
-        <v>0</v>
-      </c>
-      <c r="R851">
-        <v>2.07</v>
-      </c>
-      <c r="S851">
-        <v>1.83</v>
-      </c>
-      <c r="T851">
-        <v>2.75</v>
-      </c>
       <c r="U851">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V851">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W851">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X851">
         <v>-1</v>
       </c>
       <c r="Y851">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z851">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA851">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB851">
         <v>-1</v>
       </c>
       <c r="AC851">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="852" spans="1:29">
@@ -76284,7 +76284,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>6846935</v>
+        <v>6847587</v>
       </c>
       <c r="C852" t="s">
         <v>28</v>
@@ -76296,76 +76296,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F852" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G852" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852">
+        <v>3</v>
+      </c>
+      <c r="J852" t="s">
+        <v>51</v>
+      </c>
+      <c r="K852">
+        <v>4</v>
+      </c>
+      <c r="L852">
+        <v>3.9</v>
+      </c>
+      <c r="M852">
+        <v>1.8</v>
+      </c>
+      <c r="N852">
+        <v>5.25</v>
+      </c>
+      <c r="O852">
+        <v>4.5</v>
+      </c>
+      <c r="P852">
+        <v>1.6</v>
+      </c>
+      <c r="Q852">
+        <v>1</v>
+      </c>
+      <c r="R852">
+        <v>1.91</v>
+      </c>
+      <c r="S852">
+        <v>1.99</v>
+      </c>
+      <c r="T852">
+        <v>3</v>
+      </c>
+      <c r="U852">
+        <v>1.92</v>
+      </c>
+      <c r="V852">
+        <v>1.98</v>
+      </c>
+      <c r="W852">
+        <v>-1</v>
+      </c>
+      <c r="X852">
+        <v>-1</v>
+      </c>
+      <c r="Y852">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z852">
+        <v>-1</v>
+      </c>
+      <c r="AA852">
+        <v>0.99</v>
+      </c>
+      <c r="AB852">
         <v>0</v>
       </c>
-      <c r="J852" t="s">
-        <v>52</v>
-      </c>
-      <c r="K852">
-        <v>2</v>
-      </c>
-      <c r="L852">
-        <v>3.6</v>
-      </c>
-      <c r="M852">
-        <v>3.5</v>
-      </c>
-      <c r="N852">
-        <v>2.15</v>
-      </c>
-      <c r="O852">
-        <v>3.4</v>
-      </c>
-      <c r="P852">
-        <v>3.3</v>
-      </c>
-      <c r="Q852">
-        <v>-0.25</v>
-      </c>
-      <c r="R852">
-        <v>1.9</v>
-      </c>
-      <c r="S852">
-        <v>2</v>
-      </c>
-      <c r="T852">
-        <v>2.5</v>
-      </c>
-      <c r="U852">
-        <v>2</v>
-      </c>
-      <c r="V852">
-        <v>1.9</v>
-      </c>
-      <c r="W852">
-        <v>1.15</v>
-      </c>
-      <c r="X852">
-        <v>-1</v>
-      </c>
-      <c r="Y852">
-        <v>-1</v>
-      </c>
-      <c r="Z852">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA852">
-        <v>-1</v>
-      </c>
-      <c r="AB852">
-        <v>-1</v>
-      </c>
       <c r="AC852">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="853" spans="1:29">
@@ -77619,7 +77619,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>6847604</v>
+        <v>6847602</v>
       </c>
       <c r="C867" t="s">
         <v>28</v>
@@ -77631,55 +77631,55 @@
         <v>45220.4375</v>
       </c>
       <c r="F867" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G867" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I867">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J867" t="s">
         <v>51</v>
       </c>
       <c r="K867">
+        <v>2.45</v>
+      </c>
+      <c r="L867">
         <v>3.3</v>
       </c>
-      <c r="L867">
-        <v>3.5</v>
-      </c>
       <c r="M867">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N867">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O867">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P867">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q867">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R867">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="S867">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="T867">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U867">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="V867">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W867">
         <v>-1</v>
@@ -77688,19 +77688,19 @@
         <v>-1</v>
       </c>
       <c r="Y867">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="Z867">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA867">
-        <v>0.495</v>
+        <v>1.09</v>
       </c>
       <c r="AB867">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC867">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="868" spans="1:29">
@@ -77797,7 +77797,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>6847602</v>
+        <v>6847604</v>
       </c>
       <c r="C869" t="s">
         <v>28</v>
@@ -77809,76 +77809,76 @@
         <v>45220.4375</v>
       </c>
       <c r="F869" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G869" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I869">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J869" t="s">
         <v>51</v>
       </c>
       <c r="K869">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="L869">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M869">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N869">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O869">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P869">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="Q869">
+        <v>0.75</v>
+      </c>
+      <c r="R869">
+        <v>1.94</v>
+      </c>
+      <c r="S869">
+        <v>1.99</v>
+      </c>
+      <c r="T869">
+        <v>3</v>
+      </c>
+      <c r="U869">
+        <v>2.05</v>
+      </c>
+      <c r="V869">
+        <v>1.85</v>
+      </c>
+      <c r="W869">
+        <v>-1</v>
+      </c>
+      <c r="X869">
+        <v>-1</v>
+      </c>
+      <c r="Y869">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z869">
+        <v>-0.5</v>
+      </c>
+      <c r="AA869">
+        <v>0.495</v>
+      </c>
+      <c r="AB869">
         <v>0</v>
       </c>
-      <c r="R869">
-        <v>1.84</v>
-      </c>
-      <c r="S869">
-        <v>2.09</v>
-      </c>
-      <c r="T869">
-        <v>2.5</v>
-      </c>
-      <c r="U869">
-        <v>2.06</v>
-      </c>
-      <c r="V869">
-        <v>1.84</v>
-      </c>
-      <c r="W869">
-        <v>-1</v>
-      </c>
-      <c r="X869">
-        <v>-1</v>
-      </c>
-      <c r="Y869">
-        <v>1.875</v>
-      </c>
-      <c r="Z869">
-        <v>-1</v>
-      </c>
-      <c r="AA869">
-        <v>1.09</v>
-      </c>
-      <c r="AB869">
-        <v>1.06</v>
-      </c>
       <c r="AC869">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="870" spans="1:29">
@@ -79132,7 +79132,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>6846939</v>
+        <v>6847622</v>
       </c>
       <c r="C884" t="s">
         <v>28</v>
@@ -79144,13 +79144,13 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F884" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G884" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884">
         <v>3</v>
@@ -79159,40 +79159,40 @@
         <v>51</v>
       </c>
       <c r="K884">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L884">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M884">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="N884">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O884">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P884">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q884">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R884">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="S884">
-        <v>2.125</v>
+        <v>2.06</v>
       </c>
       <c r="T884">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U884">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V884">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W884">
         <v>-1</v>
@@ -79201,16 +79201,16 @@
         <v>-1</v>
       </c>
       <c r="Y884">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Z884">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AA884">
-        <v>1.125</v>
+        <v>-0.5</v>
       </c>
       <c r="AB884">
-        <v>0.8700000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC884">
         <v>-1</v>
@@ -79310,7 +79310,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>6847622</v>
+        <v>6847620</v>
       </c>
       <c r="C886" t="s">
         <v>28</v>
@@ -79322,76 +79322,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F886" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G886" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H886">
         <v>2</v>
       </c>
       <c r="I886">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J886" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K886">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L886">
         <v>4</v>
       </c>
       <c r="M886">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N886">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O886">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P886">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q886">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R886">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="S886">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="T886">
+        <v>2.75</v>
+      </c>
+      <c r="U886">
+        <v>1.88</v>
+      </c>
+      <c r="V886">
+        <v>2.02</v>
+      </c>
+      <c r="W886">
         <v>3.5</v>
       </c>
-      <c r="U886">
-        <v>1.97</v>
-      </c>
-      <c r="V886">
-        <v>1.93</v>
-      </c>
-      <c r="W886">
-        <v>-1</v>
-      </c>
       <c r="X886">
         <v>-1</v>
       </c>
       <c r="Y886">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z886">
-        <v>0.42</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA886">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB886">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AC886">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="887" spans="1:29">
@@ -79399,7 +79399,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>6847618</v>
+        <v>6846939</v>
       </c>
       <c r="C887" t="s">
         <v>28</v>
@@ -79411,73 +79411,73 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F887" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G887" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H887">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887">
         <v>3</v>
       </c>
       <c r="J887" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K887">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L887">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M887">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N887">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O887">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P887">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q887">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R887">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="S887">
-        <v>1.92</v>
+        <v>2.125</v>
       </c>
       <c r="T887">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U887">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="V887">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="W887">
         <v>-1</v>
       </c>
       <c r="X887">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y887">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z887">
         <v>-1</v>
       </c>
       <c r="AA887">
-        <v>0.9199999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="AB887">
-        <v>1.09</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC887">
         <v>-1</v>
@@ -79488,7 +79488,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>6847620</v>
+        <v>6847618</v>
       </c>
       <c r="C888" t="s">
         <v>28</v>
@@ -79500,76 +79500,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F888" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G888" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I888">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J888" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K888">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L888">
         <v>4</v>
       </c>
       <c r="M888">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N888">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O888">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P888">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="Q888">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R888">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="S888">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="T888">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U888">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="V888">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="W888">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X888">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y888">
         <v>-1</v>
       </c>
       <c r="Z888">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA888">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB888">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AC888">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="889" spans="1:29">
@@ -87003,10 +87003,10 @@
         <v>0.75</v>
       </c>
       <c r="R972">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S972">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T972">
         <v>3.25</v>
@@ -87077,19 +87077,19 @@
         <v>1.5</v>
       </c>
       <c r="R973">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S973">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T973">
         <v>3.25</v>
       </c>
       <c r="U973">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V973">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W973">
         <v>0</v>
@@ -87160,10 +87160,10 @@
         <v>2.75</v>
       </c>
       <c r="U974">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="V974">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W974">
         <v>0</v>
@@ -87299,19 +87299,19 @@
         <v>-2.25</v>
       </c>
       <c r="R976">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S976">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T976">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U976">
+        <v>2.06</v>
+      </c>
+      <c r="V976">
         <v>1.84</v>
-      </c>
-      <c r="V976">
-        <v>2.06</v>
       </c>
       <c r="W976">
         <v>0</v>
@@ -87447,10 +87447,10 @@
         <v>0.25</v>
       </c>
       <c r="R978">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S978">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T978">
         <v>2.5</v>
@@ -87595,19 +87595,19 @@
         <v>-1.25</v>
       </c>
       <c r="R980">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S980">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T980">
         <v>3</v>
       </c>
       <c r="U980">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V980">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W980">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC980"/>
+  <dimension ref="A1:AC981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45490,7 +45490,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>5174370</v>
+        <v>5174369</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45502,76 +45502,76 @@
         <v>44786.4375</v>
       </c>
       <c r="F506" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G506" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J506" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K506">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L506">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M506">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N506">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O506">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P506">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q506">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R506">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="S506">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="T506">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U506">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="V506">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="W506">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X506">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y506">
         <v>-1</v>
       </c>
       <c r="Z506">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AA506">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB506">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC506">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45579,7 +45579,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>5174369</v>
+        <v>5174370</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45591,76 +45591,76 @@
         <v>44786.4375</v>
       </c>
       <c r="F507" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G507" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H507">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I507">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K507">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L507">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M507">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N507">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O507">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P507">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q507">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R507">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="S507">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="T507">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U507">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="V507">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="W507">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X507">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y507">
         <v>-1</v>
       </c>
       <c r="Z507">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AA507">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB507">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC507">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -49584,7 +49584,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>5174410</v>
+        <v>5174416</v>
       </c>
       <c r="C552" t="s">
         <v>28</v>
@@ -49596,40 +49596,40 @@
         <v>44821.4375</v>
       </c>
       <c r="F552" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G552" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H552">
         <v>1</v>
       </c>
       <c r="I552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J552" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K552">
-        <v>1.727</v>
+        <v>17</v>
       </c>
       <c r="L552">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M552">
-        <v>4.333</v>
+        <v>1.142</v>
       </c>
       <c r="N552">
-        <v>1.571</v>
+        <v>15</v>
       </c>
       <c r="O552">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="P552">
-        <v>5.25</v>
+        <v>1.181</v>
       </c>
       <c r="Q552">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="R552">
         <v>1.99</v>
@@ -49638,34 +49638,34 @@
         <v>1.91</v>
       </c>
       <c r="T552">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U552">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V552">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W552">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="X552">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y552">
         <v>-1</v>
       </c>
       <c r="Z552">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA552">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB552">
         <v>-1</v>
       </c>
       <c r="AC552">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:29">
@@ -49673,7 +49673,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>5174416</v>
+        <v>5174409</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -49685,10 +49685,10 @@
         <v>44821.4375</v>
       </c>
       <c r="F553" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G553" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H553">
         <v>1</v>
@@ -49700,43 +49700,43 @@
         <v>52</v>
       </c>
       <c r="K553">
-        <v>17</v>
+        <v>1.285</v>
       </c>
       <c r="L553">
+        <v>6</v>
+      </c>
+      <c r="M553">
         <v>8</v>
       </c>
-      <c r="M553">
-        <v>1.142</v>
-      </c>
       <c r="N553">
-        <v>15</v>
+        <v>1.4</v>
       </c>
       <c r="O553">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P553">
-        <v>1.181</v>
+        <v>7</v>
       </c>
       <c r="Q553">
-        <v>2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R553">
+        <v>1.89</v>
+      </c>
+      <c r="S553">
+        <v>2.01</v>
+      </c>
+      <c r="T553">
+        <v>3.25</v>
+      </c>
+      <c r="U553">
         <v>1.99</v>
       </c>
-      <c r="S553">
+      <c r="V553">
         <v>1.91</v>
       </c>
-      <c r="T553">
-        <v>4</v>
-      </c>
-      <c r="U553">
-        <v>1.9</v>
-      </c>
-      <c r="V553">
-        <v>2</v>
-      </c>
       <c r="W553">
-        <v>14</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X553">
         <v>-1</v>
@@ -49745,16 +49745,16 @@
         <v>-1</v>
       </c>
       <c r="Z553">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AA553">
-        <v>-1</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB553">
         <v>-1</v>
       </c>
       <c r="AC553">
-        <v>1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="554" spans="1:29">
@@ -49762,7 +49762,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>5174409</v>
+        <v>5174410</v>
       </c>
       <c r="C554" t="s">
         <v>28</v>
@@ -49774,76 +49774,76 @@
         <v>44821.4375</v>
       </c>
       <c r="F554" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G554" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H554">
         <v>1</v>
       </c>
       <c r="I554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J554" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K554">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="L554">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M554">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N554">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O554">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P554">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q554">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R554">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="S554">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="T554">
         <v>3.25</v>
       </c>
       <c r="U554">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="V554">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W554">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X554">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y554">
         <v>-1</v>
       </c>
       <c r="Z554">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA554">
-        <v>0.5049999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB554">
         <v>-1</v>
       </c>
       <c r="AC554">
-        <v>0.9099999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="555" spans="1:29">
@@ -56704,7 +56704,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>5174498</v>
+        <v>5174492</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56716,76 +56716,76 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F632" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G632" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I632">
         <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K632">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L632">
         <v>3.6</v>
       </c>
       <c r="M632">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N632">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O632">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P632">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q632">
         <v>-0.25</v>
       </c>
       <c r="R632">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S632">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T632">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U632">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V632">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W632">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X632">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y632">
         <v>-1</v>
       </c>
       <c r="Z632">
-        <v>-0.5</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA632">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB632">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC632">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56793,7 +56793,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5174492</v>
+        <v>5174498</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56805,76 +56805,76 @@
         <v>44947.47916666666</v>
       </c>
       <c r="F633" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G633" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H633">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I633">
         <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K633">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L633">
         <v>3.6</v>
       </c>
       <c r="M633">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N633">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O633">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P633">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q633">
         <v>-0.25</v>
       </c>
       <c r="R633">
+        <v>1.97</v>
+      </c>
+      <c r="S633">
+        <v>1.93</v>
+      </c>
+      <c r="T633">
+        <v>2.5</v>
+      </c>
+      <c r="U633">
+        <v>1.99</v>
+      </c>
+      <c r="V633">
         <v>1.91</v>
       </c>
-      <c r="S633">
-        <v>1.99</v>
-      </c>
-      <c r="T633">
-        <v>2.25</v>
-      </c>
-      <c r="U633">
-        <v>2.02</v>
-      </c>
-      <c r="V633">
-        <v>1.88</v>
-      </c>
       <c r="W633">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X633">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y633">
         <v>-1</v>
       </c>
       <c r="Z633">
+        <v>-0.5</v>
+      </c>
+      <c r="AA633">
+        <v>0.465</v>
+      </c>
+      <c r="AB633">
+        <v>-1</v>
+      </c>
+      <c r="AC633">
         <v>0.9099999999999999</v>
-      </c>
-      <c r="AA633">
-        <v>-1</v>
-      </c>
-      <c r="AB633">
-        <v>1.02</v>
-      </c>
-      <c r="AC633">
-        <v>-1</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -57505,7 +57505,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>5174505</v>
+        <v>5174503</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57517,73 +57517,73 @@
         <v>44950.6875</v>
       </c>
       <c r="F641" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G641" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J641" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K641">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L641">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M641">
+        <v>3.75</v>
+      </c>
+      <c r="N641">
+        <v>2.1</v>
+      </c>
+      <c r="O641">
+        <v>3.6</v>
+      </c>
+      <c r="P641">
+        <v>3.3</v>
+      </c>
+      <c r="Q641">
+        <v>-0.25</v>
+      </c>
+      <c r="R641">
+        <v>1.84</v>
+      </c>
+      <c r="S641">
+        <v>2.06</v>
+      </c>
+      <c r="T641">
         <v>2.75</v>
       </c>
-      <c r="N641">
-        <v>2.875</v>
-      </c>
-      <c r="O641">
-        <v>3.4</v>
-      </c>
-      <c r="P641">
-        <v>2.4</v>
-      </c>
-      <c r="Q641">
-        <v>0.25</v>
-      </c>
-      <c r="R641">
-        <v>1.82</v>
-      </c>
-      <c r="S641">
-        <v>2.08</v>
-      </c>
-      <c r="T641">
-        <v>2.5</v>
-      </c>
       <c r="U641">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="V641">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="W641">
         <v>-1</v>
       </c>
       <c r="X641">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y641">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z641">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA641">
-        <v>1.08</v>
+        <v>0.53</v>
       </c>
       <c r="AB641">
-        <v>0.9299999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC641">
         <v>-1</v>
@@ -57594,7 +57594,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>5174499</v>
+        <v>5174505</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57606,76 +57606,76 @@
         <v>44950.6875</v>
       </c>
       <c r="F642" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G642" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J642" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K642">
-        <v>1.166</v>
+        <v>2.5</v>
       </c>
       <c r="L642">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M642">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="N642">
-        <v>1.2</v>
+        <v>2.875</v>
       </c>
       <c r="O642">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P642">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="Q642">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R642">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="S642">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="T642">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U642">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V642">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="W642">
         <v>-1</v>
       </c>
       <c r="X642">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y642">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z642">
         <v>-1</v>
       </c>
       <c r="AA642">
-        <v>0.8799999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="AB642">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC642">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -57683,7 +57683,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>5174503</v>
+        <v>5174499</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57695,76 +57695,76 @@
         <v>44950.6875</v>
       </c>
       <c r="F643" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G643" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I643">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J643" t="s">
         <v>53</v>
       </c>
       <c r="K643">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L643">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M643">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="N643">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O643">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P643">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q643">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R643">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S643">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T643">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U643">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V643">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W643">
         <v>-1</v>
       </c>
       <c r="X643">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y643">
         <v>-1</v>
       </c>
       <c r="Z643">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA643">
-        <v>0.53</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB643">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC643">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="644" spans="1:29">
@@ -57861,7 +57861,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>5174501</v>
+        <v>5174507</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57873,40 +57873,40 @@
         <v>44951.6875</v>
       </c>
       <c r="F645" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G645" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H645">
         <v>1</v>
       </c>
       <c r="I645">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J645" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K645">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L645">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M645">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N645">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O645">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P645">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q645">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R645">
         <v>2.06</v>
@@ -57915,34 +57915,34 @@
         <v>1.84</v>
       </c>
       <c r="T645">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U645">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V645">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W645">
         <v>-1</v>
       </c>
       <c r="X645">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y645">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z645">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA645">
-        <v>0.42</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB645">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC645">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -57950,7 +57950,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5174507</v>
+        <v>5174501</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57962,40 +57962,40 @@
         <v>44951.6875</v>
       </c>
       <c r="F646" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G646" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H646">
         <v>1</v>
       </c>
       <c r="I646">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J646" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K646">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L646">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M646">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N646">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O646">
+        <v>3.4</v>
+      </c>
+      <c r="P646">
         <v>3.1</v>
       </c>
-      <c r="P646">
-        <v>2.6</v>
-      </c>
       <c r="Q646">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R646">
         <v>2.06</v>
@@ -58004,34 +58004,34 @@
         <v>1.84</v>
       </c>
       <c r="T646">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U646">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V646">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W646">
         <v>-1</v>
       </c>
       <c r="X646">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y646">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z646">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA646">
-        <v>0.8400000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="AB646">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC646">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="647" spans="1:29">
@@ -79132,7 +79132,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>6846939</v>
+        <v>6847622</v>
       </c>
       <c r="C884" t="s">
         <v>28</v>
@@ -79144,13 +79144,13 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F884" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G884" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884">
         <v>3</v>
@@ -79159,40 +79159,40 @@
         <v>51</v>
       </c>
       <c r="K884">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L884">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M884">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="N884">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O884">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P884">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q884">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R884">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="S884">
-        <v>2.125</v>
+        <v>2.06</v>
       </c>
       <c r="T884">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U884">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V884">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W884">
         <v>-1</v>
@@ -79201,16 +79201,16 @@
         <v>-1</v>
       </c>
       <c r="Y884">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Z884">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AA884">
-        <v>1.125</v>
+        <v>-0.5</v>
       </c>
       <c r="AB884">
-        <v>0.8700000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC884">
         <v>-1</v>
@@ -79310,7 +79310,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>6847622</v>
+        <v>6846939</v>
       </c>
       <c r="C886" t="s">
         <v>28</v>
@@ -79322,13 +79322,13 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F886" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G886" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886">
         <v>3</v>
@@ -79337,40 +79337,40 @@
         <v>51</v>
       </c>
       <c r="K886">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L886">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M886">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="N886">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O886">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P886">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Q886">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R886">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="S886">
-        <v>2.06</v>
+        <v>2.125</v>
       </c>
       <c r="T886">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U886">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V886">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W886">
         <v>-1</v>
@@ -79379,16 +79379,16 @@
         <v>-1</v>
       </c>
       <c r="Y886">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Z886">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="AA886">
-        <v>-0.5</v>
+        <v>1.125</v>
       </c>
       <c r="AB886">
-        <v>0.97</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC886">
         <v>-1</v>
@@ -80734,7 +80734,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>6847639</v>
+        <v>6847634</v>
       </c>
       <c r="C902" t="s">
         <v>28</v>
@@ -80746,76 +80746,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F902" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G902" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I902">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J902" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K902">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="L902">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M902">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="N902">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="O902">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P902">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="Q902">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R902">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="S902">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="T902">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U902">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="V902">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="W902">
         <v>-1</v>
       </c>
       <c r="X902">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y902">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z902">
         <v>-1</v>
       </c>
       <c r="AA902">
-        <v>0.97</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB902">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC902">
-        <v>0.5149999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="903" spans="1:29">
@@ -80823,7 +80823,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>6847636</v>
+        <v>6847635</v>
       </c>
       <c r="C903" t="s">
         <v>28</v>
@@ -80835,76 +80835,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F903" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G903" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I903">
         <v>1</v>
       </c>
       <c r="J903" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K903">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="L903">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M903">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="N903">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="O903">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P903">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q903">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R903">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S903">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="T903">
         <v>3</v>
       </c>
       <c r="U903">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V903">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W903">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X903">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y903">
         <v>-1</v>
       </c>
       <c r="Z903">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA903">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB903">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC903">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="904" spans="1:29">
@@ -80912,7 +80912,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>6847635</v>
+        <v>6847639</v>
       </c>
       <c r="C904" t="s">
         <v>28</v>
@@ -80924,76 +80924,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F904" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G904" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I904">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J904" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K904">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="L904">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M904">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="N904">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="O904">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P904">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q904">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R904">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S904">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T904">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U904">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="V904">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="W904">
         <v>-1</v>
       </c>
       <c r="X904">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y904">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z904">
         <v>-1</v>
       </c>
       <c r="AA904">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AB904">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC904">
-        <v>0.8300000000000001</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="905" spans="1:29">
@@ -81001,7 +81001,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>6847634</v>
+        <v>6847636</v>
       </c>
       <c r="C905" t="s">
         <v>28</v>
@@ -81013,76 +81013,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F905" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G905" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I905">
         <v>1</v>
       </c>
       <c r="J905" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K905">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L905">
+        <v>3.75</v>
+      </c>
+      <c r="M905">
+        <v>1.95</v>
+      </c>
+      <c r="N905">
         <v>3.6</v>
       </c>
-      <c r="M905">
+      <c r="O905">
         <v>4</v>
       </c>
-      <c r="N905">
-        <v>1.95</v>
-      </c>
-      <c r="O905">
-        <v>3.5</v>
-      </c>
       <c r="P905">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q905">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R905">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S905">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="T905">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U905">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V905">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="W905">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X905">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y905">
         <v>-1</v>
       </c>
       <c r="Z905">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA905">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB905">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC905">
-        <v>0.8600000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="906" spans="1:29">
@@ -81535,7 +81535,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>6847642</v>
+        <v>6847646</v>
       </c>
       <c r="C911" t="s">
         <v>28</v>
@@ -81547,13 +81547,13 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F911" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G911" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I911">
         <v>1</v>
@@ -81562,43 +81562,43 @@
         <v>52</v>
       </c>
       <c r="K911">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="L911">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M911">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="N911">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="O911">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P911">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q911">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R911">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S911">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T911">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U911">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V911">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W911">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="X911">
         <v>-1</v>
@@ -81607,16 +81607,16 @@
         <v>-1</v>
       </c>
       <c r="Z911">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA911">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB911">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC911">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="912" spans="1:29">
@@ -81624,7 +81624,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>6847646</v>
+        <v>6847645</v>
       </c>
       <c r="C912" t="s">
         <v>28</v>
@@ -81636,13 +81636,13 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F912" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G912" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H912">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I912">
         <v>1</v>
@@ -81651,43 +81651,43 @@
         <v>52</v>
       </c>
       <c r="K912">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L912">
         <v>3.6</v>
       </c>
       <c r="M912">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N912">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O912">
+        <v>4</v>
+      </c>
+      <c r="P912">
+        <v>2.9</v>
+      </c>
+      <c r="Q912">
+        <v>-0.25</v>
+      </c>
+      <c r="R912">
+        <v>1.9</v>
+      </c>
+      <c r="S912">
+        <v>2</v>
+      </c>
+      <c r="T912">
         <v>3.5</v>
       </c>
-      <c r="P912">
-        <v>2.625</v>
-      </c>
-      <c r="Q912">
-        <v>0</v>
-      </c>
-      <c r="R912">
-        <v>1.92</v>
-      </c>
-      <c r="S912">
-        <v>2.01</v>
-      </c>
-      <c r="T912">
-        <v>2.75</v>
-      </c>
       <c r="U912">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V912">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W912">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="X912">
         <v>-1</v>
@@ -81696,16 +81696,16 @@
         <v>-1</v>
       </c>
       <c r="Z912">
-        <v>0.9199999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA912">
         <v>-1</v>
       </c>
       <c r="AB912">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AC912">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="913" spans="1:29">
@@ -81713,7 +81713,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>6847645</v>
+        <v>6847642</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81725,10 +81725,10 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F913" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G913" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H913">
         <v>2</v>
@@ -81740,43 +81740,43 @@
         <v>52</v>
       </c>
       <c r="K913">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="L913">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M913">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="N913">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O913">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P913">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="Q913">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R913">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S913">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T913">
         <v>3.5</v>
       </c>
       <c r="U913">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V913">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W913">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X913">
         <v>-1</v>
@@ -81785,16 +81785,16 @@
         <v>-1</v>
       </c>
       <c r="Z913">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA913">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB913">
         <v>-1</v>
       </c>
       <c r="AC913">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="914" spans="1:29">
@@ -82514,7 +82514,7 @@
         <v>920</v>
       </c>
       <c r="B922">
-        <v>6847654</v>
+        <v>6847656</v>
       </c>
       <c r="C922" t="s">
         <v>28</v>
@@ -82526,58 +82526,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F922" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G922" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H922">
+        <v>3</v>
+      </c>
+      <c r="I922">
         <v>2</v>
-      </c>
-      <c r="I922">
-        <v>0</v>
       </c>
       <c r="J922" t="s">
         <v>52</v>
       </c>
       <c r="K922">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L922">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M922">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N922">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O922">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P922">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q922">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R922">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="S922">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T922">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U922">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V922">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W922">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X922">
         <v>-1</v>
@@ -82586,16 +82586,16 @@
         <v>-1</v>
       </c>
       <c r="Z922">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="AA922">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB922">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC922">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="923" spans="1:29">
@@ -82603,7 +82603,7 @@
         <v>921</v>
       </c>
       <c r="B923">
-        <v>6847656</v>
+        <v>6847654</v>
       </c>
       <c r="C923" t="s">
         <v>28</v>
@@ -82615,58 +82615,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F923" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G923" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H923">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I923">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J923" t="s">
         <v>52</v>
       </c>
       <c r="K923">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L923">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M923">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N923">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O923">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P923">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q923">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R923">
+        <v>1.95</v>
+      </c>
+      <c r="S923">
+        <v>1.95</v>
+      </c>
+      <c r="T923">
+        <v>3</v>
+      </c>
+      <c r="U923">
         <v>2.04</v>
       </c>
-      <c r="S923">
+      <c r="V923">
         <v>1.86</v>
       </c>
-      <c r="T923">
-        <v>2.75</v>
-      </c>
-      <c r="U923">
-        <v>2</v>
-      </c>
-      <c r="V923">
-        <v>1.9</v>
-      </c>
       <c r="W923">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="X923">
         <v>-1</v>
@@ -82675,16 +82675,16 @@
         <v>-1</v>
       </c>
       <c r="Z923">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="AA923">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB923">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC923">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="924" spans="1:29">
@@ -83048,7 +83048,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>6847662</v>
+        <v>6847664</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83060,76 +83060,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F928" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G928" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H928">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I928">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J928" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K928">
-        <v>2.35</v>
+        <v>2.875</v>
       </c>
       <c r="L928">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M928">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N928">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O928">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P928">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q928">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R928">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S928">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T928">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U928">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="V928">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W928">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X928">
         <v>-1</v>
       </c>
       <c r="Y928">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z928">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA928">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB928">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC928">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="929" spans="1:29">
@@ -83137,7 +83137,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>6847660</v>
+        <v>6847663</v>
       </c>
       <c r="C929" t="s">
         <v>28</v>
@@ -83149,76 +83149,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F929" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G929" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I929">
         <v>1</v>
       </c>
       <c r="J929" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K929">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L929">
+        <v>4.333</v>
+      </c>
+      <c r="M929">
+        <v>1.75</v>
+      </c>
+      <c r="N929">
+        <v>3</v>
+      </c>
+      <c r="O929">
         <v>4</v>
       </c>
-      <c r="M929">
-        <v>4.333</v>
-      </c>
-      <c r="N929">
-        <v>1.7</v>
-      </c>
-      <c r="O929">
-        <v>4.2</v>
-      </c>
       <c r="P929">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q929">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R929">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S929">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T929">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U929">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V929">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W929">
         <v>-1</v>
       </c>
       <c r="X929">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y929">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z929">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
       <c r="AA929">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB929">
         <v>-1</v>
       </c>
       <c r="AC929">
-        <v>1.04</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="930" spans="1:29">
@@ -83226,7 +83226,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>6847664</v>
+        <v>6847662</v>
       </c>
       <c r="C930" t="s">
         <v>28</v>
@@ -83238,76 +83238,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F930" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G930" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H930">
+        <v>3</v>
+      </c>
+      <c r="I930">
         <v>0</v>
       </c>
-      <c r="I930">
-        <v>1</v>
-      </c>
       <c r="J930" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K930">
-        <v>2.875</v>
+        <v>2.35</v>
       </c>
       <c r="L930">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M930">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N930">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O930">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P930">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q930">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R930">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S930">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="T930">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U930">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V930">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W930">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X930">
         <v>-1</v>
       </c>
       <c r="Y930">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z930">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA930">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB930">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC930">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="931" spans="1:29">
@@ -83315,7 +83315,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>6847663</v>
+        <v>6847660</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83327,76 +83327,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F931" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G931" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I931">
         <v>1</v>
       </c>
       <c r="J931" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K931">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L931">
+        <v>4</v>
+      </c>
+      <c r="M931">
         <v>4.333</v>
       </c>
-      <c r="M931">
-        <v>1.75</v>
-      </c>
       <c r="N931">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O931">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P931">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q931">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R931">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S931">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T931">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U931">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V931">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W931">
         <v>-1</v>
       </c>
       <c r="X931">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y931">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z931">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
       <c r="AA931">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB931">
         <v>-1</v>
       </c>
       <c r="AC931">
-        <v>0.8799999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="932" spans="1:29">
@@ -85362,7 +85362,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>6847686</v>
+        <v>6846947</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85374,73 +85374,73 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F954" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G954" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954">
+        <v>2</v>
+      </c>
+      <c r="J954" t="s">
+        <v>53</v>
+      </c>
+      <c r="K954">
+        <v>4.2</v>
+      </c>
+      <c r="L954">
         <v>4</v>
       </c>
-      <c r="J954" t="s">
-        <v>51</v>
-      </c>
-      <c r="K954">
-        <v>4.333</v>
-      </c>
-      <c r="L954">
-        <v>3.8</v>
-      </c>
       <c r="M954">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="N954">
         <v>3.6</v>
       </c>
       <c r="O954">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P954">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q954">
         <v>0.5</v>
       </c>
       <c r="R954">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S954">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T954">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U954">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V954">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="W954">
         <v>-1</v>
       </c>
       <c r="X954">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y954">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z954">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA954">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB954">
-        <v>0.98</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC954">
         <v>-1</v>
@@ -85451,7 +85451,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>6847683</v>
+        <v>6847686</v>
       </c>
       <c r="C955" t="s">
         <v>28</v>
@@ -85463,40 +85463,40 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F955" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G955" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H955">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I955">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J955" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K955">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L955">
+        <v>3.8</v>
+      </c>
+      <c r="M955">
+        <v>1.75</v>
+      </c>
+      <c r="N955">
         <v>3.6</v>
-      </c>
-      <c r="M955">
-        <v>2.9</v>
-      </c>
-      <c r="N955">
-        <v>1.95</v>
       </c>
       <c r="O955">
         <v>4</v>
       </c>
       <c r="P955">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q955">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R955">
         <v>2</v>
@@ -85505,31 +85505,31 @@
         <v>1.9</v>
       </c>
       <c r="T955">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U955">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V955">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W955">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X955">
         <v>-1</v>
       </c>
       <c r="Y955">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z955">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA955">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB955">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AC955">
         <v>-1</v>
@@ -85540,7 +85540,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>6846947</v>
+        <v>6847683</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85552,73 +85552,73 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F956" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G956" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I956">
         <v>2</v>
       </c>
       <c r="J956" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K956">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L956">
+        <v>3.6</v>
+      </c>
+      <c r="M956">
+        <v>2.9</v>
+      </c>
+      <c r="N956">
+        <v>1.95</v>
+      </c>
+      <c r="O956">
         <v>4</v>
       </c>
-      <c r="M956">
-        <v>1.727</v>
-      </c>
-      <c r="N956">
-        <v>3.6</v>
-      </c>
-      <c r="O956">
-        <v>3.6</v>
-      </c>
       <c r="P956">
+        <v>3.5</v>
+      </c>
+      <c r="Q956">
+        <v>-0.5</v>
+      </c>
+      <c r="R956">
         <v>2</v>
       </c>
-      <c r="Q956">
-        <v>0.5</v>
-      </c>
-      <c r="R956">
-        <v>1.83</v>
-      </c>
       <c r="S956">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T956">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U956">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="V956">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W956">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X956">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y956">
         <v>-1</v>
       </c>
       <c r="Z956">
-        <v>0.8300000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA956">
         <v>-1</v>
       </c>
       <c r="AB956">
-        <v>0.8600000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AC956">
         <v>-1</v>
@@ -86341,7 +86341,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>6847694</v>
+        <v>6847696</v>
       </c>
       <c r="C965" t="s">
         <v>28</v>
@@ -86353,58 +86353,58 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F965" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G965" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H965">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I965">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J965" t="s">
         <v>52</v>
       </c>
       <c r="K965">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L965">
+        <v>3.8</v>
+      </c>
+      <c r="M965">
+        <v>2.375</v>
+      </c>
+      <c r="N965">
+        <v>2.55</v>
+      </c>
+      <c r="O965">
         <v>3.75</v>
       </c>
-      <c r="M965">
-        <v>2.55</v>
-      </c>
-      <c r="N965">
-        <v>2.4</v>
-      </c>
-      <c r="O965">
-        <v>3.4</v>
-      </c>
       <c r="P965">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q965">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R965">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="S965">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="T965">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U965">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V965">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="W965">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X965">
         <v>-1</v>
@@ -86413,13 +86413,13 @@
         <v>-1</v>
       </c>
       <c r="Z965">
-        <v>1.06</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA965">
         <v>-1</v>
       </c>
       <c r="AB965">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AC965">
         <v>-1</v>
@@ -86430,7 +86430,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>6847696</v>
+        <v>6847694</v>
       </c>
       <c r="C966" t="s">
         <v>28</v>
@@ -86442,58 +86442,58 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F966" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G966" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H966">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I966">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J966" t="s">
         <v>52</v>
       </c>
       <c r="K966">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L966">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M966">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="N966">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O966">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P966">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q966">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R966">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="S966">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="T966">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U966">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="V966">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="W966">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="X966">
         <v>-1</v>
@@ -86502,13 +86502,13 @@
         <v>-1</v>
       </c>
       <c r="Z966">
-        <v>0.8799999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AA966">
         <v>-1</v>
       </c>
       <c r="AB966">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC966">
         <v>-1</v>
@@ -87003,19 +87003,19 @@
         <v>0.75</v>
       </c>
       <c r="R972">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S972">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T972">
         <v>3.25</v>
       </c>
       <c r="U972">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V972">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="W972">
         <v>0</v>
@@ -87065,13 +87065,13 @@
         <v>1.3</v>
       </c>
       <c r="N973">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O973">
         <v>6.5</v>
       </c>
       <c r="P973">
-        <v>1.285</v>
+        <v>1.3</v>
       </c>
       <c r="Q973">
         <v>1.75</v>
@@ -87151,10 +87151,10 @@
         <v>-0.25</v>
       </c>
       <c r="R974">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S974">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T974">
         <v>2.75</v>
@@ -87225,10 +87225,10 @@
         <v>0.25</v>
       </c>
       <c r="R975">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S975">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T975">
         <v>2.75</v>
@@ -87299,10 +87299,10 @@
         <v>-2.5</v>
       </c>
       <c r="R976">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S976">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T976">
         <v>4</v>
@@ -87373,19 +87373,19 @@
         <v>-0.25</v>
       </c>
       <c r="R977">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S977">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T977">
         <v>2.5</v>
       </c>
       <c r="U977">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V977">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W977">
         <v>0</v>
@@ -87456,10 +87456,10 @@
         <v>2.5</v>
       </c>
       <c r="U978">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V978">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W978">
         <v>0</v>
@@ -87530,10 +87530,10 @@
         <v>3</v>
       </c>
       <c r="U979">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V979">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W979">
         <v>0</v>
@@ -87595,10 +87595,10 @@
         <v>-1.25</v>
       </c>
       <c r="R980">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S980">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="T980">
         <v>3</v>
@@ -87622,6 +87622,80 @@
         <v>0</v>
       </c>
       <c r="AA980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:27">
+      <c r="A981" s="1">
+        <v>979</v>
+      </c>
+      <c r="B981">
+        <v>7733432</v>
+      </c>
+      <c r="C981" t="s">
+        <v>28</v>
+      </c>
+      <c r="D981" t="s">
+        <v>28</v>
+      </c>
+      <c r="E981" s="2">
+        <v>45329.60416666666</v>
+      </c>
+      <c r="F981" t="s">
+        <v>41</v>
+      </c>
+      <c r="G981" t="s">
+        <v>40</v>
+      </c>
+      <c r="K981">
+        <v>2.05</v>
+      </c>
+      <c r="L981">
+        <v>3.3</v>
+      </c>
+      <c r="M981">
+        <v>3.6</v>
+      </c>
+      <c r="N981">
+        <v>2.05</v>
+      </c>
+      <c r="O981">
+        <v>3.3</v>
+      </c>
+      <c r="P981">
+        <v>3.6</v>
+      </c>
+      <c r="Q981">
+        <v>-0.25</v>
+      </c>
+      <c r="R981">
+        <v>1.81</v>
+      </c>
+      <c r="S981">
+        <v>2.09</v>
+      </c>
+      <c r="T981">
+        <v>2.25</v>
+      </c>
+      <c r="U981">
+        <v>1.98</v>
+      </c>
+      <c r="V981">
+        <v>1.92</v>
+      </c>
+      <c r="W981">
+        <v>0</v>
+      </c>
+      <c r="X981">
+        <v>0</v>
+      </c>
+      <c r="Y981">
+        <v>0</v>
+      </c>
+      <c r="Z981">
+        <v>0</v>
+      </c>
+      <c r="AA981">
         <v>0</v>
       </c>
     </row>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +106,19 @@
     <t>RB Leipzig</t>
   </si>
   <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
     <t>Bochum</t>
   </si>
   <si>
     <t>VfB Stuttgart</t>
   </si>
   <si>
-    <t>Wolfsburg</t>
+    <t>Union Berlin</t>
   </si>
   <si>
     <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
   </si>
   <si>
     <t>Cologne</t>
@@ -133,13 +133,13 @@
     <t>Schalke</t>
   </si>
   <si>
+    <t>Hertha Berlin</t>
+  </si>
+  <si>
     <t>Bayern Munich</t>
   </si>
   <si>
     <t>TSG Hoffenheim</t>
-  </si>
-  <si>
-    <t>Hertha Berlin</t>
   </si>
   <si>
     <t>Mainz</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC371"/>
+  <dimension ref="A1:AC376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5174492</v>
+        <v>5174497</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,7 +732,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -744,43 +744,43 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="S3">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V3">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -789,13 +789,13 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5174497</v>
+        <v>5174498</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,25 +821,25 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
         <v>2.3</v>
@@ -848,46 +848,46 @@
         <v>3.5</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S4">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W4">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5174498</v>
+        <v>5174492</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
         <v>3.6</v>
       </c>
       <c r="M5">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
         <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S5">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V5">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC5">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5174496</v>
+        <v>5174495</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,10 +999,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1011,43 +1011,43 @@
         <v>50</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M6">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S6">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="W6">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1056,16 +1056,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9199999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5174495</v>
+        <v>5174496</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,10 +1088,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1100,43 +1100,43 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
+        <v>1.92</v>
+      </c>
+      <c r="S7">
         <v>1.98</v>
       </c>
-      <c r="S7">
-        <v>1.95</v>
-      </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="V7">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1145,16 +1145,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.98</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5174499</v>
+        <v>5174505</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,73 +1533,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>1.166</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="N12">
-        <v>1.2</v>
+        <v>2.875</v>
       </c>
       <c r="O12">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="Q12">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="S12">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V12">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8799999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC12">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5174503</v>
+        <v>5174499</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,73 +1622,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>49</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M13">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P13">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R13">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S13">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V13">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.53</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB13">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5174505</v>
+        <v>5174503</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,70 +1711,70 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M14">
+        <v>3.75</v>
+      </c>
+      <c r="N14">
+        <v>2.1</v>
+      </c>
+      <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
+        <v>3.3</v>
+      </c>
+      <c r="Q14">
+        <v>-0.25</v>
+      </c>
+      <c r="R14">
+        <v>1.84</v>
+      </c>
+      <c r="S14">
+        <v>2.06</v>
+      </c>
+      <c r="T14">
         <v>2.75</v>
       </c>
-      <c r="N14">
-        <v>2.875</v>
-      </c>
-      <c r="O14">
-        <v>3.4</v>
-      </c>
-      <c r="P14">
-        <v>2.4</v>
-      </c>
-      <c r="Q14">
-        <v>0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.82</v>
-      </c>
-      <c r="S14">
-        <v>2.08</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
       <c r="U14">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="V14">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>1.08</v>
+        <v>0.53</v>
       </c>
       <c r="AB14">
-        <v>0.9299999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1889,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5174513</v>
+        <v>5174511</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,73 +2331,73 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>1.533</v>
+      </c>
+      <c r="L21">
+        <v>4.2</v>
+      </c>
+      <c r="M21">
+        <v>5.75</v>
+      </c>
+      <c r="N21">
+        <v>1.65</v>
+      </c>
+      <c r="O21">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21">
-        <v>1.909</v>
-      </c>
-      <c r="L21">
-        <v>3.8</v>
-      </c>
-      <c r="M21">
-        <v>3.6</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-      <c r="O21">
-        <v>3.75</v>
-      </c>
       <c r="P21">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="V21">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1.01</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2408,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5174514</v>
+        <v>5174512</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,76 +2420,76 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M22">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>1.84</v>
+      </c>
+      <c r="S22">
         <v>2.06</v>
       </c>
-      <c r="S22">
-        <v>1.87</v>
-      </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5174512</v>
+        <v>5174513</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,73 +2509,73 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
         <v>3.8</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O23">
         <v>3.75</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q23">
         <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S23">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="W23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z23">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB23">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5174516</v>
+        <v>5174514</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
+        <v>2.2</v>
+      </c>
+      <c r="Q24">
+        <v>0.25</v>
+      </c>
+      <c r="R24">
+        <v>2.06</v>
+      </c>
+      <c r="S24">
+        <v>1.87</v>
+      </c>
+      <c r="T24">
         <v>2</v>
       </c>
-      <c r="Q24">
-        <v>0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.84</v>
-      </c>
-      <c r="S24">
-        <v>2.06</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
       <c r="U24">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V24">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="W24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z24">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB24">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5174511</v>
+        <v>5174516</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,13 +2687,13 @@
         <v>44954.47916666666</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2702,44 +2702,44 @@
         <v>50</v>
       </c>
       <c r="K25">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="L25">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N25">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S25">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.84</v>
+      </c>
+      <c r="V25">
+        <v>2.06</v>
+      </c>
+      <c r="W25">
         <v>2.5</v>
       </c>
-      <c r="U25">
-        <v>1.86</v>
-      </c>
-      <c r="V25">
-        <v>2.04</v>
-      </c>
-      <c r="W25">
-        <v>0.6499999999999999</v>
-      </c>
       <c r="X25">
         <v>-1</v>
       </c>
@@ -2747,16 +2747,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2776,10 +2776,10 @@
         <v>44954.60416666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3221,7 +3221,7 @@
         <v>44961.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3310,10 +3310,10 @@
         <v>44961.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5174523</v>
+        <v>5174519</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>44961.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N33">
+        <v>3.8</v>
+      </c>
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <v>1.95</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <v>1.87</v>
+      </c>
+      <c r="S33">
+        <v>2.06</v>
+      </c>
+      <c r="T33">
         <v>2.75</v>
       </c>
-      <c r="O33">
-        <v>3.3</v>
-      </c>
-      <c r="P33">
-        <v>2.6</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>2.06</v>
-      </c>
-      <c r="S33">
-        <v>1.84</v>
-      </c>
-      <c r="T33">
+      <c r="U33">
+        <v>2.03</v>
+      </c>
+      <c r="V33">
+        <v>1.87</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
         <v>2.5</v>
       </c>
-      <c r="U33">
-        <v>1.9</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>1.75</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1.06</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5174519</v>
+        <v>5174523</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,76 +3488,76 @@
         <v>44961.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>3.2</v>
+      </c>
+      <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>2.2</v>
+      </c>
+      <c r="N34">
+        <v>2.75</v>
+      </c>
+      <c r="O34">
+        <v>3.3</v>
+      </c>
+      <c r="P34">
+        <v>2.6</v>
+      </c>
+      <c r="Q34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34">
-        <v>3.75</v>
-      </c>
-      <c r="L34">
-        <v>3.5</v>
-      </c>
-      <c r="M34">
-        <v>1.95</v>
-      </c>
-      <c r="N34">
-        <v>3.8</v>
-      </c>
-      <c r="O34">
-        <v>3.5</v>
-      </c>
-      <c r="P34">
-        <v>1.95</v>
-      </c>
-      <c r="Q34">
-        <v>0.5</v>
-      </c>
       <c r="R34">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="S34">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X34">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8700000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3666,7 +3666,7 @@
         <v>44962.47916666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3755,10 +3755,10 @@
         <v>44962.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3847,7 +3847,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>44968.47916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4111,7 +4111,7 @@
         <v>44968.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4292,7 +4292,7 @@
         <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4381,7 +4381,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>44969.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4559,7 +4559,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4648,7 +4648,7 @@
         <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5174540</v>
+        <v>5174541</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,55 +4734,55 @@
         <v>44975.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>51</v>
       </c>
       <c r="K48">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="S48">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="V48">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4791,19 +4791,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1.03</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5174541</v>
+        <v>5174543</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4826,73 +4826,73 @@
         <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L49">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
+        <v>2.9</v>
+      </c>
+      <c r="N49">
         <v>2.25</v>
       </c>
-      <c r="N49">
-        <v>2.8</v>
-      </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="S49">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="V49">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA49">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC49">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5174543</v>
+        <v>5174538</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,58 +4912,58 @@
         <v>44975.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>50</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="N50">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P50">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R50">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="S50">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4972,13 +4972,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.97</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5174538</v>
+        <v>5174540</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>44975.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="N51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q51">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S51">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T51">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="W51">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z51">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0.455</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>44975.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5179,7 +5179,7 @@
         <v>44976.47916666666</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5271,7 +5271,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5538,7 +5538,7 @@
         <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5174550</v>
+        <v>5174547</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,76 +5624,76 @@
         <v>44982.47916666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>2</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L58">
         <v>3.4</v>
       </c>
       <c r="M58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N58">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>2.07</v>
+      </c>
+      <c r="S58">
         <v>1.83</v>
-      </c>
-      <c r="S58">
-        <v>2.07</v>
       </c>
       <c r="T58">
         <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>0.8300000000000001</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5174547</v>
+        <v>5174549</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,55 +5713,55 @@
         <v>44982.47916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>51</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
+        <v>1.666</v>
+      </c>
+      <c r="Q59">
+        <v>0.75</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>1.88</v>
+      </c>
+      <c r="T59">
         <v>3</v>
       </c>
-      <c r="Q59">
-        <v>-0.25</v>
-      </c>
-      <c r="R59">
-        <v>2.07</v>
-      </c>
-      <c r="S59">
-        <v>1.83</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5770,19 +5770,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>0.8300000000000001</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5174549</v>
+        <v>5174550</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,76 +5802,76 @@
         <v>44982.47916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K60">
+        <v>2.2</v>
+      </c>
+      <c r="L60">
+        <v>3.4</v>
+      </c>
+      <c r="M60">
+        <v>3.25</v>
+      </c>
+      <c r="N60">
+        <v>2.05</v>
+      </c>
+      <c r="O60">
         <v>3.6</v>
       </c>
-      <c r="L60">
-        <v>3.8</v>
-      </c>
-      <c r="M60">
-        <v>1.909</v>
-      </c>
-      <c r="N60">
-        <v>4.333</v>
-      </c>
-      <c r="O60">
-        <v>4.5</v>
-      </c>
       <c r="P60">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S60">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="V60">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>1.14</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5983,7 +5983,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6158,10 +6158,10 @@
         <v>44983.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6425,7 +6425,7 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -6606,7 +6606,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -6781,10 +6781,10 @@
         <v>44989.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6873,7 +6873,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -6959,10 +6959,10 @@
         <v>44990.5625</v>
       </c>
       <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
         <v>33</v>
-      </c>
-      <c r="G73" t="s">
-        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7051,7 +7051,7 @@
         <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>44</v>
@@ -7315,10 +7315,10 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
         <v>42</v>
@@ -7585,7 +7585,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7760,10 +7760,10 @@
         <v>44997.64583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7938,10 +7938,10 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8027,10 +8027,10 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8116,7 +8116,7 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>29</v>
@@ -8383,10 +8383,10 @@
         <v>45004.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8475,7 +8475,7 @@
         <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8650,10 +8650,10 @@
         <v>45016.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8739,10 +8739,10 @@
         <v>45017.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8917,7 +8917,7 @@
         <v>45017.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
         <v>44</v>
@@ -9009,7 +9009,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>45017.5625</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
         <v>36</v>
@@ -9365,7 +9365,7 @@
         <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5174590</v>
+        <v>5174589</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,13 +9451,13 @@
         <v>45024.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -9466,43 +9466,43 @@
         <v>50</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N101">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="S101">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>0.8500000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9511,16 +9511,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8899999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>0.9299999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5174589</v>
+        <v>5174590</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,13 +9540,13 @@
         <v>45024.4375</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9555,43 +9555,43 @@
         <v>50</v>
       </c>
       <c r="K102">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S102">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="W102">
-        <v>0.6659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9600,16 +9600,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.43</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.475</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5174591</v>
+        <v>5174596</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,55 +9629,55 @@
         <v>45024.4375</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="L103">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="N103">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O103">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q103">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
+        <v>2.02</v>
+      </c>
+      <c r="S103">
         <v>1.88</v>
       </c>
-      <c r="S103">
-        <v>2.02</v>
-      </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9686,19 +9686,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.45</v>
+        <v>1.15</v>
       </c>
       <c r="Z103">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5174592</v>
+        <v>5174591</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,76 +9718,76 @@
         <v>45024.4375</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>51</v>
+      </c>
+      <c r="K104">
+        <v>5.75</v>
+      </c>
+      <c r="L104">
+        <v>4.75</v>
+      </c>
+      <c r="M104">
+        <v>1.5</v>
+      </c>
+      <c r="N104">
+        <v>6.5</v>
+      </c>
+      <c r="O104">
+        <v>5</v>
+      </c>
+      <c r="P104">
+        <v>1.45</v>
+      </c>
+      <c r="Q104">
+        <v>1.25</v>
+      </c>
+      <c r="R104">
+        <v>1.88</v>
+      </c>
+      <c r="S104">
+        <v>2.02</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>1.9</v>
+      </c>
+      <c r="V104">
         <v>2</v>
       </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
-      <c r="J104" t="s">
-        <v>49</v>
-      </c>
-      <c r="K104">
-        <v>1.8</v>
-      </c>
-      <c r="L104">
-        <v>3.8</v>
-      </c>
-      <c r="M104">
-        <v>4</v>
-      </c>
-      <c r="N104">
-        <v>1.7</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>4.75</v>
-      </c>
-      <c r="Q104">
-        <v>-0.75</v>
-      </c>
-      <c r="R104">
-        <v>1.93</v>
-      </c>
-      <c r="S104">
-        <v>1.97</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.86</v>
-      </c>
-      <c r="V104">
-        <v>2.04</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5174596</v>
+        <v>5174592</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,73 +9807,73 @@
         <v>45024.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>49</v>
+      </c>
+      <c r="K105">
+        <v>1.8</v>
+      </c>
+      <c r="L105">
+        <v>3.8</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>1.7</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>4.75</v>
+      </c>
+      <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>1.93</v>
+      </c>
+      <c r="S105">
+        <v>1.97</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.86</v>
+      </c>
+      <c r="V105">
+        <v>2.04</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
         <v>3</v>
       </c>
-      <c r="J105" t="s">
-        <v>51</v>
-      </c>
-      <c r="K105">
-        <v>2.9</v>
-      </c>
-      <c r="L105">
-        <v>3.4</v>
-      </c>
-      <c r="M105">
-        <v>2.375</v>
-      </c>
-      <c r="N105">
-        <v>3.5</v>
-      </c>
-      <c r="O105">
-        <v>3.3</v>
-      </c>
-      <c r="P105">
-        <v>2.15</v>
-      </c>
-      <c r="Q105">
-        <v>0.25</v>
-      </c>
-      <c r="R105">
-        <v>2.02</v>
-      </c>
-      <c r="S105">
-        <v>1.88</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.89</v>
-      </c>
-      <c r="V105">
-        <v>2.01</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
       <c r="Y105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8799999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB105">
-        <v>0.8899999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9896,7 +9896,7 @@
         <v>45024.5625</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -9988,7 +9988,7 @@
         <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10074,10 +10074,10 @@
         <v>45025.52083333334</v>
       </c>
       <c r="F108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s">
         <v>31</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10163,7 +10163,7 @@
         <v>45025.60416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
         <v>38</v>
@@ -10255,7 +10255,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H110">
         <v>5</v>
@@ -10430,10 +10430,10 @@
         <v>45031.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10608,7 +10608,7 @@
         <v>45031.4375</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>36</v>
@@ -10697,7 +10697,7 @@
         <v>45031.5625</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>37</v>
@@ -10875,10 +10875,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F117" t="s">
+        <v>32</v>
+      </c>
+      <c r="G117" t="s">
         <v>30</v>
-      </c>
-      <c r="G117" t="s">
-        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10964,7 +10964,7 @@
         <v>45032.60416666666</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
         <v>45</v>
@@ -11056,7 +11056,7 @@
         <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11142,10 +11142,10 @@
         <v>45038.4375</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11234,7 +11234,7 @@
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11320,7 +11320,7 @@
         <v>45038.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -11409,7 +11409,7 @@
         <v>45038.4375</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>46</v>
@@ -11501,7 +11501,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -11768,7 +11768,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11854,7 +11854,7 @@
         <v>45044.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>36</v>
@@ -12032,7 +12032,7 @@
         <v>45045.4375</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>45</v>
@@ -12121,7 +12121,7 @@
         <v>45045.4375</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>37</v>
@@ -12213,7 +12213,7 @@
         <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12299,7 +12299,7 @@
         <v>45045.4375</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>44</v>
@@ -12477,10 +12477,10 @@
         <v>45046.4375</v>
       </c>
       <c r="F135" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" t="s">
         <v>39</v>
-      </c>
-      <c r="G135" t="s">
-        <v>41</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12566,7 +12566,7 @@
         <v>45046.52083333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12922,10 +12922,10 @@
         <v>45052.4375</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13014,7 +13014,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13103,7 +13103,7 @@
         <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13189,10 +13189,10 @@
         <v>45052.4375</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13281,7 +13281,7 @@
         <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13370,7 +13370,7 @@
         <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>6</v>
@@ -13459,7 +13459,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>5</v>
@@ -13545,7 +13545,7 @@
         <v>45059.4375</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>43</v>
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5465795</v>
+        <v>5465796</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,58 +13634,58 @@
         <v>45059.4375</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
         <v>2</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
+        <v>3.2</v>
+      </c>
+      <c r="N148">
+        <v>2.2</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="N148">
-        <v>1.909</v>
-      </c>
-      <c r="O148">
-        <v>4</v>
-      </c>
       <c r="P148">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.92</v>
+      </c>
+      <c r="V148">
         <v>1.98</v>
       </c>
-      <c r="S148">
-        <v>1.92</v>
-      </c>
-      <c r="T148">
-        <v>3.25</v>
-      </c>
-      <c r="U148">
-        <v>1.99</v>
-      </c>
-      <c r="V148">
-        <v>1.91</v>
-      </c>
       <c r="W148">
-        <v>0.909</v>
+        <v>1.2</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13694,16 +13694,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC148">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5465796</v>
+        <v>5466683</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,58 +13723,58 @@
         <v>45059.4375</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.111</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="M149">
-        <v>3.2</v>
+        <v>19</v>
       </c>
       <c r="N149">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="O149">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="P149">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="U149">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="V149">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W149">
-        <v>1.2</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13783,13 +13783,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5466683</v>
+        <v>5465795</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,58 +13812,58 @@
         <v>45059.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.111</v>
+        <v>1.95</v>
       </c>
       <c r="L150">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>19</v>
+        <v>3.75</v>
       </c>
       <c r="N150">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="O150">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="Q150">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S150">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="T150">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V150">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W150">
-        <v>0.1419999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13872,16 +13872,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13901,7 +13901,7 @@
         <v>45059.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>42</v>
@@ -14079,7 +14079,7 @@
         <v>45060.4375</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>45</v>
@@ -14260,7 +14260,7 @@
         <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5494879</v>
+        <v>5498842</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,73 +14349,73 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K156">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>2.8</v>
+      </c>
+      <c r="N156">
+        <v>2.25</v>
+      </c>
+      <c r="O156">
         <v>3.5</v>
       </c>
-      <c r="M156">
-        <v>3.3</v>
-      </c>
-      <c r="N156">
-        <v>2.4</v>
-      </c>
-      <c r="O156">
-        <v>3.8</v>
-      </c>
       <c r="P156">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S156">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="V156">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X156">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC156">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5498842</v>
+        <v>5494879</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45066.4375</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
         <v>30</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
+        <v>3.3</v>
+      </c>
+      <c r="N157">
+        <v>2.4</v>
+      </c>
+      <c r="O157">
+        <v>3.8</v>
+      </c>
+      <c r="P157">
+        <v>2.7</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.82</v>
+      </c>
+      <c r="S157">
+        <v>2.11</v>
+      </c>
+      <c r="T157">
+        <v>3</v>
+      </c>
+      <c r="U157">
+        <v>1.89</v>
+      </c>
+      <c r="V157">
+        <v>2.01</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>2.8</v>
       </c>
-      <c r="N157">
-        <v>2.25</v>
-      </c>
-      <c r="O157">
-        <v>3.5</v>
-      </c>
-      <c r="P157">
-        <v>3</v>
-      </c>
-      <c r="Q157">
-        <v>-0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.98</v>
-      </c>
-      <c r="S157">
-        <v>1.92</v>
-      </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>2.07</v>
-      </c>
-      <c r="V157">
-        <v>1.83</v>
-      </c>
-      <c r="W157">
-        <v>1.25</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14527,7 +14527,7 @@
         <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14702,7 +14702,7 @@
         <v>45066.5625</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
         <v>29</v>
@@ -14794,7 +14794,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15058,10 +15058,10 @@
         <v>45073.4375</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15147,7 +15147,7 @@
         <v>45073.4375</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15236,7 +15236,7 @@
         <v>45073.4375</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>45</v>
@@ -15592,10 +15592,10 @@
         <v>45073.4375</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15684,7 +15684,7 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15770,7 +15770,7 @@
         <v>45073.4375</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
         <v>46</v>
@@ -15862,7 +15862,7 @@
         <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16037,7 +16037,7 @@
         <v>45157.4375</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
         <v>48</v>
@@ -16126,10 +16126,10 @@
         <v>45157.4375</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>5</v>
@@ -16215,7 +16215,7 @@
         <v>45157.4375</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
         <v>43</v>
@@ -16482,7 +16482,7 @@
         <v>45158.4375</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
         <v>42</v>
@@ -16571,7 +16571,7 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>47</v>
@@ -16663,7 +16663,7 @@
         <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>5</v>
@@ -16752,7 +16752,7 @@
         <v>47</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6847559</v>
+        <v>6847558</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,49 +16838,49 @@
         <v>45164.4375</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K184">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N184">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="O184">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P184">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R184">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="S184">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="T184">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
         <v>1.95</v>
@@ -16892,22 +16892,22 @@
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y184">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
         <v>0.95</v>
-      </c>
-      <c r="AC184">
-        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6847557</v>
+        <v>6847559</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,55 +17016,55 @@
         <v>45164.4375</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>51</v>
       </c>
       <c r="K186">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L186">
         <v>3.4</v>
       </c>
       <c r="M186">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N186">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O186">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S186">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U186">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17073,19 +17073,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="AB186">
-        <v>0.485</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6847558</v>
+        <v>6847557</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,76 +17105,76 @@
         <v>45164.4375</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K187">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="N187">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O187">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q187">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S187">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z187">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17286,7 +17286,7 @@
         <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17372,7 +17372,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
         <v>44</v>
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6847568</v>
+        <v>6847566</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,13 +17550,13 @@
         <v>45171.4375</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -17565,43 +17565,43 @@
         <v>50</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L192">
+        <v>3.6</v>
+      </c>
+      <c r="M192">
+        <v>2.3</v>
+      </c>
+      <c r="N192">
+        <v>2.6</v>
+      </c>
+      <c r="O192">
         <v>3.4</v>
       </c>
-      <c r="M192">
-        <v>3.8</v>
-      </c>
-      <c r="N192">
-        <v>2.25</v>
-      </c>
-      <c r="O192">
-        <v>3.5</v>
-      </c>
       <c r="P192">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V192">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W192">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17610,13 +17610,13 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6847566</v>
+        <v>6847568</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,13 +17639,13 @@
         <v>45171.4375</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -17654,43 +17654,43 @@
         <v>50</v>
       </c>
       <c r="K193">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M193">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="N193">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V193">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="W193">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17699,13 +17699,13 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17817,10 +17817,10 @@
         <v>45171.4375</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>3</v>
@@ -17909,7 +17909,7 @@
         <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17998,7 +17998,7 @@
         <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18084,7 +18084,7 @@
         <v>45172.4375</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>35</v>
@@ -18173,7 +18173,7 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
         <v>29</v>
@@ -18262,7 +18262,7 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
         <v>45</v>
@@ -18529,10 +18529,10 @@
         <v>45185.4375</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18621,7 +18621,7 @@
         <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18710,7 +18710,7 @@
         <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18796,10 +18796,10 @@
         <v>45185.5625</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -19063,7 +19063,7 @@
         <v>45191.64583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
         <v>47</v>
@@ -19333,7 +19333,7 @@
         <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19419,10 +19419,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H213">
         <v>7</v>
@@ -19508,10 +19508,10 @@
         <v>45192.4375</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19775,7 +19775,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G217" t="s">
         <v>43</v>
@@ -19864,7 +19864,7 @@
         <v>45198.64583333334</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
         <v>36</v>
@@ -19953,10 +19953,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F219" t="s">
+        <v>34</v>
+      </c>
+      <c r="G219" t="s">
         <v>33</v>
-      </c>
-      <c r="G219" t="s">
-        <v>34</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20045,7 +20045,7 @@
         <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20134,7 +20134,7 @@
         <v>48</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6847587</v>
+        <v>6847590</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,13 +20220,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F222" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
         <v>3</v>
@@ -20235,40 +20235,40 @@
         <v>51</v>
       </c>
       <c r="K222">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L222">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="N222">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O222">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P222">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q222">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="S222">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="T222">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V222">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20277,19 +20277,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0.6000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.99</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB222">
-        <v>0</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6847590</v>
+        <v>6847587</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,13 +20309,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>3</v>
@@ -20324,40 +20324,40 @@
         <v>51</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L223">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M223">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="N223">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P223">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R223">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S223">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U223">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V223">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="W223">
         <v>-1</v>
@@ -20366,19 +20366,19 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>2.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.9299999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AB223">
-        <v>0.8700000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20401,7 +20401,7 @@
         <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20757,7 +20757,7 @@
         <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H228">
         <v>4</v>
@@ -20831,7 +20831,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6847595</v>
+        <v>6847599</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20843,76 +20843,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K229">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L229">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="O229">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q229">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="S229">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="V229">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.8600000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC229">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20920,7 +20920,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6847599</v>
+        <v>6847595</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20932,76 +20932,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G230" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N230">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="O230">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P230">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R230">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="S230">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="V230">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y230">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8400000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB230">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21021,10 +21021,10 @@
         <v>45206.4375</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H231">
         <v>3</v>
@@ -21113,7 +21113,7 @@
         <v>46</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H232">
         <v>2</v>
@@ -21288,7 +21288,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
         <v>43</v>
@@ -21377,7 +21377,7 @@
         <v>45207.60416666666</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
         <v>48</v>
@@ -21555,10 +21555,10 @@
         <v>45220.4375</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21647,7 +21647,7 @@
         <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21822,10 +21822,10 @@
         <v>45220.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G241" t="s">
         <v>45</v>
@@ -22003,7 +22003,7 @@
         <v>42</v>
       </c>
       <c r="G242" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22267,7 +22267,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F245" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
         <v>42</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6847612</v>
+        <v>6847609</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,58 +22356,58 @@
         <v>45227.4375</v>
       </c>
       <c r="F246" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G246" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>50</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="L246">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M246">
-        <v>3.75</v>
+        <v>21</v>
       </c>
       <c r="N246">
-        <v>1.666</v>
+        <v>1.062</v>
       </c>
       <c r="O246">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P246">
+        <v>23</v>
+      </c>
+      <c r="Q246">
+        <v>-3</v>
+      </c>
+      <c r="R246">
+        <v>1.88</v>
+      </c>
+      <c r="S246">
+        <v>2.02</v>
+      </c>
+      <c r="T246">
         <v>4.5</v>
       </c>
-      <c r="Q246">
-        <v>-0.75</v>
-      </c>
-      <c r="R246">
-        <v>1.87</v>
-      </c>
-      <c r="S246">
-        <v>2.06</v>
-      </c>
-      <c r="T246">
-        <v>3.25</v>
-      </c>
       <c r="U246">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V246">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W246">
-        <v>0.6659999999999999</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22416,16 +22416,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.4350000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC246">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6847609</v>
+        <v>6847612</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,58 +22445,58 @@
         <v>45227.4375</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G247" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H247">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>50</v>
       </c>
       <c r="K247">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="L247">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M247">
-        <v>21</v>
+        <v>3.75</v>
       </c>
       <c r="N247">
-        <v>1.062</v>
+        <v>1.666</v>
       </c>
       <c r="O247">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P247">
-        <v>23</v>
+        <v>4.5</v>
       </c>
       <c r="Q247">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S247">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T247">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U247">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V247">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W247">
-        <v>0.06200000000000006</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22505,16 +22505,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.8799999999999999</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB247">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22537,7 +22537,7 @@
         <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22611,7 +22611,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6847616</v>
+        <v>6847615</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22623,73 +22623,73 @@
         <v>45227.4375</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H249">
+        <v>3</v>
+      </c>
+      <c r="I249">
         <v>2</v>
       </c>
-      <c r="I249">
-        <v>3</v>
-      </c>
       <c r="J249" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K249">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L249">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M249">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N249">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O249">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P249">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q249">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R249">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S249">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="T249">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="V249">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA249">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.8300000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC249">
         <v>-1</v>
@@ -22700,7 +22700,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6847615</v>
+        <v>6847616</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22712,73 +22712,73 @@
         <v>45227.4375</v>
       </c>
       <c r="F250" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G250" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H250">
+        <v>2</v>
+      </c>
+      <c r="I250">
         <v>3</v>
       </c>
-      <c r="I250">
-        <v>2</v>
-      </c>
       <c r="J250" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K250">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M250">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N250">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O250">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P250">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R250">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S250">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U250">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V250">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="W250">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z250">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB250">
-        <v>0.9199999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AC250">
         <v>-1</v>
@@ -22890,7 +22890,7 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
         <v>36</v>
@@ -23071,7 +23071,7 @@
         <v>47</v>
       </c>
       <c r="G254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23246,7 +23246,7 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F256" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G256" t="s">
         <v>45</v>
@@ -23513,10 +23513,10 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F259" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23605,7 +23605,7 @@
         <v>36</v>
       </c>
       <c r="G260" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23691,7 +23691,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G261" t="s">
         <v>46</v>
@@ -23783,7 +23783,7 @@
         <v>48</v>
       </c>
       <c r="G262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H262">
         <v>2</v>
@@ -23872,7 +23872,7 @@
         <v>37</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H263">
         <v>4</v>
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6847626</v>
+        <v>6847627</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,76 +23958,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F264" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264">
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K264">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L264">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M264">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N264">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O264">
         <v>3.8</v>
       </c>
       <c r="P264">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q264">
         <v>0</v>
       </c>
       <c r="R264">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="S264">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="T264">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V264">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X264">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA264">
+        <v>-1</v>
+      </c>
+      <c r="AB264">
         <v>0</v>
       </c>
-      <c r="AA264">
+      <c r="AC264">
         <v>-0</v>
-      </c>
-      <c r="AB264">
-        <v>-1</v>
-      </c>
-      <c r="AC264">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6847627</v>
+        <v>6847626</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,76 +24047,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F265" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265">
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K265">
+        <v>2.55</v>
+      </c>
+      <c r="L265">
+        <v>3.5</v>
+      </c>
+      <c r="M265">
         <v>2.6</v>
       </c>
-      <c r="L265">
-        <v>3.75</v>
-      </c>
-      <c r="M265">
-        <v>2.45</v>
-      </c>
       <c r="N265">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O265">
         <v>3.8</v>
       </c>
       <c r="P265">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q265">
         <v>0</v>
       </c>
       <c r="R265">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S265">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="T265">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U265">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V265">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.8400000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24225,7 +24225,7 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F267" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G267" t="s">
         <v>48</v>
@@ -24314,7 +24314,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G268" t="s">
         <v>35</v>
@@ -24406,7 +24406,7 @@
         <v>45</v>
       </c>
       <c r="G269" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H269">
         <v>4</v>
@@ -24495,7 +24495,7 @@
         <v>46</v>
       </c>
       <c r="G270" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H270">
         <v>2</v>
@@ -24673,7 +24673,7 @@
         <v>35</v>
       </c>
       <c r="G272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -24848,7 +24848,7 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F274" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G274" t="s">
         <v>29</v>
@@ -25026,7 +25026,7 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F276" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
         <v>44</v>
@@ -25204,10 +25204,10 @@
         <v>45255.60416666666</v>
       </c>
       <c r="F278" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25296,7 +25296,7 @@
         <v>48</v>
       </c>
       <c r="G279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25382,7 +25382,7 @@
         <v>45256.5625</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G280" t="s">
         <v>42</v>
@@ -25652,7 +25652,7 @@
         <v>37</v>
       </c>
       <c r="G283" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -25738,10 +25738,10 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F284" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G284" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -25827,7 +25827,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F285" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G285" t="s">
         <v>46</v>
@@ -26097,7 +26097,7 @@
         <v>44</v>
       </c>
       <c r="G288" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H288">
         <v>2</v>
@@ -26183,10 +26183,10 @@
         <v>45268.6875</v>
       </c>
       <c r="F289" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G289" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -26450,7 +26450,7 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F292" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G292" t="s">
         <v>43</v>
@@ -26539,10 +26539,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G293" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H293">
         <v>5</v>
@@ -26628,7 +26628,7 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F294" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G294" t="s">
         <v>37</v>
@@ -26806,7 +26806,7 @@
         <v>45270.47916666666</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G296" t="s">
         <v>45</v>
@@ -27162,10 +27162,10 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F300" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G300" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H300">
         <v>3</v>
@@ -27343,7 +27343,7 @@
         <v>47</v>
       </c>
       <c r="G302" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>29</v>
       </c>
       <c r="G303" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H303">
         <v>3</v>
@@ -27610,7 +27610,7 @@
         <v>45</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H305">
         <v>3</v>
@@ -27696,10 +27696,10 @@
         <v>45277.64583333334</v>
       </c>
       <c r="F306" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H306">
         <v>3</v>
@@ -27874,7 +27874,7 @@
         <v>45279.6875</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G308" t="s">
         <v>47</v>
@@ -28052,7 +28052,7 @@
         <v>45280.60416666666</v>
       </c>
       <c r="F310" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G310" t="s">
         <v>35</v>
@@ -28141,7 +28141,7 @@
         <v>45280.6875</v>
       </c>
       <c r="F311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G311" t="s">
         <v>44</v>
@@ -28233,7 +28233,7 @@
         <v>45</v>
       </c>
       <c r="G312" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H312">
         <v>4</v>
@@ -28319,10 +28319,10 @@
         <v>45280.6875</v>
       </c>
       <c r="F313" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G313" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28408,7 +28408,7 @@
         <v>45280.6875</v>
       </c>
       <c r="F314" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G314" t="s">
         <v>37</v>
@@ -28586,10 +28586,10 @@
         <v>45303.6875</v>
       </c>
       <c r="F316" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G316" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H316">
         <v>3</v>
@@ -28678,7 +28678,7 @@
         <v>29</v>
       </c>
       <c r="G317" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>43</v>
       </c>
       <c r="G318" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -29034,7 +29034,7 @@
         <v>42</v>
       </c>
       <c r="G321" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29209,7 +29209,7 @@
         <v>45305.47916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G323" t="s">
         <v>46</v>
@@ -29301,7 +29301,7 @@
         <v>37</v>
       </c>
       <c r="G324" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H324">
         <v>3</v>
@@ -29387,10 +29387,10 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F325" t="s">
+        <v>30</v>
+      </c>
+      <c r="G325" t="s">
         <v>31</v>
-      </c>
-      <c r="G325" t="s">
-        <v>32</v>
       </c>
       <c r="H325">
         <v>1</v>
@@ -29479,7 +29479,7 @@
         <v>47</v>
       </c>
       <c r="G326" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H326">
         <v>2</v>
@@ -29568,7 +29568,7 @@
         <v>48</v>
       </c>
       <c r="G327" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -29657,7 +29657,7 @@
         <v>43</v>
       </c>
       <c r="G328" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H328">
         <v>3</v>
@@ -29921,7 +29921,7 @@
         <v>45312.47916666666</v>
       </c>
       <c r="F331" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G331" t="s">
         <v>46</v>
@@ -30099,10 +30099,10 @@
         <v>45315.6875</v>
       </c>
       <c r="F333" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G333" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H333">
         <v>1</v>
@@ -30188,7 +30188,7 @@
         <v>45317.6875</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G334" t="s">
         <v>42</v>
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6847693</v>
+        <v>6847692</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,10 +30277,10 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F335" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G335" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H335">
         <v>1</v>
@@ -30292,46 +30292,46 @@
         <v>49</v>
       </c>
       <c r="K335">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L335">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M335">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="N335">
         <v>1.7</v>
       </c>
       <c r="O335">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P335">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q335">
         <v>-0.75</v>
       </c>
       <c r="R335">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S335">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T335">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U335">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="V335">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y335">
         <v>-1</v>
@@ -30340,13 +30340,13 @@
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.8600000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6847692</v>
+        <v>6847693</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,10 +30366,10 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F336" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G336" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30381,46 +30381,46 @@
         <v>49</v>
       </c>
       <c r="K336">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L336">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M336">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="N336">
         <v>1.7</v>
       </c>
       <c r="O336">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P336">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q336">
         <v>-0.75</v>
       </c>
       <c r="R336">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S336">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T336">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U336">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="V336">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="W336">
         <v>-1</v>
       </c>
       <c r="X336">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y336">
         <v>-1</v>
@@ -30429,13 +30429,13 @@
         <v>-1</v>
       </c>
       <c r="AA336">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="AB336">
         <v>-1</v>
       </c>
       <c r="AC336">
-        <v>1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30458,7 +30458,7 @@
         <v>44</v>
       </c>
       <c r="G337" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H337">
         <v>2</v>
@@ -30544,7 +30544,7 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F338" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G338" t="s">
         <v>29</v>
@@ -30811,7 +30811,7 @@
         <v>45319.47916666666</v>
       </c>
       <c r="F341" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G341" t="s">
         <v>47</v>
@@ -30903,7 +30903,7 @@
         <v>36</v>
       </c>
       <c r="G342" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H342">
         <v>3</v>
@@ -31155,7 +31155,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6847702</v>
+        <v>6847697</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31167,49 +31167,49 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F345" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G345" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I345">
         <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K345">
-        <v>2.1</v>
+        <v>1.111</v>
       </c>
       <c r="L345">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="M345">
-        <v>3.5</v>
+        <v>19</v>
       </c>
       <c r="N345">
-        <v>2.3</v>
+        <v>1.142</v>
       </c>
       <c r="O345">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P345">
-        <v>3.1</v>
+        <v>13</v>
       </c>
       <c r="Q345">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R345">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="S345">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="T345">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="U345">
         <v>1.98</v>
@@ -31218,25 +31218,25 @@
         <v>1.92</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X345">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
+        <v>-1</v>
+      </c>
+      <c r="AA345">
+        <v>0.97</v>
+      </c>
+      <c r="AB345">
         <v>-0.5</v>
       </c>
-      <c r="AA345">
-        <v>0.43</v>
-      </c>
-      <c r="AB345">
-        <v>-1</v>
-      </c>
       <c r="AC345">
-        <v>0.9199999999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31244,7 +31244,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6847697</v>
+        <v>6847702</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31256,49 +31256,49 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F346" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G346" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I346">
         <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K346">
-        <v>1.111</v>
+        <v>2.1</v>
       </c>
       <c r="L346">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="M346">
-        <v>19</v>
+        <v>3.5</v>
       </c>
       <c r="N346">
-        <v>1.142</v>
+        <v>2.3</v>
       </c>
       <c r="O346">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="P346">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="Q346">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S346">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="T346">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U346">
         <v>1.98</v>
@@ -31307,25 +31307,25 @@
         <v>1.92</v>
       </c>
       <c r="W346">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="AB346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.46</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31348,7 +31348,7 @@
         <v>43</v>
       </c>
       <c r="G347" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H347">
         <v>1</v>
@@ -31526,7 +31526,7 @@
         <v>35</v>
       </c>
       <c r="G349" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H349">
         <v>2</v>
@@ -31612,10 +31612,10 @@
         <v>45326.47916666666</v>
       </c>
       <c r="F350" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G350" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H350">
         <v>2</v>
@@ -31704,7 +31704,7 @@
         <v>29</v>
       </c>
       <c r="G351" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H351">
         <v>2</v>
@@ -31793,7 +31793,7 @@
         <v>42</v>
       </c>
       <c r="G352" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H352">
         <v>1</v>
@@ -31968,10 +31968,10 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F354" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G354" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -32324,10 +32324,10 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G358" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H358">
         <v>1</v>
@@ -32416,7 +32416,7 @@
         <v>45</v>
       </c>
       <c r="G359" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H359">
         <v>3</v>
@@ -32502,7 +32502,7 @@
         <v>45333.47916666666</v>
       </c>
       <c r="F360" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
         <v>42</v>
@@ -32591,7 +32591,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F361" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G361" t="s">
         <v>35</v>
@@ -32772,7 +32772,7 @@
         <v>47</v>
       </c>
       <c r="G363" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K363">
         <v>5.75</v>
@@ -32787,28 +32787,28 @@
         <v>7</v>
       </c>
       <c r="O363">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P363">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="Q363">
         <v>1.25</v>
       </c>
       <c r="R363">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S363">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T363">
         <v>3</v>
       </c>
       <c r="U363">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="V363">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>1.444</v>
       </c>
       <c r="N364">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O364">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P364">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="Q364">
         <v>1.5</v>
       </c>
       <c r="R364">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="S364">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T364">
         <v>3</v>
       </c>
       <c r="U364">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V364">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="W364">
         <v>0</v>
@@ -32917,10 +32917,10 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F365" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G365" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K365">
         <v>2.1</v>
@@ -32932,31 +32932,31 @@
         <v>3.25</v>
       </c>
       <c r="N365">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O365">
         <v>3.6</v>
       </c>
       <c r="P365">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q365">
         <v>-0.5</v>
       </c>
       <c r="R365">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="S365">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="T365">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U365">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="V365">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="W365">
         <v>0</v>
@@ -33006,10 +33006,10 @@
         <v>3.5</v>
       </c>
       <c r="N366">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O366">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P366">
         <v>3.8</v>
@@ -33027,10 +33027,10 @@
         <v>2.5</v>
       </c>
       <c r="U366">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V366">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W366">
         <v>0</v>
@@ -33065,7 +33065,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F367" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G367" t="s">
         <v>36</v>
@@ -33080,31 +33080,31 @@
         <v>2.3</v>
       </c>
       <c r="N367">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O367">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P367">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q367">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R367">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="S367">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="T367">
         <v>3</v>
       </c>
       <c r="U367">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V367">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W367">
         <v>0</v>
@@ -33154,31 +33154,31 @@
         <v>6.5</v>
       </c>
       <c r="N368">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O368">
         <v>5.5</v>
       </c>
       <c r="P368">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q368">
         <v>-1.5</v>
       </c>
       <c r="R368">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="S368">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="T368">
         <v>3.5</v>
       </c>
       <c r="U368">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V368">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W368">
         <v>0</v>
@@ -33216,7 +33216,7 @@
         <v>43</v>
       </c>
       <c r="G369" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K369">
         <v>2.15</v>
@@ -33240,19 +33240,19 @@
         <v>-0.25</v>
       </c>
       <c r="R369">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S369">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T369">
         <v>2.5</v>
       </c>
       <c r="U369">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="V369">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W369">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>45340.5625</v>
       </c>
       <c r="F370" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G370" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K370">
         <v>8</v>
@@ -33302,13 +33302,13 @@
         <v>1.3</v>
       </c>
       <c r="N370">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O370">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="P370">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="Q370">
         <v>1.5</v>
@@ -33320,13 +33320,13 @@
         <v>1.95</v>
       </c>
       <c r="T370">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U370">
+        <v>2.04</v>
+      </c>
+      <c r="V370">
         <v>1.86</v>
-      </c>
-      <c r="V370">
-        <v>2.04</v>
       </c>
       <c r="W370">
         <v>0</v>
@@ -33415,6 +33415,376 @@
         <v>0</v>
       </c>
       <c r="AA371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:27">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>6847726</v>
+      </c>
+      <c r="C372" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45346.47916666666</v>
+      </c>
+      <c r="F372" t="s">
+        <v>46</v>
+      </c>
+      <c r="G372" t="s">
+        <v>47</v>
+      </c>
+      <c r="K372">
+        <v>1.533</v>
+      </c>
+      <c r="L372">
+        <v>4.5</v>
+      </c>
+      <c r="M372">
+        <v>5</v>
+      </c>
+      <c r="N372">
+        <v>1.6</v>
+      </c>
+      <c r="O372">
+        <v>4.333</v>
+      </c>
+      <c r="P372">
+        <v>5</v>
+      </c>
+      <c r="Q372">
+        <v>-1</v>
+      </c>
+      <c r="R372">
+        <v>2</v>
+      </c>
+      <c r="S372">
+        <v>1.9</v>
+      </c>
+      <c r="T372">
+        <v>2.75</v>
+      </c>
+      <c r="U372">
+        <v>2.02</v>
+      </c>
+      <c r="V372">
+        <v>1.88</v>
+      </c>
+      <c r="W372">
+        <v>0</v>
+      </c>
+      <c r="X372">
+        <v>0</v>
+      </c>
+      <c r="Y372">
+        <v>0</v>
+      </c>
+      <c r="Z372">
+        <v>0</v>
+      </c>
+      <c r="AA372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:27">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>6847728</v>
+      </c>
+      <c r="C373" t="s">
+        <v>28</v>
+      </c>
+      <c r="D373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45346.47916666666</v>
+      </c>
+      <c r="F373" t="s">
+        <v>31</v>
+      </c>
+      <c r="G373" t="s">
+        <v>35</v>
+      </c>
+      <c r="K373">
+        <v>1.363</v>
+      </c>
+      <c r="L373">
+        <v>5</v>
+      </c>
+      <c r="M373">
+        <v>7.5</v>
+      </c>
+      <c r="N373">
+        <v>1.363</v>
+      </c>
+      <c r="O373">
+        <v>5</v>
+      </c>
+      <c r="P373">
+        <v>7.5</v>
+      </c>
+      <c r="Q373">
+        <v>-1.5</v>
+      </c>
+      <c r="R373">
+        <v>2.04</v>
+      </c>
+      <c r="S373">
+        <v>1.86</v>
+      </c>
+      <c r="T373">
+        <v>3</v>
+      </c>
+      <c r="U373">
+        <v>1.95</v>
+      </c>
+      <c r="V373">
+        <v>1.95</v>
+      </c>
+      <c r="W373">
+        <v>0</v>
+      </c>
+      <c r="X373">
+        <v>0</v>
+      </c>
+      <c r="Y373">
+        <v>0</v>
+      </c>
+      <c r="Z373">
+        <v>0</v>
+      </c>
+      <c r="AA373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:27">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>6847723</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45346.47916666666</v>
+      </c>
+      <c r="F374" t="s">
+        <v>32</v>
+      </c>
+      <c r="G374" t="s">
+        <v>48</v>
+      </c>
+      <c r="K374">
+        <v>1.909</v>
+      </c>
+      <c r="L374">
+        <v>3.5</v>
+      </c>
+      <c r="M374">
+        <v>3.75</v>
+      </c>
+      <c r="N374">
+        <v>1.909</v>
+      </c>
+      <c r="O374">
+        <v>3.5</v>
+      </c>
+      <c r="P374">
+        <v>4</v>
+      </c>
+      <c r="Q374">
+        <v>-0.5</v>
+      </c>
+      <c r="R374">
+        <v>1.95</v>
+      </c>
+      <c r="S374">
+        <v>1.95</v>
+      </c>
+      <c r="T374">
+        <v>2.25</v>
+      </c>
+      <c r="U374">
+        <v>1.83</v>
+      </c>
+      <c r="V374">
+        <v>2.07</v>
+      </c>
+      <c r="W374">
+        <v>0</v>
+      </c>
+      <c r="X374">
+        <v>0</v>
+      </c>
+      <c r="Y374">
+        <v>0</v>
+      </c>
+      <c r="Z374">
+        <v>0</v>
+      </c>
+      <c r="AA374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:27">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>6847725</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45346.47916666666</v>
+      </c>
+      <c r="F375" t="s">
+        <v>37</v>
+      </c>
+      <c r="G375" t="s">
+        <v>30</v>
+      </c>
+      <c r="K375">
+        <v>1.8</v>
+      </c>
+      <c r="L375">
+        <v>3.75</v>
+      </c>
+      <c r="M375">
+        <v>4.2</v>
+      </c>
+      <c r="N375">
+        <v>1.8</v>
+      </c>
+      <c r="O375">
+        <v>3.75</v>
+      </c>
+      <c r="P375">
+        <v>4.2</v>
+      </c>
+      <c r="Q375">
+        <v>-0.5</v>
+      </c>
+      <c r="R375">
+        <v>1.85</v>
+      </c>
+      <c r="S375">
+        <v>2.05</v>
+      </c>
+      <c r="T375">
+        <v>3</v>
+      </c>
+      <c r="U375">
+        <v>2.03</v>
+      </c>
+      <c r="V375">
+        <v>1.87</v>
+      </c>
+      <c r="W375">
+        <v>0</v>
+      </c>
+      <c r="X375">
+        <v>0</v>
+      </c>
+      <c r="Y375">
+        <v>0</v>
+      </c>
+      <c r="Z375">
+        <v>0</v>
+      </c>
+      <c r="AA375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:27">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>6847721</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45346.60416666666</v>
+      </c>
+      <c r="F376" t="s">
+        <v>40</v>
+      </c>
+      <c r="G376" t="s">
+        <v>29</v>
+      </c>
+      <c r="K376">
+        <v>1.45</v>
+      </c>
+      <c r="L376">
+        <v>5</v>
+      </c>
+      <c r="M376">
+        <v>5.75</v>
+      </c>
+      <c r="N376">
+        <v>1.5</v>
+      </c>
+      <c r="O376">
+        <v>4.75</v>
+      </c>
+      <c r="P376">
+        <v>5.5</v>
+      </c>
+      <c r="Q376">
+        <v>-1.25</v>
+      </c>
+      <c r="R376">
+        <v>2.07</v>
+      </c>
+      <c r="S376">
+        <v>1.83</v>
+      </c>
+      <c r="T376">
+        <v>3.25</v>
+      </c>
+      <c r="U376">
+        <v>1.87</v>
+      </c>
+      <c r="V376">
+        <v>2.03</v>
+      </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376">
+        <v>0</v>
+      </c>
+      <c r="Y376">
+        <v>0</v>
+      </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
+      <c r="AA376">
         <v>0</v>
       </c>
     </row>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -26527,7 +26527,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6847654</v>
+        <v>6847651</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26539,76 +26539,76 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F293" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G293" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K293">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L293">
+        <v>3.5</v>
+      </c>
+      <c r="M293">
+        <v>3.4</v>
+      </c>
+      <c r="N293">
+        <v>2.15</v>
+      </c>
+      <c r="O293">
         <v>3.6</v>
       </c>
-      <c r="M293">
-        <v>2.9</v>
-      </c>
-      <c r="N293">
-        <v>2.2</v>
-      </c>
-      <c r="O293">
-        <v>3.75</v>
-      </c>
       <c r="P293">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q293">
         <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S293">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T293">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U293">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="V293">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="W293">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z293">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB293">
         <v>-1</v>
       </c>
       <c r="AC293">
-        <v>0.8600000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6847651</v>
+        <v>6847654</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,76 +26628,76 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F294" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G294" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H294">
+        <v>2</v>
+      </c>
+      <c r="I294">
         <v>0</v>
       </c>
-      <c r="I294">
-        <v>1</v>
-      </c>
       <c r="J294" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K294">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L294">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N294">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O294">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P294">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q294">
         <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T294">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U294">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="V294">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA294">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
         <v>-1</v>
       </c>
       <c r="AC294">
-        <v>1.01</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -28129,7 +28129,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6847671</v>
+        <v>6847667</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28141,13 +28141,13 @@
         <v>45280.6875</v>
       </c>
       <c r="F311" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G311" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H311">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -28156,43 +28156,43 @@
         <v>50</v>
       </c>
       <c r="K311">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L311">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M311">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="N311">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="O311">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="P311">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Q311">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R311">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="S311">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T311">
         <v>3.25</v>
       </c>
       <c r="U311">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V311">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W311">
-        <v>0.363</v>
+        <v>0.222</v>
       </c>
       <c r="X311">
         <v>-1</v>
@@ -28201,16 +28201,16 @@
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>1.01</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC311">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28218,7 +28218,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6847668</v>
+        <v>6846945</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28230,76 +28230,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F312" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G312" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H312">
+        <v>2</v>
+      </c>
+      <c r="I312">
         <v>1</v>
       </c>
-      <c r="I312">
-        <v>2</v>
-      </c>
       <c r="J312" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K312">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L312">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M312">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="N312">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="O312">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P312">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q312">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R312">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S312">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T312">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U312">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="V312">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W312">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z312">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AA312">
         <v>-0.5</v>
       </c>
       <c r="AB312">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC312">
-        <v>0.4350000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6847672</v>
+        <v>6847668</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,76 +28319,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F313" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G313" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I313">
         <v>2</v>
       </c>
       <c r="J313" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K313">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L313">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M313">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="N313">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O313">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P313">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q313">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R313">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S313">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T313">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U313">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V313">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W313">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z313">
-        <v>0.9199999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA313">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB313">
-        <v>1.04</v>
+        <v>-0.5</v>
       </c>
       <c r="AC313">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28396,7 +28396,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6846945</v>
+        <v>6847671</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28408,49 +28408,49 @@
         <v>45280.6875</v>
       </c>
       <c r="F314" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G314" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>50</v>
       </c>
       <c r="K314">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L314">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M314">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N314">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="O314">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P314">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R314">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S314">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T314">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U314">
         <v>2.05</v>
@@ -28459,7 +28459,7 @@
         <v>1.85</v>
       </c>
       <c r="W314">
-        <v>0.7</v>
+        <v>0.363</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28468,16 +28468,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.46</v>
+        <v>1.01</v>
       </c>
       <c r="AA314">
+        <v>-1</v>
+      </c>
+      <c r="AB314">
         <v>-0.5</v>
       </c>
-      <c r="AB314">
-        <v>0</v>
-      </c>
       <c r="AC314">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6847667</v>
+        <v>6847672</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,58 +28497,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F315" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G315" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H315">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
         <v>50</v>
       </c>
       <c r="K315">
-        <v>1.2</v>
+        <v>2.625</v>
       </c>
       <c r="L315">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M315">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="N315">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="O315">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P315">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="Q315">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R315">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S315">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T315">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="V315">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="W315">
-        <v>0.222</v>
+        <v>2.1</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28557,13 +28557,13 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.8500000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>0.8999999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AC315">
         <v>-1</v>
@@ -29375,7 +29375,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6846947</v>
+        <v>6847683</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29387,73 +29387,73 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F325" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G325" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I325">
         <v>2</v>
       </c>
       <c r="J325" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K325">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L325">
+        <v>3.6</v>
+      </c>
+      <c r="M325">
+        <v>2.9</v>
+      </c>
+      <c r="N325">
+        <v>1.95</v>
+      </c>
+      <c r="O325">
         <v>4</v>
       </c>
-      <c r="M325">
-        <v>1.727</v>
-      </c>
-      <c r="N325">
-        <v>3.6</v>
-      </c>
-      <c r="O325">
-        <v>3.6</v>
-      </c>
       <c r="P325">
+        <v>3.5</v>
+      </c>
+      <c r="Q325">
+        <v>-0.5</v>
+      </c>
+      <c r="R325">
         <v>2</v>
       </c>
-      <c r="Q325">
-        <v>0.5</v>
-      </c>
-      <c r="R325">
-        <v>1.83</v>
-      </c>
       <c r="S325">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T325">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U325">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="V325">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X325">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.8300000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA325">
         <v>-1</v>
       </c>
       <c r="AB325">
-        <v>0.8600000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AC325">
         <v>-1</v>
@@ -29642,7 +29642,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6847683</v>
+        <v>6846947</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29654,73 +29654,73 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G328" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328">
         <v>2</v>
       </c>
       <c r="J328" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K328">
+        <v>4.2</v>
+      </c>
+      <c r="L328">
+        <v>4</v>
+      </c>
+      <c r="M328">
+        <v>1.727</v>
+      </c>
+      <c r="N328">
+        <v>3.6</v>
+      </c>
+      <c r="O328">
+        <v>3.6</v>
+      </c>
+      <c r="P328">
+        <v>2</v>
+      </c>
+      <c r="Q328">
+        <v>0.5</v>
+      </c>
+      <c r="R328">
+        <v>1.83</v>
+      </c>
+      <c r="S328">
+        <v>2.07</v>
+      </c>
+      <c r="T328">
         <v>2.25</v>
       </c>
-      <c r="L328">
-        <v>3.6</v>
-      </c>
-      <c r="M328">
-        <v>2.9</v>
-      </c>
-      <c r="N328">
-        <v>1.95</v>
-      </c>
-      <c r="O328">
-        <v>4</v>
-      </c>
-      <c r="P328">
-        <v>3.5</v>
-      </c>
-      <c r="Q328">
-        <v>-0.5</v>
-      </c>
-      <c r="R328">
-        <v>2</v>
-      </c>
-      <c r="S328">
-        <v>1.9</v>
-      </c>
-      <c r="T328">
-        <v>3</v>
-      </c>
       <c r="U328">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="V328">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W328">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.99</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC328">
         <v>-1</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -133,16 +133,16 @@
     <t>RB Leipzig</t>
   </si>
   <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
     <t>Heidenheim</t>
   </si>
   <si>
-    <t>Darmstadt</t>
+    <t>Cologne</t>
   </si>
   <si>
     <t>Bochum</t>
-  </si>
-  <si>
-    <t>Cologne</t>
   </si>
   <si>
     <t>SC Freiburg</t>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6847559</v>
+        <v>6847560</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,52 +1527,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
       </c>
       <c r="K12">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
+        <v>2.1</v>
+      </c>
+      <c r="N12">
+        <v>3.8</v>
+      </c>
+      <c r="O12">
         <v>3.4</v>
       </c>
-      <c r="M12">
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>1.89</v>
+      </c>
+      <c r="S12">
+        <v>2.04</v>
+      </c>
+      <c r="T12">
         <v>2.25</v>
       </c>
-      <c r="N12">
-        <v>3.1</v>
-      </c>
-      <c r="O12">
-        <v>3.75</v>
-      </c>
-      <c r="P12">
-        <v>2.15</v>
-      </c>
-      <c r="Q12">
-        <v>0.25</v>
-      </c>
-      <c r="R12">
-        <v>1.93</v>
-      </c>
-      <c r="S12">
-        <v>1.97</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6847560</v>
+        <v>6847559</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,52 +1616,52 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N13">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S13">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1670,16 +1670,16 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="AB13">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6847558</v>
+        <v>6847557</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q14">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S14">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z14">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6847557</v>
+        <v>6847558</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="S15">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA15">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.485</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2239,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6847565</v>
+        <v>6847568</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,58 +2325,58 @@
         <v>45171.4375</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2385,13 +2385,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6847567</v>
+        <v>6847565</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,40 +2414,40 @@
         <v>45171.4375</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
         <v>3.6</v>
       </c>
       <c r="M22">
+        <v>2.8</v>
+      </c>
+      <c r="N22">
+        <v>2.5</v>
+      </c>
+      <c r="O22">
         <v>3.75</v>
       </c>
-      <c r="N22">
-        <v>2.2</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
       <c r="P22">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>1.95</v>
@@ -2456,31 +2456,31 @@
         <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6847563</v>
+        <v>6847567</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,73 +2503,73 @@
         <v>45171.4375</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N23">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q23">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="V23">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W23">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB23">
-        <v>0.99</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6847566</v>
+        <v>6847563</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,58 +2592,58 @@
         <v>45171.4375</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M24">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N24">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P24">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="V24">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="W24">
-        <v>1.6</v>
+        <v>0.222</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,13 +2652,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6847568</v>
+        <v>6847566</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,13 +2681,13 @@
         <v>45171.4375</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2696,43 +2696,43 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>2.3</v>
+      </c>
+      <c r="N25">
+        <v>2.6</v>
+      </c>
+      <c r="O25">
         <v>3.4</v>
       </c>
-      <c r="M25">
-        <v>3.8</v>
-      </c>
-      <c r="N25">
-        <v>2.25</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
       <c r="P25">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V25">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W25">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,13 +2741,13 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3215,7 +3215,7 @@
         <v>45185.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3571,7 +3571,7 @@
         <v>45185.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
         <v>37</v>
@@ -3660,7 +3660,7 @@
         <v>45186.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -3749,7 +3749,7 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
@@ -3841,7 +3841,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6847578</v>
+        <v>6847577</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,13 +3927,13 @@
         <v>45192.4375</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3942,43 +3942,43 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>1.615</v>
+        <v>1.1</v>
       </c>
       <c r="L39">
+        <v>9</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>1.125</v>
+      </c>
+      <c r="O39">
+        <v>9</v>
+      </c>
+      <c r="P39">
+        <v>17</v>
+      </c>
+      <c r="Q39">
+        <v>-2.5</v>
+      </c>
+      <c r="R39">
+        <v>1.99</v>
+      </c>
+      <c r="S39">
+        <v>1.91</v>
+      </c>
+      <c r="T39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>5</v>
-      </c>
-      <c r="N39">
-        <v>1.727</v>
-      </c>
-      <c r="O39">
-        <v>4.2</v>
-      </c>
-      <c r="P39">
-        <v>4.333</v>
-      </c>
-      <c r="Q39">
-        <v>-0.75</v>
-      </c>
-      <c r="R39">
-        <v>1.92</v>
-      </c>
-      <c r="S39">
-        <v>1.98</v>
-      </c>
-      <c r="T39">
-        <v>3.25</v>
-      </c>
       <c r="U39">
+        <v>1.91</v>
+      </c>
+      <c r="V39">
         <v>1.99</v>
       </c>
-      <c r="V39">
-        <v>1.91</v>
-      </c>
       <c r="W39">
-        <v>0.7270000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3987,16 +3987,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6847583</v>
+        <v>6847578</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,58 +4016,58 @@
         <v>45192.4375</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="S40">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="V40">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="W40">
-        <v>1.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4076,16 +4076,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8200000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6847577</v>
+        <v>6847583</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,58 +4105,58 @@
         <v>45192.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
       </c>
       <c r="K41">
-        <v>1.1</v>
+        <v>2.625</v>
       </c>
       <c r="L41">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="O41">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>17</v>
+        <v>2.75</v>
       </c>
       <c r="Q41">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="S41">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="T41">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V41">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="W41">
-        <v>0.125</v>
+        <v>1.5</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4165,13 +4165,13 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.99</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.9099999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4375,7 +4375,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4464,7 +4464,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>4</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6847591</v>
+        <v>6847590</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N50">
+        <v>2.25</v>
+      </c>
+      <c r="O50">
+        <v>3.6</v>
+      </c>
+      <c r="P50">
         <v>3.1</v>
       </c>
-      <c r="O50">
-        <v>3.5</v>
-      </c>
-      <c r="P50">
-        <v>2.25</v>
-      </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="S50">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V50">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
         <v>2.1</v>
       </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
       <c r="Z50">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC50">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6847588</v>
+        <v>6847591</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
         <v>3.5</v>
       </c>
       <c r="P51">
+        <v>2.25</v>
+      </c>
+      <c r="Q51">
+        <v>0.25</v>
+      </c>
+      <c r="R51">
+        <v>1.91</v>
+      </c>
+      <c r="S51">
+        <v>1.99</v>
+      </c>
+      <c r="T51">
         <v>2.5</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>2.07</v>
-      </c>
-      <c r="S51">
-        <v>1.83</v>
-      </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847590</v>
+        <v>6847588</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,52 +5087,52 @@
         <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="S52">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5141,19 +5141,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.9299999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5532,7 +5532,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6847600</v>
+        <v>6847595</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R58">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S58">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="V58">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6847595</v>
+        <v>6847594</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M59">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="N59">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="O59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q59">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="V59">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA59">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC59">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6847594</v>
+        <v>6847600</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5796,58 @@
         <v>45206.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>48</v>
       </c>
       <c r="K60">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N60">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O60">
+        <v>3.5</v>
+      </c>
+      <c r="P60">
         <v>4</v>
       </c>
-      <c r="P60">
-        <v>4.5</v>
-      </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V60">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="W60">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,13 +5856,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8999999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8899999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5977,7 +5977,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -6155,7 +6155,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6419,7 +6419,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6864,7 +6864,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -6953,7 +6953,7 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7042,7 +7042,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
         <v>45</v>
@@ -7401,7 +7401,7 @@
         <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>8</v>
@@ -7490,7 +7490,7 @@
         <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7579,7 +7579,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>6</v>
@@ -7843,10 +7843,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7932,7 +7932,7 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6847618</v>
+        <v>6847620</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L85">
         <v>4</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="N85">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R85">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="S85">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="V85">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6846939</v>
+        <v>6847622</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,13 +8110,13 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>3</v>
@@ -8125,40 +8125,40 @@
         <v>47</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="N86">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R86">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="S86">
-        <v>2.125</v>
+        <v>2.06</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V86">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8167,16 +8167,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AA86">
-        <v>1.125</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>0.8700000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847620</v>
+        <v>6846939</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87" t="s">
+        <v>47</v>
+      </c>
+      <c r="K87">
+        <v>2.3</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>3.25</v>
+      </c>
+      <c r="N87">
+        <v>2.5</v>
+      </c>
+      <c r="O87">
+        <v>3.1</v>
+      </c>
+      <c r="P87">
+        <v>3</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>1.78</v>
+      </c>
+      <c r="S87">
+        <v>2.125</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>1.87</v>
+      </c>
+      <c r="V87">
+        <v>2.03</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>2</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="s">
-        <v>48</v>
-      </c>
-      <c r="K87">
-        <v>4.2</v>
-      </c>
-      <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>1.7</v>
-      </c>
-      <c r="N87">
-        <v>4.5</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>1.727</v>
-      </c>
-      <c r="Q87">
-        <v>0.75</v>
-      </c>
-      <c r="R87">
-        <v>1.93</v>
-      </c>
-      <c r="S87">
-        <v>1.97</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.88</v>
-      </c>
-      <c r="V87">
-        <v>2.02</v>
-      </c>
-      <c r="W87">
-        <v>3.5</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
       <c r="Z87">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC87">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847622</v>
+        <v>6847618</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,73 +8288,73 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L88">
         <v>4</v>
       </c>
       <c r="M88">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="N88">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="O88">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="S88">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="V88">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB88">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8555,7 +8555,7 @@
         <v>45235.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>33</v>
@@ -8822,7 +8822,7 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
         <v>45</v>
@@ -9003,7 +9003,7 @@
         <v>46</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9089,10 +9089,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s">
         <v>41</v>
-      </c>
-      <c r="G97" t="s">
-        <v>42</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9445,7 +9445,7 @@
         <v>45254.6875</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -9626,7 +9626,7 @@
         <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10068,10 +10068,10 @@
         <v>45256.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10246,10 +10246,10 @@
         <v>45261.6875</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10427,7 +10427,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10961,7 +10961,7 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847654</v>
+        <v>6847651</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L119">
+        <v>3.5</v>
+      </c>
+      <c r="M119">
+        <v>3.4</v>
+      </c>
+      <c r="N119">
+        <v>2.15</v>
+      </c>
+      <c r="O119">
         <v>3.6</v>
       </c>
-      <c r="M119">
-        <v>2.9</v>
-      </c>
-      <c r="N119">
-        <v>2.2</v>
-      </c>
-      <c r="O119">
-        <v>3.75</v>
-      </c>
       <c r="P119">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q119">
         <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="V119">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="W119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8600000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847656</v>
+        <v>6847654</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,58 +11136,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
         <v>2.04</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.86</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
       <c r="W120">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6847651</v>
+        <v>6847656</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N121">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="S121">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AA121">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC121">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11670,7 +11670,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6847660</v>
+        <v>6847664</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,10 +11848,10 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11863,40 +11863,40 @@
         <v>47</v>
       </c>
       <c r="K128">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N128">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="O128">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="V128">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11905,19 +11905,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>3.5</v>
+        <v>0.909</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>1.04</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6847664</v>
+        <v>6847663</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M129">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="N129">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="S129">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y129">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
       <c r="AA129">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6847663</v>
+        <v>6847660</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
         <v>4.333</v>
       </c>
-      <c r="M130">
-        <v>1.75</v>
-      </c>
       <c r="N130">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V130">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z130">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8799999999999999</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12115,7 +12115,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12296,7 +12296,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12741,7 +12741,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12830,7 +12830,7 @@
         <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6846945</v>
+        <v>6847672</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,40 +12916,40 @@
         <v>45280.6875</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140">
         <v>2</v>
-      </c>
-      <c r="I140">
-        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N140">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
         <v>1.92</v>
@@ -12958,16 +12958,16 @@
         <v>1.98</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W140">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.46</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847671</v>
+        <v>6846945</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,49 +13005,49 @@
         <v>45280.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N141">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O141">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S141">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U141">
         <v>2.05</v>
@@ -13056,7 +13056,7 @@
         <v>1.85</v>
       </c>
       <c r="W141">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13065,16 +13065,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.01</v>
+        <v>0.46</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847668</v>
+        <v>6847667</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
+        <v>1.2</v>
+      </c>
+      <c r="L142">
         <v>6</v>
       </c>
-      <c r="L142">
-        <v>5.5</v>
-      </c>
       <c r="M142">
-        <v>1.363</v>
+        <v>13</v>
       </c>
       <c r="N142">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P142">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="Q142">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
         <v>3.25</v>
       </c>
       <c r="U142">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847667</v>
+        <v>6847668</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="L143">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M143">
-        <v>13</v>
+        <v>1.363</v>
       </c>
       <c r="N143">
-        <v>1.222</v>
+        <v>5.5</v>
       </c>
       <c r="O143">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T143">
         <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W143">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z143">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847672</v>
+        <v>6847671</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,58 +13272,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>3</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N144">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P144">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S144">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="V144">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>2.1</v>
+        <v>0.363</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13332,16 +13332,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.9199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1.04</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13806,10 +13806,10 @@
         <v>45304.47916666666</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13895,7 +13895,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>35</v>
@@ -13984,7 +13984,7 @@
         <v>45305.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -14162,7 +14162,7 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
         <v>35</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847687</v>
+        <v>6847688</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>49</v>
+      </c>
+      <c r="K155">
+        <v>2.875</v>
+      </c>
+      <c r="L155">
+        <v>3.5</v>
+      </c>
+      <c r="M155">
+        <v>2.3</v>
+      </c>
+      <c r="N155">
+        <v>2.8</v>
+      </c>
+      <c r="O155">
+        <v>3.4</v>
+      </c>
+      <c r="P155">
+        <v>2.55</v>
+      </c>
+      <c r="Q155">
         <v>0</v>
       </c>
-      <c r="J155" t="s">
-        <v>48</v>
-      </c>
-      <c r="K155">
-        <v>4.5</v>
-      </c>
-      <c r="L155">
-        <v>3.8</v>
-      </c>
-      <c r="M155">
-        <v>1.727</v>
-      </c>
-      <c r="N155">
-        <v>4</v>
-      </c>
-      <c r="O155">
-        <v>4</v>
-      </c>
-      <c r="P155">
-        <v>1.8</v>
-      </c>
-      <c r="Q155">
-        <v>0.75</v>
-      </c>
       <c r="R155">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="S155">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
+        <v>2.02</v>
+      </c>
+      <c r="V155">
         <v>1.88</v>
       </c>
-      <c r="V155">
-        <v>2.02</v>
-      </c>
       <c r="W155">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>1.02</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847688</v>
+        <v>6847687</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M157">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="N157">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R157">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="S157">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
+        <v>1.88</v>
+      </c>
+      <c r="V157">
         <v>2.02</v>
       </c>
-      <c r="V157">
-        <v>1.88</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X157">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8799999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847694</v>
+        <v>6847695</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,73 +15052,73 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
         <v>3</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="L164">
+        <v>6</v>
+      </c>
+      <c r="M164">
+        <v>1.25</v>
+      </c>
+      <c r="N164">
+        <v>8</v>
+      </c>
+      <c r="O164">
+        <v>5.75</v>
+      </c>
+      <c r="P164">
+        <v>1.3</v>
+      </c>
+      <c r="Q164">
+        <v>1.75</v>
+      </c>
+      <c r="R164">
+        <v>1.87</v>
+      </c>
+      <c r="S164">
+        <v>2.03</v>
+      </c>
+      <c r="T164">
         <v>3.75</v>
       </c>
-      <c r="M164">
-        <v>2.55</v>
-      </c>
-      <c r="N164">
-        <v>2.4</v>
-      </c>
-      <c r="O164">
-        <v>3.4</v>
-      </c>
-      <c r="P164">
-        <v>2.9</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>2.06</v>
-      </c>
-      <c r="S164">
-        <v>1.84</v>
-      </c>
-      <c r="T164">
-        <v>2.5</v>
-      </c>
       <c r="U164">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="V164">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="W164">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z164">
-        <v>1.06</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.9099999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6847695</v>
+        <v>6847694</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,73 +15141,73 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="L165">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="N165">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="O165">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q165">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="S165">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="T165">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="V165">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8700000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>1.03</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15233,7 +15233,7 @@
         <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15589,7 +15589,7 @@
         <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15678,7 +15678,7 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -15764,7 +15764,7 @@
         <v>45324.6875</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
         <v>35</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6847701</v>
+        <v>6847699</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,55 +15853,55 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N173">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O173">
         <v>3.5</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="S173">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T173">
         <v>2.5</v>
       </c>
       <c r="U173">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="V173">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15910,19 +15910,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.8400000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC173">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6847699</v>
+        <v>6847701</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,55 +15942,55 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
         <v>1</v>
-      </c>
-      <c r="I174">
-        <v>3</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L174">
+        <v>3.5</v>
+      </c>
+      <c r="M174">
         <v>3.6</v>
       </c>
-      <c r="M174">
-        <v>2.25</v>
-      </c>
       <c r="N174">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O174">
         <v>3.5</v>
       </c>
       <c r="P174">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="S174">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="T174">
         <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="V174">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15999,19 +15999,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.97</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB174">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
         <v>34</v>
@@ -16209,7 +16209,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
         <v>31</v>
@@ -16298,7 +16298,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
         <v>37</v>
@@ -16746,7 +16746,7 @@
         <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16924,7 +16924,7 @@
         <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17369,7 +17369,7 @@
         <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17455,7 +17455,7 @@
         <v>45338.6875</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
         <v>29</v>
@@ -17811,7 +17811,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G195" t="s">
         <v>31</v>
@@ -17900,7 +17900,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
         <v>33</v>
@@ -18167,7 +18167,7 @@
         <v>45340.5625</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
         <v>46</v>
@@ -18348,7 +18348,7 @@
         <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18437,7 +18437,7 @@
         <v>29</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18526,7 +18526,7 @@
         <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18615,7 +18615,7 @@
         <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H204">
         <v>5</v>
@@ -19146,7 +19146,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
         <v>38</v>
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6847736</v>
+        <v>6847729</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,55 +19235,55 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
       <c r="I211">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
         <v>47</v>
       </c>
       <c r="K211">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="L211">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M211">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N211">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O211">
         <v>3.6</v>
       </c>
       <c r="P211">
+        <v>2.1</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
         <v>2.05</v>
       </c>
-      <c r="Q211">
-        <v>0.5</v>
-      </c>
-      <c r="R211">
-        <v>1.84</v>
-      </c>
       <c r="S211">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
         <v>2.75</v>
       </c>
       <c r="U211">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="V211">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="W211">
         <v>-1</v>
@@ -19292,19 +19292,19 @@
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>1.06</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB211">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6847729</v>
+        <v>6847736</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,55 +19324,55 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J212" t="s">
         <v>47</v>
       </c>
       <c r="K212">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N212">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O212">
         <v>3.6</v>
       </c>
       <c r="P212">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R212">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="T212">
         <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="V212">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="W212">
         <v>-1</v>
@@ -19381,19 +19381,19 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.8500000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC212">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19413,7 +19413,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
         <v>37</v>
@@ -19680,7 +19680,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
         <v>31</v>
@@ -19950,7 +19950,7 @@
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H219">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20217,7 +20217,7 @@
         <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20392,7 +20392,7 @@
         <v>45361.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
         <v>43</v>
@@ -20659,7 +20659,7 @@
         <v>45366.6875</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
         <v>38</v>
@@ -20837,7 +20837,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
         <v>44</v>
@@ -20929,7 +20929,7 @@
         <v>45</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21104,7 +21104,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
         <v>46</v>
@@ -21475,7 +21475,7 @@
         <v>8</v>
       </c>
       <c r="N236">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O236">
         <v>5.25</v>
@@ -21484,13 +21484,13 @@
         <v>7.5</v>
       </c>
       <c r="Q236">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R236">
+        <v>2.06</v>
+      </c>
+      <c r="S236">
         <v>1.84</v>
-      </c>
-      <c r="S236">
-        <v>2.06</v>
       </c>
       <c r="T236">
         <v>3</v>
@@ -21555,7 +21555,7 @@
         <v>3.6</v>
       </c>
       <c r="P237">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q237">
         <v>-0.25</v>
@@ -21567,13 +21567,13 @@
         <v>1.95</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U237">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="V237">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21718,10 +21718,10 @@
         <v>3.75</v>
       </c>
       <c r="U239">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="V239">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21783,10 +21783,10 @@
         <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S240">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T240">
         <v>2.25</v>
@@ -21857,10 +21857,10 @@
         <v>-1.5</v>
       </c>
       <c r="R241">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="S241">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="T241">
         <v>4</v>
@@ -21907,7 +21907,7 @@
         <v>34</v>
       </c>
       <c r="G242" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K242">
         <v>1.8</v>
@@ -21931,10 +21931,10 @@
         <v>-0.75</v>
       </c>
       <c r="R242">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S242">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T242">
         <v>2.75</v>
@@ -21981,7 +21981,7 @@
         <v>33</v>
       </c>
       <c r="G243" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K243">
         <v>1.333</v>
@@ -22014,10 +22014,10 @@
         <v>3.25</v>
       </c>
       <c r="U243">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V243">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22052,10 +22052,10 @@
         <v>45382.60416666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G244" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K244">
         <v>1.666</v>
@@ -22088,10 +22088,10 @@
         <v>2.75</v>
       </c>
       <c r="U244">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V244">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W244">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -133,16 +133,16 @@
     <t>RB Leipzig</t>
   </si>
   <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
     <t>Darmstadt</t>
   </si>
   <si>
-    <t>Heidenheim</t>
+    <t>Bochum</t>
   </si>
   <si>
     <t>Cologne</t>
-  </si>
-  <si>
-    <t>Bochum</t>
   </si>
   <si>
     <t>SC Freiburg</t>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6847560</v>
+        <v>6847559</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,52 +1527,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S12">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="AB12">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6847559</v>
+        <v>6847560</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,52 +1616,52 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
+        <v>3.3</v>
+      </c>
+      <c r="M13">
+        <v>2.1</v>
+      </c>
+      <c r="N13">
+        <v>3.8</v>
+      </c>
+      <c r="O13">
         <v>3.4</v>
       </c>
-      <c r="M13">
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
+        <v>1.89</v>
+      </c>
+      <c r="S13">
+        <v>2.04</v>
+      </c>
+      <c r="T13">
         <v>2.25</v>
       </c>
-      <c r="N13">
-        <v>3.1</v>
-      </c>
-      <c r="O13">
-        <v>3.75</v>
-      </c>
-      <c r="P13">
-        <v>2.15</v>
-      </c>
-      <c r="Q13">
-        <v>0.25</v>
-      </c>
-      <c r="R13">
-        <v>1.93</v>
-      </c>
-      <c r="S13">
-        <v>1.97</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1670,16 +1670,16 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6847557</v>
+        <v>6847558</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P14">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R14">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="S14">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA14">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.485</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6847558</v>
+        <v>6847557</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S15">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z15">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2239,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2595,7 +2595,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3215,7 +3215,7 @@
         <v>45185.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3571,7 +3571,7 @@
         <v>45185.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>37</v>
@@ -3660,7 +3660,7 @@
         <v>45186.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -3749,7 +3749,7 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
@@ -3841,7 +3841,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3930,7 +3930,7 @@
         <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39">
         <v>7</v>
@@ -4375,7 +4375,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4464,7 +4464,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>4</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6847590</v>
+        <v>6847591</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="N50">
+        <v>3.1</v>
+      </c>
+      <c r="O50">
+        <v>3.5</v>
+      </c>
+      <c r="P50">
         <v>2.25</v>
       </c>
-      <c r="O50">
-        <v>3.6</v>
-      </c>
-      <c r="P50">
-        <v>3.1</v>
-      </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S50">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V50">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA50">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6847591</v>
+        <v>6847588</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O51">
         <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="S51">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z51">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847588</v>
+        <v>6847590</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,52 +5087,52 @@
         <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N52">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="S52">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5141,19 +5141,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8300000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5532,7 +5532,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6847595</v>
+        <v>6847600</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="S58">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="V58">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA58">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC58">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6847594</v>
+        <v>6847595</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="L59">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="N59">
-        <v>1.7</v>
+        <v>1.285</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P59">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="V59">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="W59">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6847600</v>
+        <v>6847594</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5796,58 @@
         <v>45206.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>48</v>
       </c>
       <c r="K60">
+        <v>1.533</v>
+      </c>
+      <c r="L60">
+        <v>4.333</v>
+      </c>
+      <c r="M60">
+        <v>5.5</v>
+      </c>
+      <c r="N60">
+        <v>1.7</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60">
+        <v>4.5</v>
+      </c>
+      <c r="Q60">
+        <v>-0.75</v>
+      </c>
+      <c r="R60">
+        <v>1.9</v>
+      </c>
+      <c r="S60">
         <v>2</v>
-      </c>
-      <c r="L60">
-        <v>3.6</v>
-      </c>
-      <c r="M60">
-        <v>3.5</v>
-      </c>
-      <c r="N60">
-        <v>1.909</v>
-      </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
-      <c r="P60">
-        <v>4</v>
-      </c>
-      <c r="Q60">
-        <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>1.88</v>
-      </c>
-      <c r="S60">
-        <v>2.02</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="V60">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="W60">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,13 +5856,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8799999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9299999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5977,7 +5977,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -6155,7 +6155,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6419,7 +6419,7 @@
         <v>45220.4375</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6864,7 +6864,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -6953,7 +6953,7 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7042,7 +7042,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>45</v>
@@ -7401,7 +7401,7 @@
         <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>8</v>
@@ -7490,7 +7490,7 @@
         <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7579,7 +7579,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H80">
         <v>6</v>
@@ -7843,10 +7843,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7932,7 +7932,7 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6847620</v>
+        <v>6847618</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
         <v>4</v>
       </c>
       <c r="M85">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="S85">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="V85">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="W85">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AC85">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6847622</v>
+        <v>6847620</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L86">
         <v>4</v>
       </c>
       <c r="M86">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N86">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q86">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R86">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="S86">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.88</v>
+      </c>
+      <c r="V86">
+        <v>2.02</v>
+      </c>
+      <c r="W86">
         <v>3.5</v>
       </c>
-      <c r="U86">
-        <v>1.97</v>
-      </c>
-      <c r="V86">
-        <v>1.93</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.42</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6846939</v>
+        <v>6847622</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,13 +8199,13 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>3</v>
@@ -8214,40 +8214,40 @@
         <v>47</v>
       </c>
       <c r="K87">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R87">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="S87">
-        <v>2.125</v>
+        <v>2.06</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V87">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8256,16 +8256,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AA87">
-        <v>1.125</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>0.8700000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847618</v>
+        <v>6846939</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,73 +8288,73 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N88">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="S88">
-        <v>1.92</v>
+        <v>2.125</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="V88">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.9199999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="AB88">
-        <v>1.09</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8555,7 +8555,7 @@
         <v>45235.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
         <v>33</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847626</v>
+        <v>6847627</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N93">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O93">
         <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="S93">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X93">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
         <v>0</v>
       </c>
-      <c r="AA93">
+      <c r="AC93">
         <v>-0</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6847628</v>
+        <v>6847626</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L94">
         <v>3.5</v>
       </c>
       <c r="M94">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N94">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="S94">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
         <v>1.9</v>
       </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847627</v>
+        <v>6847628</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>49</v>
+      </c>
+      <c r="K95">
+        <v>2.8</v>
+      </c>
+      <c r="L95">
+        <v>3.5</v>
+      </c>
+      <c r="M95">
+        <v>2.4</v>
+      </c>
+      <c r="N95">
+        <v>3.1</v>
+      </c>
+      <c r="O95">
+        <v>3.5</v>
+      </c>
+      <c r="P95">
+        <v>2.25</v>
+      </c>
+      <c r="Q95">
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.91</v>
+      </c>
+      <c r="S95">
+        <v>1.99</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
+        <v>1.9</v>
+      </c>
+      <c r="V95">
         <v>2</v>
       </c>
-      <c r="I95">
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>2.5</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0.455</v>
+      </c>
+      <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>1</v>
-      </c>
-      <c r="J95" t="s">
-        <v>48</v>
-      </c>
-      <c r="K95">
-        <v>2.6</v>
-      </c>
-      <c r="L95">
-        <v>3.75</v>
-      </c>
-      <c r="M95">
-        <v>2.45</v>
-      </c>
-      <c r="N95">
-        <v>2.45</v>
-      </c>
-      <c r="O95">
-        <v>3.8</v>
-      </c>
-      <c r="P95">
-        <v>2.625</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>1.84</v>
-      </c>
-      <c r="S95">
-        <v>2.06</v>
-      </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.83</v>
-      </c>
-      <c r="V95">
-        <v>2.07</v>
-      </c>
-      <c r="W95">
-        <v>1.45</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0</v>
-      </c>
-      <c r="AC95">
-        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>46</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9089,10 +9089,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F97" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" t="s">
         <v>42</v>
-      </c>
-      <c r="G97" t="s">
-        <v>41</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9445,7 +9445,7 @@
         <v>45254.6875</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -9626,7 +9626,7 @@
         <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10068,10 +10068,10 @@
         <v>45256.47916666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10246,10 +10246,10 @@
         <v>45261.6875</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10427,7 +10427,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10961,7 +10961,7 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847651</v>
+        <v>6847654</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
         <v>0</v>
       </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P119">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q119">
         <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="V119">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>1.01</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847654</v>
+        <v>6847656</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,58 +11136,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
         <v>2</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N120">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6847656</v>
+        <v>6847651</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="S121">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="W121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z121">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
       <c r="AB121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11670,7 +11670,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6847664</v>
+        <v>6847660</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,10 +11848,10 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F128" t="s">
+        <v>45</v>
+      </c>
+      <c r="G128" t="s">
         <v>39</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11863,40 +11863,40 @@
         <v>47</v>
       </c>
       <c r="K128">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N128">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11905,19 +11905,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.909</v>
+        <v>3.5</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8500000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6847663</v>
+        <v>6847664</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L129">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O129">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="S129">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="T129">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V129">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z129">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.8799999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6847660</v>
+        <v>6847663</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L130">
+        <v>4.333</v>
+      </c>
+      <c r="M130">
+        <v>1.75</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130">
         <v>4</v>
       </c>
-      <c r="M130">
-        <v>4.333</v>
-      </c>
-      <c r="N130">
-        <v>1.7</v>
-      </c>
-      <c r="O130">
-        <v>4.2</v>
-      </c>
       <c r="P130">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V130">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y130">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1.04</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12115,7 +12115,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12296,7 +12296,7 @@
         <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12741,7 +12741,7 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12830,7 +12830,7 @@
         <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6847672</v>
+        <v>6846945</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,40 +12916,40 @@
         <v>45280.6875</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
         <v>1.92</v>
@@ -12958,16 +12958,16 @@
         <v>1.98</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="V140">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9199999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6846945</v>
+        <v>6847671</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,49 +13005,49 @@
         <v>45280.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M141">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N141">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P141">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R141">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S141">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
         <v>2.05</v>
@@ -13056,7 +13056,7 @@
         <v>1.85</v>
       </c>
       <c r="W141">
-        <v>0.7</v>
+        <v>0.363</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13065,16 +13065,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.46</v>
+        <v>1.01</v>
       </c>
       <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>-0.5</v>
       </c>
-      <c r="AB141">
-        <v>0</v>
-      </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847667</v>
+        <v>6847668</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="L142">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M142">
-        <v>13</v>
+        <v>1.363</v>
       </c>
       <c r="N142">
-        <v>1.222</v>
+        <v>5.5</v>
       </c>
       <c r="O142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W142">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847668</v>
+        <v>6847667</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
+        <v>1.2</v>
+      </c>
+      <c r="L143">
         <v>6</v>
       </c>
-      <c r="L143">
-        <v>5.5</v>
-      </c>
       <c r="M143">
-        <v>1.363</v>
+        <v>13</v>
       </c>
       <c r="N143">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P143">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
         <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847671</v>
+        <v>6847672</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,58 +13272,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <v>3</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L144">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="O144">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S144">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W144">
-        <v>0.363</v>
+        <v>2.1</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13332,16 +13332,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.01</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>1.04</v>
       </c>
       <c r="AC144">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13806,10 +13806,10 @@
         <v>45304.47916666666</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13895,7 +13895,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
         <v>35</v>
@@ -13984,7 +13984,7 @@
         <v>45305.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -14162,7 +14162,7 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
         <v>35</v>
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847688</v>
+        <v>6847687</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M155">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="N155">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O155">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P155">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="S155">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
+        <v>1.88</v>
+      </c>
+      <c r="V155">
         <v>2.02</v>
       </c>
-      <c r="V155">
-        <v>1.88</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X155">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.8799999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14340,7 +14340,7 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847687</v>
+        <v>6847688</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>49</v>
+      </c>
+      <c r="K157">
+        <v>2.875</v>
+      </c>
+      <c r="L157">
+        <v>3.5</v>
+      </c>
+      <c r="M157">
+        <v>2.3</v>
+      </c>
+      <c r="N157">
+        <v>2.8</v>
+      </c>
+      <c r="O157">
+        <v>3.4</v>
+      </c>
+      <c r="P157">
+        <v>2.55</v>
+      </c>
+      <c r="Q157">
         <v>0</v>
       </c>
-      <c r="J157" t="s">
-        <v>48</v>
-      </c>
-      <c r="K157">
-        <v>4.5</v>
-      </c>
-      <c r="L157">
-        <v>3.8</v>
-      </c>
-      <c r="M157">
-        <v>1.727</v>
-      </c>
-      <c r="N157">
-        <v>4</v>
-      </c>
-      <c r="O157">
-        <v>4</v>
-      </c>
-      <c r="P157">
-        <v>1.8</v>
-      </c>
-      <c r="Q157">
-        <v>0.75</v>
-      </c>
       <c r="R157">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="S157">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
+        <v>2.02</v>
+      </c>
+      <c r="V157">
         <v>1.88</v>
       </c>
-      <c r="V157">
-        <v>2.02</v>
-      </c>
       <c r="W157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>1.02</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847695</v>
+        <v>6847694</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,73 +15052,73 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K164">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="L164">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="N164">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="O164">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q164">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="S164">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="T164">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="V164">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.8700000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>1.03</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6847694</v>
+        <v>6847695</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,73 +15141,73 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>3</v>
       </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="L165">
+        <v>6</v>
+      </c>
+      <c r="M165">
+        <v>1.25</v>
+      </c>
+      <c r="N165">
+        <v>8</v>
+      </c>
+      <c r="O165">
+        <v>5.75</v>
+      </c>
+      <c r="P165">
+        <v>1.3</v>
+      </c>
+      <c r="Q165">
+        <v>1.75</v>
+      </c>
+      <c r="R165">
+        <v>1.87</v>
+      </c>
+      <c r="S165">
+        <v>2.03</v>
+      </c>
+      <c r="T165">
         <v>3.75</v>
       </c>
-      <c r="M165">
-        <v>2.55</v>
-      </c>
-      <c r="N165">
-        <v>2.4</v>
-      </c>
-      <c r="O165">
-        <v>3.4</v>
-      </c>
-      <c r="P165">
-        <v>2.9</v>
-      </c>
-      <c r="Q165">
-        <v>-0.25</v>
-      </c>
-      <c r="R165">
-        <v>2.06</v>
-      </c>
-      <c r="S165">
-        <v>1.84</v>
-      </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
       <c r="U165">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="V165">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="W165">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z165">
-        <v>1.06</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.9099999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15233,7 +15233,7 @@
         <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15589,7 +15589,7 @@
         <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15678,7 +15678,7 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -15764,7 +15764,7 @@
         <v>45324.6875</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
         <v>35</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6847699</v>
+        <v>6847701</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,55 +15853,55 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>47</v>
       </c>
       <c r="K173">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L173">
+        <v>3.5</v>
+      </c>
+      <c r="M173">
         <v>3.6</v>
       </c>
-      <c r="M173">
-        <v>2.25</v>
-      </c>
       <c r="N173">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O173">
         <v>3.5</v>
       </c>
       <c r="P173">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="S173">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="T173">
         <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="V173">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15910,19 +15910,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.97</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB173">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6847701</v>
+        <v>6847699</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,55 +15942,55 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N174">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O174">
         <v>3.5</v>
       </c>
       <c r="P174">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="S174">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T174">
         <v>2.5</v>
       </c>
       <c r="U174">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="V174">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15999,19 +15999,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.8400000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC174">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
         <v>34</v>
@@ -16209,7 +16209,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
         <v>31</v>
@@ -16298,7 +16298,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
         <v>37</v>
@@ -16746,7 +16746,7 @@
         <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16924,7 +16924,7 @@
         <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17369,7 +17369,7 @@
         <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17455,7 +17455,7 @@
         <v>45338.6875</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G191" t="s">
         <v>29</v>
@@ -17811,7 +17811,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G195" t="s">
         <v>31</v>
@@ -17900,7 +17900,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
         <v>33</v>
@@ -18167,7 +18167,7 @@
         <v>45340.5625</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
         <v>46</v>
@@ -18348,7 +18348,7 @@
         <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18437,7 +18437,7 @@
         <v>29</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18526,7 +18526,7 @@
         <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18615,7 +18615,7 @@
         <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H204">
         <v>5</v>
@@ -19146,7 +19146,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
         <v>38</v>
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6847729</v>
+        <v>6847736</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,55 +19235,55 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
       <c r="I211">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J211" t="s">
         <v>47</v>
       </c>
       <c r="K211">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M211">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N211">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O211">
         <v>3.6</v>
       </c>
       <c r="P211">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R211">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="T211">
         <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="V211">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="W211">
         <v>-1</v>
@@ -19292,19 +19292,19 @@
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.8500000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC211">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6847736</v>
+        <v>6847729</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,55 +19324,55 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
         <v>47</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M212">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N212">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O212">
         <v>3.6</v>
       </c>
       <c r="P212">
+        <v>2.1</v>
+      </c>
+      <c r="Q212">
+        <v>0.25</v>
+      </c>
+      <c r="R212">
         <v>2.05</v>
       </c>
-      <c r="Q212">
-        <v>0.5</v>
-      </c>
-      <c r="R212">
-        <v>1.84</v>
-      </c>
       <c r="S212">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="T212">
         <v>2.75</v>
       </c>
       <c r="U212">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="V212">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="W212">
         <v>-1</v>
@@ -19381,19 +19381,19 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>1.06</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB212">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19413,7 +19413,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
         <v>37</v>
@@ -19680,7 +19680,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
         <v>31</v>
@@ -19950,7 +19950,7 @@
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H219">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20217,7 +20217,7 @@
         <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20392,7 +20392,7 @@
         <v>45361.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G224" t="s">
         <v>43</v>
@@ -20659,7 +20659,7 @@
         <v>45366.6875</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s">
         <v>38</v>
@@ -20837,7 +20837,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G229" t="s">
         <v>44</v>
@@ -20929,7 +20929,7 @@
         <v>45</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21104,7 +21104,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
         <v>46</v>
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6847753</v>
+        <v>7947314</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,34 +21457,34 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45381.47916666666</v>
+        <v>45382.4375</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K236">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L236">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M236">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N236">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O236">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P236">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
         <v>2.06</v>
@@ -21493,13 +21493,13 @@
         <v>1.84</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U236">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>0</v>
@@ -21522,7 +21522,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6847754</v>
+        <v>7947315</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21531,49 +21531,49 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45381.47916666666</v>
+        <v>45382.52083333334</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K237">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M237">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N237">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P237">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R237">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U237">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="V237">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21596,7 +21596,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6847755</v>
+        <v>7947316</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21605,49 +21605,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45381.47916666666</v>
+        <v>45382.60416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K238">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M238">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="N238">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P238">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="S238">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="T238">
         <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="V238">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6907261</v>
+        <v>6847761</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21679,34 +21679,34 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45381.47916666666</v>
+        <v>45387.64583333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K239">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L239">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="N239">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O239">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="Q239">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
         <v>1.95</v>
@@ -21715,13 +21715,13 @@
         <v>1.95</v>
       </c>
       <c r="T239">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="V239">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6936540</v>
+        <v>6847760</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21753,49 +21753,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45381.47916666666</v>
+        <v>45388.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M240">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N240">
+        <v>4.5</v>
+      </c>
+      <c r="O240">
+        <v>4.4</v>
+      </c>
+      <c r="P240">
+        <v>1.615</v>
+      </c>
+      <c r="Q240">
+        <v>0.75</v>
+      </c>
+      <c r="R240">
+        <v>1.99</v>
+      </c>
+      <c r="S240">
+        <v>1.91</v>
+      </c>
+      <c r="T240">
+        <v>3</v>
+      </c>
+      <c r="U240">
+        <v>1.9</v>
+      </c>
+      <c r="V240">
         <v>2</v>
-      </c>
-      <c r="O240">
-        <v>3.5</v>
-      </c>
-      <c r="P240">
-        <v>3.8</v>
-      </c>
-      <c r="Q240">
-        <v>-0.5</v>
-      </c>
-      <c r="R240">
-        <v>2.04</v>
-      </c>
-      <c r="S240">
-        <v>1.86</v>
-      </c>
-      <c r="T240">
-        <v>2.25</v>
-      </c>
-      <c r="U240">
-        <v>1.88</v>
-      </c>
-      <c r="V240">
-        <v>2.02</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21818,7 +21818,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6999513</v>
+        <v>6847763</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21827,49 +21827,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45381.60416666666</v>
+        <v>45388.4375</v>
       </c>
       <c r="F241" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K241">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="L241">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M241">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N241">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O241">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q241">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S241">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T241">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="V241">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21892,7 +21892,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7947314</v>
+        <v>6847764</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21901,49 +21901,49 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45382.4375</v>
+        <v>45388.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G242" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="L242">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M242">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="N242">
+        <v>7</v>
+      </c>
+      <c r="O242">
+        <v>6</v>
+      </c>
+      <c r="P242">
+        <v>1.3</v>
+      </c>
+      <c r="Q242">
         <v>1.75</v>
       </c>
-      <c r="O242">
-        <v>4</v>
-      </c>
-      <c r="P242">
-        <v>4.5</v>
-      </c>
-      <c r="Q242">
-        <v>-0.75</v>
-      </c>
       <c r="R242">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="S242">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="T242">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U242">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="V242">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -21966,7 +21966,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7947315</v>
+        <v>6882092</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -21975,49 +21975,49 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45382.52083333334</v>
+        <v>45388.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G243" t="s">
         <v>40</v>
       </c>
       <c r="K243">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="L243">
+        <v>4.2</v>
+      </c>
+      <c r="M243">
         <v>5.5</v>
       </c>
-      <c r="M243">
-        <v>8</v>
-      </c>
       <c r="N243">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O243">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P243">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="Q243">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R243">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S243">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T243">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="V243">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22040,7 +22040,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7947316</v>
+        <v>6993658</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22049,49 +22049,49 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45382.60416666666</v>
+        <v>45388.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K244">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="L244">
         <v>4</v>
       </c>
       <c r="M244">
-        <v>4.8</v>
+        <v>1.55</v>
       </c>
       <c r="N244">
-        <v>1.615</v>
+        <v>5.5</v>
       </c>
       <c r="O244">
         <v>4</v>
       </c>
       <c r="P244">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R244">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="S244">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="T244">
         <v>2.75</v>
       </c>
       <c r="U244">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="V244">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22114,7 +22114,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6847761</v>
+        <v>6847759</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22123,49 +22123,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45387.64583333334</v>
+        <v>45388.5625</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G245" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L245">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M245">
+        <v>2.75</v>
+      </c>
+      <c r="N245">
+        <v>2.25</v>
+      </c>
+      <c r="O245">
         <v>3.75</v>
       </c>
-      <c r="N245">
-        <v>1.909</v>
-      </c>
-      <c r="O245">
-        <v>3.6</v>
-      </c>
       <c r="P245">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S245">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U245">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="V245">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="W245">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6847654</v>
+        <v>6846943</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,58 +11314,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>48</v>
       </c>
       <c r="K122">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M122">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N122">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R122">
+        <v>1.97</v>
+      </c>
+      <c r="S122">
+        <v>1.93</v>
+      </c>
+      <c r="T122">
+        <v>3.25</v>
+      </c>
+      <c r="U122">
         <v>1.95</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="T122">
-        <v>3</v>
-      </c>
-      <c r="U122">
-        <v>2.04</v>
-      </c>
-      <c r="V122">
-        <v>1.86</v>
-      </c>
       <c r="W122">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
+        <v>0.97</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
         <v>0.95</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846943</v>
+        <v>6847654</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,58 +11403,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>48</v>
       </c>
       <c r="K123">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="L123">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N123">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="O123">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="Q123">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W123">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11463,16 +11463,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847686</v>
+        <v>6847688</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>49</v>
+      </c>
+      <c r="K156">
+        <v>2.875</v>
+      </c>
+      <c r="L156">
+        <v>3.5</v>
+      </c>
+      <c r="M156">
+        <v>2.3</v>
+      </c>
+      <c r="N156">
+        <v>2.8</v>
+      </c>
+      <c r="O156">
+        <v>3.4</v>
+      </c>
+      <c r="P156">
+        <v>2.55</v>
+      </c>
+      <c r="Q156">
         <v>0</v>
       </c>
-      <c r="I156">
-        <v>4</v>
-      </c>
-      <c r="J156" t="s">
-        <v>47</v>
-      </c>
-      <c r="K156">
-        <v>4.333</v>
-      </c>
-      <c r="L156">
-        <v>3.8</v>
-      </c>
-      <c r="M156">
-        <v>1.75</v>
-      </c>
-      <c r="N156">
-        <v>3.6</v>
-      </c>
-      <c r="O156">
-        <v>4</v>
-      </c>
-      <c r="P156">
-        <v>1.85</v>
-      </c>
-      <c r="Q156">
-        <v>0.5</v>
-      </c>
       <c r="R156">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V156">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847687</v>
+        <v>6847686</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L157">
         <v>3.8</v>
       </c>
       <c r="M157">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N157">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O157">
         <v>4</v>
       </c>
       <c r="P157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="V157">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="W157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z157">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC157">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847688</v>
+        <v>6847687</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K158">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M158">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="N158">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R158">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="S158">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
+        <v>1.88</v>
+      </c>
+      <c r="V158">
         <v>2.02</v>
       </c>
-      <c r="V158">
-        <v>1.88</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.8799999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6847708</v>
+        <v>6847706</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M184">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N184">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P184">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="S184">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X184">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA184">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.8999999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6847710</v>
+        <v>6847708</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N185">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="O185">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P185">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S185">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V185">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y185">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AB185">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6847706</v>
+        <v>6847710</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H186">
         <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K186">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L186">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N186">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O186">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P186">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V186">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="W186">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z186">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AC186">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6847714</v>
+        <v>6847715</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,76 +17544,76 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K192">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L192">
+        <v>3.5</v>
+      </c>
+      <c r="M192">
+        <v>3.5</v>
+      </c>
+      <c r="N192">
+        <v>1.909</v>
+      </c>
+      <c r="O192">
         <v>3.6</v>
       </c>
-      <c r="M192">
-        <v>2.3</v>
-      </c>
-      <c r="N192">
-        <v>3.3</v>
-      </c>
-      <c r="O192">
+      <c r="P192">
         <v>4</v>
       </c>
-      <c r="P192">
-        <v>2.05</v>
-      </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="S192">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T192">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V192">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X192">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.5149999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6847719</v>
+        <v>6847717</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
         <v>1</v>
-      </c>
-      <c r="I193">
-        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>47</v>
       </c>
       <c r="K193">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N193">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="O193">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="Q193">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
+        <v>2.01</v>
+      </c>
+      <c r="V193">
+        <v>1.89</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
         <v>3</v>
       </c>
-      <c r="U193">
-        <v>1.93</v>
-      </c>
-      <c r="V193">
-        <v>1.97</v>
-      </c>
-      <c r="W193">
-        <v>-1</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
-      <c r="Y193">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="Z193">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6847717</v>
+        <v>6847719</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>47</v>
       </c>
       <c r="K195">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M195">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N195">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P195">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="Q195">
+        <v>1.25</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>1.9</v>
+      </c>
+      <c r="T195">
+        <v>3</v>
+      </c>
+      <c r="U195">
+        <v>1.93</v>
+      </c>
+      <c r="V195">
+        <v>1.97</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z195">
+        <v>0.5</v>
+      </c>
+      <c r="AA195">
         <v>-0.5</v>
       </c>
-      <c r="R195">
-        <v>1.95</v>
-      </c>
-      <c r="S195">
-        <v>1.95</v>
-      </c>
-      <c r="T195">
-        <v>2.75</v>
-      </c>
-      <c r="U195">
-        <v>2.01</v>
-      </c>
-      <c r="V195">
-        <v>1.89</v>
-      </c>
-      <c r="W195">
-        <v>-1</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>3</v>
-      </c>
-      <c r="Z195">
-        <v>-1</v>
-      </c>
-      <c r="AA195">
-        <v>0.95</v>
-      </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC195">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6847715</v>
+        <v>6847714</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F196" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L196">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N196">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O196">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q196">
+        <v>0.25</v>
+      </c>
+      <c r="R196">
+        <v>2.03</v>
+      </c>
+      <c r="S196">
+        <v>1.87</v>
+      </c>
+      <c r="T196">
+        <v>3</v>
+      </c>
+      <c r="U196">
+        <v>1.91</v>
+      </c>
+      <c r="V196">
+        <v>1.99</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>3</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>0.5149999999999999</v>
+      </c>
+      <c r="AA196">
         <v>-0.5</v>
       </c>
-      <c r="R196">
-        <v>1.99</v>
-      </c>
-      <c r="S196">
-        <v>1.91</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.92</v>
-      </c>
-      <c r="V196">
-        <v>1.98</v>
-      </c>
-      <c r="W196">
-        <v>0.909</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
-      <c r="Z196">
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
         <v>0.99</v>
-      </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
-      <c r="AB196">
-        <v>-1</v>
-      </c>
-      <c r="AC196">
-        <v>0.98</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6847751</v>
+        <v>6847748</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,76 +20837,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L229">
         <v>3.6</v>
       </c>
       <c r="M229">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N229">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P229">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="S229">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V229">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X229">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6847748</v>
+        <v>6847751</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,76 +20926,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L230">
         <v>3.6</v>
       </c>
       <c r="M230">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N230">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O230">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="S230">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T230">
         <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -22276,22 +22276,22 @@
         <v>3.75</v>
       </c>
       <c r="N245">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O245">
         <v>3.8</v>
       </c>
       <c r="P245">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q245">
         <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="S245">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="T245">
         <v>2.75</v>
@@ -22323,7 +22323,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6882092</v>
+        <v>6847760</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22335,46 +22335,46 @@
         <v>45388.4375</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K246">
-        <v>1.55</v>
+        <v>4.333</v>
       </c>
       <c r="L246">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M246">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="N246">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O246">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="P246">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="Q246">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R246">
+        <v>2.05</v>
+      </c>
+      <c r="S246">
+        <v>1.85</v>
+      </c>
+      <c r="T246">
+        <v>3</v>
+      </c>
+      <c r="U246">
+        <v>1.9</v>
+      </c>
+      <c r="V246">
         <v>2</v>
-      </c>
-      <c r="S246">
-        <v>1.9</v>
-      </c>
-      <c r="T246">
-        <v>2.75</v>
-      </c>
-      <c r="U246">
-        <v>1.92</v>
-      </c>
-      <c r="V246">
-        <v>1.98</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6847764</v>
+        <v>6847763</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22409,46 +22409,46 @@
         <v>45388.4375</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G247" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K247">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="L247">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="N247">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="O247">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P247">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q247">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S247">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V247">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22471,7 +22471,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6847763</v>
+        <v>6847764</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22483,46 +22483,46 @@
         <v>45388.4375</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K248">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="L248">
+        <v>6</v>
+      </c>
+      <c r="M248">
+        <v>1.3</v>
+      </c>
+      <c r="N248">
+        <v>6.5</v>
+      </c>
+      <c r="O248">
+        <v>5.75</v>
+      </c>
+      <c r="P248">
+        <v>1.333</v>
+      </c>
+      <c r="Q248">
+        <v>1.5</v>
+      </c>
+      <c r="R248">
+        <v>1.97</v>
+      </c>
+      <c r="S248">
+        <v>1.93</v>
+      </c>
+      <c r="T248">
         <v>3.5</v>
       </c>
-      <c r="M248">
-        <v>2.875</v>
-      </c>
-      <c r="N248">
-        <v>2.2</v>
-      </c>
-      <c r="O248">
-        <v>3.5</v>
-      </c>
-      <c r="P248">
-        <v>3.1</v>
-      </c>
-      <c r="Q248">
-        <v>-0.25</v>
-      </c>
-      <c r="R248">
-        <v>1.95</v>
-      </c>
-      <c r="S248">
-        <v>1.95</v>
-      </c>
-      <c r="T248">
-        <v>2.5</v>
-      </c>
       <c r="U248">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V248">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22545,7 +22545,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6847760</v>
+        <v>6882092</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22557,40 +22557,40 @@
         <v>45388.4375</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K249">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="L249">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M249">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="N249">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O249">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="P249">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q249">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R249">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S249">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T249">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
         <v>1.91</v>
@@ -22658,19 +22658,19 @@
         <v>1</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T250">
         <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V250">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22741,10 +22741,10 @@
         <v>3.25</v>
       </c>
       <c r="U251">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V251">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22815,10 +22815,10 @@
         <v>3.25</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V252">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W252">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6846943</v>
+        <v>6847654</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,58 +11314,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>48</v>
       </c>
       <c r="K122">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="L122">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N122">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="O122">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="Q122">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W122">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6847654</v>
+        <v>6846943</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,58 +11403,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
         <v>48</v>
       </c>
       <c r="K123">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N123">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P123">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R123">
+        <v>1.97</v>
+      </c>
+      <c r="S123">
+        <v>1.93</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
         <v>1.95</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="T123">
-        <v>3</v>
-      </c>
-      <c r="U123">
-        <v>2.04</v>
-      </c>
-      <c r="V123">
-        <v>1.86</v>
-      </c>
       <c r="W123">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11463,16 +11463,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
+        <v>0.97</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
         <v>0.95</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
       <c r="AC123">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847688</v>
+        <v>6847686</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="N156">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V156">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC156">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847686</v>
+        <v>6847687</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
         <v>0</v>
       </c>
-      <c r="I157">
-        <v>4</v>
-      </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L157">
         <v>3.8</v>
       </c>
       <c r="M157">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O157">
         <v>4</v>
       </c>
       <c r="P157">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="V157">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847687</v>
+        <v>6847688</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>49</v>
+      </c>
+      <c r="K158">
+        <v>2.875</v>
+      </c>
+      <c r="L158">
+        <v>3.5</v>
+      </c>
+      <c r="M158">
+        <v>2.3</v>
+      </c>
+      <c r="N158">
+        <v>2.8</v>
+      </c>
+      <c r="O158">
+        <v>3.4</v>
+      </c>
+      <c r="P158">
+        <v>2.55</v>
+      </c>
+      <c r="Q158">
         <v>0</v>
       </c>
-      <c r="J158" t="s">
-        <v>48</v>
-      </c>
-      <c r="K158">
-        <v>4.5</v>
-      </c>
-      <c r="L158">
-        <v>3.8</v>
-      </c>
-      <c r="M158">
-        <v>1.727</v>
-      </c>
-      <c r="N158">
-        <v>4</v>
-      </c>
-      <c r="O158">
-        <v>4</v>
-      </c>
-      <c r="P158">
-        <v>1.8</v>
-      </c>
-      <c r="Q158">
-        <v>0.75</v>
-      </c>
       <c r="R158">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="S158">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
+        <v>2.02</v>
+      </c>
+      <c r="V158">
         <v>1.88</v>
       </c>
-      <c r="V158">
-        <v>2.02</v>
-      </c>
       <c r="W158">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>1.02</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6847706</v>
+        <v>6847708</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K184">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L184">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M184">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N184">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="S184">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V184">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.98</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6847708</v>
+        <v>6847710</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M185">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N185">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="O185">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P185">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AC185">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6847710</v>
+        <v>6847706</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H186">
         <v>1</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K186">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M186">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N186">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O186">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P186">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S186">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V186">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA186">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6847715</v>
+        <v>6847714</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,76 +17544,76 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N192">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P192">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q192">
+        <v>0.25</v>
+      </c>
+      <c r="R192">
+        <v>2.03</v>
+      </c>
+      <c r="S192">
+        <v>1.87</v>
+      </c>
+      <c r="T192">
+        <v>3</v>
+      </c>
+      <c r="U192">
+        <v>1.91</v>
+      </c>
+      <c r="V192">
+        <v>1.99</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>3</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
+        <v>0.5149999999999999</v>
+      </c>
+      <c r="AA192">
         <v>-0.5</v>
       </c>
-      <c r="R192">
-        <v>1.99</v>
-      </c>
-      <c r="S192">
-        <v>1.91</v>
-      </c>
-      <c r="T192">
-        <v>2.5</v>
-      </c>
-      <c r="U192">
-        <v>1.92</v>
-      </c>
-      <c r="V192">
-        <v>1.98</v>
-      </c>
-      <c r="W192">
-        <v>0.909</v>
-      </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
-      <c r="Z192">
+      <c r="AB192">
+        <v>-1</v>
+      </c>
+      <c r="AC192">
         <v>0.99</v>
-      </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
-      <c r="AB192">
-        <v>-1</v>
-      </c>
-      <c r="AC192">
-        <v>0.98</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6847717</v>
+        <v>6847719</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>47</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M193">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N193">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P193">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="Q193">
+        <v>1.25</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>1.9</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>1.93</v>
+      </c>
+      <c r="V193">
+        <v>1.97</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z193">
+        <v>0.5</v>
+      </c>
+      <c r="AA193">
         <v>-0.5</v>
       </c>
-      <c r="R193">
-        <v>1.95</v>
-      </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>2.01</v>
-      </c>
-      <c r="V193">
-        <v>1.89</v>
-      </c>
-      <c r="W193">
-        <v>-1</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
-      <c r="Y193">
-        <v>3</v>
-      </c>
-      <c r="Z193">
-        <v>-1</v>
-      </c>
-      <c r="AA193">
-        <v>0.95</v>
-      </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6847719</v>
+        <v>6847717</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
         <v>1</v>
-      </c>
-      <c r="I195">
-        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>47</v>
       </c>
       <c r="K195">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L195">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N195">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="O195">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="Q195">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>2.01</v>
+      </c>
+      <c r="V195">
+        <v>1.89</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
         <v>3</v>
       </c>
-      <c r="U195">
-        <v>1.93</v>
-      </c>
-      <c r="V195">
-        <v>1.97</v>
-      </c>
-      <c r="W195">
-        <v>-1</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="Z195">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6847714</v>
+        <v>6847715</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L196">
+        <v>3.5</v>
+      </c>
+      <c r="M196">
+        <v>3.5</v>
+      </c>
+      <c r="N196">
+        <v>1.909</v>
+      </c>
+      <c r="O196">
         <v>3.6</v>
       </c>
-      <c r="M196">
-        <v>2.3</v>
-      </c>
-      <c r="N196">
-        <v>3.3</v>
-      </c>
-      <c r="O196">
+      <c r="P196">
         <v>4</v>
       </c>
-      <c r="P196">
-        <v>2.05</v>
-      </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="S196">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V196">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.5149999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AA196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6847748</v>
+        <v>6847751</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,76 +20837,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K229">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L229">
         <v>3.6</v>
       </c>
       <c r="M229">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N229">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="S229">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="W229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6847751</v>
+        <v>6847748</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,76 +20926,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L230">
         <v>3.6</v>
       </c>
       <c r="M230">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N230">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="S230">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="T230">
         <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X230">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -22276,7 +22276,7 @@
         <v>3.75</v>
       </c>
       <c r="N245">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O245">
         <v>3.8</v>
@@ -22297,10 +22297,10 @@
         <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V245">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22350,31 +22350,31 @@
         <v>1.666</v>
       </c>
       <c r="N246">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O246">
-        <v>4.4</v>
+        <v>4.333</v>
       </c>
       <c r="P246">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="Q246">
         <v>0.75</v>
       </c>
       <c r="R246">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S246">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T246">
         <v>3</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V246">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22430,7 +22430,7 @@
         <v>3.5</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q247">
         <v>-0.25</v>
@@ -22442,13 +22442,13 @@
         <v>1.95</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
+        <v>2.04</v>
+      </c>
+      <c r="V247">
         <v>1.86</v>
-      </c>
-      <c r="V247">
-        <v>2.04</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22498,10 +22498,10 @@
         <v>1.3</v>
       </c>
       <c r="N248">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O248">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P248">
         <v>1.333</v>
@@ -22519,10 +22519,10 @@
         <v>3.5</v>
       </c>
       <c r="U248">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V248">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22572,22 +22572,22 @@
         <v>5.5</v>
       </c>
       <c r="N249">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O249">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P249">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q249">
         <v>-1.25</v>
       </c>
       <c r="R249">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S249">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T249">
         <v>2.75</v>
@@ -22646,10 +22646,10 @@
         <v>1.55</v>
       </c>
       <c r="N250">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="O250">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P250">
         <v>1.55</v>
@@ -22658,19 +22658,19 @@
         <v>1</v>
       </c>
       <c r="R250">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S250">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T250">
         <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V250">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>2.75</v>
       </c>
       <c r="N251">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q251">
         <v>-0.25</v>
@@ -22741,10 +22741,10 @@
         <v>3.25</v>
       </c>
       <c r="U251">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V251">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22797,7 +22797,7 @@
         <v>2.2</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P252">
         <v>2.9</v>
@@ -22806,10 +22806,10 @@
         <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S252">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T252">
         <v>3.25</v>
@@ -22871,7 +22871,7 @@
         <v>1.85</v>
       </c>
       <c r="O253">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P253">
         <v>3.8</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC260"/>
+  <dimension ref="A1:AC254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6847568</v>
+        <v>6847567</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,73 +2325,73 @@
         <v>45171.4375</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
+        <v>1.92</v>
+      </c>
+      <c r="V21">
         <v>1.98</v>
       </c>
-      <c r="V21">
-        <v>1.92</v>
-      </c>
       <c r="W21">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB21">
-        <v>0.98</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6847563</v>
+        <v>6847568</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,58 +2414,58 @@
         <v>45171.4375</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="N22">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O22">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V22">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W22">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2474,13 +2474,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6847567</v>
+        <v>6847563</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,73 +2503,73 @@
         <v>45171.4375</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M23">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P23">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V23">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AA23">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6847615</v>
+        <v>6847616</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,73 +7220,73 @@
         <v>45227.4375</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
         <v>3</v>
       </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S76">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V76">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="W76">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z76">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB76">
-        <v>0.9199999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847616</v>
+        <v>6847615</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,73 +7309,73 @@
         <v>45227.4375</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
         <v>2</v>
       </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S77">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="V77">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA77">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8300000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6846939</v>
+        <v>6847621</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>49</v>
+      </c>
+      <c r="K85">
+        <v>1.909</v>
+      </c>
+      <c r="L85">
+        <v>3.6</v>
+      </c>
+      <c r="M85">
+        <v>3.75</v>
+      </c>
+      <c r="N85">
+        <v>2.05</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>3.4</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.775</v>
+      </c>
+      <c r="S85">
+        <v>2.025</v>
+      </c>
+      <c r="T85">
         <v>3</v>
       </c>
-      <c r="J85" t="s">
-        <v>47</v>
-      </c>
-      <c r="K85">
-        <v>2.3</v>
-      </c>
-      <c r="L85">
-        <v>3</v>
-      </c>
-      <c r="M85">
-        <v>3.25</v>
-      </c>
-      <c r="N85">
-        <v>2.5</v>
-      </c>
-      <c r="O85">
-        <v>3.1</v>
-      </c>
-      <c r="P85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.78</v>
-      </c>
-      <c r="S85">
-        <v>2.125</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
       <c r="U85">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="V85">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y85">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>1.125</v>
+        <v>0.5125</v>
       </c>
       <c r="AB85">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6847621</v>
+        <v>6846939</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N86">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>1.78</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.5125</v>
+        <v>1.125</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847636</v>
+        <v>6847633</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,59 +9801,59 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
         <v>2</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>48</v>
       </c>
       <c r="K105">
+        <v>1.4</v>
+      </c>
+      <c r="L105">
+        <v>5.5</v>
+      </c>
+      <c r="M105">
+        <v>6</v>
+      </c>
+      <c r="N105">
+        <v>1.5</v>
+      </c>
+      <c r="O105">
+        <v>5.25</v>
+      </c>
+      <c r="P105">
+        <v>4.75</v>
+      </c>
+      <c r="Q105">
+        <v>-1.25</v>
+      </c>
+      <c r="R105">
+        <v>2.04</v>
+      </c>
+      <c r="S105">
+        <v>1.86</v>
+      </c>
+      <c r="T105">
         <v>3.5</v>
       </c>
-      <c r="L105">
-        <v>3.75</v>
-      </c>
-      <c r="M105">
-        <v>1.95</v>
-      </c>
-      <c r="N105">
-        <v>3.6</v>
-      </c>
-      <c r="O105">
-        <v>4</v>
-      </c>
-      <c r="P105">
-        <v>1.909</v>
-      </c>
-      <c r="Q105">
+      <c r="U105">
+        <v>1.88</v>
+      </c>
+      <c r="V105">
+        <v>2.02</v>
+      </c>
+      <c r="W105">
         <v>0.5</v>
       </c>
-      <c r="R105">
-        <v>1.97</v>
-      </c>
-      <c r="S105">
-        <v>1.96</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
-      <c r="U105">
-        <v>1.98</v>
-      </c>
-      <c r="V105">
-        <v>1.92</v>
-      </c>
-      <c r="W105">
-        <v>2.6</v>
-      </c>
       <c r="X105">
         <v>-1</v>
       </c>
@@ -9861,16 +9861,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847633</v>
+        <v>6847636</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,58 +9890,58 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>48</v>
       </c>
       <c r="K106">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="L106">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N106">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O106">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="S106">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="T106">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="V106">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="W106">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9950,16 +9950,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6847669</v>
+        <v>6847665</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,55 +12649,55 @@
         <v>45279.6875</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>49</v>
       </c>
       <c r="K137">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L137">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M137">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O137">
         <v>4.75</v>
       </c>
       <c r="P137">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q137">
         <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.97</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12712,13 +12712,13 @@
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>0.97</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6847665</v>
+        <v>6847669</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,55 +12738,55 @@
         <v>45279.6875</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
         <v>49</v>
       </c>
       <c r="K138">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L138">
+        <v>4.5</v>
+      </c>
+      <c r="M138">
         <v>5</v>
       </c>
-      <c r="M138">
-        <v>6.5</v>
-      </c>
       <c r="N138">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O138">
         <v>4.75</v>
       </c>
       <c r="P138">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q138">
         <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="S138">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U138">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12801,13 +12801,13 @@
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.97</v>
+        <v>1.025</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC138">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6846945</v>
+        <v>6847667</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,58 +12916,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>48</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="N140">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P140">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R140">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>0.7</v>
+        <v>0.222</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.46</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847667</v>
+        <v>6846945</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,58 +13005,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="N141">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="O141">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q141">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
+        <v>1.92</v>
+      </c>
+      <c r="S141">
+        <v>1.98</v>
+      </c>
+      <c r="T141">
+        <v>3</v>
+      </c>
+      <c r="U141">
+        <v>2.05</v>
+      </c>
+      <c r="V141">
         <v>1.85</v>
       </c>
-      <c r="S141">
-        <v>2.05</v>
-      </c>
-      <c r="T141">
-        <v>3.25</v>
-      </c>
-      <c r="U141">
-        <v>1.9</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
-        <v>0.222</v>
+        <v>0.7</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13065,16 +13065,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8500000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847696</v>
+        <v>6847693</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,76 +15052,76 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="L164">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M164">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N164">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P164">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S164">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V164">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W164">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB164">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6847693</v>
+        <v>6847696</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K166">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L166">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M166">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S166">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V166">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X166">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA166">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC166">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6847704</v>
+        <v>6847702</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="L175">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M175">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="N175">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="O175">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P175">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q175">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S175">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V175">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y175">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>0.8400000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8799999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847702</v>
+        <v>6847704</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M176">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="N176">
-        <v>2.3</v>
+        <v>9.5</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P176">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R176">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S176">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V176">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.43</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.9199999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6846950</v>
+        <v>6847711</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>49</v>
       </c>
       <c r="K183">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="L183">
         <v>3.75</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P183">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R183">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S183">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U183">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="V183">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AA183">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC183">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6847711</v>
+        <v>6846950</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>49</v>
       </c>
       <c r="K187">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="L187">
         <v>3.75</v>
       </c>
       <c r="M187">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="N187">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P187">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q187">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S187">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="V187">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB187">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6847717</v>
+        <v>6847715</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,31 +17544,31 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
         <v>0</v>
       </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N192">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
         <v>3.6</v>
@@ -17580,40 +17580,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="V192">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8899999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6847715</v>
+        <v>6847717</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,31 +17633,31 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F193" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
         <v>1</v>
       </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K193">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O193">
         <v>3.6</v>
@@ -17669,40 +17669,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="V193">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="W193">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z193">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.98</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6847728</v>
+        <v>6847723</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,61 +18434,61 @@
         <v>45346.47916666666</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>49</v>
       </c>
       <c r="K202">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L202">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M202">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N202">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O202">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q202">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S202">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18497,13 +18497,13 @@
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6847723</v>
+        <v>6847728</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,61 +18523,61 @@
         <v>45346.47916666666</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>49</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L203">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M203">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N203">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P203">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q203">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R203">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U203">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y203">
         <v>-1</v>
@@ -18586,13 +18586,13 @@
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="AB203">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6847735</v>
+        <v>6847729</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,55 +19235,55 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
         <v>47</v>
       </c>
       <c r="K211">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M211">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="N211">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O211">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P211">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="Q211">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S211">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="V211">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="W211">
         <v>-1</v>
@@ -19292,19 +19292,19 @@
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.6499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.8400000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB211">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6847729</v>
+        <v>6847735</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,55 +19324,55 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J212" t="s">
         <v>47</v>
       </c>
       <c r="K212">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="L212">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="N212">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P212">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R212">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U212">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V212">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="W212">
         <v>-1</v>
@@ -19381,19 +19381,19 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.8500000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC212">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6846955</v>
+        <v>6847732</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K213">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N213">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y213">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6847732</v>
+        <v>6846955</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N214">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S214">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6847764</v>
+        <v>6931547</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22347,49 +22347,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45388.4375</v>
+        <v>45389.4375</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K246">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L246">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="N246">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="O246">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P246">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="Q246">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="S246">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="T246">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U246">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V246">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22412,7 +22412,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6847763</v>
+        <v>6847762</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22421,49 +22421,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45388.4375</v>
+        <v>45389.52083333334</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K247">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L247">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M247">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N247">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
+        <v>1.88</v>
+      </c>
+      <c r="S247">
         <v>2.05</v>
       </c>
-      <c r="S247">
-        <v>1.88</v>
-      </c>
       <c r="T247">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U247">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="V247">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22486,7 +22486,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6847760</v>
+        <v>7024126</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22495,49 +22495,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45388.4375</v>
+        <v>45394.64583333334</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G248" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K248">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L248">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M248">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="N248">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O248">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P248">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q248">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S248">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T248">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V248">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22560,7 +22560,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6882092</v>
+        <v>7025441</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22569,49 +22569,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45388.4375</v>
+        <v>45395.4375</v>
       </c>
       <c r="F249" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K249">
-        <v>1.55</v>
+        <v>1.125</v>
       </c>
       <c r="L249">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="M249">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="N249">
-        <v>1.4</v>
+        <v>1.125</v>
       </c>
       <c r="O249">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P249">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Q249">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R249">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S249">
+        <v>1.87</v>
+      </c>
+      <c r="T249">
+        <v>3.75</v>
+      </c>
+      <c r="U249">
         <v>1.89</v>
       </c>
-      <c r="T249">
-        <v>2.75</v>
-      </c>
-      <c r="U249">
-        <v>1.92</v>
-      </c>
       <c r="V249">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22634,7 +22634,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6993658</v>
+        <v>7024125</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22643,49 +22643,49 @@
         <v>28</v>
       </c>
       <c r="E250" s="2">
-        <v>45388.4375</v>
+        <v>45395.4375</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G250" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K250">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L250">
         <v>4</v>
       </c>
       <c r="M250">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="N250">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O250">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P250">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="Q250">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R250">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S250">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U250">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V250">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6847759</v>
+        <v>7024123</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22717,49 +22717,49 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45388.5625</v>
+        <v>45395.4375</v>
       </c>
       <c r="F251" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G251" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K251">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L251">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M251">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="N251">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R251">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="S251">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="T251">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U251">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="V251">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22782,7 +22782,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6931547</v>
+        <v>6917701</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22791,49 +22791,49 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45389.4375</v>
+        <v>45395.4375</v>
       </c>
       <c r="F252" t="s">
+        <v>45</v>
+      </c>
+      <c r="G252" t="s">
         <v>33</v>
       </c>
-      <c r="G252" t="s">
-        <v>32</v>
-      </c>
       <c r="K252">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L252">
+        <v>3.6</v>
+      </c>
+      <c r="M252">
         <v>3.75</v>
       </c>
-      <c r="M252">
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="O252">
+        <v>3.6</v>
+      </c>
+      <c r="P252">
+        <v>3.6</v>
+      </c>
+      <c r="Q252">
+        <v>-0.5</v>
+      </c>
+      <c r="R252">
+        <v>2.01</v>
+      </c>
+      <c r="S252">
+        <v>1.89</v>
+      </c>
+      <c r="T252">
         <v>3</v>
       </c>
-      <c r="N252">
-        <v>2.2</v>
-      </c>
-      <c r="O252">
-        <v>4</v>
-      </c>
-      <c r="P252">
-        <v>2.9</v>
-      </c>
-      <c r="Q252">
-        <v>-0.25</v>
-      </c>
-      <c r="R252">
-        <v>2</v>
-      </c>
-      <c r="S252">
-        <v>1.93</v>
-      </c>
-      <c r="T252">
-        <v>3.25</v>
-      </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V252">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W252">
         <v>0</v>
@@ -22856,7 +22856,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6847762</v>
+        <v>6847765</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22865,49 +22865,49 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45389.52083333334</v>
+        <v>45395.4375</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G253" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K253">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L253">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M253">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N253">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O253">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P253">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q253">
         <v>-0.5</v>
       </c>
       <c r="R253">
+        <v>2.03</v>
+      </c>
+      <c r="S253">
         <v>1.87</v>
       </c>
-      <c r="S253">
-        <v>2.06</v>
-      </c>
       <c r="T253">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U253">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="V253">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -22930,7 +22930,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7024126</v>
+        <v>7024127</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -22939,49 +22939,49 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45394.64583333334</v>
+        <v>45395.5625</v>
       </c>
       <c r="F254" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K254">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="L254">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M254">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="N254">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O254">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R254">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="S254">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U254">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V254">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W254">
         <v>0</v>
@@ -22996,450 +22996,6 @@
         <v>0</v>
       </c>
       <c r="AA254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:29">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255">
-        <v>7025441</v>
-      </c>
-      <c r="C255" t="s">
-        <v>28</v>
-      </c>
-      <c r="D255" t="s">
-        <v>28</v>
-      </c>
-      <c r="E255" s="2">
-        <v>45395.4375</v>
-      </c>
-      <c r="F255" t="s">
-        <v>46</v>
-      </c>
-      <c r="G255" t="s">
-        <v>42</v>
-      </c>
-      <c r="K255">
-        <v>1.125</v>
-      </c>
-      <c r="L255">
-        <v>9</v>
-      </c>
-      <c r="M255">
-        <v>15</v>
-      </c>
-      <c r="N255">
-        <v>1.111</v>
-      </c>
-      <c r="O255">
-        <v>9.5</v>
-      </c>
-      <c r="P255">
-        <v>17</v>
-      </c>
-      <c r="Q255">
-        <v>-2.5</v>
-      </c>
-      <c r="R255">
-        <v>1.95</v>
-      </c>
-      <c r="S255">
-        <v>1.95</v>
-      </c>
-      <c r="T255">
-        <v>3.75</v>
-      </c>
-      <c r="U255">
-        <v>1.88</v>
-      </c>
-      <c r="V255">
-        <v>2.02</v>
-      </c>
-      <c r="W255">
-        <v>0</v>
-      </c>
-      <c r="X255">
-        <v>0</v>
-      </c>
-      <c r="Y255">
-        <v>0</v>
-      </c>
-      <c r="Z255">
-        <v>0</v>
-      </c>
-      <c r="AA255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:29">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256">
-        <v>7024125</v>
-      </c>
-      <c r="C256" t="s">
-        <v>28</v>
-      </c>
-      <c r="D256" t="s">
-        <v>28</v>
-      </c>
-      <c r="E256" s="2">
-        <v>45395.4375</v>
-      </c>
-      <c r="F256" t="s">
-        <v>44</v>
-      </c>
-      <c r="G256" t="s">
-        <v>35</v>
-      </c>
-      <c r="K256">
-        <v>3.5</v>
-      </c>
-      <c r="L256">
-        <v>4</v>
-      </c>
-      <c r="M256">
-        <v>1.909</v>
-      </c>
-      <c r="N256">
-        <v>3.5</v>
-      </c>
-      <c r="O256">
-        <v>4</v>
-      </c>
-      <c r="P256">
-        <v>1.909</v>
-      </c>
-      <c r="Q256">
-        <v>0.5</v>
-      </c>
-      <c r="R256">
-        <v>1.95</v>
-      </c>
-      <c r="S256">
-        <v>1.95</v>
-      </c>
-      <c r="T256">
-        <v>3.25</v>
-      </c>
-      <c r="U256">
-        <v>1.86</v>
-      </c>
-      <c r="V256">
-        <v>2.04</v>
-      </c>
-      <c r="W256">
-        <v>0</v>
-      </c>
-      <c r="X256">
-        <v>0</v>
-      </c>
-      <c r="Y256">
-        <v>0</v>
-      </c>
-      <c r="Z256">
-        <v>0</v>
-      </c>
-      <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>6917701</v>
-      </c>
-      <c r="C257" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="E257" s="2">
-        <v>45395.4375</v>
-      </c>
-      <c r="F257" t="s">
-        <v>45</v>
-      </c>
-      <c r="G257" t="s">
-        <v>33</v>
-      </c>
-      <c r="K257">
-        <v>1.95</v>
-      </c>
-      <c r="L257">
-        <v>3.6</v>
-      </c>
-      <c r="M257">
-        <v>3.75</v>
-      </c>
-      <c r="N257">
-        <v>2</v>
-      </c>
-      <c r="O257">
-        <v>3.6</v>
-      </c>
-      <c r="P257">
-        <v>3.6</v>
-      </c>
-      <c r="Q257">
-        <v>-0.5</v>
-      </c>
-      <c r="R257">
-        <v>2.01</v>
-      </c>
-      <c r="S257">
-        <v>1.89</v>
-      </c>
-      <c r="T257">
-        <v>3</v>
-      </c>
-      <c r="U257">
-        <v>1.98</v>
-      </c>
-      <c r="V257">
-        <v>1.92</v>
-      </c>
-      <c r="W257">
-        <v>0</v>
-      </c>
-      <c r="X257">
-        <v>0</v>
-      </c>
-      <c r="Y257">
-        <v>0</v>
-      </c>
-      <c r="Z257">
-        <v>0</v>
-      </c>
-      <c r="AA257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258">
-        <v>7024123</v>
-      </c>
-      <c r="C258" t="s">
-        <v>28</v>
-      </c>
-      <c r="D258" t="s">
-        <v>28</v>
-      </c>
-      <c r="E258" s="2">
-        <v>45395.4375</v>
-      </c>
-      <c r="F258" t="s">
-        <v>38</v>
-      </c>
-      <c r="G258" t="s">
-        <v>34</v>
-      </c>
-      <c r="K258">
-        <v>1.363</v>
-      </c>
-      <c r="L258">
-        <v>5</v>
-      </c>
-      <c r="M258">
-        <v>7.5</v>
-      </c>
-      <c r="N258">
-        <v>1.4</v>
-      </c>
-      <c r="O258">
-        <v>4.75</v>
-      </c>
-      <c r="P258">
-        <v>7</v>
-      </c>
-      <c r="Q258">
-        <v>-1.25</v>
-      </c>
-      <c r="R258">
-        <v>1.89</v>
-      </c>
-      <c r="S258">
-        <v>2.01</v>
-      </c>
-      <c r="T258">
-        <v>3</v>
-      </c>
-      <c r="U258">
-        <v>1.83</v>
-      </c>
-      <c r="V258">
-        <v>2.07</v>
-      </c>
-      <c r="W258">
-        <v>0</v>
-      </c>
-      <c r="X258">
-        <v>0</v>
-      </c>
-      <c r="Y258">
-        <v>0</v>
-      </c>
-      <c r="Z258">
-        <v>0</v>
-      </c>
-      <c r="AA258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>6847765</v>
-      </c>
-      <c r="C259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" t="s">
-        <v>28</v>
-      </c>
-      <c r="E259" s="2">
-        <v>45395.4375</v>
-      </c>
-      <c r="F259" t="s">
-        <v>41</v>
-      </c>
-      <c r="G259" t="s">
-        <v>39</v>
-      </c>
-      <c r="K259">
-        <v>1.95</v>
-      </c>
-      <c r="L259">
-        <v>3.75</v>
-      </c>
-      <c r="M259">
-        <v>3.5</v>
-      </c>
-      <c r="N259">
-        <v>1.95</v>
-      </c>
-      <c r="O259">
-        <v>3.75</v>
-      </c>
-      <c r="P259">
-        <v>3.5</v>
-      </c>
-      <c r="Q259">
-        <v>-0.5</v>
-      </c>
-      <c r="R259">
-        <v>2.01</v>
-      </c>
-      <c r="S259">
-        <v>1.89</v>
-      </c>
-      <c r="T259">
-        <v>2.75</v>
-      </c>
-      <c r="U259">
-        <v>1.85</v>
-      </c>
-      <c r="V259">
-        <v>2.05</v>
-      </c>
-      <c r="W259">
-        <v>0</v>
-      </c>
-      <c r="X259">
-        <v>0</v>
-      </c>
-      <c r="Y259">
-        <v>0</v>
-      </c>
-      <c r="Z259">
-        <v>0</v>
-      </c>
-      <c r="AA259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>7024127</v>
-      </c>
-      <c r="C260" t="s">
-        <v>28</v>
-      </c>
-      <c r="D260" t="s">
-        <v>28</v>
-      </c>
-      <c r="E260" s="2">
-        <v>45395.5625</v>
-      </c>
-      <c r="F260" t="s">
-        <v>31</v>
-      </c>
-      <c r="G260" t="s">
-        <v>37</v>
-      </c>
-      <c r="K260">
-        <v>1.55</v>
-      </c>
-      <c r="L260">
-        <v>4.5</v>
-      </c>
-      <c r="M260">
-        <v>5.25</v>
-      </c>
-      <c r="N260">
-        <v>1.55</v>
-      </c>
-      <c r="O260">
-        <v>4.5</v>
-      </c>
-      <c r="P260">
-        <v>5.25</v>
-      </c>
-      <c r="Q260">
-        <v>-1</v>
-      </c>
-      <c r="R260">
-        <v>1.92</v>
-      </c>
-      <c r="S260">
-        <v>1.98</v>
-      </c>
-      <c r="T260">
-        <v>3</v>
-      </c>
-      <c r="U260">
-        <v>2.02</v>
-      </c>
-      <c r="V260">
-        <v>1.88</v>
-      </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-      <c r="X260">
-        <v>0</v>
-      </c>
-      <c r="Y260">
-        <v>0</v>
-      </c>
-      <c r="Z260">
-        <v>0</v>
-      </c>
-      <c r="AA260">
         <v>0</v>
       </c>
     </row>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6847588</v>
+        <v>6847587</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M50">
+        <v>1.8</v>
+      </c>
+      <c r="N50">
+        <v>5.25</v>
+      </c>
+      <c r="O50">
+        <v>4.5</v>
+      </c>
+      <c r="P50">
+        <v>1.6</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1.91</v>
+      </c>
+      <c r="S50">
+        <v>1.99</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.7</v>
-      </c>
-      <c r="O50">
-        <v>3.5</v>
-      </c>
-      <c r="P50">
-        <v>2.5</v>
-      </c>
-      <c r="Q50">
+      <c r="U50">
+        <v>1.92</v>
+      </c>
+      <c r="V50">
+        <v>1.98</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.99</v>
+      </c>
+      <c r="AB50">
         <v>0</v>
       </c>
-      <c r="R50">
-        <v>2.07</v>
-      </c>
-      <c r="S50">
-        <v>1.83</v>
-      </c>
-      <c r="T50">
-        <v>2.75</v>
-      </c>
-      <c r="U50">
-        <v>1.95</v>
-      </c>
-      <c r="V50">
-        <v>1.95</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>1.5</v>
-      </c>
-      <c r="Z50">
-        <v>-1</v>
-      </c>
-      <c r="AA50">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6847590</v>
+        <v>6847588</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,55 +4995,55 @@
         <v>45199.4375</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
       <c r="K51">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="S51">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5052,19 +5052,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.9299999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847587</v>
+        <v>6847590</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,13 +5084,13 @@
         <v>45199.4375</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -5099,40 +5099,40 @@
         <v>47</v>
       </c>
       <c r="K52">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="N52">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O52">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="S52">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V52">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5141,19 +5141,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.6000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.99</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6847595</v>
+        <v>6847594</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K58">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="N58">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="O58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="V58">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X58">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC58">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6847594</v>
+        <v>6847595</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45206.4375</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="L59">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="N59">
-        <v>1.7</v>
+        <v>1.285</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P59">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="V59">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="W59">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB59">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847626</v>
+        <v>6847628</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>48</v>
       </c>
       <c r="K93">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L93">
         <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N93">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="S93">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
+        <v>1.9</v>
+      </c>
+      <c r="V93">
         <v>2</v>
       </c>
-      <c r="V93">
-        <v>1.9</v>
-      </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6847629</v>
+        <v>6847627</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,58 +8822,58 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>1.062</v>
+        <v>2.6</v>
       </c>
       <c r="L94">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>19</v>
+        <v>2.45</v>
       </c>
       <c r="N94">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="O94">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>15</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="T94">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="W94">
-        <v>0.111</v>
+        <v>1.45</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8882,16 +8882,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847628</v>
+        <v>6847626</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>48</v>
       </c>
       <c r="K95">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L95">
         <v>3.5</v>
       </c>
       <c r="M95">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N95">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="S95">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.9</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847627</v>
+        <v>6847629</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,58 +9000,58 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
         <v>2</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>49</v>
       </c>
       <c r="K96">
-        <v>2.6</v>
+        <v>1.062</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="M96">
-        <v>2.45</v>
+        <v>19</v>
       </c>
       <c r="N96">
-        <v>2.45</v>
+        <v>1.111</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="P96">
-        <v>2.625</v>
+        <v>15</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R96">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="U96">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>1.45</v>
+        <v>0.111</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9060,16 +9060,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6847667</v>
+        <v>6846945</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,58 +12916,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="O140">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
+        <v>1.92</v>
+      </c>
+      <c r="S140">
+        <v>1.98</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
+        <v>2.05</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="S140">
-        <v>2.05</v>
-      </c>
-      <c r="T140">
-        <v>3.25</v>
-      </c>
-      <c r="U140">
-        <v>1.9</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>0.222</v>
+        <v>0.7</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12976,16 +12976,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847668</v>
+        <v>6847672</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L141">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N141">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O141">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q141">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="V141">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.45</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>1.04</v>
       </c>
       <c r="AC141">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6846945</v>
+        <v>6847671</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,49 +13094,49 @@
         <v>45280.6875</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>49</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M142">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N142">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P142">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S142">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
         <v>2.05</v>
@@ -13145,7 +13145,7 @@
         <v>1.85</v>
       </c>
       <c r="W142">
-        <v>0.7</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13154,16 +13154,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.46</v>
+        <v>1.01</v>
       </c>
       <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
         <v>-0.5</v>
       </c>
-      <c r="AB142">
-        <v>0</v>
-      </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847671</v>
+        <v>6847668</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L143">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M143">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="O143">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R143">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T143">
         <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W143">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z143">
-        <v>1.01</v>
+        <v>0.45</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
         <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>0.425</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847672</v>
+        <v>6847667</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,58 +13272,58 @@
         <v>45280.6875</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>49</v>
       </c>
       <c r="K144">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="N144">
-        <v>3.1</v>
+        <v>1.222</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P144">
-        <v>2.25</v>
+        <v>11</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>2.1</v>
+        <v>0.222</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13332,13 +13332,13 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.9199999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1.04</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6846946</v>
+        <v>6847677</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45304.47916666666</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L148">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N148">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O148">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="V148">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y148">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.99</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6847677</v>
+        <v>6846946</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45304.47916666666</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L149">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N149">
+        <v>1.4</v>
+      </c>
+      <c r="O149">
+        <v>4.75</v>
+      </c>
+      <c r="P149">
+        <v>7.5</v>
+      </c>
+      <c r="Q149">
+        <v>-1.25</v>
+      </c>
+      <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
         <v>2</v>
       </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
-      <c r="P149">
-        <v>3.75</v>
-      </c>
-      <c r="Q149">
-        <v>-0.5</v>
-      </c>
-      <c r="R149">
+      <c r="T149">
+        <v>3</v>
+      </c>
+      <c r="U149">
+        <v>1.91</v>
+      </c>
+      <c r="V149">
         <v>1.99</v>
       </c>
-      <c r="S149">
-        <v>1.91</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>2.01</v>
-      </c>
-      <c r="V149">
-        <v>1.89</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.9099999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8899999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6847686</v>
+        <v>6847688</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>48</v>
+      </c>
+      <c r="K154">
+        <v>2.875</v>
+      </c>
+      <c r="L154">
+        <v>3.5</v>
+      </c>
+      <c r="M154">
+        <v>2.3</v>
+      </c>
+      <c r="N154">
+        <v>2.8</v>
+      </c>
+      <c r="O154">
+        <v>3.4</v>
+      </c>
+      <c r="P154">
+        <v>2.55</v>
+      </c>
+      <c r="Q154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>4</v>
-      </c>
-      <c r="J154" t="s">
-        <v>47</v>
-      </c>
-      <c r="K154">
-        <v>4.333</v>
-      </c>
-      <c r="L154">
-        <v>3.8</v>
-      </c>
-      <c r="M154">
-        <v>1.75</v>
-      </c>
-      <c r="N154">
-        <v>3.6</v>
-      </c>
-      <c r="O154">
-        <v>4</v>
-      </c>
-      <c r="P154">
-        <v>1.85</v>
-      </c>
-      <c r="Q154">
-        <v>0.5</v>
-      </c>
       <c r="R154">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V154">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA154">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847688</v>
+        <v>6846947</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,76 +14251,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>48</v>
       </c>
       <c r="K155">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M155">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="N155">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O155">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="S155">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V155">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6846947</v>
+        <v>6847687</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
         <v>1.727</v>
       </c>
       <c r="N156">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R156">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S156">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V156">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8300000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847687</v>
+        <v>6847686</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L157">
         <v>3.8</v>
       </c>
       <c r="M157">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N157">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O157">
         <v>4</v>
       </c>
       <c r="P157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="V157">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="W157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z157">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC157">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6847694</v>
+        <v>6847696</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,58 +15141,58 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>49</v>
       </c>
       <c r="K165">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L165">
+        <v>3.8</v>
+      </c>
+      <c r="M165">
+        <v>2.375</v>
+      </c>
+      <c r="N165">
+        <v>2.55</v>
+      </c>
+      <c r="O165">
         <v>3.75</v>
       </c>
-      <c r="M165">
-        <v>2.55</v>
-      </c>
-      <c r="N165">
-        <v>2.4</v>
-      </c>
-      <c r="O165">
-        <v>3.4</v>
-      </c>
       <c r="P165">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="S165">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V165">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="W165">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15201,13 +15201,13 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.06</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6847696</v>
+        <v>6847694</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,58 +15230,58 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>49</v>
       </c>
       <c r="K166">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L166">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="N166">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="O166">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="S166">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="V166">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="W166">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15290,13 +15290,13 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8799999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6847704</v>
+        <v>6847697</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>7.5</v>
+        <v>1.111</v>
       </c>
       <c r="L174">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M174">
-        <v>1.3</v>
+        <v>19</v>
       </c>
       <c r="N174">
-        <v>9.5</v>
+        <v>1.142</v>
       </c>
       <c r="O174">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="P174">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="Q174">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R174">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="S174">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="U174">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V174">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.8400000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC174">
-        <v>0.8799999999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6847697</v>
+        <v>6847701</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K175">
-        <v>1.111</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="N175">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="O175">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q175">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="S175">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="T175">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="V175">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="W175">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.97</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.46</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847702</v>
+        <v>6847704</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M176">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="N176">
-        <v>2.3</v>
+        <v>9.5</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P176">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R176">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S176">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V176">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.43</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.9199999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847701</v>
+        <v>6847702</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
+        <v>3.25</v>
+      </c>
+      <c r="M177">
         <v>3.5</v>
       </c>
-      <c r="M177">
-        <v>3.6</v>
-      </c>
       <c r="N177">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O177">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q177">
+        <v>-0.25</v>
+      </c>
+      <c r="R177">
+        <v>2.04</v>
+      </c>
+      <c r="S177">
+        <v>1.86</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.98</v>
+      </c>
+      <c r="V177">
+        <v>1.92</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
+        <v>2.4</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
         <v>-0.5</v>
       </c>
-      <c r="R177">
-        <v>2.06</v>
-      </c>
-      <c r="S177">
-        <v>1.84</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>2.06</v>
-      </c>
-      <c r="V177">
-        <v>1.84</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
-      <c r="Y177">
-        <v>2.8</v>
-      </c>
-      <c r="Z177">
-        <v>-1</v>
-      </c>
       <c r="AA177">
-        <v>0.8400000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8400000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6847742</v>
+        <v>6847740</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,61 +20125,61 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M221">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N221">
-        <v>1.8</v>
+        <v>1.111</v>
       </c>
       <c r="O221">
+        <v>9</v>
+      </c>
+      <c r="P221">
+        <v>21</v>
+      </c>
+      <c r="Q221">
+        <v>-2.5</v>
+      </c>
+      <c r="R221">
+        <v>1.99</v>
+      </c>
+      <c r="S221">
+        <v>1.91</v>
+      </c>
+      <c r="T221">
         <v>3.75</v>
       </c>
-      <c r="P221">
-        <v>4.333</v>
-      </c>
-      <c r="Q221">
-        <v>-0.5</v>
-      </c>
-      <c r="R221">
-        <v>1.87</v>
-      </c>
-      <c r="S221">
-        <v>2.03</v>
-      </c>
-      <c r="T221">
-        <v>2.5</v>
-      </c>
       <c r="U221">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X221">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20188,13 +20188,13 @@
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>1.03</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB221">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6847740</v>
+        <v>6847742</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,61 +20214,61 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G222" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="L222">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M222">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N222">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="O222">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P222">
-        <v>21</v>
+        <v>4.333</v>
       </c>
       <c r="Q222">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
+        <v>1.87</v>
+      </c>
+      <c r="S222">
+        <v>2.03</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
         <v>1.99</v>
       </c>
-      <c r="S222">
+      <c r="V222">
         <v>1.91</v>
       </c>
-      <c r="T222">
-        <v>3.75</v>
-      </c>
-      <c r="U222">
-        <v>2</v>
-      </c>
-      <c r="V222">
-        <v>1.9</v>
-      </c>
       <c r="W222">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y222">
         <v>-1</v>
@@ -20277,13 +20277,13 @@
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.9099999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -23124,7 +23124,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6847765</v>
+        <v>7025441</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23136,46 +23136,46 @@
         <v>45395.4375</v>
       </c>
       <c r="F255" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G255" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K255">
+        <v>1.125</v>
+      </c>
+      <c r="L255">
+        <v>9</v>
+      </c>
+      <c r="M255">
+        <v>15</v>
+      </c>
+      <c r="N255">
+        <v>1.222</v>
+      </c>
+      <c r="O255">
+        <v>7.5</v>
+      </c>
+      <c r="P255">
+        <v>11</v>
+      </c>
+      <c r="Q255">
+        <v>-2</v>
+      </c>
+      <c r="R255">
         <v>1.95</v>
       </c>
-      <c r="L255">
-        <v>3.75</v>
-      </c>
-      <c r="M255">
+      <c r="S255">
+        <v>1.95</v>
+      </c>
+      <c r="T255">
         <v>3.5</v>
       </c>
-      <c r="N255">
-        <v>2.05</v>
-      </c>
-      <c r="O255">
-        <v>3.75</v>
-      </c>
-      <c r="P255">
-        <v>3.3</v>
-      </c>
-      <c r="Q255">
-        <v>-0.25</v>
-      </c>
-      <c r="R255">
-        <v>1.86</v>
-      </c>
-      <c r="S255">
-        <v>2.04</v>
-      </c>
-      <c r="T255">
-        <v>2.75</v>
-      </c>
       <c r="U255">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V255">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23198,7 +23198,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7025441</v>
+        <v>7024125</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23210,46 +23210,46 @@
         <v>45395.4375</v>
       </c>
       <c r="F256" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G256" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K256">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="L256">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M256">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N256">
-        <v>1.2</v>
+        <v>3.25</v>
       </c>
       <c r="O256">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P256">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q256">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R256">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="S256">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="T256">
         <v>3.5</v>
       </c>
       <c r="U256">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="V256">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7024125</v>
+        <v>7024123</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23284,46 +23284,46 @@
         <v>45395.4375</v>
       </c>
       <c r="F257" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K257">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M257">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N257">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O257">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P257">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R257">
+        <v>2.04</v>
+      </c>
+      <c r="S257">
         <v>1.86</v>
       </c>
-      <c r="S257">
-        <v>2.04</v>
-      </c>
       <c r="T257">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U257">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23346,7 +23346,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7024123</v>
+        <v>6917701</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23358,46 +23358,46 @@
         <v>45395.4375</v>
       </c>
       <c r="F258" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G258" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K258">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L258">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N258">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="O258">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P258">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q258">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R258">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="S258">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="T258">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U258">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="V258">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23420,7 +23420,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6917701</v>
+        <v>6847765</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23432,46 +23432,46 @@
         <v>45395.4375</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G259" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K259">
         <v>1.95</v>
       </c>
       <c r="L259">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M259">
+        <v>3.5</v>
+      </c>
+      <c r="N259">
+        <v>2.1</v>
+      </c>
+      <c r="O259">
         <v>3.75</v>
       </c>
-      <c r="N259">
-        <v>1.95</v>
-      </c>
-      <c r="O259">
-        <v>4</v>
-      </c>
       <c r="P259">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q259">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S259">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T259">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V259">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W259">
         <v>0</v>
@@ -23521,22 +23521,22 @@
         <v>5.25</v>
       </c>
       <c r="N260">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O260">
         <v>4.5</v>
       </c>
       <c r="P260">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q260">
         <v>-1</v>
       </c>
       <c r="R260">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S260">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T260">
         <v>3</v>
@@ -23607,10 +23607,10 @@
         <v>0.5</v>
       </c>
       <c r="R261">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S261">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T261">
         <v>2.75</v>
@@ -23681,19 +23681,19 @@
         <v>-2</v>
       </c>
       <c r="R262">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S262">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
         <v>3.25</v>
       </c>
       <c r="U262">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V262">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W262">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC272"/>
+  <dimension ref="A1:AC274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6847565</v>
+        <v>6847566</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,37 +2325,37 @@
         <v>45171.4375</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L21">
         <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N21">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2367,16 +2367,16 @@
         <v>1.95</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,7 +2391,7 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6847566</v>
+        <v>6847565</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,37 +2414,37 @@
         <v>45171.4375</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
         <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N22">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2480,7 +2480,7 @@
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6847581</v>
+        <v>6847579</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,55 +3927,55 @@
         <v>45192.4375</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="Q39">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V39">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3984,19 +3984,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.425</v>
+        <v>1.07</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8799999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6847579</v>
+        <v>6847583</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40">
+        <v>2.625</v>
+      </c>
+      <c r="L40">
+        <v>3.5</v>
+      </c>
+      <c r="M40">
+        <v>2.5</v>
+      </c>
+      <c r="N40">
+        <v>2.5</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
+        <v>2.75</v>
+      </c>
+      <c r="Q40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40" t="s">
-        <v>47</v>
-      </c>
-      <c r="K40">
-        <v>1.909</v>
-      </c>
-      <c r="L40">
-        <v>3.75</v>
-      </c>
-      <c r="M40">
-        <v>3.6</v>
-      </c>
-      <c r="N40">
-        <v>2.05</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
-      <c r="P40">
-        <v>3.3</v>
-      </c>
-      <c r="Q40">
-        <v>-0.25</v>
-      </c>
       <c r="R40">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S40">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="V40">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA40">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6847583</v>
+        <v>6847581</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45192.4375</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="N41">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P41">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R41">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V41">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="W41">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z41">
-        <v>0.8200000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB41">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6847599</v>
+        <v>6847594</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,34 +5618,34 @@
         <v>45206.4375</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
+        <v>5.5</v>
+      </c>
+      <c r="N58">
+        <v>1.7</v>
+      </c>
+      <c r="O58">
         <v>4</v>
-      </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
-      <c r="O58">
-        <v>3.75</v>
       </c>
       <c r="P58">
         <v>4.5</v>
@@ -5654,37 +5654,37 @@
         <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V58">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.9199999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6847594</v>
+        <v>6847599</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,34 +5796,34 @@
         <v>45206.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L60">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
         <v>4.5</v>
@@ -5832,37 +5832,37 @@
         <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V60">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W60">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB60">
-        <v>0.8899999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847627</v>
+        <v>6847626</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
+        <v>2.55</v>
+      </c>
+      <c r="L93">
+        <v>3.5</v>
+      </c>
+      <c r="M93">
         <v>2.6</v>
       </c>
-      <c r="L93">
-        <v>3.75</v>
-      </c>
-      <c r="M93">
-        <v>2.45</v>
-      </c>
       <c r="N93">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O93">
         <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S93">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8400000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6847626</v>
+        <v>6847627</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N94">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O94">
         <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="S94">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="T94">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X94">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
         <v>0</v>
       </c>
-      <c r="AA94">
+      <c r="AC94">
         <v>-0</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
-      <c r="AC94">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847628</v>
+        <v>6847629</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>2.8</v>
+        <v>1.062</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="M95">
-        <v>2.4</v>
+        <v>19</v>
       </c>
       <c r="N95">
-        <v>3.1</v>
+        <v>1.111</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P95">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R95">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.9</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X95">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847629</v>
+        <v>6847628</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>49</v>
+      </c>
+      <c r="K96">
+        <v>2.8</v>
+      </c>
+      <c r="L96">
+        <v>3.5</v>
+      </c>
+      <c r="M96">
+        <v>2.4</v>
+      </c>
+      <c r="N96">
+        <v>3.1</v>
+      </c>
+      <c r="O96">
+        <v>3.5</v>
+      </c>
+      <c r="P96">
+        <v>2.25</v>
+      </c>
+      <c r="Q96">
+        <v>0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.91</v>
+      </c>
+      <c r="S96">
+        <v>1.99</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
+        <v>1.9</v>
+      </c>
+      <c r="V96">
         <v>2</v>
       </c>
-      <c r="J96" t="s">
-        <v>48</v>
-      </c>
-      <c r="K96">
-        <v>1.062</v>
-      </c>
-      <c r="L96">
-        <v>15</v>
-      </c>
-      <c r="M96">
-        <v>19</v>
-      </c>
-      <c r="N96">
-        <v>1.111</v>
-      </c>
-      <c r="O96">
-        <v>12</v>
-      </c>
-      <c r="P96">
-        <v>15</v>
-      </c>
-      <c r="Q96">
-        <v>-2.75</v>
-      </c>
-      <c r="R96">
-        <v>2</v>
-      </c>
-      <c r="S96">
-        <v>1.9</v>
-      </c>
-      <c r="T96">
-        <v>4.25</v>
-      </c>
-      <c r="U96">
-        <v>2</v>
-      </c>
-      <c r="V96">
-        <v>1.9</v>
-      </c>
       <c r="W96">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>1</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847635</v>
+        <v>6847636</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="L102">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="N102">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="O102">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="T102">
         <v>3</v>
       </c>
       <c r="U102">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V102">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X102">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.8300000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6847634</v>
+        <v>6847633</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,76 +9623,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N103">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O103">
+        <v>5.25</v>
+      </c>
+      <c r="P103">
+        <v>4.75</v>
+      </c>
+      <c r="Q103">
+        <v>-1.25</v>
+      </c>
+      <c r="R103">
+        <v>2.04</v>
+      </c>
+      <c r="S103">
+        <v>1.86</v>
+      </c>
+      <c r="T103">
         <v>3.5</v>
       </c>
-      <c r="P103">
-        <v>4</v>
-      </c>
-      <c r="Q103">
-        <v>-0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.99</v>
-      </c>
-      <c r="S103">
-        <v>1.91</v>
-      </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
       <c r="U103">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="V103">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA103">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847633</v>
+        <v>6847634</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104">
+        <v>1.85</v>
+      </c>
+      <c r="L104">
+        <v>3.6</v>
+      </c>
+      <c r="M104">
         <v>4</v>
       </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
-      <c r="J104" t="s">
-        <v>48</v>
-      </c>
-      <c r="K104">
-        <v>1.4</v>
-      </c>
-      <c r="L104">
-        <v>5.5</v>
-      </c>
-      <c r="M104">
-        <v>6</v>
-      </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.99</v>
+      </c>
+      <c r="S104">
+        <v>1.91</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
         <v>2.04</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.86</v>
       </c>
-      <c r="T104">
-        <v>3.5</v>
-      </c>
-      <c r="U104">
-        <v>1.88</v>
-      </c>
-      <c r="V104">
-        <v>2.02</v>
-      </c>
       <c r="W104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB104">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847636</v>
+        <v>6847635</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,76 +9801,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M105">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="N105">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V105">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W105">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6847668</v>
+        <v>6847671</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L140">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M140">
+        <v>6.5</v>
+      </c>
+      <c r="N140">
         <v>1.363</v>
       </c>
-      <c r="N140">
-        <v>5.5</v>
-      </c>
       <c r="O140">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P140">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q140">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="V140">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.45</v>
+        <v>1.01</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>0.4350000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847671</v>
+        <v>6846945</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,49 +13094,49 @@
         <v>45280.6875</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>48</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O142">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S142">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
         <v>2.05</v>
@@ -13145,7 +13145,7 @@
         <v>1.85</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13154,16 +13154,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.01</v>
+        <v>0.46</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC142">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6846945</v>
+        <v>6847668</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45280.6875</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>2</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M143">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="N143">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="O143">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R143">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W143">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z143">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="AA143">
         <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6847677</v>
+        <v>6847675</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,10 +13450,10 @@
         <v>45304.47916666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13465,46 +13465,46 @@
         <v>49</v>
       </c>
       <c r="K146">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
         <v>2</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q146">
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="V146">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13513,13 +13513,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.9099999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8899999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6847675</v>
+        <v>6847674</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45304.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>49</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
         <v>3.5</v>
       </c>
       <c r="M147">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>1.84</v>
+      </c>
+      <c r="S147">
+        <v>2.06</v>
+      </c>
+      <c r="T147">
+        <v>2.25</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>2.3</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>2</v>
-      </c>
-      <c r="S147">
-        <v>1.93</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>2.06</v>
-      </c>
-      <c r="V147">
-        <v>1.84</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>2.4</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
       <c r="AA147">
-        <v>0.9299999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8400000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6847674</v>
+        <v>6846946</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45304.47916666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M148">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="N148">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O148">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P148">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R148">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6846946</v>
+        <v>6847677</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45304.47916666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L149">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N149">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O149">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q149">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="V149">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y149">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.99</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6847687</v>
+        <v>6847683</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,58 +14162,58 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
         <v>48</v>
       </c>
       <c r="K154">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="L154">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q154">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V154">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="W154">
-        <v>3</v>
+        <v>0.95</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14222,16 +14222,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC154">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847686</v>
+        <v>6846947</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,73 +14251,73 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>49</v>
+      </c>
+      <c r="K155">
+        <v>4.2</v>
+      </c>
+      <c r="L155">
         <v>4</v>
       </c>
-      <c r="J155" t="s">
-        <v>47</v>
-      </c>
-      <c r="K155">
-        <v>4.333</v>
-      </c>
-      <c r="L155">
-        <v>3.8</v>
-      </c>
       <c r="M155">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="N155">
         <v>3.6</v>
       </c>
       <c r="O155">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q155">
         <v>0.5</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T155">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V155">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA155">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.98</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847683</v>
+        <v>6847688</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,76 +14340,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N156">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O156">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V156">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6846947</v>
+        <v>6847687</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M157">
         <v>1.727</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R157">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S157">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V157">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8300000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847688</v>
+        <v>6847686</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M158">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="N158">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U158">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V158">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC158">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6847694</v>
+        <v>6847693</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K166">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M166">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N166">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="S166">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V166">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="W166">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB166">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6847693</v>
+        <v>6847692</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,10 +15319,10 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15334,46 +15334,46 @@
         <v>49</v>
       </c>
       <c r="K167">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L167">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M167">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="N167">
         <v>1.7</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
         <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15382,13 +15382,13 @@
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8600000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6847692</v>
+        <v>6847694</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45318.47916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L168">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
-        <v>4.1</v>
+        <v>2.55</v>
       </c>
       <c r="N168">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O168">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="T168">
         <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X168">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC168">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6847732</v>
+        <v>6847736</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,76 +19235,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K211">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L211">
+        <v>3.3</v>
+      </c>
+      <c r="M211">
+        <v>2.625</v>
+      </c>
+      <c r="N211">
         <v>3.5</v>
-      </c>
-      <c r="M211">
-        <v>3.75</v>
-      </c>
-      <c r="N211">
-        <v>1.909</v>
       </c>
       <c r="O211">
         <v>3.6</v>
       </c>
       <c r="P211">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="V211">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6847736</v>
+        <v>6847732</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,76 +19324,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M212">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N212">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O212">
         <v>3.6</v>
       </c>
       <c r="P212">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q212">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y212">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="AB212">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6847729</v>
+        <v>6846955</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,13 +19413,13 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>2</v>
@@ -19428,40 +19428,40 @@
         <v>47</v>
       </c>
       <c r="K213">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L213">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N213">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q213">
         <v>0.25</v>
       </c>
       <c r="R213">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19470,19 +19470,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC213">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6846955</v>
+        <v>6847729</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,13 +19502,13 @@
         <v>45353.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -19517,40 +19517,40 @@
         <v>47</v>
       </c>
       <c r="K214">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L214">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M214">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N214">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
         <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S214">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19559,19 +19559,19 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.07</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6847740</v>
+        <v>6847742</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,61 +19947,61 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K219">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="L219">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M219">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N219">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="O219">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>21</v>
+        <v>4.333</v>
       </c>
       <c r="Q219">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
+        <v>1.87</v>
+      </c>
+      <c r="S219">
+        <v>2.03</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
         <v>1.99</v>
       </c>
-      <c r="S219">
+      <c r="V219">
         <v>1.91</v>
       </c>
-      <c r="T219">
-        <v>3.75</v>
-      </c>
-      <c r="U219">
-        <v>2</v>
-      </c>
-      <c r="V219">
-        <v>1.9</v>
-      </c>
       <c r="W219">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y219">
         <v>-1</v>
@@ -20010,13 +20010,13 @@
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.9099999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6847739</v>
+        <v>6847740</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,58 +20036,58 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H220">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
         <v>48</v>
       </c>
       <c r="K220">
-        <v>1.2</v>
+        <v>1.142</v>
       </c>
       <c r="L220">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M220">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N220">
-        <v>1.2</v>
+        <v>1.111</v>
       </c>
       <c r="O220">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P220">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q220">
-        <v>-1.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R220">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="S220">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="T220">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U220">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
-        <v>0.2</v>
+        <v>0.111</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20096,16 +20096,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB220">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6847742</v>
+        <v>6847739</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,73 +20125,73 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M221">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N221">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O221">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P221">
-        <v>4.333</v>
+        <v>13</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R221">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="S221">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U221">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V221">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X221">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA221">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6847752</v>
+        <v>6847745</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20748,73 +20748,73 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H228">
         <v>2</v>
       </c>
       <c r="I228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K228">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L228">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>1.222</v>
+        <v>3.75</v>
       </c>
       <c r="N228">
-        <v>17</v>
+        <v>2.05</v>
       </c>
       <c r="O228">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="P228">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="Q228">
+        <v>-0.5</v>
+      </c>
+      <c r="R228">
+        <v>2.08</v>
+      </c>
+      <c r="S228">
+        <v>1.82</v>
+      </c>
+      <c r="T228">
         <v>2.5</v>
       </c>
-      <c r="R228">
-        <v>1.85</v>
-      </c>
-      <c r="S228">
-        <v>2.05</v>
-      </c>
-      <c r="T228">
-        <v>4</v>
-      </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AA228">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6847748</v>
+        <v>6847747</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,22 +20837,22 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F229" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L229">
         <v>3.6</v>
@@ -20861,52 +20861,52 @@
         <v>3.75</v>
       </c>
       <c r="N229">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P229">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="S229">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="W229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z229">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6847747</v>
+        <v>6847748</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,22 +20926,22 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K230">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L230">
         <v>3.6</v>
@@ -20950,52 +20950,52 @@
         <v>3.75</v>
       </c>
       <c r="N230">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="S230">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="T230">
         <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA230">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6847745</v>
+        <v>6847751</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,76 +21015,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G231" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K231">
+        <v>2.375</v>
+      </c>
+      <c r="L231">
+        <v>3.6</v>
+      </c>
+      <c r="M231">
+        <v>2.75</v>
+      </c>
+      <c r="N231">
+        <v>2.6</v>
+      </c>
+      <c r="O231">
+        <v>3.6</v>
+      </c>
+      <c r="P231">
+        <v>2.55</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>1.93</v>
+      </c>
+      <c r="S231">
+        <v>1.97</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>1.9</v>
+      </c>
+      <c r="V231">
         <v>2</v>
       </c>
-      <c r="L231">
-        <v>3.4</v>
-      </c>
-      <c r="M231">
-        <v>3.75</v>
-      </c>
-      <c r="N231">
-        <v>2.05</v>
-      </c>
-      <c r="O231">
-        <v>3.4</v>
-      </c>
-      <c r="P231">
-        <v>3.8</v>
-      </c>
-      <c r="Q231">
-        <v>-0.5</v>
-      </c>
-      <c r="R231">
-        <v>2.08</v>
-      </c>
-      <c r="S231">
-        <v>1.82</v>
-      </c>
-      <c r="T231">
-        <v>2.5</v>
-      </c>
-      <c r="U231">
-        <v>2.04</v>
-      </c>
-      <c r="V231">
-        <v>1.86</v>
-      </c>
       <c r="W231">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6847751</v>
+        <v>6847752</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,76 +21104,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M232">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="N232">
-        <v>2.6</v>
+        <v>17</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="P232">
-        <v>2.55</v>
+        <v>1.125</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R232">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U232">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC232">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21715,7 +21715,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6847754</v>
+        <v>6847753</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21727,76 +21727,76 @@
         <v>45381.47916666666</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K239">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M239">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N239">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O239">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P239">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R239">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="S239">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V239">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y239">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>1.06</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB239">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6847753</v>
+        <v>6847754</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,76 +21816,76 @@
         <v>45381.47916666666</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L240">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M240">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N240">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O240">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P240">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q240">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="S240">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="T240">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V240">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.9199999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC240">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7061085</v>
+        <v>7061084</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23949,49 +23949,49 @@
         <v>28</v>
       </c>
       <c r="E264" s="2">
-        <v>45402.4375</v>
+        <v>45403.52083333334</v>
       </c>
       <c r="F264" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K264">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M264">
+        <v>2.375</v>
+      </c>
+      <c r="N264">
+        <v>2.6</v>
+      </c>
+      <c r="O264">
         <v>3.6</v>
       </c>
-      <c r="N264">
-        <v>1.75</v>
-      </c>
-      <c r="O264">
-        <v>3.8</v>
-      </c>
       <c r="P264">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R264">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="S264">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U264">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="V264">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="W264">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7054447</v>
+        <v>7061083</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24023,49 +24023,49 @@
         <v>28</v>
       </c>
       <c r="E265" s="2">
-        <v>45402.4375</v>
+        <v>45403.60416666666</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G265" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K265">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M265">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N265">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O265">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q265">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S265">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="T265">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V265">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24088,7 +24088,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7070776</v>
+        <v>7092934</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24097,49 +24097,49 @@
         <v>28</v>
       </c>
       <c r="E266" s="2">
-        <v>45402.4375</v>
+        <v>45408.64583333334</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G266" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K266">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L266">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M266">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N266">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O266">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P266">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q266">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="S266">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="T266">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U266">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="V266">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="W266">
         <v>0</v>
@@ -24162,7 +24162,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7063296</v>
+        <v>7133192</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24171,49 +24171,49 @@
         <v>28</v>
       </c>
       <c r="E267" s="2">
-        <v>45402.4375</v>
+        <v>45409.4375</v>
       </c>
       <c r="F267" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K267">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="L267">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M267">
-        <v>1.55</v>
+        <v>9</v>
       </c>
       <c r="N267">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="O267">
         <v>5.25</v>
       </c>
       <c r="P267">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="Q267">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R267">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S267">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T267">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U267">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="V267">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24236,7 +24236,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7066127</v>
+        <v>7092930</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24245,49 +24245,49 @@
         <v>28</v>
       </c>
       <c r="E268" s="2">
-        <v>45402.5625</v>
+        <v>45409.4375</v>
       </c>
       <c r="F268" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G268" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K268">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L268">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M268">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N268">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O268">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P268">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="Q268">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S268">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="T268">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U268">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="V268">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="W268">
         <v>0</v>
@@ -24310,7 +24310,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7059076</v>
+        <v>7092929</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24319,49 +24319,49 @@
         <v>28</v>
       </c>
       <c r="E269" s="2">
-        <v>45403.4375</v>
+        <v>45409.4375</v>
       </c>
       <c r="F269" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K269">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="L269">
+        <v>4.2</v>
+      </c>
+      <c r="M269">
         <v>4.333</v>
       </c>
-      <c r="M269">
+      <c r="N269">
         <v>1.727</v>
       </c>
-      <c r="N269">
-        <v>4.75</v>
-      </c>
       <c r="O269">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P269">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q269">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R269">
+        <v>1.95</v>
+      </c>
+      <c r="S269">
+        <v>1.95</v>
+      </c>
+      <c r="T269">
+        <v>3.5</v>
+      </c>
+      <c r="U269">
         <v>1.91</v>
       </c>
-      <c r="S269">
+      <c r="V269">
         <v>1.99</v>
-      </c>
-      <c r="T269">
-        <v>3.25</v>
-      </c>
-      <c r="U269">
-        <v>2.03</v>
-      </c>
-      <c r="V269">
-        <v>1.87</v>
       </c>
       <c r="W269">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7061084</v>
+        <v>7088634</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24393,49 +24393,49 @@
         <v>28</v>
       </c>
       <c r="E270" s="2">
-        <v>45403.52083333334</v>
+        <v>45409.4375</v>
       </c>
       <c r="F270" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G270" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K270">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L270">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M270">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N270">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O270">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P270">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R270">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S270">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T270">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U270">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V270">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W270">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7061083</v>
+        <v>7092931</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24467,49 +24467,49 @@
         <v>28</v>
       </c>
       <c r="E271" s="2">
-        <v>45403.60416666666</v>
+        <v>45409.5625</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K271">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L271">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M271">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N271">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O271">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P271">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q271">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R271">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S271">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T271">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="W271">
         <v>0</v>
@@ -24532,7 +24532,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7092934</v>
+        <v>7092933</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24541,49 +24541,49 @@
         <v>28</v>
       </c>
       <c r="E272" s="2">
-        <v>45408.64583333334</v>
+        <v>45410.4375</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G272" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K272">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L272">
         <v>3.6</v>
       </c>
       <c r="M272">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N272">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O272">
         <v>3.6</v>
       </c>
       <c r="P272">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q272">
         <v>-0.25</v>
       </c>
       <c r="R272">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S272">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T272">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="V272">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W272">
         <v>0</v>
@@ -24598,6 +24598,154 @@
         <v>0</v>
       </c>
       <c r="AA272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>7092932</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45410.52083333334</v>
+      </c>
+      <c r="F273" t="s">
+        <v>45</v>
+      </c>
+      <c r="G273" t="s">
+        <v>40</v>
+      </c>
+      <c r="K273">
+        <v>1.615</v>
+      </c>
+      <c r="L273">
+        <v>4.2</v>
+      </c>
+      <c r="M273">
+        <v>5</v>
+      </c>
+      <c r="N273">
+        <v>1.571</v>
+      </c>
+      <c r="O273">
+        <v>4.333</v>
+      </c>
+      <c r="P273">
+        <v>5.25</v>
+      </c>
+      <c r="Q273">
+        <v>-1</v>
+      </c>
+      <c r="R273">
+        <v>2</v>
+      </c>
+      <c r="S273">
+        <v>1.9</v>
+      </c>
+      <c r="T273">
+        <v>2.75</v>
+      </c>
+      <c r="U273">
+        <v>1.98</v>
+      </c>
+      <c r="V273">
+        <v>1.92</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
+      <c r="AA273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>7092935</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45410.60416666666</v>
+      </c>
+      <c r="F274" t="s">
+        <v>41</v>
+      </c>
+      <c r="G274" t="s">
+        <v>42</v>
+      </c>
+      <c r="K274">
+        <v>3.1</v>
+      </c>
+      <c r="L274">
+        <v>3.75</v>
+      </c>
+      <c r="M274">
+        <v>2.15</v>
+      </c>
+      <c r="N274">
+        <v>3.2</v>
+      </c>
+      <c r="O274">
+        <v>3.75</v>
+      </c>
+      <c r="P274">
+        <v>2.1</v>
+      </c>
+      <c r="Q274">
+        <v>0.25</v>
+      </c>
+      <c r="R274">
+        <v>2.04</v>
+      </c>
+      <c r="S274">
+        <v>1.86</v>
+      </c>
+      <c r="T274">
+        <v>2.75</v>
+      </c>
+      <c r="U274">
+        <v>1.87</v>
+      </c>
+      <c r="V274">
+        <v>2.03</v>
+      </c>
+      <c r="W274">
+        <v>0</v>
+      </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <v>0</v>
+      </c>
+      <c r="Z274">
+        <v>0</v>
+      </c>
+      <c r="AA274">
         <v>0</v>
       </c>
     </row>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -103,13 +103,13 @@
     <t>7128366</t>
   </si>
   <si>
+    <t>7128365</t>
+  </si>
+  <si>
     <t>7128369</t>
   </si>
   <si>
     <t>7124123</t>
-  </si>
-  <si>
-    <t>7128365</t>
   </si>
   <si>
     <t>7128367</t>
@@ -2277,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6847568</v>
+        <v>6847566</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -2286,13 +2286,13 @@
         <v>45171.4375</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2301,43 +2301,43 @@
         <v>56</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="K21">
+        <v>3.6</v>
+      </c>
+      <c r="L21">
+        <v>2.3</v>
+      </c>
+      <c r="M21">
+        <v>2.6</v>
+      </c>
+      <c r="N21">
         <v>3.4</v>
       </c>
-      <c r="L21">
-        <v>3.8</v>
-      </c>
-      <c r="M21">
-        <v>2.25</v>
-      </c>
-      <c r="N21">
-        <v>3.5</v>
-      </c>
       <c r="O21">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P21">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
         <v>2.75</v>
       </c>
       <c r="T21">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U21">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V21">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2346,13 +2346,13 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2363,7 +2363,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6847563</v>
+        <v>6847565</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -2372,13 +2372,13 @@
         <v>45171.4375</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2387,43 +2387,43 @@
         <v>56</v>
       </c>
       <c r="J22">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M22">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="O22">
-        <v>11</v>
+        <v>2.55</v>
       </c>
       <c r="P22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="R22">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
         <v>3.25</v>
       </c>
       <c r="T22">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="U22">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>0.222</v>
+        <v>1.5</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2432,13 +2432,13 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -2449,7 +2449,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6847565</v>
+        <v>6847563</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -2458,13 +2458,13 @@
         <v>45171.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2473,43 +2473,43 @@
         <v>56</v>
       </c>
       <c r="J23">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>1.222</v>
       </c>
       <c r="N23">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="O23">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q23">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S23">
         <v>3.25</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V23">
-        <v>1.5</v>
+        <v>0.222</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2518,13 +2518,13 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2535,7 +2535,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6847566</v>
+        <v>6847568</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2544,13 +2544,13 @@
         <v>45171.4375</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2559,43 +2559,43 @@
         <v>56</v>
       </c>
       <c r="J24">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O24">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
         <v>2.75</v>
       </c>
       <c r="T24">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U24">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V24">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2604,13 +2604,13 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="AB24">
         <v>-1</v>
@@ -3825,7 +3825,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6847579</v>
+        <v>6847578</v>
       </c>
       <c r="C39" t="s">
         <v>36</v>
@@ -3834,76 +3834,76 @@
         <v>45192.4375</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J39">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="K39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="N39">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q39">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="R39">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S39">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T39">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U39">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="Z39">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9299999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3911,7 +3911,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6847581</v>
+        <v>6847579</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -3920,55 +3920,55 @@
         <v>45192.4375</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="s">
         <v>55</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="K40">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L40">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="N40">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O40">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q40">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T40">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U40">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V40">
         <v>-1</v>
@@ -3977,19 +3977,19 @@
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.425</v>
+        <v>1.07</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.8799999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3997,7 +3997,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6847583</v>
+        <v>6847581</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
@@ -4006,76 +4006,76 @@
         <v>45192.4375</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="K41">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L41">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O41">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q41">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="R41">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T41">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="U41">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="V41">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y41">
-        <v>0.8200000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA41">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4083,7 +4083,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6847578</v>
+        <v>6847583</v>
       </c>
       <c r="C42" t="s">
         <v>36</v>
@@ -4092,58 +4092,58 @@
         <v>45192.4375</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
         <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>56</v>
       </c>
       <c r="J42">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M42">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="N42">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O42">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="P42">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="R42">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S42">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T42">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="U42">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="V42">
-        <v>0.7270000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4152,16 +4152,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.46</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -24661,31 +24661,31 @@
         <v>1.727</v>
       </c>
       <c r="M281">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="N281">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="O281">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P281">
         <v>1.25</v>
       </c>
       <c r="Q281">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="R281">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S281">
         <v>3.75</v>
       </c>
       <c r="T281">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U281">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V281">
         <v>0</v>
@@ -24776,46 +24776,46 @@
         <v>45416.4375</v>
       </c>
       <c r="E283" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F283" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J283">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="K283">
+        <v>4.5</v>
+      </c>
+      <c r="L283">
+        <v>6.5</v>
+      </c>
+      <c r="M283">
+        <v>1.85</v>
+      </c>
+      <c r="N283">
+        <v>4.333</v>
+      </c>
+      <c r="O283">
+        <v>3.6</v>
+      </c>
+      <c r="P283">
+        <v>-0.5</v>
+      </c>
+      <c r="Q283">
+        <v>1.88</v>
+      </c>
+      <c r="R283">
+        <v>2.02</v>
+      </c>
+      <c r="S283">
         <v>3.5</v>
       </c>
-      <c r="L283">
-        <v>2.75</v>
-      </c>
-      <c r="M283">
-        <v>2.3</v>
-      </c>
-      <c r="N283">
-        <v>3.75</v>
-      </c>
-      <c r="O283">
-        <v>2.9</v>
-      </c>
-      <c r="P283">
-        <v>-0.25</v>
-      </c>
-      <c r="Q283">
-        <v>2.04</v>
-      </c>
-      <c r="R283">
-        <v>1.86</v>
-      </c>
-      <c r="S283">
-        <v>3</v>
-      </c>
       <c r="T283">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U283">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V283">
         <v>0</v>
@@ -24841,46 +24841,46 @@
         <v>45416.4375</v>
       </c>
       <c r="E284" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F284" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J284">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K284">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L284">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M284">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N284">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O284">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P284">
         <v>-0.25</v>
       </c>
       <c r="Q284">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="R284">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S284">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T284">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="U284">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V284">
         <v>0</v>
@@ -24906,46 +24906,46 @@
         <v>45416.4375</v>
       </c>
       <c r="E285" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F285" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J285">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="K285">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L285">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="M285">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="N285">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O285">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P285">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q285">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R285">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S285">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T285">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U285">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V285">
         <v>0</v>
@@ -25116,31 +25116,31 @@
         <v>1.85</v>
       </c>
       <c r="M288">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N288">
         <v>3.5</v>
       </c>
       <c r="O288">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P288">
         <v>0.25</v>
       </c>
       <c r="Q288">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R288">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="S288">
         <v>2.75</v>
       </c>
       <c r="T288">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U288">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V288">
         <v>0</v>
@@ -25193,19 +25193,19 @@
         <v>0.25</v>
       </c>
       <c r="Q289">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R289">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S289">
         <v>2.75</v>
       </c>
       <c r="T289">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U289">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="V289">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -97,16 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7128368</t>
+    <t>7128369</t>
   </si>
   <si>
     <t>7128366</t>
   </si>
   <si>
     <t>7128365</t>
-  </si>
-  <si>
-    <t>7128369</t>
   </si>
   <si>
     <t>7124123</t>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>7128370</t>
+  </si>
+  <si>
+    <t>7158444</t>
   </si>
   <si>
     <t>Germany Bundesliga I</t>
@@ -2277,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6847566</v>
+        <v>6847568</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -2286,13 +2286,13 @@
         <v>45171.4375</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2301,43 +2301,43 @@
         <v>56</v>
       </c>
       <c r="J21">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O21">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
         <v>2.75</v>
       </c>
       <c r="T21">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U21">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V21">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2346,13 +2346,13 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2363,7 +2363,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6847565</v>
+        <v>6847563</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -2372,13 +2372,13 @@
         <v>45171.4375</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2387,43 +2387,43 @@
         <v>56</v>
       </c>
       <c r="J22">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L22">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>1.222</v>
       </c>
       <c r="N22">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="O22">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q22">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="R22">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S22">
         <v>3.25</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V22">
-        <v>1.5</v>
+        <v>0.222</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2432,13 +2432,13 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -2449,7 +2449,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6847563</v>
+        <v>6847565</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -2458,13 +2458,13 @@
         <v>45171.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2473,43 +2473,43 @@
         <v>56</v>
       </c>
       <c r="J23">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K23">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M23">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="O23">
-        <v>11</v>
+        <v>2.55</v>
       </c>
       <c r="P23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="R23">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
         <v>3.25</v>
       </c>
       <c r="T23">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>0.222</v>
+        <v>1.5</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2518,13 +2518,13 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2535,7 +2535,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6847568</v>
+        <v>6847566</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2544,13 +2544,13 @@
         <v>45171.4375</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2559,43 +2559,43 @@
         <v>56</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="K24">
+        <v>3.6</v>
+      </c>
+      <c r="L24">
+        <v>2.3</v>
+      </c>
+      <c r="M24">
+        <v>2.6</v>
+      </c>
+      <c r="N24">
         <v>3.4</v>
       </c>
-      <c r="L24">
-        <v>3.8</v>
-      </c>
-      <c r="M24">
-        <v>2.25</v>
-      </c>
-      <c r="N24">
-        <v>3.5</v>
-      </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
         <v>2.75</v>
       </c>
       <c r="T24">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U24">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V24">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2604,13 +2604,13 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="AB24">
         <v>-1</v>
@@ -3825,7 +3825,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6847578</v>
+        <v>6847579</v>
       </c>
       <c r="C39" t="s">
         <v>36</v>
@@ -3834,76 +3834,76 @@
         <v>45192.4375</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="N39">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q39">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="R39">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="S39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T39">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U39">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V39">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y39">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9099999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3911,7 +3911,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6847579</v>
+        <v>6847581</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -3920,55 +3920,55 @@
         <v>45192.4375</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
         <v>55</v>
       </c>
       <c r="J40">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="K40">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="M40">
+        <v>4.333</v>
+      </c>
+      <c r="N40">
+        <v>4.333</v>
+      </c>
+      <c r="O40">
+        <v>1.65</v>
+      </c>
+      <c r="P40">
+        <v>0.75</v>
+      </c>
+      <c r="Q40">
         <v>2.05</v>
       </c>
-      <c r="N40">
-        <v>3.6</v>
-      </c>
-      <c r="O40">
-        <v>3.3</v>
-      </c>
-      <c r="P40">
-        <v>-0.25</v>
-      </c>
-      <c r="Q40">
-        <v>1.83</v>
-      </c>
       <c r="R40">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U40">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="V40">
         <v>-1</v>
@@ -3977,19 +3977,19 @@
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z40">
-        <v>1.07</v>
+        <v>0.425</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.9299999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3997,7 +3997,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6847581</v>
+        <v>6847583</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
@@ -4006,76 +4006,76 @@
         <v>45192.4375</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="K41">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L41">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M41">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="P41">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="S41">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T41">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="U41">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="V41">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-0.5</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="Z41">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4083,7 +4083,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6847583</v>
+        <v>6847578</v>
       </c>
       <c r="C42" t="s">
         <v>36</v>
@@ -4092,58 +4092,58 @@
         <v>45192.4375</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>56</v>
       </c>
       <c r="J42">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="K42">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O42">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q42">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="R42">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S42">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T42">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="U42">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="V42">
-        <v>1.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4152,16 +4152,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8200000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -22401,7 +22401,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7024125</v>
+        <v>7024123</v>
       </c>
       <c r="C255" t="s">
         <v>36</v>
@@ -22410,76 +22410,76 @@
         <v>45395.4375</v>
       </c>
       <c r="E255" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F255" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J255">
+        <v>1.363</v>
+      </c>
+      <c r="K255">
+        <v>5</v>
+      </c>
+      <c r="L255">
+        <v>7.5</v>
+      </c>
+      <c r="M255">
+        <v>1.25</v>
+      </c>
+      <c r="N255">
+        <v>6</v>
+      </c>
+      <c r="O255">
+        <v>11</v>
+      </c>
+      <c r="P255">
+        <v>-1.75</v>
+      </c>
+      <c r="Q255">
+        <v>1.93</v>
+      </c>
+      <c r="R255">
+        <v>1.97</v>
+      </c>
+      <c r="S255">
         <v>3.5</v>
       </c>
-      <c r="K255">
-        <v>4</v>
-      </c>
-      <c r="L255">
-        <v>1.909</v>
-      </c>
-      <c r="M255">
-        <v>3.1</v>
-      </c>
-      <c r="N255">
-        <v>3.75</v>
-      </c>
-      <c r="O255">
-        <v>2.15</v>
-      </c>
-      <c r="P255">
+      <c r="T255">
+        <v>2.02</v>
+      </c>
+      <c r="U255">
+        <v>1.88</v>
+      </c>
+      <c r="V255">
         <v>0.25</v>
       </c>
-      <c r="Q255">
-        <v>2.02</v>
-      </c>
-      <c r="R255">
-        <v>1.88</v>
-      </c>
-      <c r="S255">
-        <v>3</v>
-      </c>
-      <c r="T255">
-        <v>1.85</v>
-      </c>
-      <c r="U255">
-        <v>2.05</v>
-      </c>
-      <c r="V255">
-        <v>-1</v>
-      </c>
       <c r="W255">
         <v>-1</v>
       </c>
       <c r="X255">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="Z255">
+        <v>-1</v>
+      </c>
+      <c r="AA255">
+        <v>-1</v>
+      </c>
+      <c r="AB255">
         <v>0.8799999999999999</v>
-      </c>
-      <c r="AA255">
-        <v>0</v>
-      </c>
-      <c r="AB255">
-        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22487,7 +22487,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7024123</v>
+        <v>6917701</v>
       </c>
       <c r="C256" t="s">
         <v>36</v>
@@ -22496,58 +22496,58 @@
         <v>45395.4375</v>
       </c>
       <c r="E256" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="s">
         <v>56</v>
       </c>
       <c r="J256">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="K256">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L256">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M256">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="N256">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O256">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="P256">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q256">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R256">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T256">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U256">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -22556,16 +22556,16 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB256">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22573,7 +22573,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6917701</v>
+        <v>7025441</v>
       </c>
       <c r="C257" t="s">
         <v>36</v>
@@ -22582,49 +22582,49 @@
         <v>45395.4375</v>
       </c>
       <c r="E257" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F257" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="s">
         <v>56</v>
       </c>
       <c r="J257">
+        <v>1.125</v>
+      </c>
+      <c r="K257">
+        <v>9</v>
+      </c>
+      <c r="L257">
+        <v>15</v>
+      </c>
+      <c r="M257">
+        <v>1.222</v>
+      </c>
+      <c r="N257">
+        <v>7</v>
+      </c>
+      <c r="O257">
+        <v>11</v>
+      </c>
+      <c r="P257">
+        <v>-2</v>
+      </c>
+      <c r="Q257">
         <v>1.95</v>
       </c>
-      <c r="K257">
-        <v>3.6</v>
-      </c>
-      <c r="L257">
-        <v>3.75</v>
-      </c>
-      <c r="M257">
-        <v>1.75</v>
-      </c>
-      <c r="N257">
-        <v>4.2</v>
-      </c>
-      <c r="O257">
-        <v>4.2</v>
-      </c>
-      <c r="P257">
-        <v>-0.75</v>
-      </c>
-      <c r="Q257">
-        <v>2</v>
-      </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T257">
         <v>1.9</v>
@@ -22633,7 +22633,7 @@
         <v>2</v>
       </c>
       <c r="V257">
-        <v>0.75</v>
+        <v>0.222</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -22642,16 +22642,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
+        <v>-1</v>
+      </c>
+      <c r="AB257">
         <v>1</v>
-      </c>
-      <c r="Z257">
-        <v>-1</v>
-      </c>
-      <c r="AA257">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB257">
-        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22659,7 +22659,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7025441</v>
+        <v>7024125</v>
       </c>
       <c r="C258" t="s">
         <v>36</v>
@@ -22668,76 +22668,76 @@
         <v>45395.4375</v>
       </c>
       <c r="E258" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F258" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
         <v>2</v>
       </c>
-      <c r="H258">
+      <c r="I258" t="s">
+        <v>55</v>
+      </c>
+      <c r="J258">
+        <v>3.5</v>
+      </c>
+      <c r="K258">
+        <v>4</v>
+      </c>
+      <c r="L258">
+        <v>1.909</v>
+      </c>
+      <c r="M258">
+        <v>3.1</v>
+      </c>
+      <c r="N258">
+        <v>3.75</v>
+      </c>
+      <c r="O258">
+        <v>2.15</v>
+      </c>
+      <c r="P258">
+        <v>0.25</v>
+      </c>
+      <c r="Q258">
+        <v>2.02</v>
+      </c>
+      <c r="R258">
+        <v>1.88</v>
+      </c>
+      <c r="S258">
+        <v>3</v>
+      </c>
+      <c r="T258">
+        <v>1.85</v>
+      </c>
+      <c r="U258">
+        <v>2.05</v>
+      </c>
+      <c r="V258">
+        <v>-1</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>1.15</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AA258">
         <v>0</v>
       </c>
-      <c r="I258" t="s">
-        <v>56</v>
-      </c>
-      <c r="J258">
-        <v>1.125</v>
-      </c>
-      <c r="K258">
-        <v>9</v>
-      </c>
-      <c r="L258">
-        <v>15</v>
-      </c>
-      <c r="M258">
-        <v>1.222</v>
-      </c>
-      <c r="N258">
-        <v>7</v>
-      </c>
-      <c r="O258">
-        <v>11</v>
-      </c>
-      <c r="P258">
-        <v>-2</v>
-      </c>
-      <c r="Q258">
-        <v>1.95</v>
-      </c>
-      <c r="R258">
-        <v>1.95</v>
-      </c>
-      <c r="S258">
-        <v>3.5</v>
-      </c>
-      <c r="T258">
-        <v>1.9</v>
-      </c>
-      <c r="U258">
-        <v>2</v>
-      </c>
-      <c r="V258">
-        <v>0.222</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
-      <c r="Y258">
+      <c r="AB258">
         <v>0</v>
-      </c>
-      <c r="Z258">
-        <v>0</v>
-      </c>
-      <c r="AA258">
-        <v>-1</v>
-      </c>
-      <c r="AB258">
-        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -24643,49 +24643,49 @@
         <v>36</v>
       </c>
       <c r="D281" s="2">
-        <v>45415.64583333334</v>
+        <v>45416.4375</v>
       </c>
       <c r="E281" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J281">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="K281">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L281">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M281">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="N281">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O281">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P281">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q281">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="R281">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S281">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T281">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="U281">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V281">
         <v>0</v>
@@ -24732,25 +24732,25 @@
         <v>5</v>
       </c>
       <c r="O282">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="P282">
         <v>-1.25</v>
       </c>
       <c r="Q282">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R282">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S282">
         <v>3</v>
       </c>
       <c r="T282">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U282">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V282">
         <v>0</v>
@@ -24791,31 +24791,31 @@
         <v>6.5</v>
       </c>
       <c r="M283">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="N283">
         <v>4.333</v>
       </c>
       <c r="O283">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P283">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q283">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="R283">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="S283">
         <v>3.5</v>
       </c>
       <c r="T283">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U283">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V283">
         <v>0</v>
@@ -24841,46 +24841,46 @@
         <v>45416.4375</v>
       </c>
       <c r="E284" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F284" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J284">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K284">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L284">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="M284">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N284">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O284">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P284">
         <v>-0.25</v>
       </c>
       <c r="Q284">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="R284">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="S284">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T284">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="U284">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="V284">
         <v>0</v>
@@ -24903,49 +24903,49 @@
         <v>36</v>
       </c>
       <c r="D285" s="2">
-        <v>45416.4375</v>
+        <v>45416.5625</v>
       </c>
       <c r="E285" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F285" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J285">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K285">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L285">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="M285">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N285">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O285">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P285">
         <v>-0.25</v>
       </c>
       <c r="Q285">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="R285">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="S285">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T285">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="U285">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="V285">
         <v>0</v>
@@ -24968,49 +24968,49 @@
         <v>36</v>
       </c>
       <c r="D286" s="2">
-        <v>45416.5625</v>
+        <v>45417.4375</v>
       </c>
       <c r="E286" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J286">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="K286">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L286">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="M286">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N286">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O286">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P286">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q286">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="R286">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S286">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T286">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="U286">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V286">
         <v>0</v>
@@ -25033,49 +25033,49 @@
         <v>36</v>
       </c>
       <c r="D287" s="2">
-        <v>45417.4375</v>
+        <v>45417.52083333334</v>
       </c>
       <c r="E287" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F287" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J287">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="K287">
         <v>3.6</v>
       </c>
       <c r="L287">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="M287">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N287">
         <v>3.5</v>
       </c>
       <c r="O287">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="P287">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q287">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R287">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S287">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T287">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="U287">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="V287">
         <v>0</v>
@@ -25098,49 +25098,49 @@
         <v>36</v>
       </c>
       <c r="D288" s="2">
-        <v>45417.52083333334</v>
+        <v>45417.60416666666</v>
       </c>
       <c r="E288" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F288" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J288">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="K288">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L288">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="M288">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N288">
         <v>3.5</v>
       </c>
       <c r="O288">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P288">
         <v>0.25</v>
       </c>
       <c r="Q288">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="R288">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="S288">
         <v>2.75</v>
       </c>
       <c r="T288">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U288">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V288">
         <v>0</v>
@@ -25163,49 +25163,49 @@
         <v>36</v>
       </c>
       <c r="D289" s="2">
-        <v>45417.60416666666</v>
+        <v>45422.64583333334</v>
       </c>
       <c r="E289" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F289" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J289">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="K289">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L289">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="M289">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="N289">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O289">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="P289">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q289">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R289">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="S289">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T289">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U289">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V289">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -100,13 +100,13 @@
     <t>7158444</t>
   </si>
   <si>
-    <t>7179918</t>
+    <t>7180059</t>
   </si>
   <si>
     <t>7180060</t>
   </si>
   <si>
-    <t>7180059</t>
+    <t>7179918</t>
   </si>
   <si>
     <t>7175242</t>
@@ -25435,7 +25435,7 @@
         <v>1.85</v>
       </c>
       <c r="M290">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N290">
         <v>4</v>
@@ -25444,22 +25444,22 @@
         <v>1.8</v>
       </c>
       <c r="P290">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q290">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="R290">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="S290">
         <v>3.25</v>
       </c>
       <c r="T290">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U290">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="V290">
         <v>0</v>
@@ -25485,46 +25485,46 @@
         <v>45423.4375</v>
       </c>
       <c r="E291" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F291" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J291">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="K291">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="L291">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="M291">
-        <v>2.45</v>
+        <v>1.285</v>
       </c>
       <c r="N291">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O291">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="P291">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q291">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R291">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="S291">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T291">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U291">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V291">
         <v>0</v>
@@ -25577,19 +25577,19 @@
         <v>-0.75</v>
       </c>
       <c r="Q292">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R292">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S292">
         <v>3</v>
       </c>
       <c r="T292">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="U292">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V292">
         <v>0</v>
@@ -25615,46 +25615,46 @@
         <v>45423.4375</v>
       </c>
       <c r="E293" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F293" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J293">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="K293">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="L293">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="M293">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="N293">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O293">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="P293">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q293">
+        <v>1.88</v>
+      </c>
+      <c r="R293">
+        <v>2.02</v>
+      </c>
+      <c r="S293">
+        <v>3</v>
+      </c>
+      <c r="T293">
+        <v>1.91</v>
+      </c>
+      <c r="U293">
         <v>1.99</v>
-      </c>
-      <c r="R293">
-        <v>1.91</v>
-      </c>
-      <c r="S293">
-        <v>3.75</v>
-      </c>
-      <c r="T293">
-        <v>1.95</v>
-      </c>
-      <c r="U293">
-        <v>1.95</v>
       </c>
       <c r="V293">
         <v>0</v>
@@ -25695,31 +25695,31 @@
         <v>2.8</v>
       </c>
       <c r="M294">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N294">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O294">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="P294">
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R294">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S294">
         <v>2.5</v>
       </c>
       <c r="T294">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V294">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>2.5</v>
       </c>
       <c r="M295">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N295">
         <v>3.6</v>
       </c>
       <c r="O295">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P295">
         <v>-0.25</v>
       </c>
       <c r="Q295">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S295">
         <v>3.25</v>
@@ -25837,10 +25837,10 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R296">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S296">
         <v>3.5</v>
@@ -25890,10 +25890,10 @@
         <v>7.5</v>
       </c>
       <c r="M297">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="N297">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O297">
         <v>7</v>
@@ -25902,19 +25902,19 @@
         <v>-1.5</v>
       </c>
       <c r="Q297">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R297">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="S297">
         <v>3.5</v>
       </c>
       <c r="T297">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U297">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V297">
         <v>0</v>
@@ -25976,10 +25976,10 @@
         <v>3.25</v>
       </c>
       <c r="T298">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="U298">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V298">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -97,10 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7222256</t>
+  </si>
+  <si>
     <t>7222255</t>
   </si>
   <si>
-    <t>7222256</t>
+    <t>7222259</t>
   </si>
   <si>
     <t>7390156</t>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t>7222260</t>
-  </si>
-  <si>
-    <t>7222259</t>
   </si>
   <si>
     <t>Germany Bundesliga I</t>
@@ -157,7 +157,7 @@
     <t>RB Leipzig</t>
   </si>
   <si>
-    <t>Bochum</t>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>Cologne</t>
@@ -166,7 +166,7 @@
     <t>SC Freiburg</t>
   </si>
   <si>
-    <t>Heidenheim</t>
+    <t>Bochum</t>
   </si>
   <si>
     <t>Darmstadt</t>
@@ -741,7 +741,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1085,7 +1085,7 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6847558</v>
+        <v>6847559</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1515,46 +1515,46 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O12">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="P12">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q12">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R12">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="S12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T12">
         <v>1.95</v>
@@ -1566,22 +1566,22 @@
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y12">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6847559</v>
+        <v>6847558</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1773,46 +1773,46 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J15">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="K15">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O15">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q15">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="R15">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T15">
         <v>1.95</v>
@@ -1824,22 +1824,22 @@
         <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X15">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="Z15">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0.95</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2203,7 +2203,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2375,7 +2375,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -3490,7 +3490,7 @@
         <v>45185.5625</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
@@ -3576,7 +3576,7 @@
         <v>45186.4375</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -4181,7 +4181,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>7</v>
@@ -4353,7 +4353,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4694,7 +4694,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
@@ -4857,7 +4857,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6847587</v>
+        <v>6847591</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
@@ -4866,40 +4866,40 @@
         <v>45199.4375</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
       <c r="I51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J51">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="K51">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="M51">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -4908,34 +4908,34 @@
         <v>1.99</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T51">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U51">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="V51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="Z51">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4943,7 +4943,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6847591</v>
+        <v>6847587</v>
       </c>
       <c r="C52" t="s">
         <v>36</v>
@@ -4952,40 +4952,40 @@
         <v>45199.4375</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>3.9</v>
+      </c>
+      <c r="L52">
+        <v>1.8</v>
+      </c>
+      <c r="M52">
+        <v>5.25</v>
+      </c>
+      <c r="N52">
+        <v>4.5</v>
+      </c>
+      <c r="O52">
+        <v>1.6</v>
+      </c>
+      <c r="P52">
         <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>56</v>
-      </c>
-      <c r="J52">
-        <v>3.3</v>
-      </c>
-      <c r="K52">
-        <v>3.6</v>
-      </c>
-      <c r="L52">
-        <v>2.05</v>
-      </c>
-      <c r="M52">
-        <v>3.1</v>
-      </c>
-      <c r="N52">
-        <v>3.5</v>
-      </c>
-      <c r="O52">
-        <v>2.25</v>
-      </c>
-      <c r="P52">
-        <v>0.25</v>
       </c>
       <c r="Q52">
         <v>1.91</v>
@@ -4994,34 +4994,34 @@
         <v>1.99</v>
       </c>
       <c r="S52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T52">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U52">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="V52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y52">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB52">
-        <v>1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5385,7 +5385,7 @@
         <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5545,7 +5545,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6847594</v>
+        <v>6847600</v>
       </c>
       <c r="C59" t="s">
         <v>36</v>
@@ -5554,58 +5554,58 @@
         <v>45206.4375</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
         <v>56</v>
       </c>
       <c r="J59">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L59">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N59">
+        <v>3.5</v>
+      </c>
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="O59">
-        <v>4.5</v>
-      </c>
       <c r="P59">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q59">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S59">
         <v>2.75</v>
       </c>
       <c r="T59">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U59">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="V59">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5614,13 +5614,13 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.8999999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8899999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB59">
         <v>-1</v>
@@ -5631,7 +5631,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6847600</v>
+        <v>6847594</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
@@ -5640,58 +5640,58 @@
         <v>45206.4375</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
         <v>56</v>
       </c>
       <c r="J60">
+        <v>1.533</v>
+      </c>
+      <c r="K60">
+        <v>4.333</v>
+      </c>
+      <c r="L60">
+        <v>5.5</v>
+      </c>
+      <c r="M60">
+        <v>1.7</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>4.5</v>
+      </c>
+      <c r="P60">
+        <v>-0.75</v>
+      </c>
+      <c r="Q60">
+        <v>1.9</v>
+      </c>
+      <c r="R60">
         <v>2</v>
-      </c>
-      <c r="K60">
-        <v>3.6</v>
-      </c>
-      <c r="L60">
-        <v>3.5</v>
-      </c>
-      <c r="M60">
-        <v>1.909</v>
-      </c>
-      <c r="N60">
-        <v>3.5</v>
-      </c>
-      <c r="O60">
-        <v>4</v>
-      </c>
-      <c r="P60">
-        <v>-0.5</v>
-      </c>
-      <c r="Q60">
-        <v>1.88</v>
-      </c>
-      <c r="R60">
-        <v>2.02</v>
       </c>
       <c r="S60">
         <v>2.75</v>
       </c>
       <c r="T60">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="U60">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="V60">
-        <v>0.909</v>
+        <v>0.7</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5700,13 +5700,13 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.8799999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.9299999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB60">
         <v>-1</v>
@@ -5987,7 +5987,7 @@
         <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6417,7 +6417,7 @@
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6758,7 +6758,7 @@
         <v>45221.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
         <v>40</v>
@@ -6844,7 +6844,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
         <v>53</v>
@@ -6933,7 +6933,7 @@
         <v>52</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7621,7 +7621,7 @@
         <v>51</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8306,7 +8306,7 @@
         <v>45235.5625</v>
       </c>
       <c r="E91" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s">
         <v>38</v>
@@ -8653,7 +8653,7 @@
         <v>54</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -8822,7 +8822,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
         <v>48</v>
@@ -9243,7 +9243,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847636</v>
+        <v>6847634</v>
       </c>
       <c r="C102" t="s">
         <v>36</v>
@@ -9252,76 +9252,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J102">
+        <v>1.85</v>
+      </c>
+      <c r="K102">
+        <v>3.6</v>
+      </c>
+      <c r="L102">
+        <v>4</v>
+      </c>
+      <c r="M102">
+        <v>1.95</v>
+      </c>
+      <c r="N102">
         <v>3.5</v>
       </c>
-      <c r="K102">
-        <v>3.75</v>
-      </c>
-      <c r="L102">
-        <v>1.95</v>
-      </c>
-      <c r="M102">
-        <v>3.6</v>
-      </c>
-      <c r="N102">
+      <c r="O102">
         <v>4</v>
       </c>
-      <c r="O102">
-        <v>1.909</v>
-      </c>
       <c r="P102">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q102">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R102">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="S102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U102">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9415,7 +9415,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847633</v>
+        <v>6847636</v>
       </c>
       <c r="C104" t="s">
         <v>36</v>
@@ -9424,58 +9424,58 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="s">
         <v>56</v>
       </c>
       <c r="J104">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="K104">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="M104">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="P104">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q104">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="S104">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T104">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="U104">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V104">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9484,16 +9484,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9501,7 +9501,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847634</v>
+        <v>6847633</v>
       </c>
       <c r="C105" t="s">
         <v>36</v>
@@ -9510,76 +9510,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J105">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="K105">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M105">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N105">
+        <v>5.25</v>
+      </c>
+      <c r="O105">
+        <v>4.75</v>
+      </c>
+      <c r="P105">
+        <v>-1.25</v>
+      </c>
+      <c r="Q105">
+        <v>2.04</v>
+      </c>
+      <c r="R105">
+        <v>1.86</v>
+      </c>
+      <c r="S105">
         <v>3.5</v>
       </c>
-      <c r="O105">
-        <v>4</v>
-      </c>
-      <c r="P105">
-        <v>-0.5</v>
-      </c>
-      <c r="Q105">
-        <v>1.99</v>
-      </c>
-      <c r="R105">
-        <v>1.91</v>
-      </c>
-      <c r="S105">
-        <v>2.5</v>
-      </c>
       <c r="T105">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="U105">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W105">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="Z105">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9768,10 +9768,10 @@
         <v>45256.47916666666</v>
       </c>
       <c r="E108" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" t="s">
         <v>50</v>
-      </c>
-      <c r="F108" t="s">
-        <v>47</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10029,7 +10029,7 @@
         <v>46</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10112,7 +10112,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="E112" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -10631,7 +10631,7 @@
         <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10705,7 +10705,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847656</v>
+        <v>6847650</v>
       </c>
       <c r="C119" t="s">
         <v>36</v>
@@ -10714,58 +10714,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E119" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G119">
         <v>3</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="s">
         <v>56</v>
       </c>
       <c r="J119">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K119">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="N119">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q119">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="R119">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="S119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V119">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -10774,13 +10774,13 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.52</v>
+        <v>1.09</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB119">
         <v>-1</v>
@@ -10791,7 +10791,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847650</v>
+        <v>6847656</v>
       </c>
       <c r="C120" t="s">
         <v>36</v>
@@ -10800,73 +10800,73 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G120">
         <v>3</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="s">
         <v>56</v>
       </c>
       <c r="J120">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N120">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
+        <v>-0.75</v>
+      </c>
+      <c r="Q120">
+        <v>2.04</v>
+      </c>
+      <c r="R120">
+        <v>1.86</v>
+      </c>
+      <c r="S120">
+        <v>2.75</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
+        <v>1.9</v>
+      </c>
+      <c r="V120">
+        <v>0.8</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>0.52</v>
+      </c>
+      <c r="Z120">
         <v>-0.5</v>
       </c>
-      <c r="Q120">
-        <v>2.09</v>
-      </c>
-      <c r="R120">
-        <v>1.81</v>
-      </c>
-      <c r="S120">
-        <v>2.5</v>
-      </c>
-      <c r="T120">
-        <v>1.92</v>
-      </c>
-      <c r="U120">
-        <v>1.98</v>
-      </c>
-      <c r="V120">
-        <v>1.05</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>1.09</v>
-      </c>
-      <c r="Z120">
-        <v>-1</v>
-      </c>
       <c r="AA120">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -10963,7 +10963,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6847654</v>
+        <v>6846943</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
@@ -10972,58 +10972,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="s">
         <v>56</v>
       </c>
       <c r="J122">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="K122">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="L122">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="M122">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="N122">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q122">
+        <v>1.97</v>
+      </c>
+      <c r="R122">
+        <v>1.93</v>
+      </c>
+      <c r="S122">
+        <v>3.25</v>
+      </c>
+      <c r="T122">
         <v>1.95</v>
       </c>
-      <c r="R122">
+      <c r="U122">
         <v>1.95</v>
       </c>
-      <c r="S122">
-        <v>3</v>
-      </c>
-      <c r="T122">
-        <v>2.04</v>
-      </c>
-      <c r="U122">
-        <v>1.86</v>
-      </c>
       <c r="V122">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11032,16 +11032,16 @@
         <v>-1</v>
       </c>
       <c r="Y122">
+        <v>0.97</v>
+      </c>
+      <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
         <v>0.95</v>
       </c>
-      <c r="Z122">
-        <v>-1</v>
-      </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
       <c r="AB122">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11049,7 +11049,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6846943</v>
+        <v>6847654</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
@@ -11058,58 +11058,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
         <v>56</v>
       </c>
       <c r="J123">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="K123">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="M123">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="N123">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O123">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R123">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T123">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V123">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11118,16 +11118,16 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11660,7 +11660,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E130" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F130" t="s">
         <v>44</v>
@@ -11749,7 +11749,7 @@
         <v>53</v>
       </c>
       <c r="F131" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6847669</v>
+        <v>6847665</v>
       </c>
       <c r="C137" t="s">
         <v>36</v>
@@ -12262,55 +12262,55 @@
         <v>45279.6875</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
         <v>57</v>
       </c>
       <c r="J137">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="K137">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M137">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="N137">
         <v>4.75</v>
       </c>
       <c r="O137">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="P137">
         <v>-1</v>
       </c>
       <c r="Q137">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="R137">
-        <v>2.025</v>
+        <v>1.97</v>
       </c>
       <c r="S137">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V137">
         <v>-1</v>
@@ -12325,13 +12325,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1.025</v>
+        <v>0.97</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12339,7 +12339,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6847665</v>
+        <v>6847669</v>
       </c>
       <c r="C138" t="s">
         <v>36</v>
@@ -12348,55 +12348,55 @@
         <v>45279.6875</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138" t="s">
         <v>57</v>
       </c>
       <c r="J138">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="K138">
+        <v>4.5</v>
+      </c>
+      <c r="L138">
         <v>5</v>
       </c>
-      <c r="L138">
-        <v>6.5</v>
-      </c>
       <c r="M138">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N138">
         <v>4.75</v>
       </c>
       <c r="O138">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P138">
         <v>-1</v>
       </c>
       <c r="Q138">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="R138">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T138">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
         <v>-1</v>
@@ -12411,13 +12411,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.97</v>
+        <v>1.025</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB138">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12511,7 +12511,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6847667</v>
+        <v>6847671</v>
       </c>
       <c r="C140" t="s">
         <v>36</v>
@@ -12520,13 +12520,13 @@
         <v>45280.6875</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12535,43 +12535,43 @@
         <v>56</v>
       </c>
       <c r="J140">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K140">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="L140">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="M140">
-        <v>1.222</v>
+        <v>1.363</v>
       </c>
       <c r="N140">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="O140">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="P140">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q140">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="S140">
         <v>3.25</v>
       </c>
       <c r="T140">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>0.222</v>
+        <v>0.363</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12580,16 +12580,16 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.8500000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12597,7 +12597,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847671</v>
+        <v>6847667</v>
       </c>
       <c r="C141" t="s">
         <v>36</v>
@@ -12606,13 +12606,13 @@
         <v>45280.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -12621,43 +12621,43 @@
         <v>56</v>
       </c>
       <c r="J141">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K141">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="L141">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="M141">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="N141">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="O141">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="P141">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q141">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="R141">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
         <v>3.25</v>
       </c>
       <c r="T141">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>0.363</v>
+        <v>0.222</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -12666,16 +12666,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.01</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12683,7 +12683,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847672</v>
+        <v>6846945</v>
       </c>
       <c r="C142" t="s">
         <v>36</v>
@@ -12692,40 +12692,40 @@
         <v>45280.6875</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="s">
         <v>56</v>
       </c>
       <c r="J142">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="K142">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="N142">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O142">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q142">
         <v>1.92</v>
@@ -12734,16 +12734,16 @@
         <v>1.98</v>
       </c>
       <c r="S142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T142">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="U142">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -12752,16 +12752,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.9199999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12769,7 +12769,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6846945</v>
+        <v>6847672</v>
       </c>
       <c r="C143" t="s">
         <v>36</v>
@@ -12778,40 +12778,40 @@
         <v>45280.6875</v>
       </c>
       <c r="E143" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G143">
+        <v>3</v>
+      </c>
+      <c r="H143">
         <v>2</v>
-      </c>
-      <c r="H143">
-        <v>1</v>
       </c>
       <c r="I143" t="s">
         <v>56</v>
       </c>
       <c r="J143">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M143">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="P143">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q143">
         <v>1.92</v>
@@ -12820,16 +12820,16 @@
         <v>1.98</v>
       </c>
       <c r="S143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T143">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V143">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -12838,16 +12838,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.46</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13211,7 +13211,7 @@
         <v>48</v>
       </c>
       <c r="F148" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13552,7 +13552,7 @@
         <v>45305.47916666666</v>
       </c>
       <c r="E152" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s">
         <v>37</v>
@@ -13715,7 +13715,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6847686</v>
+        <v>6846947</v>
       </c>
       <c r="C154" t="s">
         <v>36</v>
@@ -13724,73 +13724,73 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E154" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154" t="s">
+        <v>57</v>
+      </c>
+      <c r="J154">
+        <v>4.2</v>
+      </c>
+      <c r="K154">
         <v>4</v>
       </c>
-      <c r="I154" t="s">
-        <v>55</v>
-      </c>
-      <c r="J154">
-        <v>4.333</v>
-      </c>
-      <c r="K154">
-        <v>3.8</v>
-      </c>
       <c r="L154">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="M154">
         <v>3.6</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O154">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="P154">
         <v>0.5</v>
       </c>
       <c r="Q154">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="S154">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T154">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="U154">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V154">
         <v>-1</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.98</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB154">
         <v>-1</v>
@@ -13801,7 +13801,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6846947</v>
+        <v>6847686</v>
       </c>
       <c r="C155" t="s">
         <v>36</v>
@@ -13810,73 +13810,73 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I155" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J155">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="K155">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L155">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="M155">
         <v>3.6</v>
       </c>
       <c r="N155">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O155">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P155">
         <v>0.5</v>
       </c>
       <c r="Q155">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R155">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T155">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="U155">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V155">
         <v>-1</v>
       </c>
       <c r="W155">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y155">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA155">
-        <v>0.8600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AB155">
         <v>-1</v>
@@ -13887,7 +13887,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847687</v>
+        <v>6847683</v>
       </c>
       <c r="C156" t="s">
         <v>36</v>
@@ -13896,58 +13896,58 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="s">
         <v>56</v>
       </c>
       <c r="J156">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="K156">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L156">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N156">
         <v>4</v>
       </c>
       <c r="O156">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q156">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="R156">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T156">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="U156">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="V156">
-        <v>3</v>
+        <v>0.95</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -13956,16 +13956,16 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.8600000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB156">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13973,7 +13973,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6847688</v>
+        <v>6847687</v>
       </c>
       <c r="C157" t="s">
         <v>36</v>
@@ -13985,73 +13985,73 @@
         <v>50</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J157">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="K157">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L157">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M157">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O157">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="P157">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q157">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="R157">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="S157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T157">
+        <v>1.88</v>
+      </c>
+      <c r="U157">
         <v>2.02</v>
       </c>
-      <c r="U157">
-        <v>1.88</v>
-      </c>
       <c r="V157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W157">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8799999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14059,7 +14059,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847683</v>
+        <v>6847688</v>
       </c>
       <c r="C158" t="s">
         <v>36</v>
@@ -14068,76 +14068,76 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J158">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="K158">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L158">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="M158">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="P158">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q158">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="S158">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T158">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U158">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14587,7 +14587,7 @@
         <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6847696</v>
+        <v>6847694</v>
       </c>
       <c r="C165" t="s">
         <v>36</v>
@@ -14670,58 +14670,58 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G165">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="s">
         <v>56</v>
       </c>
       <c r="J165">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="K165">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L165">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="M165">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N165">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O165">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="P165">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q165">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="R165">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S165">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T165">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="U165">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V165">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -14730,13 +14730,13 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.8799999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB165">
         <v>-1</v>
@@ -14919,7 +14919,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6847694</v>
+        <v>6847696</v>
       </c>
       <c r="C168" t="s">
         <v>36</v>
@@ -14928,58 +14928,58 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="s">
         <v>56</v>
       </c>
       <c r="J168">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="K168">
+        <v>3.8</v>
+      </c>
+      <c r="L168">
+        <v>2.375</v>
+      </c>
+      <c r="M168">
+        <v>2.55</v>
+      </c>
+      <c r="N168">
         <v>3.75</v>
       </c>
-      <c r="L168">
-        <v>2.55</v>
-      </c>
-      <c r="M168">
-        <v>2.4</v>
-      </c>
-      <c r="N168">
-        <v>3.4</v>
-      </c>
       <c r="O168">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P168">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q168">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="R168">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S168">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T168">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="U168">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="V168">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -14988,13 +14988,13 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.06</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15189,7 +15189,7 @@
         <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15272,7 +15272,7 @@
         <v>45324.6875</v>
       </c>
       <c r="E172" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F172" t="s">
         <v>43</v>
@@ -15444,7 +15444,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F174" t="s">
         <v>40</v>
@@ -15521,7 +15521,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6847699</v>
+        <v>6847701</v>
       </c>
       <c r="C175" t="s">
         <v>36</v>
@@ -15530,55 +15530,55 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
         <v>1</v>
-      </c>
-      <c r="H175">
-        <v>3</v>
       </c>
       <c r="I175" t="s">
         <v>55</v>
       </c>
       <c r="J175">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="K175">
+        <v>3.5</v>
+      </c>
+      <c r="L175">
         <v>3.6</v>
       </c>
-      <c r="L175">
-        <v>2.25</v>
-      </c>
       <c r="M175">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N175">
         <v>3.5</v>
       </c>
       <c r="O175">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q175">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="R175">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="S175">
         <v>2.5</v>
       </c>
       <c r="T175">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="U175">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="V175">
         <v>-1</v>
@@ -15587,19 +15587,19 @@
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.97</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15607,7 +15607,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847697</v>
+        <v>6847699</v>
       </c>
       <c r="C176" t="s">
         <v>36</v>
@@ -15616,40 +15616,40 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E176" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F176" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
         <v>3</v>
       </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
       <c r="I176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J176">
-        <v>1.111</v>
+        <v>2.9</v>
       </c>
       <c r="K176">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="L176">
-        <v>19</v>
+        <v>2.25</v>
       </c>
       <c r="M176">
-        <v>1.142</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="O176">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="P176">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q176">
         <v>1.93</v>
@@ -15658,22 +15658,22 @@
         <v>1.97</v>
       </c>
       <c r="S176">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="T176">
+        <v>1.92</v>
+      </c>
+      <c r="U176">
         <v>1.98</v>
       </c>
-      <c r="U176">
-        <v>1.92</v>
-      </c>
       <c r="V176">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -15682,10 +15682,10 @@
         <v>0.97</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB176">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15693,7 +15693,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847701</v>
+        <v>6847697</v>
       </c>
       <c r="C177" t="s">
         <v>36</v>
@@ -15702,76 +15702,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E177" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J177">
-        <v>2</v>
+        <v>1.111</v>
       </c>
       <c r="K177">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>19</v>
       </c>
       <c r="M177">
-        <v>2</v>
+        <v>1.142</v>
       </c>
       <c r="N177">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="P177">
+        <v>-2.5</v>
+      </c>
+      <c r="Q177">
+        <v>1.93</v>
+      </c>
+      <c r="R177">
+        <v>1.97</v>
+      </c>
+      <c r="S177">
+        <v>4.25</v>
+      </c>
+      <c r="T177">
+        <v>1.98</v>
+      </c>
+      <c r="U177">
+        <v>1.92</v>
+      </c>
+      <c r="V177">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.97</v>
+      </c>
+      <c r="AA177">
         <v>-0.5</v>
       </c>
-      <c r="Q177">
-        <v>2.06</v>
-      </c>
-      <c r="R177">
-        <v>1.84</v>
-      </c>
-      <c r="S177">
-        <v>2.5</v>
-      </c>
-      <c r="T177">
-        <v>2.06</v>
-      </c>
-      <c r="U177">
-        <v>1.84</v>
-      </c>
-      <c r="V177">
-        <v>-1</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
-      <c r="X177">
-        <v>2.8</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
-      <c r="Z177">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
       <c r="AB177">
-        <v>0.8400000000000001</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -16209,7 +16209,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6847708</v>
+        <v>6847710</v>
       </c>
       <c r="C183" t="s">
         <v>36</v>
@@ -16218,76 +16218,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E183" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F183" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J183">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="K183">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L183">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M183">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="N183">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O183">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q183">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R183">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S183">
         <v>2.75</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB183">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16381,7 +16381,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6847710</v>
+        <v>6847708</v>
       </c>
       <c r="C185" t="s">
         <v>36</v>
@@ -16390,76 +16390,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E185" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J185">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="K185">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L185">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M185">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="N185">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O185">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P185">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q185">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R185">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S185">
         <v>2.75</v>
       </c>
       <c r="T185">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U185">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
         <v>-1</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X185">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AA185">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16565,7 +16565,7 @@
         <v>45</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16992,7 +16992,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E192" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F192" t="s">
         <v>41</v>
@@ -17594,7 +17594,7 @@
         <v>45340.5625</v>
       </c>
       <c r="E199" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F199" t="s">
         <v>54</v>
@@ -17855,7 +17855,7 @@
         <v>52</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G202">
         <v>5</v>
@@ -17941,7 +17941,7 @@
         <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -18540,7 +18540,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E210" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F210" t="s">
         <v>46</v>
@@ -18617,7 +18617,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6846955</v>
+        <v>6847732</v>
       </c>
       <c r="C211" t="s">
         <v>36</v>
@@ -18626,76 +18626,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E211" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G211">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J211">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="K211">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L211">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N211">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O211">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="P211">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q211">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R211">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
         <v>2.5</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
         <v>-1</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X211">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AA211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18703,7 +18703,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6847729</v>
+        <v>6846955</v>
       </c>
       <c r="C212" t="s">
         <v>36</v>
@@ -18712,13 +18712,13 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E212" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -18727,40 +18727,40 @@
         <v>55</v>
       </c>
       <c r="J212">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="K212">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L212">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="M212">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N212">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O212">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="P212">
         <v>0.25</v>
       </c>
       <c r="Q212">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T212">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
         <v>-1</v>
@@ -18769,19 +18769,19 @@
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8500000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB212">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18789,7 +18789,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6847732</v>
+        <v>6847729</v>
       </c>
       <c r="C213" t="s">
         <v>36</v>
@@ -18798,76 +18798,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E213" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F213" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J213">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="K213">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L213">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="M213">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N213">
         <v>3.6</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P213">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q213">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S213">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T213">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V213">
         <v>-1</v>
       </c>
       <c r="W213">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -19575,7 +19575,7 @@
         <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19744,7 +19744,7 @@
         <v>45361.47916666666</v>
       </c>
       <c r="E224" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F224" t="s">
         <v>49</v>
@@ -20346,7 +20346,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E231" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F231" t="s">
         <v>52</v>
@@ -20435,7 +20435,7 @@
         <v>53</v>
       </c>
       <c r="F232" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -21381,7 +21381,7 @@
         <v>38</v>
       </c>
       <c r="F243" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21464,7 +21464,7 @@
         <v>45382.60416666666</v>
       </c>
       <c r="E244" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F244" t="s">
         <v>51</v>
@@ -21627,7 +21627,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6882092</v>
+        <v>6847760</v>
       </c>
       <c r="C246" t="s">
         <v>36</v>
@@ -21636,49 +21636,49 @@
         <v>45388.4375</v>
       </c>
       <c r="E246" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F246" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
         <v>4</v>
       </c>
-      <c r="H246">
-        <v>0</v>
-      </c>
       <c r="I246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J246">
-        <v>1.55</v>
+        <v>4.333</v>
       </c>
       <c r="K246">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="L246">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="M246">
-        <v>1.444</v>
+        <v>5.25</v>
       </c>
       <c r="N246">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O246">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="P246">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="Q246">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="R246">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S246">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T246">
         <v>1.99</v>
@@ -21687,19 +21687,19 @@
         <v>1.91</v>
       </c>
       <c r="V246">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y246">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA246">
         <v>0.99</v>
@@ -21713,7 +21713,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6993658</v>
+        <v>6882092</v>
       </c>
       <c r="C247" t="s">
         <v>36</v>
@@ -21722,76 +21722,76 @@
         <v>45388.4375</v>
       </c>
       <c r="E247" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G247">
+        <v>4</v>
+      </c>
+      <c r="H247">
         <v>0</v>
       </c>
-      <c r="H247">
-        <v>1</v>
-      </c>
       <c r="I247" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J247">
+        <v>1.55</v>
+      </c>
+      <c r="K247">
+        <v>4.2</v>
+      </c>
+      <c r="L247">
         <v>5.5</v>
       </c>
-      <c r="K247">
-        <v>4</v>
-      </c>
-      <c r="L247">
-        <v>1.55</v>
-      </c>
       <c r="M247">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="N247">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="O247">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="P247">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q247">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R247">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="S247">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T247">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="U247">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="V247">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="Z247">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB247">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -21799,7 +21799,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6847760</v>
+        <v>6993658</v>
       </c>
       <c r="C248" t="s">
         <v>36</v>
@@ -21808,55 +21808,55 @@
         <v>45388.4375</v>
       </c>
       <c r="E248" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
         <v>1</v>
-      </c>
-      <c r="H248">
-        <v>4</v>
       </c>
       <c r="I248" t="s">
         <v>55</v>
       </c>
       <c r="J248">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="K248">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L248">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="M248">
         <v>5.25</v>
       </c>
       <c r="N248">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O248">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="P248">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q248">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R248">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T248">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="U248">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="V248">
         <v>-1</v>
@@ -21865,19 +21865,19 @@
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>0.571</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z248">
-        <v>0.9099999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA248">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21897,7 +21897,7 @@
         <v>48</v>
       </c>
       <c r="F249" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -21980,7 +21980,7 @@
         <v>45388.4375</v>
       </c>
       <c r="E250" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F250" t="s">
         <v>54</v>
@@ -22754,10 +22754,10 @@
         <v>45395.4375</v>
       </c>
       <c r="E259" t="s">
+        <v>50</v>
+      </c>
+      <c r="F259" t="s">
         <v>47</v>
-      </c>
-      <c r="F259" t="s">
-        <v>50</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -23359,7 +23359,7 @@
         <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23442,7 +23442,7 @@
         <v>45402.4375</v>
       </c>
       <c r="E267" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F267" t="s">
         <v>46</v>
@@ -23872,7 +23872,7 @@
         <v>45408.64583333334</v>
       </c>
       <c r="E272" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F272" t="s">
         <v>39</v>
@@ -24563,7 +24563,7 @@
         <v>51</v>
       </c>
       <c r="F280" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>44</v>
       </c>
       <c r="F287" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G287">
         <v>3</v>
@@ -25334,7 +25334,7 @@
         <v>45417.60416666666</v>
       </c>
       <c r="E289" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F289" t="s">
         <v>53</v>
@@ -25669,7 +25669,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7180060</v>
+        <v>7180059</v>
       </c>
       <c r="C293" t="s">
         <v>36</v>
@@ -25678,10 +25678,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E293" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F293" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -25693,46 +25693,46 @@
         <v>57</v>
       </c>
       <c r="J293">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="K293">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="L293">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="M293">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="N293">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O293">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P293">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q293">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R293">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="S293">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T293">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U293">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V293">
         <v>-1</v>
       </c>
       <c r="W293">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="X293">
         <v>-1</v>
@@ -25741,13 +25741,13 @@
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0.9199999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA293">
         <v>-1</v>
       </c>
       <c r="AB293">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -25755,7 +25755,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7180059</v>
+        <v>7180060</v>
       </c>
       <c r="C294" t="s">
         <v>36</v>
@@ -25764,10 +25764,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E294" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F294" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -25779,46 +25779,46 @@
         <v>57</v>
       </c>
       <c r="J294">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="K294">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="L294">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="M294">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="N294">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O294">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P294">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q294">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R294">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="S294">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T294">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U294">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="V294">
         <v>-1</v>
       </c>
       <c r="W294">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -25827,13 +25827,13 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8799999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -26108,7 +26108,7 @@
         <v>45424.60416666666</v>
       </c>
       <c r="E298" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F298" t="s">
         <v>41</v>
@@ -26194,46 +26194,46 @@
         <v>45430.4375</v>
       </c>
       <c r="E299" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F299" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J299">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="K299">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="L299">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="M299">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="N299">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="O299">
-        <v>1.95</v>
+        <v>9.5</v>
       </c>
       <c r="P299">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q299">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="R299">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S299">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T299">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U299">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V299">
         <v>0</v>
@@ -26259,46 +26259,46 @@
         <v>45430.4375</v>
       </c>
       <c r="E300" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F300" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J300">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="K300">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="L300">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="M300">
-        <v>1.27</v>
+        <v>3</v>
       </c>
       <c r="N300">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="O300">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="P300">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q300">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="R300">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="S300">
         <v>4</v>
       </c>
       <c r="T300">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="U300">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="V300">
         <v>0</v>
@@ -26324,46 +26324,46 @@
         <v>45430.4375</v>
       </c>
       <c r="E301" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F301" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J301">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="K301">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="L301">
-        <v>1.833</v>
+        <v>8</v>
       </c>
       <c r="M301">
-        <v>2.7</v>
+        <v>1.27</v>
       </c>
       <c r="N301">
-        <v>3.8</v>
+        <v>6.25</v>
       </c>
       <c r="O301">
-        <v>2.375</v>
+        <v>9.5</v>
       </c>
       <c r="P301">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q301">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="R301">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S301">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T301">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U301">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V301">
         <v>0</v>
@@ -26389,37 +26389,37 @@
         <v>45430.4375</v>
       </c>
       <c r="E302" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F302" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J302">
+        <v>3.8</v>
+      </c>
+      <c r="K302">
+        <v>3.9</v>
+      </c>
+      <c r="L302">
+        <v>1.833</v>
+      </c>
+      <c r="M302">
+        <v>2.6</v>
+      </c>
+      <c r="N302">
+        <v>3.75</v>
+      </c>
+      <c r="O302">
         <v>2.5</v>
       </c>
-      <c r="K302">
-        <v>3.75</v>
-      </c>
-      <c r="L302">
-        <v>2.5</v>
-      </c>
-      <c r="M302">
-        <v>2.3</v>
-      </c>
-      <c r="N302">
-        <v>4</v>
-      </c>
-      <c r="O302">
-        <v>2.7</v>
-      </c>
       <c r="P302">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q302">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="R302">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S302">
         <v>3.25</v>
@@ -26454,28 +26454,28 @@
         <v>45430.4375</v>
       </c>
       <c r="E303" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F303" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J303">
+        <v>2.5</v>
+      </c>
+      <c r="K303">
+        <v>3.75</v>
+      </c>
+      <c r="L303">
+        <v>2.5</v>
+      </c>
+      <c r="M303">
         <v>2.3</v>
       </c>
-      <c r="K303">
-        <v>3.7</v>
-      </c>
-      <c r="L303">
-        <v>2.8</v>
-      </c>
-      <c r="M303">
-        <v>2.375</v>
-      </c>
       <c r="N303">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O303">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P303">
         <v>-0.25</v>
@@ -26487,13 +26487,13 @@
         <v>1.83</v>
       </c>
       <c r="S303">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T303">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U303">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V303">
         <v>0</v>
@@ -26519,46 +26519,46 @@
         <v>45430.4375</v>
       </c>
       <c r="E304" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F304" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J304">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="K304">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="L304">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="M304">
-        <v>1.166</v>
+        <v>2.375</v>
       </c>
       <c r="N304">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="O304">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="P304">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q304">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="R304">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="S304">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="T304">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U304">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
         <v>0</v>
@@ -26584,46 +26584,46 @@
         <v>45430.4375</v>
       </c>
       <c r="E305" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F305" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J305">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="K305">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="L305">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="M305">
-        <v>2.1</v>
+        <v>1.142</v>
       </c>
       <c r="N305">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="O305">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="P305">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q305">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R305">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S305">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="T305">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V305">
         <v>0</v>
@@ -26649,31 +26649,31 @@
         <v>45430.4375</v>
       </c>
       <c r="E306" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F306" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J306">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="K306">
         <v>3.5</v>
       </c>
       <c r="L306">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="M306">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N306">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O306">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="P306">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q306">
         <v>1.95</v>
@@ -26682,13 +26682,13 @@
         <v>1.95</v>
       </c>
       <c r="S306">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T306">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U306">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V306">
         <v>0</v>
@@ -26714,46 +26714,46 @@
         <v>45430.4375</v>
       </c>
       <c r="E307" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F307" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J307">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="K307">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L307">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="M307">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="N307">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O307">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="P307">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q307">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="S307">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T307">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="U307">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V307">
         <v>0</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -109,13 +109,13 @@
     <t>TSG Hoffenheim</t>
   </si>
   <si>
-    <t>Augsburg</t>
+    <t>Wolfsburg</t>
   </si>
   <si>
     <t>VfB Stuttgart</t>
   </si>
   <si>
-    <t>Wolfsburg</t>
+    <t>Augsburg</t>
   </si>
   <si>
     <t>Borussia Dortmund</t>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6847552</v>
+        <v>6847551</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -886,73 +886,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <v>1.615</v>
+      </c>
+      <c r="K5">
+        <v>4.2</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>1.65</v>
+      </c>
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5">
-        <v>2.8</v>
-      </c>
-      <c r="K5">
-        <v>3.5</v>
-      </c>
-      <c r="L5">
-        <v>2.4</v>
-      </c>
-      <c r="M5">
-        <v>2.8</v>
-      </c>
-      <c r="N5">
-        <v>3.6</v>
-      </c>
       <c r="O5">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q5">
-        <v>1.82</v>
+        <v>2.025</v>
       </c>
       <c r="R5">
-        <v>2.08</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="U5">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W5">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.41</v>
+        <v>1.025</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6847551</v>
+        <v>6847552</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1058,73 +1058,73 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="K7">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="M7">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q7">
-        <v>2.025</v>
+        <v>1.82</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>2.08</v>
       </c>
       <c r="S7">
         <v>3</v>
       </c>
       <c r="T7">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="V7">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.025</v>
+        <v>0.41</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2345,7 +2345,7 @@
         <v>45171.4375</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2606,7 +2606,7 @@
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3036,7 +3036,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3205,7 +3205,7 @@
         <v>45185.4375</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -3810,7 +3810,7 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>45192.4375</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
         <v>44</v>
@@ -4925,7 +4925,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
         <v>36</v>
@@ -5186,7 +5186,7 @@
         <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5444,7 +5444,7 @@
         <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5613,7 +5613,7 @@
         <v>45206.4375</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
         <v>38</v>
@@ -6215,7 +6215,7 @@
         <v>45220.4375</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
         <v>29</v>
@@ -6734,7 +6734,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6980,7 +6980,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6847615</v>
+        <v>6847613</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6989,58 +6989,58 @@
         <v>45227.4375</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="s">
         <v>47</v>
       </c>
       <c r="J76">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K76">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M76">
+        <v>2.8</v>
+      </c>
+      <c r="N76">
+        <v>3.25</v>
+      </c>
+      <c r="O76">
         <v>2.45</v>
-      </c>
-      <c r="N76">
-        <v>3.6</v>
-      </c>
-      <c r="O76">
-        <v>2.75</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="R76">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="S76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T76">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="U76">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="V76">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7049,16 +7049,16 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.8100000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7066,7 +7066,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847613</v>
+        <v>6847615</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7075,58 +7075,58 @@
         <v>45227.4375</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
         <v>2</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
       </c>
       <c r="I77" t="s">
         <v>47</v>
       </c>
       <c r="J77">
+        <v>3.5</v>
+      </c>
+      <c r="K77">
+        <v>3.6</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>2.45</v>
+      </c>
+      <c r="N77">
+        <v>3.6</v>
+      </c>
+      <c r="O77">
         <v>2.75</v>
-      </c>
-      <c r="K77">
-        <v>3.2</v>
-      </c>
-      <c r="L77">
-        <v>2.6</v>
-      </c>
-      <c r="M77">
-        <v>2.8</v>
-      </c>
-      <c r="N77">
-        <v>3.25</v>
-      </c>
-      <c r="O77">
-        <v>2.45</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="R77">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="S77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T77">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U77">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7135,16 +7135,16 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB77">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7152,7 +7152,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6847612</v>
+        <v>6847609</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7161,58 +7161,58 @@
         <v>45227.4375</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
         <v>47</v>
       </c>
       <c r="J78">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="K78">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>1.666</v>
+        <v>1.062</v>
       </c>
       <c r="N78">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O78">
+        <v>23</v>
+      </c>
+      <c r="P78">
+        <v>-3</v>
+      </c>
+      <c r="Q78">
+        <v>1.88</v>
+      </c>
+      <c r="R78">
+        <v>2.02</v>
+      </c>
+      <c r="S78">
         <v>4.5</v>
       </c>
-      <c r="P78">
-        <v>-0.75</v>
-      </c>
-      <c r="Q78">
-        <v>1.87</v>
-      </c>
-      <c r="R78">
-        <v>2.06</v>
-      </c>
-      <c r="S78">
-        <v>3.25</v>
-      </c>
       <c r="T78">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U78">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V78">
-        <v>0.6659999999999999</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7221,16 +7221,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.4350000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AB78">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7238,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6847609</v>
+        <v>6847612</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7247,58 +7247,58 @@
         <v>45227.4375</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
         <v>47</v>
       </c>
       <c r="J79">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="K79">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="L79">
-        <v>21</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>1.062</v>
+        <v>1.666</v>
       </c>
       <c r="N79">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O79">
-        <v>23</v>
+        <v>4.5</v>
       </c>
       <c r="P79">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="Q79">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R79">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S79">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="T79">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U79">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V79">
-        <v>0.06200000000000006</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7307,16 +7307,16 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.8799999999999999</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7938,7 +7938,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8193,7 +8193,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
@@ -8368,7 +8368,7 @@
         <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8537,7 +8537,7 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
         <v>30</v>
@@ -9311,7 +9311,7 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
         <v>37</v>
@@ -9400,7 +9400,7 @@
         <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9474,7 +9474,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847633</v>
+        <v>6847635</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9483,76 +9483,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>48</v>
+      </c>
+      <c r="J105">
+        <v>1.533</v>
+      </c>
+      <c r="K105">
+        <v>4.333</v>
+      </c>
+      <c r="L105">
+        <v>5.5</v>
+      </c>
+      <c r="M105">
+        <v>1.533</v>
+      </c>
+      <c r="N105">
+        <v>4.333</v>
+      </c>
+      <c r="O105">
+        <v>5.75</v>
+      </c>
+      <c r="P105">
+        <v>-1</v>
+      </c>
+      <c r="Q105">
+        <v>1.9</v>
+      </c>
+      <c r="R105">
         <v>2</v>
       </c>
-      <c r="I105" t="s">
-        <v>47</v>
-      </c>
-      <c r="J105">
-        <v>1.4</v>
-      </c>
-      <c r="K105">
-        <v>5.5</v>
-      </c>
-      <c r="L105">
-        <v>6</v>
-      </c>
-      <c r="M105">
-        <v>1.5</v>
-      </c>
-      <c r="N105">
-        <v>5.25</v>
-      </c>
-      <c r="O105">
-        <v>4.75</v>
-      </c>
-      <c r="P105">
-        <v>-1.25</v>
-      </c>
-      <c r="Q105">
-        <v>2.04</v>
-      </c>
-      <c r="R105">
-        <v>1.86</v>
-      </c>
       <c r="S105">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T105">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="U105">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="V105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9560,7 +9560,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847635</v>
+        <v>6847633</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9569,76 +9569,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J106">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="K106">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="L106">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M106">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="N106">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O106">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q106">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="S106">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T106">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="U106">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="V106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W106">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="Z106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -10002,7 +10002,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -10515,7 +10515,7 @@
         <v>45263.64583333334</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
         <v>36</v>
@@ -10678,7 +10678,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847654</v>
+        <v>6847656</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10687,58 +10687,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
         <v>2</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
       </c>
       <c r="I119" t="s">
         <v>47</v>
       </c>
       <c r="J119">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K119">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L119">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N119">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q119">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T119">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -10747,16 +10747,16 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10764,7 +10764,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847656</v>
+        <v>6847654</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10773,58 +10773,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
         <v>47</v>
       </c>
       <c r="J120">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L120">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N120">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
+        <v>1.95</v>
+      </c>
+      <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>3</v>
+      </c>
+      <c r="T120">
         <v>2.04</v>
       </c>
-      <c r="R120">
+      <c r="U120">
         <v>1.86</v>
       </c>
-      <c r="S120">
-        <v>2.75</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
       <c r="V120">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -10833,16 +10833,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10945,7 +10945,7 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
         <v>39</v>
@@ -11464,7 +11464,7 @@
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11547,7 +11547,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
         <v>34</v>
@@ -12226,7 +12226,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6847665</v>
+        <v>6847669</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12235,55 +12235,55 @@
         <v>45279.6875</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137" t="s">
         <v>48</v>
       </c>
       <c r="J137">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="K137">
+        <v>4.5</v>
+      </c>
+      <c r="L137">
         <v>5</v>
       </c>
-      <c r="L137">
-        <v>6.5</v>
-      </c>
       <c r="M137">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N137">
         <v>4.75</v>
       </c>
       <c r="O137">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P137">
         <v>-1</v>
       </c>
       <c r="Q137">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="R137">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="S137">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T137">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U137">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
         <v>-1</v>
@@ -12298,13 +12298,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.97</v>
+        <v>1.025</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12312,7 +12312,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6847669</v>
+        <v>6847665</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12321,55 +12321,55 @@
         <v>45279.6875</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138" t="s">
         <v>48</v>
       </c>
       <c r="J138">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="K138">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L138">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M138">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="N138">
         <v>4.75</v>
       </c>
       <c r="O138">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="P138">
         <v>-1</v>
       </c>
       <c r="Q138">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="R138">
-        <v>2.025</v>
+        <v>1.97</v>
       </c>
       <c r="S138">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T138">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V138">
         <v>-1</v>
@@ -12384,13 +12384,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>1.025</v>
+        <v>0.97</v>
       </c>
       <c r="AA138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12484,7 +12484,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6847667</v>
+        <v>6846945</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12493,58 +12493,58 @@
         <v>45280.6875</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
       </c>
       <c r="J140">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="K140">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L140">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="N140">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="O140">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q140">
+        <v>1.92</v>
+      </c>
+      <c r="R140">
+        <v>1.98</v>
+      </c>
+      <c r="S140">
+        <v>3</v>
+      </c>
+      <c r="T140">
+        <v>2.05</v>
+      </c>
+      <c r="U140">
         <v>1.85</v>
       </c>
-      <c r="R140">
-        <v>2.05</v>
-      </c>
-      <c r="S140">
-        <v>3.25</v>
-      </c>
-      <c r="T140">
-        <v>1.9</v>
-      </c>
-      <c r="U140">
-        <v>2</v>
-      </c>
       <c r="V140">
-        <v>0.222</v>
+        <v>0.7</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12553,16 +12553,16 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.8500000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12570,7 +12570,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847672</v>
+        <v>6847668</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12579,76 +12579,76 @@
         <v>45280.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J141">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="K141">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L141">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N141">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O141">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="P141">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q141">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R141">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T141">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="U141">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V141">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y141">
-        <v>0.9199999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>1.04</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12668,7 +12668,7 @@
         <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12742,7 +12742,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6846945</v>
+        <v>6847672</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12751,40 +12751,40 @@
         <v>45280.6875</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G143">
+        <v>3</v>
+      </c>
+      <c r="H143">
         <v>2</v>
-      </c>
-      <c r="H143">
-        <v>1</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
       </c>
       <c r="J143">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M143">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="P143">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q143">
         <v>1.92</v>
@@ -12793,16 +12793,16 @@
         <v>1.98</v>
       </c>
       <c r="S143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T143">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V143">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -12811,16 +12811,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.46</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12828,7 +12828,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847668</v>
+        <v>6847667</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12837,76 +12837,76 @@
         <v>45280.6875</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J144">
+        <v>1.2</v>
+      </c>
+      <c r="K144">
         <v>6</v>
       </c>
-      <c r="K144">
-        <v>5.5</v>
-      </c>
       <c r="L144">
-        <v>1.363</v>
+        <v>13</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O144">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P144">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S144">
         <v>3.25</v>
       </c>
       <c r="T144">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -13095,7 +13095,7 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
         <v>29</v>
@@ -13356,7 +13356,7 @@
         <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13872,7 +13872,7 @@
         <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14302,7 +14302,7 @@
         <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14557,7 +14557,7 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
         <v>45</v>
@@ -14643,7 +14643,7 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F165" t="s">
         <v>41</v>
@@ -14806,7 +14806,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6847696</v>
+        <v>6847694</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
@@ -14815,58 +14815,58 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
       </c>
       <c r="J167">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="K167">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L167">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="M167">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N167">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O167">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="P167">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q167">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="R167">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S167">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T167">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="U167">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V167">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -14875,13 +14875,13 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.8799999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB167">
         <v>-1</v>
@@ -14892,7 +14892,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6847694</v>
+        <v>6847696</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
@@ -14901,58 +14901,58 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
       </c>
       <c r="J168">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="K168">
+        <v>3.8</v>
+      </c>
+      <c r="L168">
+        <v>2.375</v>
+      </c>
+      <c r="M168">
+        <v>2.55</v>
+      </c>
+      <c r="N168">
         <v>3.75</v>
       </c>
-      <c r="L168">
-        <v>2.55</v>
-      </c>
-      <c r="M168">
-        <v>2.4</v>
-      </c>
-      <c r="N168">
-        <v>3.4</v>
-      </c>
       <c r="O168">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P168">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q168">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="R168">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S168">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T168">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="U168">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="V168">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -14961,13 +14961,13 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.06</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15494,7 +15494,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6847699</v>
+        <v>6847701</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -15503,55 +15503,55 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
         <v>1</v>
-      </c>
-      <c r="H175">
-        <v>3</v>
       </c>
       <c r="I175" t="s">
         <v>46</v>
       </c>
       <c r="J175">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="K175">
+        <v>3.5</v>
+      </c>
+      <c r="L175">
         <v>3.6</v>
       </c>
-      <c r="L175">
-        <v>2.25</v>
-      </c>
       <c r="M175">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N175">
         <v>3.5</v>
       </c>
       <c r="O175">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q175">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="R175">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="S175">
         <v>2.5</v>
       </c>
       <c r="T175">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="U175">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="V175">
         <v>-1</v>
@@ -15560,19 +15560,19 @@
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.97</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15580,7 +15580,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847701</v>
+        <v>6847702</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -15589,76 +15589,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K176">
+        <v>3.25</v>
+      </c>
+      <c r="L176">
         <v>3.5</v>
       </c>
-      <c r="L176">
-        <v>3.6</v>
-      </c>
       <c r="M176">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N176">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P176">
+        <v>-0.25</v>
+      </c>
+      <c r="Q176">
+        <v>2.04</v>
+      </c>
+      <c r="R176">
+        <v>1.86</v>
+      </c>
+      <c r="S176">
+        <v>2.75</v>
+      </c>
+      <c r="T176">
+        <v>1.98</v>
+      </c>
+      <c r="U176">
+        <v>1.92</v>
+      </c>
+      <c r="V176">
+        <v>-1</v>
+      </c>
+      <c r="W176">
+        <v>2.4</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
         <v>-0.5</v>
       </c>
-      <c r="Q176">
-        <v>2.06</v>
-      </c>
-      <c r="R176">
-        <v>1.84</v>
-      </c>
-      <c r="S176">
-        <v>2.5</v>
-      </c>
-      <c r="T176">
-        <v>2.06</v>
-      </c>
-      <c r="U176">
-        <v>1.84</v>
-      </c>
-      <c r="V176">
-        <v>-1</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>2.8</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
       <c r="Z176">
-        <v>0.8400000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.8400000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15666,7 +15666,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847702</v>
+        <v>6847699</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15675,76 +15675,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G177">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J177">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="K177">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L177">
+        <v>2.25</v>
+      </c>
+      <c r="M177">
+        <v>3.2</v>
+      </c>
+      <c r="N177">
         <v>3.5</v>
       </c>
-      <c r="M177">
-        <v>2.3</v>
-      </c>
-      <c r="N177">
-        <v>3.4</v>
-      </c>
       <c r="O177">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="P177">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q177">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="R177">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="S177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T177">
+        <v>1.92</v>
+      </c>
+      <c r="U177">
         <v>1.98</v>
       </c>
-      <c r="U177">
-        <v>1.92</v>
-      </c>
       <c r="V177">
         <v>-1</v>
       </c>
       <c r="W177">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.43</v>
+        <v>0.97</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB177">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15847,7 +15847,7 @@
         <v>45326.47916666666</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F179" t="s">
         <v>30</v>
@@ -16182,7 +16182,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6847711</v>
+        <v>6846950</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16191,76 +16191,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="s">
         <v>48</v>
       </c>
       <c r="J183">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="K183">
         <v>3.75</v>
       </c>
       <c r="L183">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="M183">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="N183">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O183">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="P183">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q183">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R183">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="S183">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T183">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="U183">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA183">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16268,7 +16268,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6846950</v>
+        <v>6847711</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -16277,76 +16277,76 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E184" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="s">
         <v>48</v>
       </c>
       <c r="J184">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="K184">
         <v>3.75</v>
       </c>
       <c r="L184">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="M184">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O184">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="P184">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q184">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R184">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="S184">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T184">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="U184">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="V184">
         <v>-1</v>
       </c>
       <c r="W184">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="Z184">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB184">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16538,7 +16538,7 @@
         <v>35</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -17137,7 +17137,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E194" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F194" t="s">
         <v>34</v>
@@ -17226,7 +17226,7 @@
         <v>44</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -18172,7 +18172,7 @@
         <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18341,7 +18341,7 @@
         <v>45347.64583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F208" t="s">
         <v>39</v>
@@ -18516,7 +18516,7 @@
         <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18676,7 +18676,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6846955</v>
+        <v>6847732</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18685,76 +18685,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E212" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G212">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J212">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L212">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N212">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O212">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="P212">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q212">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R212">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
         <v>2.5</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
         <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X212">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AA212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18762,7 +18762,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6847732</v>
+        <v>6847735</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18771,76 +18771,76 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E213" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G213">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J213">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="K213">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L213">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="M213">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N213">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="P213">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q213">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S213">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T213">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V213">
         <v>-1</v>
       </c>
       <c r="W213">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18848,7 +18848,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6847735</v>
+        <v>6846955</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18857,55 +18857,55 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E214" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I214" t="s">
         <v>46</v>
       </c>
       <c r="J214">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="K214">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L214">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="M214">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N214">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O214">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="P214">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q214">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="R214">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="S214">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T214">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
         <v>-1</v>
@@ -18914,16 +18914,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8400000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AA214">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -18943,7 +18943,7 @@
         <v>45353.60416666666</v>
       </c>
       <c r="E215" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F215" t="s">
         <v>32</v>
@@ -19278,7 +19278,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6847739</v>
+        <v>6847737</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19287,58 +19287,58 @@
         <v>45360.47916666666</v>
       </c>
       <c r="E219" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G219">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
       </c>
       <c r="J219">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="K219">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="L219">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="M219">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="N219">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O219">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P219">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q219">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R219">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S219">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T219">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="U219">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="V219">
-        <v>0.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -19347,16 +19347,16 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0.8400000000000001</v>
+        <v>0.415</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA219">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19364,7 +19364,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6847737</v>
+        <v>6847739</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -19373,58 +19373,58 @@
         <v>45360.47916666666</v>
       </c>
       <c r="E220" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G220">
+        <v>8</v>
+      </c>
+      <c r="H220">
         <v>1</v>
-      </c>
-      <c r="H220">
-        <v>0</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
       </c>
       <c r="J220">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="K220">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="M220">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="N220">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O220">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="P220">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q220">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R220">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S220">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T220">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="U220">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="V220">
-        <v>0.6499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -19433,16 +19433,16 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.415</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="Z220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -19892,7 +19892,7 @@
         <v>29</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -20061,10 +20061,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E228" t="s">
+        <v>31</v>
+      </c>
+      <c r="F228" t="s">
         <v>33</v>
-      </c>
-      <c r="F228" t="s">
-        <v>31</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -20740,7 +20740,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6847753</v>
+        <v>6847754</v>
       </c>
       <c r="C236" t="s">
         <v>27</v>
@@ -20749,76 +20749,76 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E236" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F236" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I236" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J236">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="K236">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L236">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="M236">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N236">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O236">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q236">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R236">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="S236">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T236">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U236">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V236">
         <v>-1</v>
       </c>
       <c r="W236">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.9199999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB236">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20826,7 +20826,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6847754</v>
+        <v>6847755</v>
       </c>
       <c r="C237" t="s">
         <v>27</v>
@@ -20835,55 +20835,55 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E237" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="s">
         <v>46</v>
       </c>
       <c r="J237">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="K237">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L237">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="M237">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N237">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="P237">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="R237">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S237">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T237">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="U237">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="V237">
         <v>-1</v>
@@ -20892,19 +20892,19 @@
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="AA237">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20912,7 +20912,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6847755</v>
+        <v>6847753</v>
       </c>
       <c r="C238" t="s">
         <v>27</v>
@@ -20921,76 +20921,76 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E238" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J238">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="K238">
+        <v>5</v>
+      </c>
+      <c r="L238">
+        <v>8</v>
+      </c>
+      <c r="M238">
+        <v>1.363</v>
+      </c>
+      <c r="N238">
+        <v>5.5</v>
+      </c>
+      <c r="O238">
+        <v>7.5</v>
+      </c>
+      <c r="P238">
+        <v>-1.5</v>
+      </c>
+      <c r="Q238">
+        <v>1.98</v>
+      </c>
+      <c r="R238">
+        <v>1.92</v>
+      </c>
+      <c r="S238">
         <v>3.5</v>
       </c>
-      <c r="L238">
-        <v>2.7</v>
-      </c>
-      <c r="M238">
-        <v>2.625</v>
-      </c>
-      <c r="N238">
-        <v>3.5</v>
-      </c>
-      <c r="O238">
-        <v>2.6</v>
-      </c>
-      <c r="P238">
-        <v>0</v>
-      </c>
-      <c r="Q238">
-        <v>1.95</v>
-      </c>
-      <c r="R238">
-        <v>1.95</v>
-      </c>
-      <c r="S238">
-        <v>2.5</v>
-      </c>
       <c r="T238">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U238">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V238">
         <v>-1</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X238">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>1.03</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21265,7 +21265,7 @@
         <v>45382.4375</v>
       </c>
       <c r="E242" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F242" t="s">
         <v>41</v>
@@ -22128,7 +22128,7 @@
         <v>30</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G252">
         <v>3</v>
@@ -22211,7 +22211,7 @@
         <v>45389.52083333334</v>
       </c>
       <c r="E253" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F253" t="s">
         <v>43</v>
@@ -22297,7 +22297,7 @@
         <v>45394.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F254" t="s">
         <v>35</v>
@@ -22386,7 +22386,7 @@
         <v>37</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G255">
         <v>3</v>
@@ -23074,7 +23074,7 @@
         <v>36</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G263">
         <v>3</v>
@@ -23157,7 +23157,7 @@
         <v>45402.4375</v>
       </c>
       <c r="E264" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F264" t="s">
         <v>42</v>
@@ -24017,7 +24017,7 @@
         <v>45409.4375</v>
       </c>
       <c r="E274" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F274" t="s">
         <v>28</v>
@@ -24106,7 +24106,7 @@
         <v>39</v>
       </c>
       <c r="F275" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24705,7 +24705,7 @@
         <v>45416.4375</v>
       </c>
       <c r="E282" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F282" t="s">
         <v>38</v>
@@ -24794,7 +24794,7 @@
         <v>34</v>
       </c>
       <c r="F283" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G283">
         <v>5</v>
@@ -25393,7 +25393,7 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E290" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F290" t="s">
         <v>32</v>
@@ -25556,7 +25556,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7179918</v>
+        <v>7180060</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -25565,10 +25565,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E292" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -25580,61 +25580,61 @@
         <v>48</v>
       </c>
       <c r="J292">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="K292">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L292">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="M292">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="N292">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O292">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="P292">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q292">
+        <v>1.98</v>
+      </c>
+      <c r="R292">
+        <v>1.92</v>
+      </c>
+      <c r="S292">
+        <v>2.75</v>
+      </c>
+      <c r="T292">
+        <v>1.89</v>
+      </c>
+      <c r="U292">
         <v>2.01</v>
       </c>
-      <c r="R292">
-        <v>1.89</v>
-      </c>
-      <c r="S292">
+      <c r="V292">
+        <v>-1</v>
+      </c>
+      <c r="W292">
         <v>3</v>
       </c>
-      <c r="T292">
-        <v>1.93</v>
-      </c>
-      <c r="U292">
-        <v>1.97</v>
-      </c>
-      <c r="V292">
-        <v>-1</v>
-      </c>
-      <c r="W292">
-        <v>2.75</v>
-      </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA292">
         <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="293" spans="1:28">
@@ -25728,7 +25728,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7180060</v>
+        <v>7179918</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -25737,10 +25737,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E294" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F294" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -25752,61 +25752,61 @@
         <v>48</v>
       </c>
       <c r="J294">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="K294">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L294">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="M294">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="N294">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O294">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="P294">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q294">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="R294">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="S294">
+        <v>3</v>
+      </c>
+      <c r="T294">
+        <v>1.93</v>
+      </c>
+      <c r="U294">
+        <v>1.97</v>
+      </c>
+      <c r="V294">
+        <v>-1</v>
+      </c>
+      <c r="W294">
         <v>2.75</v>
       </c>
-      <c r="T294">
-        <v>1.89</v>
-      </c>
-      <c r="U294">
-        <v>2.01</v>
-      </c>
-      <c r="V294">
-        <v>-1</v>
-      </c>
-      <c r="W294">
-        <v>3</v>
-      </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z294">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -25998,7 +25998,7 @@
         <v>45</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G297">
         <v>2</v>
@@ -26256,7 +26256,7 @@
         <v>29</v>
       </c>
       <c r="F300" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G300">
         <v>2</v>
@@ -26597,7 +26597,7 @@
         <v>45430.4375</v>
       </c>
       <c r="E304" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F304" t="s">
         <v>44</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -103,16 +103,16 @@
     <t>Werder Bremen</t>
   </si>
   <si>
+    <t>VfB Stuttgart</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
     <t>Augsburg</t>
   </si>
   <si>
     <t>TSG Hoffenheim</t>
-  </si>
-  <si>
-    <t>VfB Stuttgart</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
   </si>
   <si>
     <t>Bayer Leverkusen</t>
@@ -133,9 +133,6 @@
     <t>SC Freiburg</t>
   </si>
   <si>
-    <t>Cologne</t>
-  </si>
-  <si>
     <t>Darmstadt</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Bochum</t>
+  </si>
+  <si>
+    <t>Cologne</t>
   </si>
   <si>
     <t>Borussia Mgladbach</t>
@@ -157,10 +157,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6847552</v>
+        <v>6847536</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -714,70 +714,70 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
       </c>
       <c r="J3">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O3">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q3">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="U3">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W3">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>1.06</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6847535</v>
+        <v>6847551</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -800,73 +800,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N4">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="U4">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6847536</v>
+        <v>6847552</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -886,70 +886,70 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
       </c>
       <c r="J5">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M5">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="N5">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="S5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="V5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6847551</v>
+        <v>6847535</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -972,73 +972,73 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="K6">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M6">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q6">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R6">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T6">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V6">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y6">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>2.45</v>
@@ -1144,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>1.5</v>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1316,7 +1316,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>1.444</v>
@@ -1402,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>1.5</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>1.666</v>
@@ -1562,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6847557</v>
+        <v>6847560</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1574,52 +1574,52 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
       </c>
       <c r="J13">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="K13">
+        <v>3.3</v>
+      </c>
+      <c r="L13">
+        <v>2.1</v>
+      </c>
+      <c r="M13">
+        <v>3.8</v>
+      </c>
+      <c r="N13">
         <v>3.4</v>
       </c>
-      <c r="L13">
-        <v>3.2</v>
-      </c>
-      <c r="M13">
-        <v>2.1</v>
-      </c>
-      <c r="N13">
-        <v>3.5</v>
-      </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q13">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R13">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T13">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U13">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1628,19 +1628,19 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AA13">
-        <v>0.485</v>
+        <v>0.96</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1648,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6847560</v>
+        <v>6847559</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1660,52 +1660,52 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
       </c>
       <c r="J14">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L14">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M14">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="P14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q14">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R14">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="S14">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U14">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
         <v>-1</v>
@@ -1714,16 +1714,16 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="AA14">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AB14">
         <v>-1</v>
@@ -1734,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6847559</v>
+        <v>6847558</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1746,46 +1746,46 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J15">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="K15">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O15">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q15">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="R15">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T15">
         <v>1.95</v>
@@ -1797,22 +1797,22 @@
         <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X15">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="Z15">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0.95</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1820,7 +1820,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6847558</v>
+        <v>6847557</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1832,73 +1832,73 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L16">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N16">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O16">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q16">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R16">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="S16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T16">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V16">
         <v>-1</v>
       </c>
       <c r="W16">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y16">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>2.625</v>
@@ -2090,7 +2090,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>1.09</v>
@@ -2176,7 +2176,7 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2185,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>1.222</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2345,10 +2345,10 @@
         <v>45171.4375</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2431,7 +2431,7 @@
         <v>45171.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2517,10 +2517,10 @@
         <v>45171.4375</v>
       </c>
       <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
         <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2606,7 +2606,7 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25">
         <v>1.4</v>
@@ -2778,7 +2778,7 @@
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>1.833</v>
@@ -2959,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J29">
         <v>1.4</v>
@@ -3122,7 +3122,7 @@
         <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>1.3</v>
@@ -3205,10 +3205,10 @@
         <v>45185.4375</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3291,7 +3291,7 @@
         <v>45185.4375</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3380,7 +3380,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3463,7 +3463,7 @@
         <v>45185.5625</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
@@ -3475,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>4</v>
@@ -3549,7 +3549,7 @@
         <v>45186.4375</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
         <v>28</v>
@@ -3561,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36">
         <v>2.3</v>
@@ -3635,7 +3635,7 @@
         <v>45186.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
         <v>43</v>
@@ -3647,7 +3647,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>2.875</v>
@@ -3721,10 +3721,10 @@
         <v>45191.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>1.571</v>
@@ -3807,7 +3807,7 @@
         <v>45192.4375</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
@@ -3819,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>2.625</v>
@@ -3896,7 +3896,7 @@
         <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>1.1</v>
@@ -3982,7 +3982,7 @@
         <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1.615</v>
@@ -4240,7 +4240,7 @@
         <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>2.4</v>
@@ -4326,7 +4326,7 @@
         <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4335,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>1.285</v>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>2.2</v>
@@ -4495,7 +4495,7 @@
         <v>45198.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
@@ -4581,10 +4581,10 @@
         <v>45199.4375</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
         <v>43</v>
@@ -4753,7 +4753,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
         <v>35</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>3.3</v>
@@ -4925,7 +4925,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s">
         <v>36</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -5023,7 +5023,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <v>3</v>
@@ -5097,7 +5097,7 @@
         <v>45200.4375</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
         <v>28</v>
@@ -5109,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J54">
         <v>2.4</v>
@@ -5186,7 +5186,7 @@
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>1.7</v>
@@ -5281,7 +5281,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>2.1</v>
@@ -5358,7 +5358,7 @@
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>1.3</v>
@@ -5441,10 +5441,10 @@
         <v>45206.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5539,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>1.533</v>
@@ -5613,10 +5613,10 @@
         <v>45206.4375</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5702,7 +5702,7 @@
         <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5788,7 +5788,7 @@
         <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>1.444</v>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>1.2</v>
@@ -5960,7 +5960,7 @@
         <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>1.615</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J65">
         <v>1.363</v>
@@ -6129,7 +6129,7 @@
         <v>45220.4375</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
         <v>37</v>
@@ -6215,7 +6215,7 @@
         <v>45220.4375</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
         <v>33</v>
@@ -6304,7 +6304,7 @@
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6313,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J68">
         <v>1.7</v>
@@ -6390,7 +6390,7 @@
         <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>45220.4375</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
         <v>36</v>
@@ -6645,7 +6645,7 @@
         <v>45221.4375</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
         <v>43</v>
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J72">
         <v>2.05</v>
@@ -6731,10 +6731,10 @@
         <v>45221.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6817,7 +6817,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
         <v>44</v>
@@ -6829,7 +6829,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J75">
         <v>2.75</v>
@@ -6992,7 +6992,7 @@
         <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7001,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>1.909</v>
@@ -7066,7 +7066,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847615</v>
+        <v>6847609</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7075,58 +7075,58 @@
         <v>45227.4375</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J77">
-        <v>3.5</v>
+        <v>1.125</v>
       </c>
       <c r="K77">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="M77">
-        <v>2.45</v>
+        <v>1.062</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="O77">
-        <v>2.75</v>
+        <v>23</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Q77">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="R77">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="S77">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="T77">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="U77">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="V77">
-        <v>1.45</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7135,13 +7135,13 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.8100000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.9199999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7152,7 +7152,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6847616</v>
+        <v>6847615</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7167,67 +7167,67 @@
         <v>30</v>
       </c>
       <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
         <v>2</v>
       </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J78">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="M78">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="N78">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P78">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="S78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T78">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="U78">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V78">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8300000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7238,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6847609</v>
+        <v>6847616</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7247,73 +7247,73 @@
         <v>45227.4375</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J79">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="K79">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>21</v>
+        <v>4.2</v>
       </c>
       <c r="M79">
-        <v>1.062</v>
+        <v>1.65</v>
       </c>
       <c r="N79">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="O79">
-        <v>23</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="Q79">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R79">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="T79">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="U79">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="V79">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y79">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA79">
-        <v>1.02</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7336,7 +7336,7 @@
         <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G80">
         <v>6</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>1.363</v>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>3.6</v>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>1.4</v>
@@ -7591,10 +7591,10 @@
         <v>45233.6875</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7668,7 +7668,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6847618</v>
+        <v>6847620</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7677,76 +7677,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>47</v>
       </c>
       <c r="J84">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="K84">
         <v>4</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="M84">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="N84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="P84">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q84">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="R84">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="S84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T84">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="U84">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="W84">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="Z84">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7754,7 +7754,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6847620</v>
+        <v>6847621</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7763,76 +7763,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
         <v>48</v>
       </c>
       <c r="J85">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="K85">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L85">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O85">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q85">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="R85">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>2.05</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
+        <v>-1</v>
+      </c>
+      <c r="W85">
         <v>2.75</v>
       </c>
-      <c r="T85">
-        <v>1.88</v>
-      </c>
-      <c r="U85">
-        <v>2.02</v>
-      </c>
-      <c r="V85">
-        <v>3.5</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1.02</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7840,7 +7840,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6847621</v>
+        <v>6847622</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7849,76 +7849,76 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J86">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="K86">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M86">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N86">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="P86">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q86">
-        <v>1.775</v>
+        <v>1.84</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>2.06</v>
       </c>
       <c r="S86">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T86">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y86">
+        <v>0.42</v>
+      </c>
+      <c r="Z86">
         <v>-0.5</v>
       </c>
-      <c r="Z86">
-        <v>0.5125</v>
-      </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7926,7 +7926,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6847622</v>
+        <v>6847618</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7935,73 +7935,73 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J87">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="K87">
         <v>4</v>
       </c>
       <c r="L87">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="N87">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O87">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="R87">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="S87">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T87">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="U87">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="V87">
         <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AB87">
         <v>-1</v>
@@ -8193,7 +8193,7 @@
         <v>45235.47916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
@@ -8205,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>1.615</v>
@@ -8279,10 +8279,10 @@
         <v>45235.5625</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J91">
         <v>3.5</v>
@@ -8368,7 +8368,7 @@
         <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J92">
         <v>2.375</v>
@@ -8451,10 +8451,10 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8463,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J93">
         <v>2.55</v>
@@ -8537,7 +8537,7 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
         <v>34</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>2.6</v>
@@ -8614,7 +8614,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847629</v>
+        <v>6847628</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8623,76 +8623,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G95">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
         <v>48</v>
       </c>
       <c r="J95">
-        <v>1.062</v>
+        <v>2.8</v>
       </c>
       <c r="K95">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>2.4</v>
       </c>
       <c r="M95">
-        <v>1.111</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="O95">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="P95">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q95">
+        <v>1.91</v>
+      </c>
+      <c r="R95">
+        <v>1.99</v>
+      </c>
+      <c r="S95">
+        <v>2.5</v>
+      </c>
+      <c r="T95">
+        <v>1.9</v>
+      </c>
+      <c r="U95">
         <v>2</v>
       </c>
-      <c r="R95">
-        <v>1.9</v>
-      </c>
-      <c r="S95">
-        <v>4.25</v>
-      </c>
-      <c r="T95">
-        <v>2</v>
-      </c>
-      <c r="U95">
-        <v>1.9</v>
-      </c>
       <c r="V95">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
         <v>1</v>
-      </c>
-      <c r="AB95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8700,7 +8700,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847628</v>
+        <v>6847629</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8709,76 +8709,76 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" t="s">
         <v>40</v>
       </c>
-      <c r="F96" t="s">
-        <v>44</v>
-      </c>
       <c r="G96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
         <v>47</v>
       </c>
       <c r="J96">
-        <v>2.8</v>
+        <v>1.062</v>
       </c>
       <c r="K96">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="L96">
-        <v>2.4</v>
+        <v>19</v>
       </c>
       <c r="M96">
-        <v>3.1</v>
+        <v>1.111</v>
       </c>
       <c r="N96">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="O96">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="P96">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="Q96">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R96">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
         <v>1.9</v>
       </c>
-      <c r="U96">
-        <v>2</v>
-      </c>
       <c r="V96">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="W96">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8795,10 +8795,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="E97" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s">
         <v>42</v>
-      </c>
-      <c r="F97" t="s">
-        <v>39</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J97">
         <v>2.3</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J98">
         <v>1.333</v>
@@ -8979,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>2.7</v>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>1.45</v>
@@ -9139,7 +9139,7 @@
         <v>45254.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
         <v>45</v>
@@ -9216,7 +9216,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847635</v>
+        <v>6847639</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9225,76 +9225,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J102">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="K102">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="L102">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="M102">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N102">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O102">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="P102">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Q102">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T102">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="U102">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.8300000000000001</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9314,7 +9314,7 @@
         <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9323,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J103">
         <v>1.85</v>
@@ -9397,7 +9397,7 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
         <v>37</v>
@@ -9409,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>3.5</v>
@@ -9495,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J105">
         <v>1.4</v>
@@ -9560,7 +9560,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6847639</v>
+        <v>6847635</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9569,76 +9569,76 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>48</v>
+      </c>
+      <c r="J106">
+        <v>1.533</v>
+      </c>
+      <c r="K106">
+        <v>4.333</v>
+      </c>
+      <c r="L106">
+        <v>5.5</v>
+      </c>
+      <c r="M106">
+        <v>1.533</v>
+      </c>
+      <c r="N106">
+        <v>4.333</v>
+      </c>
+      <c r="O106">
+        <v>5.75</v>
+      </c>
+      <c r="P106">
+        <v>-1</v>
+      </c>
+      <c r="Q106">
+        <v>1.9</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
         <v>3</v>
       </c>
-      <c r="I106" t="s">
-        <v>46</v>
-      </c>
-      <c r="J106">
-        <v>6</v>
-      </c>
-      <c r="K106">
-        <v>5</v>
-      </c>
-      <c r="L106">
-        <v>1.444</v>
-      </c>
-      <c r="M106">
-        <v>5.75</v>
-      </c>
-      <c r="N106">
-        <v>5.25</v>
-      </c>
-      <c r="O106">
-        <v>1.45</v>
-      </c>
-      <c r="P106">
-        <v>1.25</v>
-      </c>
-      <c r="Q106">
-        <v>1.93</v>
-      </c>
-      <c r="R106">
-        <v>1.97</v>
-      </c>
-      <c r="S106">
-        <v>3.25</v>
-      </c>
       <c r="T106">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="U106">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="V106">
         <v>-1</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X106">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.5149999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9658,7 +9658,7 @@
         <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9741,10 +9741,10 @@
         <v>45256.47916666666</v>
       </c>
       <c r="E108" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" t="s">
         <v>41</v>
-      </c>
-      <c r="F108" t="s">
-        <v>42</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9753,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J108">
         <v>2.3</v>
@@ -9827,7 +9827,7 @@
         <v>45256.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
         <v>44</v>
@@ -9839,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>1.952</v>
@@ -9913,10 +9913,10 @@
         <v>45261.6875</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9999,10 +9999,10 @@
         <v>45262.47916666666</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>2.875</v>
@@ -10088,7 +10088,7 @@
         <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10097,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>1.3</v>
@@ -10174,7 +10174,7 @@
         <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10183,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J113">
         <v>2.25</v>
@@ -10257,7 +10257,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
         <v>28</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -10515,7 +10515,7 @@
         <v>45263.64583333334</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
         <v>36</v>
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J117">
         <v>2.8</v>
@@ -10601,10 +10601,10 @@
         <v>45268.6875</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>1.727</v>
@@ -10699,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>7</v>
@@ -10764,7 +10764,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847656</v>
+        <v>6847654</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10773,58 +10773,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>47</v>
+      </c>
+      <c r="J120">
+        <v>2.25</v>
+      </c>
+      <c r="K120">
+        <v>3.6</v>
+      </c>
+      <c r="L120">
+        <v>2.9</v>
+      </c>
+      <c r="M120">
+        <v>2.2</v>
+      </c>
+      <c r="N120">
+        <v>3.75</v>
+      </c>
+      <c r="O120">
         <v>3</v>
       </c>
-      <c r="H120">
-        <v>2</v>
-      </c>
-      <c r="I120" t="s">
-        <v>48</v>
-      </c>
-      <c r="J120">
-        <v>2.1</v>
-      </c>
-      <c r="K120">
-        <v>3.5</v>
-      </c>
-      <c r="L120">
-        <v>3.3</v>
-      </c>
-      <c r="M120">
-        <v>1.8</v>
-      </c>
-      <c r="N120">
-        <v>3.8</v>
-      </c>
-      <c r="O120">
-        <v>4.2</v>
-      </c>
       <c r="P120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
+        <v>1.95</v>
+      </c>
+      <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>3</v>
+      </c>
+      <c r="T120">
         <v>2.04</v>
       </c>
-      <c r="R120">
+      <c r="U120">
         <v>1.86</v>
       </c>
-      <c r="S120">
-        <v>2.75</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
       <c r="V120">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -10833,16 +10833,16 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10859,7 +10859,7 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
         <v>38</v>
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J122">
         <v>2.2</v>
@@ -11022,7 +11022,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6847654</v>
+        <v>6847656</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11031,58 +11031,58 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
         <v>2</v>
       </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J123">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L123">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N123">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q123">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T123">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11091,16 +11091,16 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB123">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11203,7 +11203,7 @@
         <v>45270.47916666666</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
         <v>33</v>
@@ -11215,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J125">
         <v>3.1</v>
@@ -11289,7 +11289,7 @@
         <v>45270.5625</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
         <v>44</v>
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11387,7 +11387,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>1.75</v>
@@ -11452,7 +11452,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6847660</v>
+        <v>6847664</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11461,10 +11461,10 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11476,40 +11476,40 @@
         <v>46</v>
       </c>
       <c r="J128">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="M128">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O128">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="P128">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q128">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S128">
         <v>2.75</v>
       </c>
       <c r="T128">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="U128">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
         <v>-1</v>
@@ -11518,19 +11518,19 @@
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>3.5</v>
+        <v>0.909</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>1.04</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11538,7 +11538,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6847663</v>
+        <v>6847662</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11547,76 +11547,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="s">
         <v>47</v>
       </c>
       <c r="J129">
-        <v>3.8</v>
+        <v>2.35</v>
       </c>
       <c r="K129">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L129">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O129">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="P129">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="R129">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="S129">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T129">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="U129">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V129">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W129">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.495</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB129">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11624,7 +11624,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6847664</v>
+        <v>6847660</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -11633,10 +11633,10 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E130" t="s">
+        <v>44</v>
+      </c>
+      <c r="F130" t="s">
         <v>40</v>
-      </c>
-      <c r="F130" t="s">
-        <v>32</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11648,40 +11648,40 @@
         <v>46</v>
       </c>
       <c r="J130">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="K130">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="N130">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O130">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="P130">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q130">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R130">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S130">
         <v>2.75</v>
       </c>
       <c r="T130">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V130">
         <v>-1</v>
@@ -11690,19 +11690,19 @@
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>0.909</v>
+        <v>3.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8500000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11710,7 +11710,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847662</v>
+        <v>6847663</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
@@ -11719,76 +11719,76 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="s">
         <v>48</v>
       </c>
       <c r="J131">
-        <v>2.35</v>
+        <v>3.8</v>
       </c>
       <c r="K131">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L131">
+        <v>1.75</v>
+      </c>
+      <c r="M131">
         <v>3</v>
       </c>
-      <c r="M131">
-        <v>2.55</v>
-      </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O131">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="P131">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q131">
+        <v>1.99</v>
+      </c>
+      <c r="R131">
+        <v>1.91</v>
+      </c>
+      <c r="S131">
+        <v>3.25</v>
+      </c>
+      <c r="T131">
+        <v>2.02</v>
+      </c>
+      <c r="U131">
         <v>1.88</v>
       </c>
-      <c r="R131">
-        <v>2.02</v>
-      </c>
-      <c r="S131">
-        <v>2.5</v>
-      </c>
-      <c r="T131">
-        <v>2.07</v>
-      </c>
-      <c r="U131">
-        <v>1.83</v>
-      </c>
       <c r="V131">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
+        <v>0.495</v>
+      </c>
+      <c r="Z131">
+        <v>-0.5</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
         <v>0.8799999999999999</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>1.07</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11808,7 +11808,7 @@
         <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11817,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11894,7 +11894,7 @@
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>1.909</v>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J134">
         <v>1.444</v>
@@ -12066,7 +12066,7 @@
         <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J135">
         <v>1.333</v>
@@ -12161,7 +12161,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J136">
         <v>4.2</v>
@@ -12235,10 +12235,10 @@
         <v>45279.6875</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -12247,7 +12247,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>1.533</v>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12410,7 +12410,7 @@
         <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12419,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>1.8</v>
@@ -12484,7 +12484,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6846945</v>
+        <v>6847668</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12493,76 +12493,76 @@
         <v>45280.6875</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
         <v>2</v>
       </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J140">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="K140">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="M140">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="N140">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O140">
-        <v>4.333</v>
+        <v>1.5</v>
       </c>
       <c r="P140">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q140">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R140">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T140">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V140">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y140">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="Z140">
         <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12570,7 +12570,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847668</v>
+        <v>6846945</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12579,76 +12579,76 @@
         <v>45280.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
         <v>1</v>
       </c>
-      <c r="H141">
-        <v>2</v>
-      </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J141">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="K141">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="N141">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O141">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q141">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T141">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U141">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="Z141">
         <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB141">
-        <v>0.4350000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12665,7 +12665,7 @@
         <v>45280.6875</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
         <v>38</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J142">
         <v>2.625</v>
@@ -12751,10 +12751,10 @@
         <v>45280.6875</v>
       </c>
       <c r="E143" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" t="s">
         <v>31</v>
-      </c>
-      <c r="F143" t="s">
-        <v>29</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>1.4</v>
@@ -12840,7 +12840,7 @@
         <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>1.2</v>
@@ -12926,7 +12926,7 @@
         <v>45</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J145">
         <v>1.166</v>
@@ -13012,7 +13012,7 @@
         <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13021,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J146">
         <v>2.15</v>
@@ -13095,10 +13095,10 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13107,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J147">
         <v>1.833</v>
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J149">
         <v>2.1</v>
@@ -13353,7 +13353,7 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F150" t="s">
         <v>33</v>
@@ -13439,7 +13439,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="E151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
         <v>34</v>
@@ -13525,7 +13525,7 @@
         <v>45305.47916666666</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
         <v>28</v>
@@ -13537,7 +13537,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>2.05</v>
@@ -13614,7 +13614,7 @@
         <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13623,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J153">
         <v>3.6</v>
@@ -13697,10 +13697,10 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J154">
         <v>4.5</v>
@@ -13783,7 +13783,7 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
         <v>36</v>
@@ -13795,7 +13795,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>4.2</v>
@@ -13872,7 +13872,7 @@
         <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13881,7 +13881,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>2.25</v>
@@ -13955,10 +13955,10 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13967,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J157">
         <v>2.875</v>
@@ -14041,7 +14041,7 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F158" t="s">
         <v>34</v>
@@ -14302,7 +14302,7 @@
         <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J162">
         <v>1.25</v>
@@ -14483,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J163">
         <v>1.615</v>
@@ -14548,7 +14548,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847696</v>
+        <v>6847695</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14560,70 +14560,70 @@
         <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G164">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J164">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="K164">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="L164">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="M164">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="N164">
+        <v>5.75</v>
+      </c>
+      <c r="O164">
+        <v>1.3</v>
+      </c>
+      <c r="P164">
+        <v>1.75</v>
+      </c>
+      <c r="Q164">
+        <v>1.87</v>
+      </c>
+      <c r="R164">
+        <v>2.03</v>
+      </c>
+      <c r="S164">
         <v>3.75</v>
       </c>
-      <c r="O164">
-        <v>2.6</v>
-      </c>
-      <c r="P164">
-        <v>0</v>
-      </c>
-      <c r="Q164">
-        <v>1.88</v>
-      </c>
-      <c r="R164">
-        <v>2.02</v>
-      </c>
-      <c r="S164">
-        <v>3</v>
-      </c>
       <c r="T164">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="U164">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V164">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y164">
-        <v>0.8799999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -14634,7 +14634,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6847695</v>
+        <v>6847694</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -14643,73 +14643,73 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J165">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="K165">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L165">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="M165">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="N165">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="O165">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="P165">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q165">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="R165">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="S165">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T165">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="U165">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="V165">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.8700000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>1.03</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB165">
         <v>-1</v>
@@ -14720,7 +14720,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6847694</v>
+        <v>6847693</v>
       </c>
       <c r="C166" t="s">
         <v>27</v>
@@ -14729,13 +14729,13 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E166" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -14744,61 +14744,61 @@
         <v>48</v>
       </c>
       <c r="J166">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="K166">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L166">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="M166">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="N166">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O166">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="P166">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q166">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="R166">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="S166">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T166">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="U166">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="V166">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA166">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:28">
@@ -14806,7 +14806,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6847693</v>
+        <v>6847696</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
@@ -14815,76 +14815,76 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
       </c>
       <c r="J167">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="K167">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L167">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="M167">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="N167">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O167">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="P167">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q167">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R167">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="S167">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T167">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U167">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V167">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W167">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z167">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB167">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14901,10 +14901,10 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14913,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>1.8</v>
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J169">
         <v>1.3</v>
@@ -15076,7 +15076,7 @@
         <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J170">
         <v>1.475</v>
@@ -15162,7 +15162,7 @@
         <v>34</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15245,7 +15245,7 @@
         <v>45324.6875</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F172" t="s">
         <v>34</v>
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J172">
         <v>3.5</v>
@@ -15334,7 +15334,7 @@
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15494,7 +15494,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6847697</v>
+        <v>6847702</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -15503,13 +15503,13 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -15518,34 +15518,34 @@
         <v>48</v>
       </c>
       <c r="J175">
-        <v>1.111</v>
+        <v>2.1</v>
       </c>
       <c r="K175">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="L175">
-        <v>19</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>1.142</v>
+        <v>2.3</v>
       </c>
       <c r="N175">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="O175">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="P175">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q175">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="R175">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="S175">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="T175">
         <v>1.98</v>
@@ -15554,25 +15554,25 @@
         <v>1.92</v>
       </c>
       <c r="V175">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z175">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.46</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15580,7 +15580,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847704</v>
+        <v>6847697</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -15589,76 +15589,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E176" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J176">
-        <v>7.5</v>
+        <v>1.111</v>
       </c>
       <c r="K176">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L176">
-        <v>1.3</v>
+        <v>19</v>
       </c>
       <c r="M176">
-        <v>9.5</v>
+        <v>1.142</v>
       </c>
       <c r="N176">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="O176">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="P176">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q176">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="R176">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="S176">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="T176">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U176">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="V176">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8400000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
-        <v>0.8799999999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15666,7 +15666,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847702</v>
+        <v>6847704</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15675,76 +15675,76 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J177">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="K177">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="M177">
-        <v>2.3</v>
+        <v>9.5</v>
       </c>
       <c r="N177">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="O177">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="P177">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q177">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R177">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T177">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U177">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="V177">
         <v>-1</v>
       </c>
       <c r="W177">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.43</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9199999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -15761,7 +15761,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
         <v>36</v>
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J178">
         <v>2.625</v>
@@ -15847,10 +15847,10 @@
         <v>45326.47916666666</v>
       </c>
       <c r="E179" t="s">
+        <v>30</v>
+      </c>
+      <c r="F179" t="s">
         <v>32</v>
-      </c>
-      <c r="F179" t="s">
-        <v>30</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15859,7 +15859,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J179">
         <v>2.05</v>
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J180">
         <v>1.333</v>
@@ -16031,7 +16031,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J181">
         <v>2.05</v>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J182">
         <v>1.5</v>
@@ -16194,7 +16194,7 @@
         <v>35</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J183">
         <v>2.2</v>
@@ -16277,7 +16277,7 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E184" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F184" t="s">
         <v>37</v>
@@ -16289,7 +16289,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J184">
         <v>5</v>
@@ -16366,7 +16366,7 @@
         <v>28</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16452,7 +16452,7 @@
         <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J186">
         <v>1.615</v>
@@ -16538,7 +16538,7 @@
         <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>1.615</v>
@@ -16633,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J188">
         <v>2.9</v>
@@ -16707,7 +16707,7 @@
         <v>45333.47916666666</v>
       </c>
       <c r="E189" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F189" t="s">
         <v>44</v>
@@ -16719,7 +16719,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J189">
         <v>1.444</v>
@@ -16793,10 +16793,10 @@
         <v>45333.5625</v>
       </c>
       <c r="E190" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16805,7 +16805,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>2.05</v>
@@ -16879,7 +16879,7 @@
         <v>45338.6875</v>
       </c>
       <c r="E191" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
         <v>28</v>
@@ -16965,10 +16965,10 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -17042,7 +17042,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6847717</v>
+        <v>6847715</v>
       </c>
       <c r="C193" t="s">
         <v>27</v>
@@ -17051,31 +17051,31 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E193" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
         <v>0</v>
       </c>
-      <c r="H193">
-        <v>1</v>
-      </c>
       <c r="I193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J193">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K193">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N193">
         <v>3.6</v>
@@ -17087,40 +17087,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q193">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T193">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="U193">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V193">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="Z193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8899999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17128,7 +17128,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6847715</v>
+        <v>6847717</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17137,31 +17137,31 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
         <v>1</v>
       </c>
-      <c r="H194">
-        <v>0</v>
-      </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J194">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K194">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L194">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M194">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N194">
         <v>3.6</v>
@@ -17173,40 +17173,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q194">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="R194">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T194">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="U194">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V194">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y194">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.98</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17223,7 +17223,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E195" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F195" t="s">
         <v>34</v>
@@ -17235,7 +17235,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>2.8</v>
@@ -17309,7 +17309,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
         <v>33</v>
@@ -17407,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J197">
         <v>1.4</v>
@@ -17493,7 +17493,7 @@
         <v>3</v>
       </c>
       <c r="I198" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>2.15</v>
@@ -17567,7 +17567,7 @@
         <v>45340.5625</v>
       </c>
       <c r="E199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F199" t="s">
         <v>45</v>
@@ -17579,7 +17579,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J199">
         <v>8</v>
@@ -17665,7 +17665,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J200">
         <v>1.222</v>
@@ -17730,7 +17730,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6847726</v>
+        <v>6847725</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17739,76 +17739,76 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E201" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
       </c>
       <c r="J201">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="K201">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L201">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M201">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N201">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O201">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P201">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q201">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R201">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="S201">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T201">
-        <v>1.89</v>
+        <v>2.025</v>
       </c>
       <c r="U201">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W201">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z201">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17816,7 +17816,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6847725</v>
+        <v>6847726</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17825,76 +17825,76 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="s">
         <v>48</v>
       </c>
       <c r="J202">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="K202">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L202">
+        <v>5</v>
+      </c>
+      <c r="M202">
+        <v>1.7</v>
+      </c>
+      <c r="N202">
         <v>4.2</v>
       </c>
-      <c r="M202">
-        <v>2.1</v>
-      </c>
-      <c r="N202">
-        <v>3.8</v>
-      </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P202">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q202">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R202">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="S202">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T202">
-        <v>2.025</v>
+        <v>1.89</v>
       </c>
       <c r="U202">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="V202">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA202">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -17914,7 +17914,7 @@
         <v>35</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17923,7 +17923,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>1.909</v>
@@ -17997,10 +17997,10 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E204" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18009,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J204">
         <v>1.363</v>
@@ -18095,7 +18095,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J205">
         <v>1.45</v>
@@ -18172,7 +18172,7 @@
         <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18181,7 +18181,7 @@
         <v>2</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -18258,7 +18258,7 @@
         <v>34</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18341,7 +18341,7 @@
         <v>45347.64583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F208" t="s">
         <v>38</v>
@@ -18353,7 +18353,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J208">
         <v>2.15</v>
@@ -18439,7 +18439,7 @@
         <v>2</v>
       </c>
       <c r="I209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J209">
         <v>5.5</v>
@@ -18513,7 +18513,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F210" t="s">
         <v>36</v>
@@ -18611,7 +18611,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J211">
         <v>1.95</v>
@@ -18685,10 +18685,10 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E212" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18771,7 +18771,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
         <v>37</v>
@@ -18943,10 +18943,10 @@
         <v>45353.60416666666</v>
       </c>
       <c r="E215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -19029,7 +19029,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="E216" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
         <v>33</v>
@@ -19115,7 +19115,7 @@
         <v>45354.5625</v>
       </c>
       <c r="E217" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F217" t="s">
         <v>28</v>
@@ -19127,7 +19127,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J217">
         <v>1.909</v>
@@ -19201,7 +19201,7 @@
         <v>45359.6875</v>
       </c>
       <c r="E218" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F218" t="s">
         <v>35</v>
@@ -19213,7 +19213,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J218">
         <v>1.6</v>
@@ -19287,10 +19287,10 @@
         <v>45360.47916666666</v>
       </c>
       <c r="E219" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19299,7 +19299,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J219">
         <v>2.05</v>
@@ -19385,7 +19385,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J220">
         <v>1.2</v>
@@ -19462,7 +19462,7 @@
         <v>37</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J221">
         <v>1.142</v>
@@ -19548,7 +19548,7 @@
         <v>43</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G222">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         <v>3</v>
       </c>
       <c r="I222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J222">
         <v>1.8</v>
@@ -19717,7 +19717,7 @@
         <v>45361.47916666666</v>
       </c>
       <c r="E224" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
         <v>38</v>
@@ -19806,7 +19806,7 @@
         <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19815,7 +19815,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J225">
         <v>1.8</v>
@@ -19892,7 +19892,7 @@
         <v>33</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -19901,7 +19901,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J226">
         <v>1.3</v>
@@ -19975,7 +19975,7 @@
         <v>45366.6875</v>
       </c>
       <c r="E227" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F227" t="s">
         <v>37</v>
@@ -20061,7 +20061,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F228" t="s">
         <v>45</v>
@@ -20159,7 +20159,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J229">
         <v>2</v>
@@ -20233,10 +20233,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E230" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20322,7 +20322,7 @@
         <v>44</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J231">
         <v>1.909</v>
@@ -20405,7 +20405,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F232" t="s">
         <v>43</v>
@@ -20417,7 +20417,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J232">
         <v>2.375</v>
@@ -20491,10 +20491,10 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E233" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -20675,7 +20675,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J235">
         <v>1.55</v>
@@ -20761,7 +20761,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J236">
         <v>1.95</v>
@@ -20847,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J237">
         <v>1.363</v>
@@ -21010,7 +21010,7 @@
         <v>28</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>33</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -21105,7 +21105,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J240">
         <v>1.3</v>
@@ -21265,10 +21265,10 @@
         <v>45382.4375</v>
       </c>
       <c r="E242" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F242" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21277,7 +21277,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J242">
         <v>1.8</v>
@@ -21351,10 +21351,10 @@
         <v>45382.52083333334</v>
       </c>
       <c r="E243" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21363,7 +21363,7 @@
         <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J243">
         <v>1.333</v>
@@ -21437,10 +21437,10 @@
         <v>45382.60416666666</v>
       </c>
       <c r="E244" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F244" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21449,7 +21449,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J244">
         <v>1.666</v>
@@ -21535,7 +21535,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J245">
         <v>1.909</v>
@@ -21600,7 +21600,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6847763</v>
+        <v>6993658</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
@@ -21609,76 +21609,76 @@
         <v>45388.4375</v>
       </c>
       <c r="E246" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G246">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J246">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="K246">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L246">
-        <v>2.875</v>
+        <v>1.55</v>
       </c>
       <c r="M246">
+        <v>5.25</v>
+      </c>
+      <c r="N246">
+        <v>3.8</v>
+      </c>
+      <c r="O246">
+        <v>1.666</v>
+      </c>
+      <c r="P246">
+        <v>0.75</v>
+      </c>
+      <c r="Q246">
+        <v>2</v>
+      </c>
+      <c r="R246">
+        <v>1.9</v>
+      </c>
+      <c r="S246">
         <v>2.25</v>
       </c>
-      <c r="N246">
-        <v>3.5</v>
-      </c>
-      <c r="O246">
-        <v>3.1</v>
-      </c>
-      <c r="P246">
-        <v>-0.25</v>
-      </c>
-      <c r="Q246">
-        <v>1.98</v>
-      </c>
-      <c r="R246">
-        <v>1.92</v>
-      </c>
-      <c r="S246">
-        <v>2.75</v>
-      </c>
       <c r="T246">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="U246">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V246">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y246">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA246">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -21686,7 +21686,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6847760</v>
+        <v>6847763</v>
       </c>
       <c r="C247" t="s">
         <v>27</v>
@@ -21695,76 +21695,76 @@
         <v>45388.4375</v>
       </c>
       <c r="E247" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G247">
+        <v>2</v>
+      </c>
+      <c r="H247">
         <v>1</v>
       </c>
-      <c r="H247">
-        <v>4</v>
-      </c>
       <c r="I247" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J247">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="K247">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="L247">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="M247">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="N247">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O247">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="P247">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q247">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R247">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S247">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T247">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U247">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="V247">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="Z247">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.99</v>
+        <v>0.52</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -21772,7 +21772,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6993658</v>
+        <v>6847760</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -21781,55 +21781,55 @@
         <v>45388.4375</v>
       </c>
       <c r="E248" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I248" t="s">
         <v>46</v>
       </c>
       <c r="J248">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="K248">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L248">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="M248">
         <v>5.25</v>
       </c>
       <c r="N248">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O248">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="P248">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q248">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R248">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S248">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T248">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="U248">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="V248">
         <v>-1</v>
@@ -21838,19 +21838,19 @@
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>0.6659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Y248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.45</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB248">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21867,7 +21867,7 @@
         <v>45388.4375</v>
       </c>
       <c r="E249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F249" t="s">
         <v>45</v>
@@ -21879,7 +21879,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J249">
         <v>7</v>
@@ -21956,7 +21956,7 @@
         <v>44</v>
       </c>
       <c r="F250" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G250">
         <v>4</v>
@@ -21965,7 +21965,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J250">
         <v>1.55</v>
@@ -22042,7 +22042,7 @@
         <v>34</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22125,10 +22125,10 @@
         <v>45389.4375</v>
       </c>
       <c r="E252" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F252" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G252">
         <v>3</v>
@@ -22137,7 +22137,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J252">
         <v>2.15</v>
@@ -22211,7 +22211,7 @@
         <v>45389.52083333334</v>
       </c>
       <c r="E253" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F253" t="s">
         <v>43</v>
@@ -22297,7 +22297,7 @@
         <v>45394.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F254" t="s">
         <v>35</v>
@@ -22309,7 +22309,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J254">
         <v>2.05</v>
@@ -22386,7 +22386,7 @@
         <v>44</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G255">
         <v>4</v>
@@ -22395,7 +22395,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J255">
         <v>1.95</v>
@@ -22469,10 +22469,10 @@
         <v>45395.4375</v>
       </c>
       <c r="E256" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22481,7 +22481,7 @@
         <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J256">
         <v>1.95</v>
@@ -22558,7 +22558,7 @@
         <v>45</v>
       </c>
       <c r="F257" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J257">
         <v>1.125</v>
@@ -22644,7 +22644,7 @@
         <v>37</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G258">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J258">
         <v>1.363</v>
@@ -22813,7 +22813,7 @@
         <v>45395.5625</v>
       </c>
       <c r="E260" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F260" t="s">
         <v>36</v>
@@ -22825,7 +22825,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J260">
         <v>1.55</v>
@@ -22899,7 +22899,7 @@
         <v>45396.4375</v>
       </c>
       <c r="E261" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F261" t="s">
         <v>38</v>
@@ -22997,7 +22997,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J262">
         <v>1.2</v>
@@ -23074,7 +23074,7 @@
         <v>36</v>
       </c>
       <c r="F263" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G263">
         <v>3</v>
@@ -23083,7 +23083,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J263">
         <v>1.8</v>
@@ -23157,7 +23157,7 @@
         <v>45402.4375</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F264" t="s">
         <v>37</v>
@@ -23243,10 +23243,10 @@
         <v>45402.4375</v>
       </c>
       <c r="E265" t="s">
+        <v>42</v>
+      </c>
+      <c r="F265" t="s">
         <v>39</v>
-      </c>
-      <c r="F265" t="s">
-        <v>40</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23329,7 +23329,7 @@
         <v>45402.4375</v>
       </c>
       <c r="E266" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F266" t="s">
         <v>43</v>
@@ -23341,7 +23341,7 @@
         <v>3</v>
       </c>
       <c r="I266" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J266">
         <v>2</v>
@@ -23415,10 +23415,10 @@
         <v>45402.4375</v>
       </c>
       <c r="E267" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F267" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J267">
         <v>1.85</v>
@@ -23590,7 +23590,7 @@
         <v>28</v>
       </c>
       <c r="F269" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -23599,7 +23599,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J269">
         <v>4</v>
@@ -23685,7 +23685,7 @@
         <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J270">
         <v>2.7</v>
@@ -23771,7 +23771,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J271">
         <v>2.05</v>
@@ -23845,10 +23845,10 @@
         <v>45408.64583333334</v>
       </c>
       <c r="E272" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F272" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G272">
         <v>3</v>
@@ -23857,7 +23857,7 @@
         <v>2</v>
       </c>
       <c r="I272" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J272">
         <v>2.3</v>
@@ -23943,7 +23943,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J273">
         <v>1.285</v>
@@ -24020,7 +24020,7 @@
         <v>38</v>
       </c>
       <c r="F274" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -24115,7 +24115,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J275">
         <v>1.7</v>
@@ -24189,7 +24189,7 @@
         <v>45409.4375</v>
       </c>
       <c r="E276" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F276" t="s">
         <v>28</v>
@@ -24278,7 +24278,7 @@
         <v>33</v>
       </c>
       <c r="F277" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -24287,7 +24287,7 @@
         <v>2</v>
       </c>
       <c r="I277" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J277">
         <v>1.7</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J278">
         <v>2.1</v>
@@ -24450,7 +24450,7 @@
         <v>44</v>
       </c>
       <c r="F279" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -24459,7 +24459,7 @@
         <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J279">
         <v>1.533</v>
@@ -24533,10 +24533,10 @@
         <v>45410.60416666666</v>
       </c>
       <c r="E280" t="s">
+        <v>39</v>
+      </c>
+      <c r="F280" t="s">
         <v>40</v>
-      </c>
-      <c r="F280" t="s">
-        <v>41</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>45415.64583333334</v>
       </c>
       <c r="E281" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F281" t="s">
         <v>37</v>
@@ -24631,7 +24631,7 @@
         <v>1</v>
       </c>
       <c r="I281" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J281">
         <v>4.2</v>
@@ -24708,7 +24708,7 @@
         <v>34</v>
       </c>
       <c r="F282" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G282">
         <v>5</v>
@@ -24717,7 +24717,7 @@
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J282">
         <v>1.444</v>
@@ -24803,7 +24803,7 @@
         <v>2</v>
       </c>
       <c r="I283" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J283">
         <v>2.4</v>
@@ -24877,10 +24877,10 @@
         <v>45416.4375</v>
       </c>
       <c r="E284" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F284" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G284">
         <v>3</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J284">
         <v>1.444</v>
@@ -24963,7 +24963,7 @@
         <v>45416.4375</v>
       </c>
       <c r="E285" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F285" t="s">
         <v>45</v>
@@ -24975,7 +24975,7 @@
         <v>1</v>
       </c>
       <c r="I285" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J285">
         <v>2.7</v>
@@ -25049,7 +25049,7 @@
         <v>45416.5625</v>
       </c>
       <c r="E286" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F286" t="s">
         <v>38</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J286">
         <v>2.8</v>
@@ -25138,7 +25138,7 @@
         <v>35</v>
       </c>
       <c r="F287" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G287">
         <v>3</v>
@@ -25307,7 +25307,7 @@
         <v>45417.60416666666</v>
       </c>
       <c r="E289" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F289" t="s">
         <v>44</v>
@@ -25319,7 +25319,7 @@
         <v>1</v>
       </c>
       <c r="I289" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J289">
         <v>2.4</v>
@@ -25393,10 +25393,10 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E290" t="s">
+        <v>31</v>
+      </c>
+      <c r="F290" t="s">
         <v>29</v>
-      </c>
-      <c r="F290" t="s">
-        <v>31</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -25479,7 +25479,7 @@
         <v>45423.4375</v>
       </c>
       <c r="E291" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F291" t="s">
         <v>35</v>
@@ -25491,7 +25491,7 @@
         <v>2</v>
       </c>
       <c r="I291" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J291">
         <v>2.5</v>
@@ -25556,7 +25556,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7179918</v>
+        <v>7180059</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -25565,10 +25565,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E292" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -25577,64 +25577,64 @@
         <v>1</v>
       </c>
       <c r="I292" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J292">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="K292">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="L292">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="M292">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N292">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O292">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="P292">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q292">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="R292">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S292">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T292">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U292">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V292">
         <v>-1</v>
       </c>
       <c r="W292">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>0</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA292">
         <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:28">
@@ -25642,7 +25642,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7180059</v>
+        <v>7179918</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -25651,10 +25651,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E293" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F293" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -25663,64 +25663,64 @@
         <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J293">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="K293">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="L293">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="M293">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N293">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O293">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="P293">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q293">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="R293">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S293">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T293">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U293">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V293">
         <v>-1</v>
       </c>
       <c r="W293">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z293">
-        <v>0.8799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA293">
         <v>-1</v>
       </c>
       <c r="AB293">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -25740,7 +25740,7 @@
         <v>38</v>
       </c>
       <c r="F294" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         <v>1</v>
       </c>
       <c r="I294" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J294">
         <v>1.75</v>
@@ -25835,7 +25835,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J295">
         <v>2.6</v>
@@ -25909,10 +25909,10 @@
         <v>45424.4375</v>
       </c>
       <c r="E296" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F296" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -25998,7 +25998,7 @@
         <v>45</v>
       </c>
       <c r="F297" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G297">
         <v>2</v>
@@ -26007,7 +26007,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J297">
         <v>1.3</v>
@@ -26081,7 +26081,7 @@
         <v>45424.60416666666</v>
       </c>
       <c r="E298" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F298" t="s">
         <v>33</v>
@@ -26167,7 +26167,7 @@
         <v>45430.4375</v>
       </c>
       <c r="E299" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F299" t="s">
         <v>43</v>
@@ -26179,7 +26179,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J299">
         <v>1.285</v>
@@ -26253,7 +26253,7 @@
         <v>45430.4375</v>
       </c>
       <c r="E300" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F300" t="s">
         <v>45</v>
@@ -26265,7 +26265,7 @@
         <v>2</v>
       </c>
       <c r="I300" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J300">
         <v>3.75</v>
@@ -26342,7 +26342,7 @@
         <v>33</v>
       </c>
       <c r="F301" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G301">
         <v>2</v>
@@ -26351,7 +26351,7 @@
         <v>1</v>
       </c>
       <c r="I301" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J301">
         <v>1.3</v>
@@ -26428,7 +26428,7 @@
         <v>28</v>
       </c>
       <c r="F302" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G302">
         <v>4</v>
@@ -26437,7 +26437,7 @@
         <v>1</v>
       </c>
       <c r="I302" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J302">
         <v>2.3</v>
@@ -26514,7 +26514,7 @@
         <v>34</v>
       </c>
       <c r="F303" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G303">
         <v>4</v>
@@ -26523,7 +26523,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J303">
         <v>1.2</v>
@@ -26609,7 +26609,7 @@
         <v>1</v>
       </c>
       <c r="I304" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J304">
         <v>2.05</v>
@@ -26683,10 +26683,10 @@
         <v>45430.4375</v>
       </c>
       <c r="E305" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F305" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G305">
         <v>4</v>
@@ -26695,7 +26695,7 @@
         <v>1</v>
       </c>
       <c r="I305" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J305">
         <v>2.5</v>
@@ -26781,7 +26781,7 @@
         <v>2</v>
       </c>
       <c r="I306" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J306">
         <v>3.8</v>
@@ -26855,7 +26855,7 @@
         <v>45430.4375</v>
       </c>
       <c r="E307" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F307" t="s">
         <v>44</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -139,13 +139,13 @@
     <t>Darmstadt</t>
   </si>
   <si>
-    <t>Bochum</t>
+    <t>SC Freiburg</t>
   </si>
   <si>
     <t>Heidenheim</t>
   </si>
   <si>
-    <t>SC Freiburg</t>
+    <t>Bochum</t>
   </si>
   <si>
     <t>Cologne</t>
@@ -916,7 +916,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1100,7 +1100,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6847558</v>
+        <v>6847555</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1652,79 +1652,79 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="M13">
+        <v>3.75</v>
+      </c>
+      <c r="N13">
         <v>5</v>
       </c>
-      <c r="N13">
-        <v>1.4</v>
-      </c>
       <c r="O13">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="P13">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q13">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="R13">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S13">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T13">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="U13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W13">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y13">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8400000000000001</v>
+        <v>0.485</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
         <v>-1</v>
       </c>
       <c r="AD13">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6847555</v>
+        <v>6847558</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1836,79 +1836,79 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>1.4</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>4.75</v>
+      </c>
+      <c r="Q15">
+        <v>1.5</v>
+      </c>
+      <c r="R15">
+        <v>1.25</v>
+      </c>
+      <c r="S15">
+        <v>1.84</v>
+      </c>
+      <c r="T15">
+        <v>2.06</v>
+      </c>
+      <c r="U15">
+        <v>3.25</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
+        <v>1.95</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
         <v>3.75</v>
       </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>1.727</v>
-      </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15">
-        <v>4.5</v>
-      </c>
-      <c r="R15">
-        <v>-0.75</v>
-      </c>
-      <c r="S15">
-        <v>1.97</v>
-      </c>
-      <c r="T15">
-        <v>1.93</v>
-      </c>
-      <c r="U15">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>2.05</v>
-      </c>
-      <c r="W15">
-        <v>1.85</v>
-      </c>
-      <c r="X15">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.485</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
         <v>-1</v>
       </c>
       <c r="AD15">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2388,7 +2388,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2480,7 +2480,7 @@
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -3213,7 +3213,7 @@
         <v>45185.4375</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
         <v>36</v>
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6847574</v>
+        <v>6847573</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3305,10 +3305,10 @@
         <v>45185.4375</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3320,46 +3320,46 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>48</v>
       </c>
       <c r="L31">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M31">
         <v>3.4</v>
       </c>
       <c r="N31">
+        <v>3.1</v>
+      </c>
+      <c r="O31">
+        <v>2.625</v>
+      </c>
+      <c r="P31">
+        <v>3.4</v>
+      </c>
+      <c r="Q31">
+        <v>2.625</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1.94</v>
+      </c>
+      <c r="T31">
+        <v>1.99</v>
+      </c>
+      <c r="U31">
         <v>2.75</v>
       </c>
-      <c r="O31">
-        <v>2.15</v>
-      </c>
-      <c r="P31">
-        <v>3.75</v>
-      </c>
-      <c r="Q31">
-        <v>3.1</v>
-      </c>
-      <c r="R31">
-        <v>-0.25</v>
-      </c>
-      <c r="S31">
-        <v>1.93</v>
-      </c>
-      <c r="T31">
-        <v>1.97</v>
-      </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
       <c r="V31">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3368,16 +3368,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AC31">
-        <v>0.9199999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AD31">
         <v>-1</v>
@@ -3388,7 +3388,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6847573</v>
+        <v>6847574</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3397,10 +3397,10 @@
         <v>45185.4375</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3412,46 +3412,46 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" t="s">
         <v>48</v>
       </c>
       <c r="L32">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M32">
         <v>3.4</v>
       </c>
       <c r="N32">
+        <v>2.75</v>
+      </c>
+      <c r="O32">
+        <v>2.15</v>
+      </c>
+      <c r="P32">
+        <v>3.75</v>
+      </c>
+      <c r="Q32">
         <v>3.1</v>
       </c>
-      <c r="O32">
-        <v>2.625</v>
-      </c>
-      <c r="P32">
-        <v>3.4</v>
-      </c>
-      <c r="Q32">
-        <v>2.625</v>
-      </c>
       <c r="R32">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S32">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T32">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V32">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="W32">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3460,16 +3460,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AC32">
-        <v>1.05</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD32">
         <v>-1</v>
@@ -3673,7 +3673,7 @@
         <v>45185.5625</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -4044,7 +4044,7 @@
         <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>7</v>
@@ -4688,7 +4688,7 @@
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4961,7 +4961,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
         <v>45</v>
@@ -5513,7 +5513,7 @@
         <v>45200.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
         <v>31</v>
@@ -5792,7 +5792,7 @@
         <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -6893,10 +6893,10 @@
         <v>45220.4375</v>
       </c>
       <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
         <v>43</v>
-      </c>
-      <c r="F70" t="s">
-        <v>41</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -7261,7 +7261,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
         <v>46</v>
@@ -7436,7 +7436,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6847615</v>
+        <v>6847609</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7445,64 +7445,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76" t="s">
         <v>50</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>1.125</v>
       </c>
       <c r="M76">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="O76">
-        <v>2.45</v>
+        <v>1.062</v>
       </c>
       <c r="P76">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q76">
-        <v>2.75</v>
+        <v>23</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="S76">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="T76">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="U76">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="V76">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="W76">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="X76">
-        <v>1.45</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7511,13 +7511,13 @@
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8100000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.9199999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AD76">
         <v>-1</v>
@@ -7528,7 +7528,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847609</v>
+        <v>6847615</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7537,64 +7537,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77" t="s">
         <v>50</v>
       </c>
       <c r="L77">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="N77">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>1.062</v>
+        <v>2.45</v>
       </c>
       <c r="P77">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q77">
-        <v>23</v>
+        <v>2.75</v>
       </c>
       <c r="R77">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="S77">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="T77">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="U77">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="V77">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="W77">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="X77">
-        <v>0.06200000000000006</v>
+        <v>1.45</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7603,13 +7603,13 @@
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8799999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1.02</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD77">
         <v>-1</v>
@@ -8000,7 +8000,7 @@
         <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -8092,7 +8092,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8264,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6847620</v>
+        <v>6847618</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8273,82 +8273,82 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="M85">
         <v>4</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="R85">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S85">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="T85">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V85">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="W85">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="X85">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AD85">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8356,7 +8356,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6847618</v>
+        <v>6847620</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8365,82 +8365,82 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L86">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
         <v>4</v>
       </c>
       <c r="N86">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O86">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q86">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="R86">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S86">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="T86">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U86">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V86">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="W86">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AD86">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847627</v>
+        <v>6847628</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,82 +9009,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L93">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M93">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O93">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P93">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S93">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T93">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="U93">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V93">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="X93">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8400000000000001</v>
+        <v>0.455</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9092,7 +9092,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6847628</v>
+        <v>6847627</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9101,82 +9101,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L94">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="M94">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N94">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O94">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q94">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="R94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T94">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U94">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W94">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.455</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9377,7 +9377,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
         <v>44</v>
@@ -9656,7 +9656,7 @@
         <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9828,7 +9828,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847636</v>
+        <v>6847633</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9837,65 +9837,65 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K102" t="s">
         <v>50</v>
       </c>
       <c r="L102">
+        <v>1.4</v>
+      </c>
+      <c r="M102">
+        <v>5.5</v>
+      </c>
+      <c r="N102">
+        <v>6</v>
+      </c>
+      <c r="O102">
+        <v>1.5</v>
+      </c>
+      <c r="P102">
+        <v>5.25</v>
+      </c>
+      <c r="Q102">
+        <v>4.75</v>
+      </c>
+      <c r="R102">
+        <v>-1.25</v>
+      </c>
+      <c r="S102">
+        <v>2.04</v>
+      </c>
+      <c r="T102">
+        <v>1.86</v>
+      </c>
+      <c r="U102">
         <v>3.5</v>
       </c>
-      <c r="M102">
-        <v>3.75</v>
-      </c>
-      <c r="N102">
-        <v>1.95</v>
-      </c>
-      <c r="O102">
-        <v>3.6</v>
-      </c>
-      <c r="P102">
-        <v>4</v>
-      </c>
-      <c r="Q102">
-        <v>1.909</v>
-      </c>
-      <c r="R102">
+      <c r="V102">
+        <v>1.88</v>
+      </c>
+      <c r="W102">
+        <v>2.02</v>
+      </c>
+      <c r="X102">
         <v>0.5</v>
       </c>
-      <c r="S102">
-        <v>1.97</v>
-      </c>
-      <c r="T102">
-        <v>1.96</v>
-      </c>
-      <c r="U102">
-        <v>3</v>
-      </c>
-      <c r="V102">
-        <v>1.98</v>
-      </c>
-      <c r="W102">
-        <v>1.92</v>
-      </c>
-      <c r="X102">
-        <v>2.6</v>
-      </c>
       <c r="Y102">
         <v>-1</v>
       </c>
@@ -9903,16 +9903,16 @@
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AD102">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9920,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6847635</v>
+        <v>6847636</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9929,13 +9929,13 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9944,67 +9944,67 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L103">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="O103">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q103">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="R103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U103">
         <v>3</v>
       </c>
       <c r="V103">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="W103">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y103">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD103">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10012,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847634</v>
+        <v>6847635</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10021,10 +10021,10 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -10033,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -10042,46 +10042,46 @@
         <v>49</v>
       </c>
       <c r="L104">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O104">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="R104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S104">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V104">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="W104">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="Z104">
         <v>-1</v>
@@ -10090,13 +10090,13 @@
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9099999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC104">
         <v>-1</v>
       </c>
       <c r="AD104">
-        <v>0.8600000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10104,7 +10104,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847633</v>
+        <v>6847634</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10113,82 +10113,82 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="s">
+        <v>49</v>
+      </c>
+      <c r="L105">
+        <v>1.85</v>
+      </c>
+      <c r="M105">
+        <v>3.6</v>
+      </c>
+      <c r="N105">
         <v>4</v>
       </c>
-      <c r="H105">
-        <v>2</v>
-      </c>
-      <c r="I105">
-        <v>3</v>
-      </c>
-      <c r="J105">
-        <v>2</v>
-      </c>
-      <c r="K105" t="s">
-        <v>50</v>
-      </c>
-      <c r="L105">
-        <v>1.4</v>
-      </c>
-      <c r="M105">
-        <v>5.5</v>
-      </c>
-      <c r="N105">
-        <v>6</v>
-      </c>
       <c r="O105">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="R105">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S105">
+        <v>1.99</v>
+      </c>
+      <c r="T105">
+        <v>1.91</v>
+      </c>
+      <c r="U105">
+        <v>2.5</v>
+      </c>
+      <c r="V105">
         <v>2.04</v>
       </c>
-      <c r="T105">
+      <c r="W105">
         <v>1.86</v>
       </c>
-      <c r="U105">
-        <v>3.5</v>
-      </c>
-      <c r="V105">
-        <v>1.88</v>
-      </c>
-      <c r="W105">
-        <v>2.02</v>
-      </c>
       <c r="X105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10392,7 +10392,7 @@
         <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
         <v>34</v>
@@ -11036,7 +11036,7 @@
         <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -11680,7 +11680,7 @@
         <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6847662</v>
+        <v>6847664</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12229,82 +12229,82 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L128">
-        <v>2.35</v>
+        <v>2.875</v>
       </c>
       <c r="M128">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O128">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q128">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="R128">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S128">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T128">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U128">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V128">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W128">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X128">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA128">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC128">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AD128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12404,7 +12404,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6847660</v>
+        <v>6847662</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12413,82 +12413,82 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E130" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L130">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N130">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="P130">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q130">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="R130">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V130">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="W130">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AD130">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -12496,7 +12496,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6847664</v>
+        <v>6847660</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12505,10 +12505,10 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -12520,46 +12520,46 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="s">
         <v>48</v>
       </c>
       <c r="L131">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="M131">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="P131">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q131">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="R131">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S131">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U131">
         <v>2.75</v>
       </c>
       <c r="V131">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="W131">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12568,19 +12568,19 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.909</v>
+        <v>3.5</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
       </c>
       <c r="AD131">
-        <v>0.8500000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12689,7 +12689,7 @@
         <v>45277.47916666666</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
         <v>44</v>
@@ -13520,7 +13520,7 @@
         <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G142">
         <v>4</v>
@@ -13704,7 +13704,7 @@
         <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -13885,7 +13885,7 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
         <v>37</v>
@@ -13968,7 +13968,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6847677</v>
+        <v>6846946</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13977,82 +13977,82 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L147">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O147">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="P147">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q147">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="R147">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S147">
+        <v>1.9</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>1.91</v>
+      </c>
+      <c r="W147">
         <v>1.99</v>
       </c>
-      <c r="T147">
-        <v>1.91</v>
-      </c>
-      <c r="U147">
-        <v>2.75</v>
-      </c>
-      <c r="V147">
-        <v>2.01</v>
-      </c>
-      <c r="W147">
-        <v>1.89</v>
-      </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.9099999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC147">
         <v>-1</v>
       </c>
       <c r="AD147">
-        <v>0.8899999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14060,7 +14060,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6846946</v>
+        <v>6847677</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14069,82 +14069,82 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L148">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="M148">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N148">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O148">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q148">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="R148">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V148">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="W148">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z148">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
       </c>
       <c r="AD148">
-        <v>0.99</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14437,7 +14437,7 @@
         <v>45305.47916666666</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F152" t="s">
         <v>30</v>
@@ -14704,7 +14704,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847686</v>
+        <v>6847683</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14713,46 +14713,46 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="M155">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N155">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="P155">
         <v>4</v>
       </c>
       <c r="Q155">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="R155">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S155">
         <v>2</v>
@@ -14761,31 +14761,31 @@
         <v>1.9</v>
       </c>
       <c r="U155">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V155">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W155">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB155">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="AD155">
         <v>-1</v>
@@ -14897,7 +14897,7 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
         <v>33</v>
@@ -14980,7 +14980,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847683</v>
+        <v>6847686</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -14989,46 +14989,46 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L158">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="M158">
+        <v>3.8</v>
+      </c>
+      <c r="N158">
+        <v>1.75</v>
+      </c>
+      <c r="O158">
         <v>3.6</v>
-      </c>
-      <c r="N158">
-        <v>2.9</v>
-      </c>
-      <c r="O158">
-        <v>1.95</v>
       </c>
       <c r="P158">
         <v>4</v>
       </c>
       <c r="Q158">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="R158">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S158">
         <v>2</v>
@@ -15037,31 +15037,31 @@
         <v>1.9</v>
       </c>
       <c r="U158">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V158">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W158">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AD158">
         <v>-1</v>
@@ -15636,7 +15636,7 @@
         <v>30</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -16188,7 +16188,7 @@
         <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -16553,7 +16553,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E175" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F175" t="s">
         <v>31</v>
@@ -16737,7 +16737,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
         <v>33</v>
@@ -17200,7 +17200,7 @@
         <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>3</v>
@@ -17660,7 +17660,7 @@
         <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -18200,7 +18200,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6847715</v>
+        <v>6847719</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18209,82 +18209,82 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E193" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L193">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N193">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="O193">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="P193">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q193">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="R193">
+        <v>1.25</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>1.9</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>1.93</v>
+      </c>
+      <c r="W193">
+        <v>1.97</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AA193">
+        <v>0.5</v>
+      </c>
+      <c r="AB193">
         <v>-0.5</v>
       </c>
-      <c r="S193">
-        <v>1.99</v>
-      </c>
-      <c r="T193">
-        <v>1.91</v>
-      </c>
-      <c r="U193">
-        <v>2.5</v>
-      </c>
-      <c r="V193">
-        <v>1.92</v>
-      </c>
-      <c r="W193">
-        <v>1.98</v>
-      </c>
-      <c r="X193">
-        <v>0.909</v>
-      </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
-      <c r="Z193">
-        <v>-1</v>
-      </c>
-      <c r="AA193">
-        <v>0.99</v>
-      </c>
-      <c r="AB193">
-        <v>-1</v>
-      </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD193">
-        <v>0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18292,7 +18292,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6847717</v>
+        <v>6847715</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18301,37 +18301,37 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E194" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L194">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M194">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N194">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O194">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="P194">
         <v>3.6</v>
@@ -18343,40 +18343,40 @@
         <v>-0.5</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T194">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V194">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="W194">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
         <v>-1</v>
       </c>
       <c r="AD194">
-        <v>0.8899999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18384,7 +18384,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6847719</v>
+        <v>6847720</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18393,10 +18393,10 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -18414,40 +18414,40 @@
         <v>48</v>
       </c>
       <c r="L195">
+        <v>5.75</v>
+      </c>
+      <c r="M195">
+        <v>4.333</v>
+      </c>
+      <c r="N195">
+        <v>1.5</v>
+      </c>
+      <c r="O195">
         <v>6</v>
       </c>
-      <c r="M195">
-        <v>5</v>
-      </c>
-      <c r="N195">
-        <v>1.444</v>
-      </c>
-      <c r="O195">
-        <v>6.5</v>
-      </c>
       <c r="P195">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q195">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R195">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T195">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U195">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V195">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="W195">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -18456,19 +18456,19 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA195">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB195">
+        <v>0</v>
+      </c>
+      <c r="AC195">
+        <v>0.42</v>
+      </c>
+      <c r="AD195">
         <v>-0.5</v>
-      </c>
-      <c r="AC195">
-        <v>0</v>
-      </c>
-      <c r="AD195">
-        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18476,7 +18476,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6847720</v>
+        <v>6847717</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18485,61 +18485,61 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196" t="s">
         <v>48</v>
       </c>
       <c r="L196">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="M196">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O196">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="P196">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q196">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="R196">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S196">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="U196">
         <v>2.75</v>
       </c>
       <c r="V196">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="W196">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -18548,19 +18548,19 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="AD196">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18669,7 +18669,7 @@
         <v>45340.47916666666</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F198" t="s">
         <v>38</v>
@@ -18761,7 +18761,7 @@
         <v>45340.5625</v>
       </c>
       <c r="E199" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F199" t="s">
         <v>47</v>
@@ -19040,7 +19040,7 @@
         <v>45</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G202">
         <v>5</v>
@@ -19592,7 +19592,7 @@
         <v>31</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -19681,7 +19681,7 @@
         <v>45352.6875</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F209" t="s">
         <v>47</v>
@@ -20141,7 +20141,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F214" t="s">
         <v>39</v>
@@ -21061,10 +21061,10 @@
         <v>45361.47916666666</v>
       </c>
       <c r="E224" t="s">
+        <v>43</v>
+      </c>
+      <c r="F224" t="s">
         <v>41</v>
-      </c>
-      <c r="F224" t="s">
-        <v>43</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -21616,7 +21616,7 @@
         <v>46</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -21981,7 +21981,7 @@
         <v>45368.47916666666</v>
       </c>
       <c r="E234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F234" t="s">
         <v>32</v>
@@ -22156,7 +22156,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6847755</v>
+        <v>6936540</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22165,82 +22165,82 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E236" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L236">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="M236">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N236">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O236">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="P236">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q236">
+        <v>4.2</v>
+      </c>
+      <c r="R236">
+        <v>-0.5</v>
+      </c>
+      <c r="S236">
+        <v>1.97</v>
+      </c>
+      <c r="T236">
+        <v>1.93</v>
+      </c>
+      <c r="U236">
+        <v>2.25</v>
+      </c>
+      <c r="V236">
+        <v>1.84</v>
+      </c>
+      <c r="W236">
+        <v>2.06</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
         <v>2.6</v>
       </c>
-      <c r="R236">
-        <v>0</v>
-      </c>
-      <c r="S236">
-        <v>1.95</v>
-      </c>
-      <c r="T236">
-        <v>1.95</v>
-      </c>
-      <c r="U236">
-        <v>2.5</v>
-      </c>
-      <c r="V236">
-        <v>1.87</v>
-      </c>
-      <c r="W236">
-        <v>2.03</v>
-      </c>
-      <c r="X236">
-        <v>-1</v>
-      </c>
-      <c r="Y236">
-        <v>-1</v>
-      </c>
       <c r="Z236">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC236">
         <v>-1</v>
       </c>
       <c r="AD236">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22352,7 +22352,7 @@
         <v>45</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -22432,7 +22432,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6907261</v>
+        <v>6847755</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22441,16 +22441,16 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E239" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -22459,64 +22459,64 @@
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L239">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="M239">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N239">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="O239">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="P239">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q239">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="R239">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S239">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U239">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="V239">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W239">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="X239">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AC239">
         <v>-1</v>
       </c>
       <c r="AD239">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22524,7 +22524,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6936540</v>
+        <v>6907261</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22533,67 +22533,67 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E240" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L240">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="M240">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N240">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="O240">
-        <v>1.909</v>
+        <v>1.181</v>
       </c>
       <c r="P240">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q240">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="R240">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="S240">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="T240">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="U240">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="V240">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="W240">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y240">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
         <v>-1</v>
@@ -22602,13 +22602,13 @@
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.9299999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AC240">
         <v>-1</v>
       </c>
       <c r="AD240">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22901,7 +22901,7 @@
         <v>45382.60416666666</v>
       </c>
       <c r="E244" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F244" t="s">
         <v>40</v>
@@ -23260,7 +23260,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6847763</v>
+        <v>6847760</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23269,82 +23269,82 @@
         <v>45388.4375</v>
       </c>
       <c r="E248" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>0</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K248" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L248">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="M248">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N248">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O248">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="P248">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q248">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="R248">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S248">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T248">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U248">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V248">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="W248">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="X248">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="AA248">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC248">
-        <v>0.52</v>
+        <v>0.99</v>
       </c>
       <c r="AD248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23444,7 +23444,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6847760</v>
+        <v>6847763</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23453,82 +23453,82 @@
         <v>45388.4375</v>
       </c>
       <c r="E250" t="s">
+        <v>44</v>
+      </c>
+      <c r="F250" t="s">
         <v>43</v>
       </c>
-      <c r="F250" t="s">
-        <v>39</v>
-      </c>
       <c r="G250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>0</v>
       </c>
       <c r="J250">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K250" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L250">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="M250">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N250">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O250">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="P250">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q250">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="R250">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S250">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T250">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U250">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V250">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="W250">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB250">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.99</v>
+        <v>0.52</v>
       </c>
       <c r="AD250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23904,7 +23904,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7025441</v>
+        <v>6917701</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23913,55 +23913,55 @@
         <v>45395.4375</v>
       </c>
       <c r="E255" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255">
         <v>0</v>
       </c>
       <c r="J255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K255" t="s">
         <v>50</v>
       </c>
       <c r="L255">
-        <v>1.125</v>
+        <v>1.95</v>
       </c>
       <c r="M255">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N255">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="O255">
-        <v>1.222</v>
+        <v>1.75</v>
       </c>
       <c r="P255">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="Q255">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="R255">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="S255">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T255">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U255">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V255">
         <v>1.9</v>
@@ -23970,7 +23970,7 @@
         <v>2</v>
       </c>
       <c r="X255">
-        <v>0.222</v>
+        <v>0.75</v>
       </c>
       <c r="Y255">
         <v>-1</v>
@@ -23979,16 +23979,16 @@
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD255">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -23996,7 +23996,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7024123</v>
+        <v>7024125</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -24005,82 +24005,82 @@
         <v>45395.4375</v>
       </c>
       <c r="E256" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>2</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>2</v>
+      </c>
+      <c r="K256" t="s">
+        <v>48</v>
+      </c>
+      <c r="L256">
+        <v>3.5</v>
+      </c>
+      <c r="M256">
+        <v>4</v>
+      </c>
+      <c r="N256">
+        <v>1.909</v>
+      </c>
+      <c r="O256">
+        <v>3.1</v>
+      </c>
+      <c r="P256">
+        <v>3.75</v>
+      </c>
+      <c r="Q256">
+        <v>2.15</v>
+      </c>
+      <c r="R256">
+        <v>0.25</v>
+      </c>
+      <c r="S256">
+        <v>2.02</v>
+      </c>
+      <c r="T256">
+        <v>1.88</v>
+      </c>
+      <c r="U256">
         <v>3</v>
       </c>
-      <c r="H256">
-        <v>0</v>
-      </c>
-      <c r="I256">
-        <v>1</v>
-      </c>
-      <c r="J256">
-        <v>0</v>
-      </c>
-      <c r="K256" t="s">
-        <v>50</v>
-      </c>
-      <c r="L256">
-        <v>1.363</v>
-      </c>
-      <c r="M256">
-        <v>5</v>
-      </c>
-      <c r="N256">
-        <v>7.5</v>
-      </c>
-      <c r="O256">
-        <v>1.25</v>
-      </c>
-      <c r="P256">
-        <v>6</v>
-      </c>
-      <c r="Q256">
-        <v>11</v>
-      </c>
-      <c r="R256">
-        <v>-1.75</v>
-      </c>
-      <c r="S256">
-        <v>1.93</v>
-      </c>
-      <c r="T256">
-        <v>1.97</v>
-      </c>
-      <c r="U256">
-        <v>3.5</v>
-      </c>
       <c r="V256">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="W256">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="X256">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA256">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD256">
-        <v>0.8799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -24088,7 +24088,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6917701</v>
+        <v>7024123</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24097,64 +24097,64 @@
         <v>45395.4375</v>
       </c>
       <c r="E257" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G257">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K257" t="s">
         <v>50</v>
       </c>
       <c r="L257">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="M257">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N257">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="O257">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="P257">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q257">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="R257">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S257">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T257">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="U257">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W257">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="X257">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Y257">
         <v>-1</v>
@@ -24163,16 +24163,16 @@
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB257">
         <v>-1</v>
       </c>
       <c r="AC257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD257">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24189,7 +24189,7 @@
         <v>45395.4375</v>
       </c>
       <c r="E258" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F258" t="s">
         <v>42</v>
@@ -24272,7 +24272,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7024125</v>
+        <v>7025441</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24281,82 +24281,82 @@
         <v>45395.4375</v>
       </c>
       <c r="E259" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F259" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K259" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L259">
+        <v>1.125</v>
+      </c>
+      <c r="M259">
+        <v>9</v>
+      </c>
+      <c r="N259">
+        <v>15</v>
+      </c>
+      <c r="O259">
+        <v>1.222</v>
+      </c>
+      <c r="P259">
+        <v>7</v>
+      </c>
+      <c r="Q259">
+        <v>11</v>
+      </c>
+      <c r="R259">
+        <v>-2</v>
+      </c>
+      <c r="S259">
+        <v>1.95</v>
+      </c>
+      <c r="T259">
+        <v>1.95</v>
+      </c>
+      <c r="U259">
         <v>3.5</v>
       </c>
-      <c r="M259">
-        <v>4</v>
-      </c>
-      <c r="N259">
-        <v>1.909</v>
-      </c>
-      <c r="O259">
-        <v>3.1</v>
-      </c>
-      <c r="P259">
-        <v>3.75</v>
-      </c>
-      <c r="Q259">
-        <v>2.15</v>
-      </c>
-      <c r="R259">
-        <v>0.25</v>
-      </c>
-      <c r="S259">
-        <v>2.02</v>
-      </c>
-      <c r="T259">
-        <v>1.88</v>
-      </c>
-      <c r="U259">
-        <v>3</v>
-      </c>
       <c r="V259">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W259">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB259">
-        <v>0.8799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24468,7 +24468,7 @@
         <v>40</v>
       </c>
       <c r="F261" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>34</v>
       </c>
       <c r="F266" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -25385,7 +25385,7 @@
         <v>45403.60416666666</v>
       </c>
       <c r="E271" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F271" t="s">
         <v>46</v>
@@ -25477,7 +25477,7 @@
         <v>45408.64583333334</v>
       </c>
       <c r="E272" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F272" t="s">
         <v>35</v>
@@ -25560,7 +25560,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7088634</v>
+        <v>7092930</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25569,19 +25569,19 @@
         <v>45409.4375</v>
       </c>
       <c r="E273" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273">
         <v>0</v>
@@ -25590,40 +25590,40 @@
         <v>48</v>
       </c>
       <c r="L273">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="M273">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N273">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O273">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="P273">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q273">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="R273">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S273">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="T273">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="U273">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V273">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W273">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -25632,19 +25632,19 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="AA273">
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>1.02</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC273">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AD273">
-        <v>0.485</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25652,7 +25652,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7092929</v>
+        <v>7088634</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25661,82 +25661,82 @@
         <v>45409.4375</v>
       </c>
       <c r="E274" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>3</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274" t="s">
+        <v>48</v>
+      </c>
+      <c r="L274">
+        <v>1.75</v>
+      </c>
+      <c r="M274">
         <v>4</v>
-      </c>
-      <c r="H274">
-        <v>1</v>
-      </c>
-      <c r="I274">
-        <v>2</v>
-      </c>
-      <c r="J274">
-        <v>1</v>
-      </c>
-      <c r="K274" t="s">
-        <v>50</v>
-      </c>
-      <c r="L274">
-        <v>1.7</v>
-      </c>
-      <c r="M274">
-        <v>4.2</v>
       </c>
       <c r="N274">
         <v>4.333</v>
       </c>
       <c r="O274">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="P274">
+        <v>4.333</v>
+      </c>
+      <c r="Q274">
         <v>4.5</v>
       </c>
-      <c r="Q274">
-        <v>5.25</v>
-      </c>
       <c r="R274">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S274">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T274">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="U274">
+        <v>3.25</v>
+      </c>
+      <c r="V274">
+        <v>1.93</v>
+      </c>
+      <c r="W274">
+        <v>1.97</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
+        <v>-1</v>
+      </c>
+      <c r="Z274">
         <v>3.5</v>
       </c>
-      <c r="V274">
-        <v>1.98</v>
-      </c>
-      <c r="W274">
-        <v>1.92</v>
-      </c>
-      <c r="X274">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y274">
-        <v>-1</v>
-      </c>
-      <c r="Z274">
-        <v>-1</v>
-      </c>
       <c r="AA274">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC274">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
       <c r="AD274">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -25744,7 +25744,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7133192</v>
+        <v>7092929</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -25753,19 +25753,19 @@
         <v>45409.4375</v>
       </c>
       <c r="E275" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H275">
         <v>1</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J275">
         <v>1</v>
@@ -25774,43 +25774,43 @@
         <v>50</v>
       </c>
       <c r="L275">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="M275">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N275">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="O275">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="P275">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q275">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="R275">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="S275">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="T275">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="U275">
         <v>3.5</v>
       </c>
       <c r="V275">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W275">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X275">
-        <v>0.444</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y275">
         <v>-1</v>
@@ -25819,16 +25819,16 @@
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB275">
-        <v>0.485</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AD275">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:30">
@@ -25836,7 +25836,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7092930</v>
+        <v>7133192</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25845,82 +25845,82 @@
         <v>45409.4375</v>
       </c>
       <c r="E276" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K276" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L276">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="M276">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N276">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O276">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="P276">
+        <v>5</v>
+      </c>
+      <c r="Q276">
+        <v>6</v>
+      </c>
+      <c r="R276">
+        <v>-1.25</v>
+      </c>
+      <c r="S276">
+        <v>1.93</v>
+      </c>
+      <c r="T276">
+        <v>1.97</v>
+      </c>
+      <c r="U276">
         <v>3.5</v>
       </c>
-      <c r="Q276">
-        <v>3.1</v>
-      </c>
-      <c r="R276">
-        <v>-0.25</v>
-      </c>
-      <c r="S276">
-        <v>2.01</v>
-      </c>
-      <c r="T276">
-        <v>1.89</v>
-      </c>
-      <c r="U276">
-        <v>2.5</v>
-      </c>
       <c r="V276">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="W276">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB276">
-        <v>0.8899999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="AC276">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AD276">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:30">
@@ -26768,7 +26768,7 @@
         <v>44</v>
       </c>
       <c r="F286" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -26860,7 +26860,7 @@
         <v>37</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G287">
         <v>3</v>
@@ -27216,7 +27216,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7175242</v>
+        <v>7179918</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
@@ -27225,82 +27225,82 @@
         <v>45423.4375</v>
       </c>
       <c r="E291" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291" t="s">
+        <v>49</v>
+      </c>
+      <c r="L291">
+        <v>2.25</v>
+      </c>
+      <c r="M291">
+        <v>3.6</v>
+      </c>
+      <c r="N291">
+        <v>2.875</v>
+      </c>
+      <c r="O291">
+        <v>2.6</v>
+      </c>
+      <c r="P291">
+        <v>3.75</v>
+      </c>
+      <c r="Q291">
+        <v>2.45</v>
+      </c>
+      <c r="R291">
+        <v>0</v>
+      </c>
+      <c r="S291">
+        <v>2.01</v>
+      </c>
+      <c r="T291">
+        <v>1.89</v>
+      </c>
+      <c r="U291">
         <v>3</v>
       </c>
-      <c r="H291">
-        <v>2</v>
-      </c>
-      <c r="I291">
-        <v>1</v>
-      </c>
-      <c r="J291">
-        <v>2</v>
-      </c>
-      <c r="K291" t="s">
-        <v>50</v>
-      </c>
-      <c r="L291">
-        <v>2.5</v>
-      </c>
-      <c r="M291">
-        <v>3.25</v>
-      </c>
-      <c r="N291">
-        <v>2.8</v>
-      </c>
-      <c r="O291">
-        <v>2.55</v>
-      </c>
-      <c r="P291">
-        <v>3.3</v>
-      </c>
-      <c r="Q291">
+      <c r="V291">
+        <v>1.93</v>
+      </c>
+      <c r="W291">
+        <v>1.97</v>
+      </c>
+      <c r="X291">
+        <v>-1</v>
+      </c>
+      <c r="Y291">
         <v>2.75</v>
       </c>
-      <c r="R291">
-        <v>0</v>
-      </c>
-      <c r="S291">
-        <v>1.85</v>
-      </c>
-      <c r="T291">
-        <v>2.05</v>
-      </c>
-      <c r="U291">
-        <v>2.5</v>
-      </c>
-      <c r="V291">
-        <v>1.95</v>
-      </c>
-      <c r="W291">
-        <v>1.95</v>
-      </c>
-      <c r="X291">
-        <v>1.55</v>
-      </c>
-      <c r="Y291">
-        <v>-1</v>
-      </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC291">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD291">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="292" spans="1:30">
@@ -27308,7 +27308,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7179918</v>
+        <v>7175242</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -27317,82 +27317,82 @@
         <v>45423.4375</v>
       </c>
       <c r="E292" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F292" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292">
         <v>1</v>
       </c>
       <c r="J292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K292" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L292">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M292">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N292">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O292">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="P292">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q292">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="R292">
         <v>0</v>
       </c>
       <c r="S292">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="T292">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="U292">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V292">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W292">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y292">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD292">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:30">
@@ -27501,7 +27501,7 @@
         <v>45423.4375</v>
       </c>
       <c r="E294" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F294" t="s">
         <v>42</v>
@@ -27869,7 +27869,7 @@
         <v>45424.60416666666</v>
       </c>
       <c r="E298" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F298" t="s">
         <v>32</v>
@@ -27964,7 +27964,7 @@
         <v>30</v>
       </c>
       <c r="F299" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G299">
         <v>4</v>
@@ -28148,7 +28148,7 @@
         <v>37</v>
       </c>
       <c r="F301" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G301">
         <v>2</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -139,13 +139,13 @@
     <t>Bochum</t>
   </si>
   <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
     <t>Darmstadt</t>
   </si>
   <si>
     <t>Cologne</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>SC Freiburg</t>
@@ -916,7 +916,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1192,7 +1192,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6847559</v>
+        <v>6847560</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1652,58 +1652,58 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>48</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
+        <v>3.3</v>
+      </c>
+      <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>3.8</v>
+      </c>
+      <c r="P13">
         <v>3.4</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>1.89</v>
+      </c>
+      <c r="T13">
+        <v>2.04</v>
+      </c>
+      <c r="U13">
         <v>2.25</v>
       </c>
-      <c r="O13">
-        <v>3.1</v>
-      </c>
-      <c r="P13">
-        <v>3.75</v>
-      </c>
-      <c r="Q13">
-        <v>2.15</v>
-      </c>
-      <c r="R13">
-        <v>0.25</v>
-      </c>
-      <c r="S13">
-        <v>1.93</v>
-      </c>
-      <c r="T13">
-        <v>1.97</v>
-      </c>
-      <c r="U13">
-        <v>3</v>
-      </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="W13">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1712,16 +1712,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AD13">
         <v>-1</v>
@@ -1732,7 +1732,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6847560</v>
+        <v>6847557</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1744,58 +1744,58 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>48</v>
       </c>
       <c r="L14">
+        <v>2.2</v>
+      </c>
+      <c r="M14">
+        <v>3.4</v>
+      </c>
+      <c r="N14">
+        <v>3.2</v>
+      </c>
+      <c r="O14">
+        <v>2.1</v>
+      </c>
+      <c r="P14">
         <v>3.5</v>
       </c>
-      <c r="M14">
-        <v>3.3</v>
-      </c>
-      <c r="N14">
-        <v>2.1</v>
-      </c>
-      <c r="O14">
-        <v>3.8</v>
-      </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3.4</v>
       </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
       <c r="R14">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S14">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T14">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U14">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V14">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="W14">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1804,19 +1804,19 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AC14">
-        <v>0.96</v>
+        <v>0.485</v>
       </c>
       <c r="AD14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6847557</v>
+        <v>6847559</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1836,16 +1836,16 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1854,40 +1854,40 @@
         <v>48</v>
       </c>
       <c r="L15">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
         <v>3.4</v>
       </c>
       <c r="N15">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q15">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="R15">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S15">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T15">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1896,19 +1896,19 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="AC15">
-        <v>0.485</v>
+        <v>0.95</v>
       </c>
       <c r="AD15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2296,7 +2296,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2664,7 +2664,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2940,7 +2940,7 @@
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3489,7 +3489,7 @@
         <v>45185.4375</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -3765,7 +3765,7 @@
         <v>45186.4375</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -3857,7 +3857,7 @@
         <v>45186.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
@@ -3952,7 +3952,7 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -4504,7 +4504,7 @@
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4596,7 +4596,7 @@
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4961,7 +4961,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
         <v>37</v>
@@ -5145,7 +5145,7 @@
         <v>45199.4375</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
@@ -5421,7 +5421,7 @@
         <v>45200.4375</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
@@ -5976,7 +5976,7 @@
         <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -6160,7 +6160,7 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -6344,7 +6344,7 @@
         <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6801,7 +6801,7 @@
         <v>45220.4375</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
         <v>39</v>
@@ -7077,7 +7077,7 @@
         <v>45221.4375</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
         <v>45</v>
@@ -7169,7 +7169,7 @@
         <v>45221.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
         <v>35</v>
@@ -7448,7 +7448,7 @@
         <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7724,7 +7724,7 @@
         <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G79">
         <v>8</v>
@@ -7816,7 +7816,7 @@
         <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80">
         <v>6</v>
@@ -8089,7 +8089,7 @@
         <v>45233.6875</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
         <v>40</v>
@@ -8457,7 +8457,7 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s">
         <v>35</v>
@@ -8825,7 +8825,7 @@
         <v>45235.5625</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
         <v>34</v>
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847626</v>
+        <v>6847629</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,55 +9009,55 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L93">
-        <v>2.55</v>
+        <v>1.062</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>2.6</v>
+        <v>19</v>
       </c>
       <c r="O93">
-        <v>2.375</v>
+        <v>1.111</v>
       </c>
       <c r="P93">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q93">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="S93">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="U93">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="V93">
         <v>2</v>
@@ -9066,25 +9066,25 @@
         <v>1.9</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y93">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9092,7 +9092,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6847628</v>
+        <v>6847626</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9101,82 +9101,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
         <v>50</v>
       </c>
       <c r="L94">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="M94">
         <v>3.5</v>
       </c>
       <c r="N94">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O94">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q94">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="T94">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="U94">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V94">
+        <v>2</v>
+      </c>
+      <c r="W94">
         <v>1.9</v>
       </c>
-      <c r="W94">
-        <v>2</v>
-      </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC94">
         <v>-1</v>
       </c>
       <c r="AD94">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9184,7 +9184,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847627</v>
+        <v>6847628</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9193,82 +9193,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L95">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O95">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q95">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S95">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T95">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="U95">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V95">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="X95">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8400000000000001</v>
+        <v>0.455</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9276,7 +9276,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847629</v>
+        <v>6847627</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9285,64 +9285,64 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="s">
         <v>49</v>
       </c>
       <c r="L96">
-        <v>1.062</v>
+        <v>2.6</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>19</v>
+        <v>2.45</v>
       </c>
       <c r="O96">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="P96">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q96">
-        <v>15</v>
+        <v>2.625</v>
       </c>
       <c r="R96">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="T96">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="U96">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W96">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="X96">
-        <v>0.111</v>
+        <v>1.45</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9351,16 +9351,16 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD96">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9380,7 +9380,7 @@
         <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9745,7 +9745,7 @@
         <v>45254.6875</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
         <v>47</v>
@@ -10024,7 +10024,7 @@
         <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -10389,7 +10389,7 @@
         <v>45256.47916666666</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
         <v>40</v>
@@ -10573,10 +10573,10 @@
         <v>45261.6875</v>
       </c>
       <c r="E110" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s">
         <v>42</v>
-      </c>
-      <c r="F110" t="s">
-        <v>43</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -11769,10 +11769,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E123" t="s">
+        <v>43</v>
+      </c>
+      <c r="F123" t="s">
         <v>41</v>
-      </c>
-      <c r="F123" t="s">
-        <v>42</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -12045,7 +12045,7 @@
         <v>45270.5625</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
         <v>46</v>
@@ -12229,7 +12229,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
         <v>33</v>
@@ -12324,7 +12324,7 @@
         <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -12692,7 +12692,7 @@
         <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -13152,7 +13152,7 @@
         <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -13244,7 +13244,7 @@
         <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -13425,7 +13425,7 @@
         <v>45280.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
         <v>44</v>
@@ -14253,10 +14253,10 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E150" t="s">
+        <v>42</v>
+      </c>
+      <c r="F150" t="s">
         <v>43</v>
-      </c>
-      <c r="F150" t="s">
-        <v>41</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -14345,7 +14345,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
         <v>36</v>
@@ -14612,7 +14612,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6847683</v>
+        <v>6847688</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14621,82 +14621,82 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L154">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="M154">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N154">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O154">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="P154">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q154">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="R154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T154">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U154">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V154">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="W154">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="X154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AD154">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14704,7 +14704,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847687</v>
+        <v>6846947</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14713,82 +14713,82 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L155">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N155">
         <v>1.727</v>
       </c>
       <c r="O155">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q155">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R155">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S155">
+        <v>1.83</v>
+      </c>
+      <c r="T155">
+        <v>2.07</v>
+      </c>
+      <c r="U155">
+        <v>2.25</v>
+      </c>
+      <c r="V155">
         <v>1.86</v>
       </c>
-      <c r="T155">
+      <c r="W155">
         <v>2.04</v>
       </c>
-      <c r="U155">
-        <v>2.75</v>
-      </c>
-      <c r="V155">
-        <v>1.88</v>
-      </c>
-      <c r="W155">
-        <v>2.02</v>
-      </c>
       <c r="X155">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.8600000000000001</v>
       </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
-      </c>
       <c r="AD155">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14796,7 +14796,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6847688</v>
+        <v>6847683</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14805,82 +14805,82 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L156">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="M156">
+        <v>3.6</v>
+      </c>
+      <c r="N156">
+        <v>2.9</v>
+      </c>
+      <c r="O156">
+        <v>1.95</v>
+      </c>
+      <c r="P156">
+        <v>4</v>
+      </c>
+      <c r="Q156">
         <v>3.5</v>
       </c>
-      <c r="N156">
-        <v>2.3</v>
-      </c>
-      <c r="O156">
-        <v>2.8</v>
-      </c>
-      <c r="P156">
-        <v>3.4</v>
-      </c>
-      <c r="Q156">
-        <v>2.55</v>
-      </c>
       <c r="R156">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S156">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="U156">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V156">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="W156">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y156">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AD156">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14888,7 +14888,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6846947</v>
+        <v>6847687</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14897,82 +14897,82 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N157">
         <v>1.727</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q157">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R157">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S157">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="T157">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="U157">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V157">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W157">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8300000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD157">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -14989,7 +14989,7 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F158" t="s">
         <v>36</v>
@@ -15544,7 +15544,7 @@
         <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15820,7 +15820,7 @@
         <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -16096,7 +16096,7 @@
         <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -16277,7 +16277,7 @@
         <v>45324.6875</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F172" t="s">
         <v>36</v>
@@ -16369,7 +16369,7 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
         <v>32</v>
@@ -16829,7 +16829,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
         <v>38</v>
@@ -17372,7 +17372,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6847711</v>
+        <v>6847708</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17381,82 +17381,82 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184" t="s">
         <v>50</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="M184">
         <v>3.75</v>
       </c>
       <c r="N184">
+        <v>5.5</v>
+      </c>
+      <c r="O184">
         <v>1.666</v>
       </c>
-      <c r="O184">
-        <v>4.2</v>
-      </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q184">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="R184">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S184">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="T184">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="U184">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V184">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AC184">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AD184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17464,7 +17464,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6847706</v>
+        <v>6847710</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17473,82 +17473,82 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E185" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G185">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L185">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M185">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N185">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O185">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="P185">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q185">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="R185">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S185">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="U185">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V185">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="W185">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="X185">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA185">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AD185">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17556,7 +17556,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6847710</v>
+        <v>6847706</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17565,82 +17565,82 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E186" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G186">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L186">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="M186">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N186">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O186">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q186">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="R186">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T186">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="U186">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V186">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="W186">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB186">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AD186">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17648,7 +17648,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6847708</v>
+        <v>6847711</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17657,82 +17657,82 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187" t="s">
         <v>50</v>
       </c>
       <c r="L187">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="M187">
         <v>3.75</v>
       </c>
       <c r="N187">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="O187">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="R187">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S187">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="T187">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="U187">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W187">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB187">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AD187">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17936,7 +17936,7 @@
         <v>31</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -18025,7 +18025,7 @@
         <v>45338.6875</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
         <v>30</v>
@@ -18393,7 +18393,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E195" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F195" t="s">
         <v>32</v>
@@ -18485,7 +18485,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
         <v>34</v>
@@ -18936,7 +18936,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6847723</v>
+        <v>6847726</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18945,19 +18945,19 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E201" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F201" t="s">
         <v>41</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201">
         <v>1</v>
@@ -18966,46 +18966,46 @@
         <v>50</v>
       </c>
       <c r="L201">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="M201">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N201">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="O201">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P201">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q201">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="R201">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S201">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T201">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U201">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V201">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="W201">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z201">
         <v>-1</v>
@@ -19014,13 +19014,13 @@
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>1.06</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC201">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AD201">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19028,7 +19028,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6847726</v>
+        <v>6847723</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19037,19 +19037,19 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -19058,46 +19058,46 @@
         <v>50</v>
       </c>
       <c r="L202">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="M202">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N202">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O202">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P202">
+        <v>3.6</v>
+      </c>
+      <c r="Q202">
         <v>4.2</v>
       </c>
-      <c r="Q202">
-        <v>4.333</v>
-      </c>
       <c r="R202">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S202">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="T202">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="U202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V202">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="W202">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z202">
         <v>-1</v>
@@ -19106,13 +19106,13 @@
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.9199999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AD202">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19120,7 +19120,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6847728</v>
+        <v>6847725</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -19129,82 +19129,82 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E203" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J203">
         <v>0</v>
       </c>
       <c r="K203" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L203">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="M203">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N203">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="O203">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="P203">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q203">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="R203">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T203">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="U203">
         <v>3</v>
       </c>
       <c r="V203">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W203">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y203">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD203">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -19212,7 +19212,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6847725</v>
+        <v>6847728</v>
       </c>
       <c r="C204" t="s">
         <v>29</v>
@@ -19221,82 +19221,82 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E204" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204" t="s">
+        <v>50</v>
+      </c>
+      <c r="L204">
+        <v>1.363</v>
+      </c>
+      <c r="M204">
         <v>5</v>
       </c>
-      <c r="H204">
-        <v>2</v>
-      </c>
-      <c r="I204">
-        <v>2</v>
-      </c>
-      <c r="J204">
-        <v>0</v>
-      </c>
-      <c r="K204" t="s">
-        <v>49</v>
-      </c>
-      <c r="L204">
-        <v>1.8</v>
-      </c>
-      <c r="M204">
-        <v>3.75</v>
-      </c>
       <c r="N204">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="O204">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="P204">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q204">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="R204">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S204">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="U204">
         <v>3</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X204">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC204">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD204">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -19957,7 +19957,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F212" t="s">
         <v>35</v>
@@ -20141,7 +20141,7 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F214" t="s">
         <v>38</v>
@@ -20325,7 +20325,7 @@
         <v>45354.47916666666</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
         <v>32</v>
@@ -20604,7 +20604,7 @@
         <v>45</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G219">
         <v>3</v>
@@ -20696,7 +20696,7 @@
         <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -20880,7 +20880,7 @@
         <v>39</v>
       </c>
       <c r="F222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -21337,7 +21337,7 @@
         <v>45366.6875</v>
       </c>
       <c r="E227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F227" t="s">
         <v>39</v>
@@ -21429,7 +21429,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E228" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F228" t="s">
         <v>47</v>
@@ -21521,7 +21521,7 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F229" t="s">
         <v>45</v>
@@ -22156,7 +22156,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6847754</v>
+        <v>6847753</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22165,82 +22165,82 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E236" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F236" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K236" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L236">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="M236">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N236">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O236">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="P236">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q236">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="R236">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S236">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T236">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U236">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W236">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z236">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>1.06</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC236">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD236">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22248,7 +22248,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6847753</v>
+        <v>6847754</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22257,82 +22257,82 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E237" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F237" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L237">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="M237">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N237">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="P237">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q237">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="R237">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S237">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="T237">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="U237">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V237">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.9199999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD237">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -22720,7 +22720,7 @@
         <v>35</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -22812,7 +22812,7 @@
         <v>34</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -22904,7 +22904,7 @@
         <v>40</v>
       </c>
       <c r="F244" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -23085,7 +23085,7 @@
         <v>45388.4375</v>
       </c>
       <c r="E246" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F246" t="s">
         <v>40</v>
@@ -23177,7 +23177,7 @@
         <v>45388.4375</v>
       </c>
       <c r="E247" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F247" t="s">
         <v>47</v>
@@ -23364,7 +23364,7 @@
         <v>46</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -23916,7 +23916,7 @@
         <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -24284,7 +24284,7 @@
         <v>47</v>
       </c>
       <c r="F259" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -24465,7 +24465,7 @@
         <v>45396.4375</v>
       </c>
       <c r="E261" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F261" t="s">
         <v>44</v>
@@ -24741,7 +24741,7 @@
         <v>45402.4375</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F264" t="s">
         <v>39</v>
@@ -24833,10 +24833,10 @@
         <v>45402.4375</v>
       </c>
       <c r="E265" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -26124,7 +26124,7 @@
         <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -26213,10 +26213,10 @@
         <v>45410.60416666666</v>
       </c>
       <c r="E280" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -26676,7 +26676,7 @@
         <v>33</v>
       </c>
       <c r="F285" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G285">
         <v>3</v>
@@ -26765,7 +26765,7 @@
         <v>45416.5625</v>
       </c>
       <c r="E286" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F286" t="s">
         <v>44</v>
@@ -27041,7 +27041,7 @@
         <v>45417.60416666666</v>
       </c>
       <c r="E289" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F289" t="s">
         <v>46</v>
@@ -27409,7 +27409,7 @@
         <v>45423.4375</v>
       </c>
       <c r="E293" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F293" t="s">
         <v>37</v>
@@ -27504,7 +27504,7 @@
         <v>44</v>
       </c>
       <c r="F294" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -27685,7 +27685,7 @@
         <v>45424.4375</v>
       </c>
       <c r="E296" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F296" t="s">
         <v>31</v>
@@ -28240,7 +28240,7 @@
         <v>36</v>
       </c>
       <c r="F302" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G302">
         <v>4</v>
@@ -28329,10 +28329,10 @@
         <v>45430.4375</v>
       </c>
       <c r="E303" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F303" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G303">
         <v>4</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -3296,7 +3296,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6847570</v>
+        <v>6847571</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3305,82 +3305,82 @@
         <v>45185.4375</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31">
         <v>3</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>49</v>
-      </c>
-      <c r="L31">
+      <c r="M31">
+        <v>3.4</v>
+      </c>
+      <c r="N31">
+        <v>2.15</v>
+      </c>
+      <c r="O31">
+        <v>2.875</v>
+      </c>
+      <c r="P31">
+        <v>3.75</v>
+      </c>
+      <c r="Q31">
+        <v>2.3</v>
+      </c>
+      <c r="R31">
+        <v>0.25</v>
+      </c>
+      <c r="S31">
+        <v>1.83</v>
+      </c>
+      <c r="T31">
+        <v>2.07</v>
+      </c>
+      <c r="U31">
+        <v>3.25</v>
+      </c>
+      <c r="V31">
+        <v>2.01</v>
+      </c>
+      <c r="W31">
+        <v>1.89</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
         <v>1.3</v>
       </c>
-      <c r="M31">
-        <v>5.5</v>
-      </c>
-      <c r="N31">
-        <v>7</v>
-      </c>
-      <c r="O31">
-        <v>1.285</v>
-      </c>
-      <c r="P31">
-        <v>6.5</v>
-      </c>
-      <c r="Q31">
-        <v>8.5</v>
-      </c>
-      <c r="R31">
-        <v>-1.75</v>
-      </c>
-      <c r="S31">
-        <v>1.97</v>
-      </c>
-      <c r="T31">
-        <v>1.93</v>
-      </c>
-      <c r="U31">
-        <v>3.5</v>
-      </c>
-      <c r="V31">
-        <v>2.03</v>
-      </c>
-      <c r="W31">
-        <v>1.87</v>
-      </c>
-      <c r="X31">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
       <c r="AA31">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AD31">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3388,7 +3388,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6847571</v>
+        <v>6847570</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3397,82 +3397,82 @@
         <v>45185.4375</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="M32">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N32">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="O32">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q32">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="R32">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S32">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="T32">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="U32">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V32">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="W32">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB32">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -4032,7 +4032,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6847581</v>
+        <v>6847583</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4041,82 +4041,82 @@
         <v>45192.4375</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="M39">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="P39">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q39">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="R39">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="T39">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="U39">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V39">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="W39">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AD39">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4124,7 +4124,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6847579</v>
+        <v>6847581</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4133,61 +4133,61 @@
         <v>45192.4375</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
         <v>48</v>
       </c>
       <c r="L40">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N40">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O40">
+        <v>4.333</v>
+      </c>
+      <c r="P40">
+        <v>4.333</v>
+      </c>
+      <c r="Q40">
+        <v>1.65</v>
+      </c>
+      <c r="R40">
+        <v>0.75</v>
+      </c>
+      <c r="S40">
         <v>2.05</v>
       </c>
-      <c r="P40">
-        <v>3.6</v>
-      </c>
-      <c r="Q40">
-        <v>3.3</v>
-      </c>
-      <c r="R40">
-        <v>-0.25</v>
-      </c>
-      <c r="S40">
-        <v>1.83</v>
-      </c>
       <c r="T40">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="U40">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V40">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="W40">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4196,19 +4196,19 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>1.07</v>
+        <v>0.425</v>
       </c>
       <c r="AC40">
         <v>-1</v>
       </c>
       <c r="AD40">
-        <v>0.9299999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4216,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6847578</v>
+        <v>6847579</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4225,82 +4225,82 @@
         <v>45192.4375</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L41">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O41">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q41">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="R41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S41">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="T41">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="U41">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V41">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W41">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="X41">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA41">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AC41">
         <v>-1</v>
       </c>
       <c r="AD41">
-        <v>0.9099999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6847577</v>
+        <v>6847578</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4317,19 +4317,19 @@
         <v>45192.4375</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4338,43 +4338,43 @@
         <v>49</v>
       </c>
       <c r="L42">
-        <v>1.1</v>
+        <v>1.615</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="P42">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="R42">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S42">
+        <v>1.92</v>
+      </c>
+      <c r="T42">
+        <v>1.98</v>
+      </c>
+      <c r="U42">
+        <v>3.25</v>
+      </c>
+      <c r="V42">
         <v>1.99</v>
       </c>
-      <c r="T42">
+      <c r="W42">
         <v>1.91</v>
       </c>
-      <c r="U42">
-        <v>4</v>
-      </c>
-      <c r="V42">
-        <v>1.91</v>
-      </c>
-      <c r="W42">
-        <v>1.99</v>
-      </c>
       <c r="X42">
-        <v>0.125</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y42">
         <v>-1</v>
@@ -4383,16 +4383,16 @@
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.99</v>
+        <v>0.46</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
+        <v>-1</v>
+      </c>
+      <c r="AD42">
         <v>0.9099999999999999</v>
-      </c>
-      <c r="AD42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4400,7 +4400,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6847583</v>
+        <v>6847577</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4409,64 +4409,64 @@
         <v>45192.4375</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
         <v>49</v>
       </c>
       <c r="L43">
-        <v>2.625</v>
+        <v>1.1</v>
       </c>
       <c r="M43">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>21</v>
       </c>
       <c r="O43">
-        <v>2.5</v>
+        <v>1.125</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="Q43">
-        <v>2.75</v>
+        <v>17</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="S43">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="T43">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="U43">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="V43">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W43">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="X43">
-        <v>1.5</v>
+        <v>0.125</v>
       </c>
       <c r="Y43">
         <v>-1</v>
@@ -4475,13 +4475,13 @@
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8200000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8899999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AD43">
         <v>-1</v>
@@ -7528,7 +7528,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847612</v>
+        <v>6847615</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7537,64 +7537,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" t="s">
         <v>49</v>
       </c>
       <c r="L77">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
         <v>3.6</v>
       </c>
       <c r="N77">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q77">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="R77">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S77">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="T77">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="U77">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V77">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W77">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="X77">
-        <v>0.6659999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7603,16 +7603,16 @@
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.4350000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD77">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7620,7 +7620,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6847615</v>
+        <v>6847613</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7629,64 +7629,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78" t="s">
         <v>49</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M78">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O78">
+        <v>2.8</v>
+      </c>
+      <c r="P78">
+        <v>3.25</v>
+      </c>
+      <c r="Q78">
         <v>2.45</v>
       </c>
-      <c r="P78">
-        <v>3.6</v>
-      </c>
-      <c r="Q78">
-        <v>2.75</v>
-      </c>
       <c r="R78">
         <v>0</v>
       </c>
       <c r="S78">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="T78">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="U78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V78">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="W78">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="X78">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7695,16 +7695,16 @@
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8100000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD78">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7712,7 +7712,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6847613</v>
+        <v>6847612</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7721,64 +7721,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="s">
         <v>49</v>
       </c>
       <c r="L79">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="M79">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N79">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O79">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="P79">
+        <v>4</v>
+      </c>
+      <c r="Q79">
+        <v>4.5</v>
+      </c>
+      <c r="R79">
+        <v>-0.75</v>
+      </c>
+      <c r="S79">
+        <v>1.87</v>
+      </c>
+      <c r="T79">
+        <v>2.06</v>
+      </c>
+      <c r="U79">
         <v>3.25</v>
       </c>
-      <c r="Q79">
-        <v>2.45</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>2.08</v>
-      </c>
-      <c r="T79">
-        <v>1.82</v>
-      </c>
-      <c r="U79">
-        <v>2.5</v>
-      </c>
       <c r="V79">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="W79">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="X79">
-        <v>1.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7787,16 +7787,16 @@
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1.08</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD79">
-        <v>1.03</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -14152,7 +14152,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6847675</v>
+        <v>6847677</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14161,10 +14161,10 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E149" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -14173,55 +14173,55 @@
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="s">
         <v>50</v>
       </c>
       <c r="L149">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="M149">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N149">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O149">
         <v>2</v>
       </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q149">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="R149">
         <v>-0.5</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T149">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U149">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V149">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="W149">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z149">
         <v>-1</v>
@@ -14230,13 +14230,13 @@
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.9299999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>0.8400000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14244,7 +14244,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6847677</v>
+        <v>6847675</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14253,10 +14253,10 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -14265,55 +14265,55 @@
         <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="s">
         <v>50</v>
       </c>
       <c r="L150">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="M150">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O150">
         <v>2</v>
       </c>
       <c r="P150">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="R150">
         <v>-0.5</v>
       </c>
       <c r="S150">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T150">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U150">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V150">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="W150">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Z150">
         <v>-1</v>
@@ -14322,13 +14322,13 @@
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.9099999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC150">
         <v>-1</v>
       </c>
       <c r="AD150">
-        <v>0.8899999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -16360,7 +16360,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6847701</v>
+        <v>6847704</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16369,16 +16369,16 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -16390,25 +16390,25 @@
         <v>48</v>
       </c>
       <c r="L173">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="M173">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N173">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O173">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q173">
-        <v>3.8</v>
+        <v>1.285</v>
       </c>
       <c r="R173">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="S173">
         <v>2.06</v>
@@ -16417,13 +16417,13 @@
         <v>1.84</v>
       </c>
       <c r="U173">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V173">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W173">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -16432,7 +16432,7 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>2.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -16444,7 +16444,7 @@
         <v>-1</v>
       </c>
       <c r="AD173">
-        <v>0.8400000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16452,7 +16452,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6847704</v>
+        <v>6847697</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16461,82 +16461,82 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L174">
-        <v>7.5</v>
+        <v>1.111</v>
       </c>
       <c r="M174">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N174">
-        <v>1.3</v>
+        <v>19</v>
       </c>
       <c r="O174">
-        <v>9.5</v>
+        <v>1.142</v>
       </c>
       <c r="P174">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="Q174">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="R174">
-        <v>1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="S174">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="T174">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="U174">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="V174">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W174">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8400000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD174">
-        <v>0.8799999999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16544,7 +16544,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6847699</v>
+        <v>6847701</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16553,61 +16553,61 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K175" t="s">
         <v>48</v>
       </c>
       <c r="L175">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="M175">
+        <v>3.5</v>
+      </c>
+      <c r="N175">
         <v>3.6</v>
       </c>
-      <c r="N175">
-        <v>2.25</v>
-      </c>
       <c r="O175">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="P175">
         <v>3.5</v>
       </c>
       <c r="Q175">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="R175">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S175">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="T175">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="U175">
         <v>2.5</v>
       </c>
       <c r="V175">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="W175">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16616,19 +16616,19 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.97</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC175">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD175">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16728,7 +16728,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847697</v>
+        <v>6847699</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16737,46 +16737,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
         <v>3</v>
       </c>
-      <c r="H177">
-        <v>1</v>
-      </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L177">
-        <v>1.111</v>
+        <v>2.9</v>
       </c>
       <c r="M177">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N177">
-        <v>19</v>
+        <v>2.25</v>
       </c>
       <c r="O177">
-        <v>1.142</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q177">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="R177">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="S177">
         <v>1.93</v>
@@ -16785,22 +16785,22 @@
         <v>1.97</v>
       </c>
       <c r="U177">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="V177">
+        <v>1.92</v>
+      </c>
+      <c r="W177">
         <v>1.98</v>
       </c>
-      <c r="W177">
-        <v>1.92</v>
-      </c>
       <c r="X177">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -16809,10 +16809,10 @@
         <v>0.97</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD177">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -18108,7 +18108,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6847719</v>
+        <v>6847720</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18117,10 +18117,10 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -18138,40 +18138,40 @@
         <v>48</v>
       </c>
       <c r="L192">
+        <v>5.75</v>
+      </c>
+      <c r="M192">
+        <v>4.333</v>
+      </c>
+      <c r="N192">
+        <v>1.5</v>
+      </c>
+      <c r="O192">
         <v>6</v>
       </c>
-      <c r="M192">
-        <v>5</v>
-      </c>
-      <c r="N192">
-        <v>1.444</v>
-      </c>
-      <c r="O192">
-        <v>6.5</v>
-      </c>
       <c r="P192">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q192">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R192">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T192">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U192">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V192">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="W192">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -18180,19 +18180,19 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA192">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB192">
+        <v>0</v>
+      </c>
+      <c r="AC192">
+        <v>0.42</v>
+      </c>
+      <c r="AD192">
         <v>-0.5</v>
-      </c>
-      <c r="AC192">
-        <v>0</v>
-      </c>
-      <c r="AD192">
-        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18200,7 +18200,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6847717</v>
+        <v>6847719</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18209,82 +18209,82 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E193" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="s">
         <v>48</v>
       </c>
       <c r="L193">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N193">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="O193">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="P193">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q193">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="R193">
+        <v>1.25</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>1.9</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>1.93</v>
+      </c>
+      <c r="W193">
+        <v>1.97</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AA193">
+        <v>0.5</v>
+      </c>
+      <c r="AB193">
         <v>-0.5</v>
       </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
-      <c r="T193">
-        <v>1.95</v>
-      </c>
-      <c r="U193">
-        <v>2.75</v>
-      </c>
-      <c r="V193">
-        <v>2.01</v>
-      </c>
-      <c r="W193">
-        <v>1.89</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
-      <c r="Z193">
-        <v>3</v>
-      </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
-      <c r="AB193">
-        <v>0.95</v>
-      </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD193">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18292,7 +18292,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6847720</v>
+        <v>6847717</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18301,61 +18301,61 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="s">
         <v>48</v>
       </c>
       <c r="L194">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="M194">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N194">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O194">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="P194">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="R194">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S194">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="U194">
         <v>2.75</v>
       </c>
       <c r="V194">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="W194">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -18364,19 +18364,19 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AA194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC194">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="AD194">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -19028,7 +19028,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6847728</v>
+        <v>6847723</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19037,67 +19037,67 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="s">
         <v>50</v>
       </c>
       <c r="L202">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="M202">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N202">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="O202">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="P202">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q202">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="R202">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S202">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="T202">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="U202">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="W202">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z202">
         <v>-1</v>
@@ -19106,13 +19106,13 @@
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AD202">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19120,7 +19120,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6847725</v>
+        <v>6847728</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -19129,82 +19129,82 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E203" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>50</v>
+      </c>
+      <c r="L203">
+        <v>1.363</v>
+      </c>
+      <c r="M203">
         <v>5</v>
       </c>
-      <c r="H203">
-        <v>2</v>
-      </c>
-      <c r="I203">
-        <v>2</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-      <c r="K203" t="s">
-        <v>49</v>
-      </c>
-      <c r="L203">
-        <v>1.8</v>
-      </c>
-      <c r="M203">
-        <v>3.75</v>
-      </c>
       <c r="N203">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="O203">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="P203">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q203">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="R203">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S203">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="U203">
         <v>3</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W203">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X203">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC203">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD203">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -19212,7 +19212,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6847723</v>
+        <v>6847725</v>
       </c>
       <c r="C204" t="s">
         <v>29</v>
@@ -19221,13 +19221,13 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E204" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -19236,64 +19236,64 @@
         <v>2</v>
       </c>
       <c r="J204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L204">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M204">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N204">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O204">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="P204">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q204">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="R204">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S204">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T204">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="U204">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V204">
-        <v>2.06</v>
+        <v>2.025</v>
       </c>
       <c r="W204">
-        <v>1.84</v>
+        <v>1.775</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y204">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB204">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1.06</v>
+        <v>1.025</v>
       </c>
       <c r="AD204">
         <v>-1</v>
@@ -22340,7 +22340,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6847755</v>
+        <v>6847754</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22349,16 +22349,16 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E238" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -22370,41 +22370,41 @@
         <v>48</v>
       </c>
       <c r="L238">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="M238">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N238">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O238">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="P238">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q238">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R238">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S238">
+        <v>1.84</v>
+      </c>
+      <c r="T238">
+        <v>2.06</v>
+      </c>
+      <c r="U238">
+        <v>2.75</v>
+      </c>
+      <c r="V238">
         <v>1.95</v>
       </c>
-      <c r="T238">
+      <c r="W238">
         <v>1.95</v>
       </c>
-      <c r="U238">
-        <v>2.5</v>
-      </c>
-      <c r="V238">
-        <v>1.87</v>
-      </c>
-      <c r="W238">
-        <v>2.03</v>
-      </c>
       <c r="X238">
         <v>-1</v>
       </c>
@@ -22412,19 +22412,19 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD238">
-        <v>1.03</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22524,7 +22524,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6847754</v>
+        <v>6847755</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22533,16 +22533,16 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E240" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G240">
         <v>0</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -22554,40 +22554,40 @@
         <v>48</v>
       </c>
       <c r="L240">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="M240">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N240">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O240">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="P240">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q240">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R240">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S240">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="T240">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="U240">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="W240">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -22596,19 +22596,19 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="AC240">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD240">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -28136,7 +28136,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7222256</v>
+        <v>7386141</v>
       </c>
       <c r="C301" t="s">
         <v>29</v>
@@ -28145,19 +28145,19 @@
         <v>45430.4375</v>
       </c>
       <c r="E301" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F301" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G301">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J301">
         <v>0</v>
@@ -28166,43 +28166,43 @@
         <v>49</v>
       </c>
       <c r="L301">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="M301">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N301">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="O301">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="P301">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="Q301">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="R301">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S301">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T301">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U301">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="V301">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W301">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="X301">
-        <v>0.222</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y301">
         <v>-1</v>
@@ -28211,16 +28211,16 @@
         <v>-1</v>
       </c>
       <c r="AA301">
-        <v>0.8600000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB301">
         <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AD301">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="302" spans="1:30">
@@ -28228,7 +28228,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7222255</v>
+        <v>7222256</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -28237,64 +28237,64 @@
         <v>45430.4375</v>
       </c>
       <c r="E302" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F302" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G302">
         <v>4</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K302" t="s">
         <v>49</v>
       </c>
       <c r="L302">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="M302">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="N302">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="O302">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="P302">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q302">
-        <v>1.9</v>
+        <v>10</v>
       </c>
       <c r="R302">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="S302">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="T302">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="U302">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V302">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W302">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="X302">
-        <v>2.4</v>
+        <v>0.222</v>
       </c>
       <c r="Y302">
         <v>-1</v>
@@ -28303,16 +28303,16 @@
         <v>-1</v>
       </c>
       <c r="AA302">
-        <v>0.98</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB302">
         <v>-1</v>
       </c>
       <c r="AC302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD302">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:30">
@@ -28320,7 +28320,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7386141</v>
+        <v>7222255</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28329,64 +28329,64 @@
         <v>45430.4375</v>
       </c>
       <c r="E303" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F303" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K303" t="s">
         <v>49</v>
       </c>
       <c r="L303">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="M303">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="N303">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O303">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="P303">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q303">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="R303">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S303">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="T303">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="U303">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V303">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W303">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X303">
-        <v>0.8500000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="Y303">
         <v>-1</v>
@@ -28395,16 +28395,16 @@
         <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.8799999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AB303">
         <v>-1</v>
       </c>
       <c r="AC303">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AD303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:30">

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -7528,7 +7528,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847615</v>
+        <v>6847612</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7537,64 +7537,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" t="s">
         <v>49</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="M77">
         <v>3.6</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O77">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="P77">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S77">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="T77">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="U77">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V77">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W77">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="X77">
-        <v>1.45</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7603,16 +7603,16 @@
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8100000000000001</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD77">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7620,7 +7620,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6847612</v>
+        <v>6847609</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7629,64 +7629,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="s">
         <v>49</v>
       </c>
       <c r="L78">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="M78">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="N78">
-        <v>3.75</v>
+        <v>21</v>
       </c>
       <c r="O78">
-        <v>1.666</v>
+        <v>1.062</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q78">
+        <v>23</v>
+      </c>
+      <c r="R78">
+        <v>-3</v>
+      </c>
+      <c r="S78">
+        <v>1.88</v>
+      </c>
+      <c r="T78">
+        <v>2.02</v>
+      </c>
+      <c r="U78">
         <v>4.5</v>
       </c>
-      <c r="R78">
-        <v>-0.75</v>
-      </c>
-      <c r="S78">
-        <v>1.87</v>
-      </c>
-      <c r="T78">
-        <v>2.06</v>
-      </c>
-      <c r="U78">
-        <v>3.25</v>
-      </c>
       <c r="V78">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="W78">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="X78">
-        <v>0.6659999999999999</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7695,16 +7695,16 @@
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.4350000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AD78">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7712,7 +7712,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6847609</v>
+        <v>6847615</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7721,64 +7721,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79" t="s">
         <v>49</v>
       </c>
       <c r="L79">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="N79">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="O79">
-        <v>1.062</v>
+        <v>2.45</v>
       </c>
       <c r="P79">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q79">
-        <v>23</v>
+        <v>2.75</v>
       </c>
       <c r="R79">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="T79">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="U79">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="V79">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="W79">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="X79">
-        <v>0.06200000000000006</v>
+        <v>1.45</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7787,13 +7787,13 @@
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.8799999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>1.02</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD79">
         <v>-1</v>
@@ -8264,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6847618</v>
+        <v>6846939</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8273,79 +8273,79 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85">
+        <v>2.3</v>
+      </c>
+      <c r="M85">
         <v>3</v>
       </c>
-      <c r="K85" t="s">
-        <v>50</v>
-      </c>
-      <c r="L85">
-        <v>1.95</v>
-      </c>
-      <c r="M85">
-        <v>4</v>
-      </c>
       <c r="N85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O85">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="P85">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="R85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="T85">
-        <v>1.92</v>
+        <v>2.125</v>
       </c>
       <c r="U85">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V85">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="W85">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.9199999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="AC85">
-        <v>1.09</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AD85">
         <v>-1</v>
@@ -8540,7 +8540,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6846939</v>
+        <v>6847618</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8549,79 +8549,79 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L88">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>3.3</v>
+      </c>
+      <c r="O88">
+        <v>1.95</v>
+      </c>
+      <c r="P88">
+        <v>3.8</v>
+      </c>
+      <c r="Q88">
+        <v>3.6</v>
+      </c>
+      <c r="R88">
+        <v>-0.5</v>
+      </c>
+      <c r="S88">
+        <v>2.01</v>
+      </c>
+      <c r="T88">
+        <v>1.92</v>
+      </c>
+      <c r="U88">
         <v>3</v>
       </c>
-      <c r="N88">
-        <v>3.25</v>
-      </c>
-      <c r="O88">
-        <v>2.5</v>
-      </c>
-      <c r="P88">
-        <v>3.1</v>
-      </c>
-      <c r="Q88">
-        <v>3</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>1.78</v>
-      </c>
-      <c r="T88">
-        <v>2.125</v>
-      </c>
-      <c r="U88">
-        <v>2.25</v>
-      </c>
       <c r="V88">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="W88">
-        <v>2.03</v>
+        <v>1.81</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z88">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>1.125</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC88">
-        <v>0.8700000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AD88">
         <v>-1</v>
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847628</v>
+        <v>6847629</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,82 +9009,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L93">
-        <v>2.8</v>
+        <v>1.062</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>2.4</v>
+        <v>19</v>
       </c>
       <c r="O93">
-        <v>3.1</v>
+        <v>1.111</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q93">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="R93">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="S93">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="U93">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="V93">
+        <v>2</v>
+      </c>
+      <c r="W93">
         <v>1.9</v>
       </c>
-      <c r="W93">
-        <v>2</v>
-      </c>
       <c r="X93">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y93">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD93">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9184,7 +9184,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847627</v>
+        <v>6847628</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9193,82 +9193,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L95">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O95">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q95">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S95">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T95">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="U95">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V95">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="X95">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8400000000000001</v>
+        <v>0.455</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9276,7 +9276,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847629</v>
+        <v>6847627</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9285,64 +9285,64 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="s">
         <v>49</v>
       </c>
       <c r="L96">
-        <v>1.062</v>
+        <v>2.6</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>19</v>
+        <v>2.45</v>
       </c>
       <c r="O96">
-        <v>1.111</v>
+        <v>2.45</v>
       </c>
       <c r="P96">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q96">
-        <v>15</v>
+        <v>2.625</v>
       </c>
       <c r="R96">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="T96">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="U96">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W96">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="X96">
-        <v>0.111</v>
+        <v>1.45</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9351,16 +9351,16 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD96">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -13048,7 +13048,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6847665</v>
+        <v>6847669</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13057,19 +13057,19 @@
         <v>45279.6875</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -13078,40 +13078,40 @@
         <v>50</v>
       </c>
       <c r="L137">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="M137">
+        <v>4.5</v>
+      </c>
+      <c r="N137">
         <v>5</v>
       </c>
-      <c r="N137">
-        <v>6.5</v>
-      </c>
       <c r="O137">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="P137">
         <v>4.75</v>
       </c>
       <c r="Q137">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="R137">
         <v>-1</v>
       </c>
       <c r="S137">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T137">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="U137">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V137">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -13126,13 +13126,13 @@
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.97</v>
+        <v>1.025</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD137">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13140,7 +13140,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6847669</v>
+        <v>6847665</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13149,19 +13149,19 @@
         <v>45279.6875</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13170,40 +13170,40 @@
         <v>50</v>
       </c>
       <c r="L138">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="M138">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N138">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="O138">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="P138">
         <v>4.75</v>
       </c>
       <c r="Q138">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="R138">
         <v>-1</v>
       </c>
       <c r="S138">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T138">
-        <v>2.025</v>
+        <v>1.97</v>
       </c>
       <c r="U138">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W138">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -13218,13 +13218,13 @@
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>1.025</v>
+        <v>0.97</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD138">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13324,7 +13324,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6847667</v>
+        <v>6847671</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13333,19 +13333,19 @@
         <v>45280.6875</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -13354,43 +13354,43 @@
         <v>49</v>
       </c>
       <c r="L140">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M140">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N140">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="O140">
-        <v>1.222</v>
+        <v>1.363</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q140">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="R140">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T140">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="U140">
         <v>3.25</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X140">
-        <v>0.222</v>
+        <v>0.363</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -13399,16 +13399,16 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.8500000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD140">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13416,7 +13416,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847668</v>
+        <v>6847672</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13425,82 +13425,82 @@
         <v>45280.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L141">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="M141">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N141">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O141">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="R141">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U141">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V141">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="W141">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>1.04</v>
       </c>
       <c r="AD141">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13600,7 +13600,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847672</v>
+        <v>6847668</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13609,82 +13609,82 @@
         <v>45280.6875</v>
       </c>
       <c r="E143" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L143">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="M143">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N143">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P143">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q143">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R143">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S143">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V143">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="W143">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA143">
-        <v>0.9199999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>1.04</v>
+        <v>-0.5</v>
       </c>
       <c r="AD143">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13692,7 +13692,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847671</v>
+        <v>6847667</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13701,19 +13701,19 @@
         <v>45280.6875</v>
       </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G144">
+        <v>4</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>3</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>2</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -13722,43 +13722,43 @@
         <v>49</v>
       </c>
       <c r="L144">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M144">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N144">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="O144">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q144">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="R144">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S144">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="U144">
         <v>3.25</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X144">
-        <v>0.363</v>
+        <v>0.222</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -13767,16 +13767,16 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.01</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD144">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -14612,7 +14612,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6847688</v>
+        <v>6847686</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14621,82 +14621,82 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L154">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M154">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N154">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O154">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q154">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="R154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S154">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="U154">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V154">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W154">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AD154">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14704,7 +14704,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847686</v>
+        <v>6847683</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14713,46 +14713,46 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="M155">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N155">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="P155">
         <v>4</v>
       </c>
       <c r="Q155">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="R155">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S155">
         <v>2</v>
@@ -14761,31 +14761,31 @@
         <v>1.9</v>
       </c>
       <c r="U155">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V155">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W155">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB155">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="AD155">
         <v>-1</v>
@@ -14796,7 +14796,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6846947</v>
+        <v>6847688</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14805,19 +14805,19 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156">
         <v>1</v>
@@ -14826,61 +14826,61 @@
         <v>50</v>
       </c>
       <c r="L156">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N156">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q156">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="R156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S156">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="T156">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="U156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V156">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="W156">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD156">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14980,7 +14980,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6847683</v>
+        <v>6846947</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -14989,79 +14989,79 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L158">
+        <v>4.2</v>
+      </c>
+      <c r="M158">
+        <v>4</v>
+      </c>
+      <c r="N158">
+        <v>1.727</v>
+      </c>
+      <c r="O158">
+        <v>3.6</v>
+      </c>
+      <c r="P158">
+        <v>3.6</v>
+      </c>
+      <c r="Q158">
+        <v>2</v>
+      </c>
+      <c r="R158">
+        <v>0.5</v>
+      </c>
+      <c r="S158">
+        <v>1.83</v>
+      </c>
+      <c r="T158">
+        <v>2.07</v>
+      </c>
+      <c r="U158">
         <v>2.25</v>
       </c>
-      <c r="M158">
-        <v>3.6</v>
-      </c>
-      <c r="N158">
-        <v>2.9</v>
-      </c>
-      <c r="O158">
-        <v>1.95</v>
-      </c>
-      <c r="P158">
-        <v>4</v>
-      </c>
-      <c r="Q158">
-        <v>3.5</v>
-      </c>
-      <c r="R158">
-        <v>-0.5</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>1.9</v>
-      </c>
-      <c r="U158">
-        <v>3</v>
-      </c>
       <c r="V158">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="W158">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="X158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.99</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AD158">
         <v>-1</v>
@@ -16360,7 +16360,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6847699</v>
+        <v>6847697</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16369,46 +16369,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>1</v>
       </c>
       <c r="J173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L173">
-        <v>2.9</v>
+        <v>1.111</v>
       </c>
       <c r="M173">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N173">
-        <v>2.25</v>
+        <v>19</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>1.142</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q173">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="R173">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="S173">
         <v>1.93</v>
@@ -16417,22 +16417,22 @@
         <v>1.97</v>
       </c>
       <c r="U173">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="V173">
+        <v>1.98</v>
+      </c>
+      <c r="W173">
         <v>1.92</v>
       </c>
-      <c r="W173">
-        <v>1.98</v>
-      </c>
       <c r="X173">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -16441,10 +16441,10 @@
         <v>0.97</v>
       </c>
       <c r="AC173">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD173">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16636,7 +16636,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847697</v>
+        <v>6847699</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16645,46 +16645,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
         <v>3</v>
       </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L176">
-        <v>1.111</v>
+        <v>2.9</v>
       </c>
       <c r="M176">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N176">
-        <v>19</v>
+        <v>2.25</v>
       </c>
       <c r="O176">
-        <v>1.142</v>
+        <v>3.2</v>
       </c>
       <c r="P176">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q176">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="R176">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="S176">
         <v>1.93</v>
@@ -16693,22 +16693,22 @@
         <v>1.97</v>
       </c>
       <c r="U176">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="V176">
+        <v>1.92</v>
+      </c>
+      <c r="W176">
         <v>1.98</v>
       </c>
-      <c r="W176">
-        <v>1.92</v>
-      </c>
       <c r="X176">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA176">
         <v>-1</v>
@@ -16717,10 +16717,10 @@
         <v>0.97</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD176">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -25560,7 +25560,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7092930</v>
+        <v>7088634</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25569,19 +25569,19 @@
         <v>45409.4375</v>
       </c>
       <c r="E273" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273">
         <v>0</v>
@@ -25590,61 +25590,61 @@
         <v>48</v>
       </c>
       <c r="L273">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="M273">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N273">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O273">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="P273">
+        <v>4.333</v>
+      </c>
+      <c r="Q273">
+        <v>4.5</v>
+      </c>
+      <c r="R273">
+        <v>-0.75</v>
+      </c>
+      <c r="S273">
+        <v>1.88</v>
+      </c>
+      <c r="T273">
+        <v>2.02</v>
+      </c>
+      <c r="U273">
+        <v>3.25</v>
+      </c>
+      <c r="V273">
+        <v>1.93</v>
+      </c>
+      <c r="W273">
+        <v>1.97</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
+        <v>-1</v>
+      </c>
+      <c r="Z273">
         <v>3.5</v>
       </c>
-      <c r="Q273">
-        <v>3.1</v>
-      </c>
-      <c r="R273">
-        <v>-0.25</v>
-      </c>
-      <c r="S273">
-        <v>2.01</v>
-      </c>
-      <c r="T273">
-        <v>1.89</v>
-      </c>
-      <c r="U273">
-        <v>2.5</v>
-      </c>
-      <c r="V273">
-        <v>2.07</v>
-      </c>
-      <c r="W273">
-        <v>1.83</v>
-      </c>
-      <c r="X273">
-        <v>-1</v>
-      </c>
-      <c r="Y273">
-        <v>-1</v>
-      </c>
-      <c r="Z273">
-        <v>2.1</v>
-      </c>
       <c r="AA273">
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.8899999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AC273">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AD273">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25652,7 +25652,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7088634</v>
+        <v>7092929</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25661,82 +25661,82 @@
         <v>45409.4375</v>
       </c>
       <c r="E274" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F274" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K274" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L274">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="M274">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N274">
         <v>4.333</v>
       </c>
       <c r="O274">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="P274">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q274">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="R274">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S274">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="T274">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="U274">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V274">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W274">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB274">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
       <c r="AD274">
-        <v>0.485</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -25744,7 +25744,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7092929</v>
+        <v>7092930</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -25753,79 +25753,79 @@
         <v>45409.4375</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G275">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K275" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L275">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="M275">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N275">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O275">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P275">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q275">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="R275">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S275">
+        <v>2.01</v>
+      </c>
+      <c r="T275">
         <v>1.89</v>
       </c>
-      <c r="T275">
-        <v>2.01</v>
-      </c>
       <c r="U275">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V275">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="W275">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="X275">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA275">
+        <v>-1</v>
+      </c>
+      <c r="AB275">
         <v>0.8899999999999999</v>
       </c>
-      <c r="AB275">
-        <v>-1</v>
-      </c>
       <c r="AC275">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="AD275">
         <v>-1</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -115,10 +115,10 @@
     <t>TSG Hoffenheim</t>
   </si>
   <si>
-    <t>Augsburg</t>
+    <t>VfB Stuttgart</t>
   </si>
   <si>
-    <t>VfB Stuttgart</t>
+    <t>Augsburg</t>
   </si>
   <si>
     <t>Wolfsburg</t>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6847552</v>
+        <v>6847536</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -916,76 +916,76 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <v>1.727</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5">
-        <v>2.8</v>
-      </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
       <c r="N5">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="O5">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="R5">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S5">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V5">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y5">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.06</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD5">
         <v>-1</v>
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6847536</v>
+        <v>6847552</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1008,76 +1008,76 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="R6">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="U6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="W6">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="X6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AD6">
         <v>-1</v>
@@ -1468,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -2204,7 +2204,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2569,7 +2569,7 @@
         <v>45171.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2753,7 +2753,7 @@
         <v>45171.4375</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
         <v>43</v>
@@ -3492,7 +3492,7 @@
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3584,7 +3584,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3949,7 +3949,7 @@
         <v>45191.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -4409,7 +4409,7 @@
         <v>45192.4375</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
         <v>46</v>
@@ -5056,7 +5056,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5697,7 +5697,7 @@
         <v>45206.4375</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
         <v>35</v>
@@ -5789,7 +5789,7 @@
         <v>45206.4375</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
         <v>40</v>
@@ -6620,7 +6620,7 @@
         <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -7344,7 +7344,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6847612</v>
+        <v>6847616</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7353,82 +7353,82 @@
         <v>45227.4375</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L75">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M75">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O75">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R75">
         <v>-0.75</v>
       </c>
       <c r="S75">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T75">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V75">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="W75">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="X75">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA75">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AD75">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7436,7 +7436,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6847609</v>
+        <v>6847612</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7445,64 +7445,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="s">
         <v>49</v>
       </c>
       <c r="L76">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="M76">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="N76">
-        <v>21</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>1.062</v>
+        <v>1.666</v>
       </c>
       <c r="P76">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q76">
-        <v>23</v>
+        <v>4.5</v>
       </c>
       <c r="R76">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="S76">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T76">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U76">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="V76">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="W76">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="X76">
-        <v>0.06200000000000006</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7511,16 +7511,16 @@
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8799999999999999</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AD76">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7528,7 +7528,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847616</v>
+        <v>6847609</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7537,79 +7537,79 @@
         <v>45227.4375</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L77">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="M77">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N77">
-        <v>4.2</v>
+        <v>21</v>
       </c>
       <c r="O77">
-        <v>1.65</v>
+        <v>1.062</v>
       </c>
       <c r="P77">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q77">
-        <v>4.75</v>
+        <v>23</v>
       </c>
       <c r="R77">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="S77">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T77">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U77">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="V77">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="W77">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB77">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8300000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="AD77">
         <v>-1</v>
@@ -7629,7 +7629,7 @@
         <v>45227.4375</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
         <v>35</v>
@@ -8276,7 +8276,7 @@
         <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8356,7 +8356,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6847620</v>
+        <v>6847618</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8365,82 +8365,82 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="M86">
         <v>4</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O86">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="P86">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q86">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="R86">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S86">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="T86">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V86">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="W86">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="X86">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AD86">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8540,7 +8540,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6847618</v>
+        <v>6847620</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8549,82 +8549,82 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L88">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
         <v>4</v>
       </c>
       <c r="N88">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O88">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="P88">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q88">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="R88">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S88">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="T88">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V88">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="W88">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB88">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AD88">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8828,7 +8828,7 @@
         <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -9101,7 +9101,7 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
         <v>36</v>
@@ -9193,7 +9193,7 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
         <v>32</v>
@@ -9828,7 +9828,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847635</v>
+        <v>6847633</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9837,82 +9837,82 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L102">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N102">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O102">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="P102">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q102">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="R102">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="U102">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V102">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="W102">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y102">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AD102">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9920,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6847633</v>
+        <v>6847634</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9929,82 +9929,82 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>50</v>
+      </c>
+      <c r="L103">
+        <v>1.85</v>
+      </c>
+      <c r="M103">
+        <v>3.6</v>
+      </c>
+      <c r="N103">
         <v>4</v>
       </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-      <c r="I103">
-        <v>3</v>
-      </c>
-      <c r="J103">
-        <v>2</v>
-      </c>
-      <c r="K103" t="s">
-        <v>49</v>
-      </c>
-      <c r="L103">
-        <v>1.4</v>
-      </c>
-      <c r="M103">
-        <v>5.5</v>
-      </c>
-      <c r="N103">
-        <v>6</v>
-      </c>
       <c r="O103">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="P103">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="R103">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S103">
+        <v>1.99</v>
+      </c>
+      <c r="T103">
+        <v>1.91</v>
+      </c>
+      <c r="U103">
+        <v>2.5</v>
+      </c>
+      <c r="V103">
         <v>2.04</v>
       </c>
-      <c r="T103">
+      <c r="W103">
         <v>1.86</v>
       </c>
-      <c r="U103">
-        <v>3.5</v>
-      </c>
-      <c r="V103">
-        <v>1.88</v>
-      </c>
-      <c r="W103">
-        <v>2.02</v>
-      </c>
       <c r="X103">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD103">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10012,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847634</v>
+        <v>6847635</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10021,10 +10021,10 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -10033,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -10042,46 +10042,46 @@
         <v>50</v>
       </c>
       <c r="L104">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O104">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="R104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S104">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V104">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="W104">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="Z104">
         <v>-1</v>
@@ -10090,13 +10090,13 @@
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9099999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC104">
         <v>-1</v>
       </c>
       <c r="AD104">
-        <v>0.8600000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10300,7 +10300,7 @@
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10941,7 +10941,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
         <v>30</v>
@@ -11217,7 +11217,7 @@
         <v>45263.64583333334</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
         <v>38</v>
@@ -11392,7 +11392,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847651</v>
+        <v>6847656</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11401,82 +11401,82 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L119">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M119">
         <v>3.5</v>
       </c>
       <c r="N119">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O119">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="P119">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="R119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S119">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="T119">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="U119">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V119">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AB119">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD119">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11484,7 +11484,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847654</v>
+        <v>6847651</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11493,82 +11493,82 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L120">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="M120">
+        <v>3.5</v>
+      </c>
+      <c r="N120">
+        <v>3.4</v>
+      </c>
+      <c r="O120">
+        <v>2.15</v>
+      </c>
+      <c r="P120">
         <v>3.6</v>
       </c>
-      <c r="N120">
-        <v>2.9</v>
-      </c>
-      <c r="O120">
-        <v>2.2</v>
-      </c>
-      <c r="P120">
-        <v>3.75</v>
-      </c>
       <c r="Q120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R120">
         <v>-0.25</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T120">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U120">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V120">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="W120">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="X120">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC120">
         <v>-1</v>
       </c>
       <c r="AD120">
-        <v>0.8600000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11576,7 +11576,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6847656</v>
+        <v>6847654</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11585,16 +11585,16 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11606,43 +11606,43 @@
         <v>49</v>
       </c>
       <c r="L121">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M121">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O121">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="P121">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="R121">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
+        <v>1.95</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
         <v>2.04</v>
       </c>
-      <c r="T121">
+      <c r="W121">
         <v>1.86</v>
       </c>
-      <c r="U121">
-        <v>2.75</v>
-      </c>
-      <c r="V121">
-        <v>2</v>
-      </c>
-      <c r="W121">
-        <v>1.9</v>
-      </c>
       <c r="X121">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11651,16 +11651,16 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD121">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11953,7 +11953,7 @@
         <v>45270.47916666666</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
         <v>31</v>
@@ -12505,7 +12505,7 @@
         <v>45276.47916666666</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
         <v>36</v>
@@ -12876,7 +12876,7 @@
         <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -13324,7 +13324,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6847672</v>
+        <v>6847668</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13333,82 +13333,82 @@
         <v>45280.6875</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L140">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P140">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R140">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S140">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V140">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="W140">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA140">
-        <v>0.9199999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>1.04</v>
+        <v>-0.5</v>
       </c>
       <c r="AD140">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13416,7 +13416,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847671</v>
+        <v>6847667</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13425,19 +13425,19 @@
         <v>45280.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G141">
+        <v>4</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>3</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>2</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -13446,43 +13446,43 @@
         <v>49</v>
       </c>
       <c r="L141">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N141">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="O141">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="P141">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q141">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="R141">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S141">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="U141">
         <v>3.25</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X141">
-        <v>0.363</v>
+        <v>0.222</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13491,16 +13491,16 @@
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.01</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD141">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13600,7 +13600,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847667</v>
+        <v>6847671</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13609,19 +13609,19 @@
         <v>45280.6875</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -13630,43 +13630,43 @@
         <v>49</v>
       </c>
       <c r="L143">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M143">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N143">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="O143">
-        <v>1.222</v>
+        <v>1.363</v>
       </c>
       <c r="P143">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="R143">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T143">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="U143">
         <v>3.25</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X143">
-        <v>0.222</v>
+        <v>0.363</v>
       </c>
       <c r="Y143">
         <v>-1</v>
@@ -13675,16 +13675,16 @@
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD143">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13692,7 +13692,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847668</v>
+        <v>6847672</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13701,82 +13701,82 @@
         <v>45280.6875</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L144">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N144">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O144">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="R144">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U144">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V144">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="W144">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.45</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>1.04</v>
       </c>
       <c r="AD144">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -14069,7 +14069,7 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
         <v>31</v>
@@ -14532,7 +14532,7 @@
         <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -14624,7 +14624,7 @@
         <v>42</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -14704,7 +14704,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6847688</v>
+        <v>6846947</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14713,19 +14713,19 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155">
         <v>1</v>
@@ -14734,61 +14734,61 @@
         <v>50</v>
       </c>
       <c r="L155">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N155">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O155">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q155">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="R155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S155">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="T155">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="U155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V155">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="W155">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AD155">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14796,7 +14796,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6846947</v>
+        <v>6847688</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14805,19 +14805,19 @@
         <v>45311.47916666666</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156">
         <v>1</v>
@@ -14826,61 +14826,61 @@
         <v>50</v>
       </c>
       <c r="L156">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N156">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q156">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="R156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S156">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="T156">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="U156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V156">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="W156">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD156">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -15268,7 +15268,7 @@
         <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -15817,7 +15817,7 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
         <v>47</v>
@@ -15909,7 +15909,7 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
         <v>39</v>
@@ -16464,7 +16464,7 @@
         <v>42</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -16544,7 +16544,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6847699</v>
+        <v>6847697</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16553,46 +16553,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L175">
-        <v>2.9</v>
+        <v>1.111</v>
       </c>
       <c r="M175">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N175">
-        <v>2.25</v>
+        <v>19</v>
       </c>
       <c r="O175">
-        <v>3.2</v>
+        <v>1.142</v>
       </c>
       <c r="P175">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q175">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="R175">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="S175">
         <v>1.93</v>
@@ -16601,22 +16601,22 @@
         <v>1.97</v>
       </c>
       <c r="U175">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="V175">
+        <v>1.98</v>
+      </c>
+      <c r="W175">
         <v>1.92</v>
       </c>
-      <c r="W175">
-        <v>1.98</v>
-      </c>
       <c r="X175">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
         <v>-1</v>
@@ -16625,10 +16625,10 @@
         <v>0.97</v>
       </c>
       <c r="AC175">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD175">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16636,7 +16636,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847701</v>
+        <v>6847699</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16645,61 +16645,61 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K176" t="s">
         <v>48</v>
       </c>
       <c r="L176">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="M176">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N176">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O176">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="P176">
         <v>3.5</v>
       </c>
       <c r="Q176">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="R176">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S176">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="T176">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="U176">
         <v>2.5</v>
       </c>
       <c r="V176">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="W176">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16708,19 +16708,19 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.8400000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD176">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16728,7 +16728,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6847697</v>
+        <v>6847701</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16737,82 +16737,82 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L177">
-        <v>1.111</v>
+        <v>2</v>
       </c>
       <c r="M177">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N177">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="O177">
-        <v>1.142</v>
+        <v>2</v>
       </c>
       <c r="P177">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q177">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="R177">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S177">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="T177">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="U177">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="V177">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W177">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="X177">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.97</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD177">
-        <v>0.46</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -17565,7 +17565,7 @@
         <v>45332.47916666666</v>
       </c>
       <c r="E186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F186" t="s">
         <v>39</v>
@@ -17841,7 +17841,7 @@
         <v>45333.47916666666</v>
       </c>
       <c r="E189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F189" t="s">
         <v>46</v>
@@ -18212,7 +18212,7 @@
         <v>46</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -18396,7 +18396,7 @@
         <v>40</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -19221,7 +19221,7 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F204" t="s">
         <v>44</v>
@@ -19589,7 +19589,7 @@
         <v>45347.64583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F208" t="s">
         <v>43</v>
@@ -19856,7 +19856,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6846955</v>
+        <v>6847736</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19865,61 +19865,61 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I211">
         <v>0</v>
       </c>
       <c r="J211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K211" t="s">
         <v>48</v>
       </c>
       <c r="L211">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="M211">
         <v>3.3</v>
       </c>
       <c r="N211">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O211">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P211">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q211">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="R211">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S211">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T211">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="U211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W211">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19928,16 +19928,16 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC211">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AD211">
         <v>-1</v>
@@ -19948,7 +19948,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6847736</v>
+        <v>6847732</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19957,82 +19957,82 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E212" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L212">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="M212">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N212">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="P212">
         <v>3.6</v>
       </c>
       <c r="Q212">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="R212">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S212">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V212">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z212">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AD212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20132,7 +20132,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6847732</v>
+        <v>6846955</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20141,82 +20141,82 @@
         <v>45353.47916666666</v>
       </c>
       <c r="E214" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L214">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N214">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O214">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="P214">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q214">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="R214">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S214">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T214">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="U214">
         <v>2.5</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20236,7 +20236,7 @@
         <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -20509,7 +20509,7 @@
         <v>45359.6875</v>
       </c>
       <c r="E218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F218" t="s">
         <v>37</v>
@@ -20693,7 +20693,7 @@
         <v>45360.47916666666</v>
       </c>
       <c r="E220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F220" t="s">
         <v>41</v>
@@ -21420,7 +21420,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6847752</v>
+        <v>6847751</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21429,82 +21429,82 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E228" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K228" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L228">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="M228">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N228">
-        <v>1.222</v>
+        <v>2.75</v>
       </c>
       <c r="O228">
-        <v>17</v>
+        <v>2.6</v>
       </c>
       <c r="P228">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q228">
-        <v>1.125</v>
+        <v>2.55</v>
       </c>
       <c r="R228">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="S228">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T228">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="U228">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z228">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB228">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD228">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -21512,7 +21512,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6847751</v>
+        <v>6847745</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -21521,13 +21521,13 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F229" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21536,67 +21536,67 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L229">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="M229">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N229">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O229">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="P229">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q229">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="R229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S229">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="T229">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="U229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="W229">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y229">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AB229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AD229">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -21604,7 +21604,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6847745</v>
+        <v>6847752</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -21613,79 +21613,79 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E230" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G230">
         <v>2</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L230">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M230">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N230">
-        <v>3.75</v>
+        <v>1.222</v>
       </c>
       <c r="O230">
+        <v>17</v>
+      </c>
+      <c r="P230">
+        <v>9.5</v>
+      </c>
+      <c r="Q230">
+        <v>1.125</v>
+      </c>
+      <c r="R230">
+        <v>2.5</v>
+      </c>
+      <c r="S230">
+        <v>1.85</v>
+      </c>
+      <c r="T230">
         <v>2.05</v>
       </c>
-      <c r="P230">
-        <v>3.4</v>
-      </c>
-      <c r="Q230">
-        <v>3.8</v>
-      </c>
-      <c r="R230">
-        <v>-0.5</v>
-      </c>
-      <c r="S230">
-        <v>2.08</v>
-      </c>
-      <c r="T230">
-        <v>1.82</v>
-      </c>
       <c r="U230">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="V230">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
+        <v>0.125</v>
+      </c>
+      <c r="AA230">
+        <v>-1</v>
+      </c>
+      <c r="AB230">
         <v>1.05</v>
       </c>
-      <c r="Y230">
-        <v>-1</v>
-      </c>
-      <c r="Z230">
-        <v>-1</v>
-      </c>
-      <c r="AA230">
-        <v>1.08</v>
-      </c>
-      <c r="AB230">
-        <v>-1</v>
-      </c>
       <c r="AC230">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="AD230">
         <v>-1</v>
@@ -21696,7 +21696,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6847747</v>
+        <v>6847748</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21705,28 +21705,28 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E231" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L231">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="M231">
         <v>3.6</v>
@@ -21735,52 +21735,52 @@
         <v>3.75</v>
       </c>
       <c r="O231">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P231">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q231">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="R231">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S231">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="T231">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="U231">
         <v>2.75</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W231">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB231">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD231">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21788,7 +21788,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6847748</v>
+        <v>6847747</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -21797,28 +21797,28 @@
         <v>45367.47916666666</v>
       </c>
       <c r="E232" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L232">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="M232">
         <v>3.6</v>
@@ -21827,52 +21827,52 @@
         <v>3.75</v>
       </c>
       <c r="O232">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="P232">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q232">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="R232">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S232">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="T232">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U232">
         <v>2.75</v>
       </c>
       <c r="V232">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W232">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="X232">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA232">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD232">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -21892,7 +21892,7 @@
         <v>32</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6847753</v>
+        <v>6936540</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22165,10 +22165,10 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -22186,46 +22186,46 @@
         <v>50</v>
       </c>
       <c r="L236">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N236">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O236">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="P236">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q236">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="R236">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S236">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T236">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U236">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="V236">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="W236">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z236">
         <v>-1</v>
@@ -22234,13 +22234,13 @@
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.9199999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC236">
         <v>-1</v>
       </c>
       <c r="AD236">
-        <v>0.8799999999999999</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22248,7 +22248,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6847754</v>
+        <v>6847753</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22257,82 +22257,82 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E237" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K237" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L237">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="M237">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N237">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O237">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="P237">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q237">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="R237">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S237">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T237">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U237">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W237">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z237">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>1.06</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC237">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD237">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -22340,7 +22340,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6936540</v>
+        <v>6847755</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22349,82 +22349,82 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E238" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L238">
+        <v>2.5</v>
+      </c>
+      <c r="M238">
+        <v>3.5</v>
+      </c>
+      <c r="N238">
+        <v>2.7</v>
+      </c>
+      <c r="O238">
+        <v>2.625</v>
+      </c>
+      <c r="P238">
+        <v>3.5</v>
+      </c>
+      <c r="Q238">
+        <v>2.6</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
         <v>1.95</v>
       </c>
-      <c r="M238">
-        <v>3.4</v>
-      </c>
-      <c r="N238">
-        <v>4</v>
-      </c>
-      <c r="O238">
-        <v>1.909</v>
-      </c>
-      <c r="P238">
-        <v>3.6</v>
-      </c>
-      <c r="Q238">
-        <v>4.2</v>
-      </c>
-      <c r="R238">
-        <v>-0.5</v>
-      </c>
-      <c r="S238">
-        <v>1.97</v>
-      </c>
       <c r="T238">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U238">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V238">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W238">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC238">
         <v>-1</v>
       </c>
       <c r="AD238">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22432,7 +22432,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6907261</v>
+        <v>6847754</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22441,16 +22441,16 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E239" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -22459,64 +22459,64 @@
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L239">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="M239">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N239">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="O239">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="P239">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q239">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="R239">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="S239">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="T239">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U239">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V239">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="X239">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD239">
-        <v>1.01</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22524,7 +22524,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6847755</v>
+        <v>6907261</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22533,16 +22533,16 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -22551,64 +22551,64 @@
         <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L240">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="M240">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N240">
-        <v>2.7</v>
+        <v>8.5</v>
       </c>
       <c r="O240">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="P240">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q240">
-        <v>2.6</v>
+        <v>12</v>
       </c>
       <c r="R240">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S240">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T240">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U240">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="V240">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W240">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="AC240">
         <v>-1</v>
       </c>
       <c r="AD240">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22717,7 +22717,7 @@
         <v>45382.4375</v>
       </c>
       <c r="E242" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F242" t="s">
         <v>44</v>
@@ -22809,7 +22809,7 @@
         <v>45382.52083333334</v>
       </c>
       <c r="E243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F243" t="s">
         <v>41</v>
@@ -23260,7 +23260,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6847764</v>
+        <v>6847760</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23269,79 +23269,79 @@
         <v>45388.4375</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>4</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
         <v>3</v>
       </c>
-      <c r="H248">
-        <v>2</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
-      <c r="J248">
-        <v>2</v>
-      </c>
       <c r="K248" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L248">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="M248">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N248">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="O248">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P248">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q248">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="R248">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S248">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="T248">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="U248">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V248">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W248">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X248">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="AA248">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC248">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="AD248">
         <v>-1</v>
@@ -23352,7 +23352,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6847760</v>
+        <v>6847764</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23361,79 +23361,79 @@
         <v>45388.4375</v>
       </c>
       <c r="E249" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I249">
         <v>0</v>
       </c>
       <c r="J249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L249">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="M249">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N249">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="O249">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P249">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q249">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="R249">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S249">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="T249">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="U249">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V249">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W249">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X249">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB249">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AD249">
         <v>-1</v>
@@ -23548,7 +23548,7 @@
         <v>36</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>32</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G252">
         <v>3</v>
@@ -23821,7 +23821,7 @@
         <v>45394.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F254" t="s">
         <v>37</v>
@@ -24088,7 +24088,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7024125</v>
+        <v>7024123</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24097,82 +24097,82 @@
         <v>45395.4375</v>
       </c>
       <c r="E257" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>1</v>
       </c>
       <c r="J257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L257">
+        <v>1.363</v>
+      </c>
+      <c r="M257">
+        <v>5</v>
+      </c>
+      <c r="N257">
+        <v>7.5</v>
+      </c>
+      <c r="O257">
+        <v>1.25</v>
+      </c>
+      <c r="P257">
+        <v>6</v>
+      </c>
+      <c r="Q257">
+        <v>11</v>
+      </c>
+      <c r="R257">
+        <v>-1.75</v>
+      </c>
+      <c r="S257">
+        <v>1.93</v>
+      </c>
+      <c r="T257">
+        <v>1.97</v>
+      </c>
+      <c r="U257">
         <v>3.5</v>
       </c>
-      <c r="M257">
-        <v>4</v>
-      </c>
-      <c r="N257">
-        <v>1.909</v>
-      </c>
-      <c r="O257">
-        <v>3.1</v>
-      </c>
-      <c r="P257">
-        <v>3.75</v>
-      </c>
-      <c r="Q257">
-        <v>2.15</v>
-      </c>
-      <c r="R257">
+      <c r="V257">
+        <v>2.02</v>
+      </c>
+      <c r="W257">
+        <v>1.88</v>
+      </c>
+      <c r="X257">
         <v>0.25</v>
       </c>
-      <c r="S257">
-        <v>2.02</v>
-      </c>
-      <c r="T257">
-        <v>1.88</v>
-      </c>
-      <c r="U257">
-        <v>3</v>
-      </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
-      <c r="W257">
-        <v>2.05</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
+        <v>-1</v>
+      </c>
+      <c r="AD257">
         <v>0.8799999999999999</v>
-      </c>
-      <c r="AC257">
-        <v>0</v>
-      </c>
-      <c r="AD257">
-        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24180,7 +24180,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7024123</v>
+        <v>7025441</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24189,19 +24189,19 @@
         <v>45395.4375</v>
       </c>
       <c r="E258" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F258" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H258">
         <v>0</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -24210,43 +24210,43 @@
         <v>49</v>
       </c>
       <c r="L258">
-        <v>1.363</v>
+        <v>1.125</v>
       </c>
       <c r="M258">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N258">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="O258">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="P258">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q258">
         <v>11</v>
       </c>
       <c r="R258">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="S258">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T258">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U258">
         <v>3.5</v>
       </c>
       <c r="V258">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="W258">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="X258">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="Y258">
         <v>-1</v>
@@ -24255,16 +24255,16 @@
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC258">
         <v>-1</v>
       </c>
       <c r="AD258">
-        <v>0.8799999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24272,7 +24272,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7025441</v>
+        <v>7024125</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24281,82 +24281,82 @@
         <v>45395.4375</v>
       </c>
       <c r="E259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F259" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K259" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L259">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="M259">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N259">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="O259">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="P259">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q259">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="R259">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="S259">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T259">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="U259">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V259">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W259">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X259">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24373,7 +24373,7 @@
         <v>45395.5625</v>
       </c>
       <c r="E260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F260" t="s">
         <v>38</v>
@@ -24652,7 +24652,7 @@
         <v>38</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G263">
         <v>3</v>
@@ -25204,7 +25204,7 @@
         <v>30</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -25569,7 +25569,7 @@
         <v>45409.4375</v>
       </c>
       <c r="E273" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F273" t="s">
         <v>30</v>
@@ -25940,7 +25940,7 @@
         <v>31</v>
       </c>
       <c r="F277" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -26397,7 +26397,7 @@
         <v>45416.4375</v>
       </c>
       <c r="E282" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F282" t="s">
         <v>47</v>
@@ -26480,7 +26480,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7128366</v>
+        <v>7128369</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -26489,82 +26489,82 @@
         <v>45416.4375</v>
       </c>
       <c r="E283" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K283" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L283">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="M283">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N283">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="O283">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="P283">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q283">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="R283">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S283">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T283">
         <v>1.85</v>
       </c>
       <c r="U283">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V283">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W283">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="X283">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC283">
-        <v>-0.5</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AD283">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:30">
@@ -26572,7 +26572,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7128365</v>
+        <v>7128366</v>
       </c>
       <c r="C284" t="s">
         <v>29</v>
@@ -26581,22 +26581,22 @@
         <v>45416.4375</v>
       </c>
       <c r="E284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F284" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G284">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K284" t="s">
         <v>49</v>
@@ -26611,52 +26611,52 @@
         <v>6.5</v>
       </c>
       <c r="O284">
+        <v>1.3</v>
+      </c>
+      <c r="P284">
+        <v>5.75</v>
+      </c>
+      <c r="Q284">
+        <v>8.5</v>
+      </c>
+      <c r="R284">
+        <v>-1.75</v>
+      </c>
+      <c r="S284">
+        <v>2.05</v>
+      </c>
+      <c r="T284">
+        <v>1.85</v>
+      </c>
+      <c r="U284">
+        <v>3.25</v>
+      </c>
+      <c r="V284">
         <v>1.95</v>
       </c>
-      <c r="P284">
-        <v>4</v>
-      </c>
-      <c r="Q284">
-        <v>3.4</v>
-      </c>
-      <c r="R284">
+      <c r="W284">
+        <v>1.95</v>
+      </c>
+      <c r="X284">
+        <v>0.3</v>
+      </c>
+      <c r="Y284">
+        <v>-1</v>
+      </c>
+      <c r="Z284">
+        <v>-1</v>
+      </c>
+      <c r="AA284">
+        <v>1.05</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
+      </c>
+      <c r="AC284">
         <v>-0.5</v>
       </c>
-      <c r="S284">
-        <v>2.02</v>
-      </c>
-      <c r="T284">
-        <v>1.88</v>
-      </c>
-      <c r="U284">
-        <v>3.5</v>
-      </c>
-      <c r="V284">
-        <v>2</v>
-      </c>
-      <c r="W284">
-        <v>1.9</v>
-      </c>
-      <c r="X284">
-        <v>0.95</v>
-      </c>
-      <c r="Y284">
-        <v>-1</v>
-      </c>
-      <c r="Z284">
-        <v>-1</v>
-      </c>
-      <c r="AA284">
-        <v>1.02</v>
-      </c>
-      <c r="AB284">
-        <v>-1</v>
-      </c>
-      <c r="AC284">
-        <v>1</v>
-      </c>
       <c r="AD284">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="285" spans="1:30">
@@ -26664,7 +26664,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7128369</v>
+        <v>7128365</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
@@ -26673,40 +26673,40 @@
         <v>45416.4375</v>
       </c>
       <c r="E285" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F285" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G285">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J285">
         <v>1</v>
       </c>
       <c r="K285" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L285">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="M285">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N285">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="O285">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P285">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q285">
         <v>3.4</v>
@@ -26715,37 +26715,37 @@
         <v>-0.5</v>
       </c>
       <c r="S285">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T285">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U285">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V285">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W285">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y285">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB285">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.9099999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD285">
         <v>-1</v>
@@ -27133,10 +27133,10 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E290" t="s">
+        <v>34</v>
+      </c>
+      <c r="F290" t="s">
         <v>33</v>
-      </c>
-      <c r="F290" t="s">
-        <v>34</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -27216,7 +27216,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7180059</v>
+        <v>7175242</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
@@ -27225,82 +27225,82 @@
         <v>45423.4375</v>
       </c>
       <c r="E291" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K291" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L291">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="M291">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N291">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="O291">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="P291">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q291">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="R291">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S291">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="T291">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="U291">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V291">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W291">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X291">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y291">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB291">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC291">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD291">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:30">
@@ -27308,7 +27308,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7175242</v>
+        <v>7180059</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -27317,82 +27317,82 @@
         <v>45423.4375</v>
       </c>
       <c r="E292" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F292" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K292" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L292">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="M292">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N292">
-        <v>2.8</v>
+        <v>10</v>
       </c>
       <c r="O292">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="P292">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q292">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="R292">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="S292">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="T292">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="U292">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V292">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W292">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X292">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC292">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD292">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:30">
@@ -27400,7 +27400,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7179918</v>
+        <v>7180060</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27409,10 +27409,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E293" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -27430,61 +27430,61 @@
         <v>50</v>
       </c>
       <c r="L293">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="M293">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N293">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="O293">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="P293">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q293">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="R293">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S293">
+        <v>1.98</v>
+      </c>
+      <c r="T293">
+        <v>1.92</v>
+      </c>
+      <c r="U293">
+        <v>2.75</v>
+      </c>
+      <c r="V293">
+        <v>1.89</v>
+      </c>
+      <c r="W293">
         <v>2.01</v>
       </c>
-      <c r="T293">
-        <v>1.89</v>
-      </c>
-      <c r="U293">
+      <c r="X293">
+        <v>-1</v>
+      </c>
+      <c r="Y293">
         <v>3</v>
       </c>
-      <c r="V293">
-        <v>1.93</v>
-      </c>
-      <c r="W293">
-        <v>1.97</v>
-      </c>
-      <c r="X293">
-        <v>-1</v>
-      </c>
-      <c r="Y293">
-        <v>2.75</v>
-      </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC293">
         <v>-1</v>
       </c>
       <c r="AD293">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27492,7 +27492,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7180060</v>
+        <v>7179918</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27501,10 +27501,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E294" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F294" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -27522,61 +27522,61 @@
         <v>50</v>
       </c>
       <c r="L294">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="M294">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N294">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="O294">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="P294">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q294">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="R294">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S294">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="T294">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U294">
+        <v>3</v>
+      </c>
+      <c r="V294">
+        <v>1.93</v>
+      </c>
+      <c r="W294">
+        <v>1.97</v>
+      </c>
+      <c r="X294">
+        <v>-1</v>
+      </c>
+      <c r="Y294">
         <v>2.75</v>
       </c>
-      <c r="V294">
-        <v>1.89</v>
-      </c>
-      <c r="W294">
-        <v>2.01</v>
-      </c>
-      <c r="X294">
-        <v>-1</v>
-      </c>
-      <c r="Y294">
-        <v>3</v>
-      </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB294">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC294">
         <v>-1</v>
       </c>
       <c r="AD294">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -28240,7 +28240,7 @@
         <v>31</v>
       </c>
       <c r="F302" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G302">
         <v>2</v>
@@ -28513,7 +28513,7 @@
         <v>45430.4375</v>
       </c>
       <c r="E305" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F305" t="s">
         <v>45</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -9828,7 +9828,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847633</v>
+        <v>6847634</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9837,82 +9837,82 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>50</v>
+      </c>
+      <c r="L102">
+        <v>1.85</v>
+      </c>
+      <c r="M102">
+        <v>3.6</v>
+      </c>
+      <c r="N102">
         <v>4</v>
       </c>
-      <c r="H102">
-        <v>2</v>
-      </c>
-      <c r="I102">
-        <v>3</v>
-      </c>
-      <c r="J102">
-        <v>2</v>
-      </c>
-      <c r="K102" t="s">
-        <v>49</v>
-      </c>
-      <c r="L102">
-        <v>1.4</v>
-      </c>
-      <c r="M102">
-        <v>5.5</v>
-      </c>
-      <c r="N102">
-        <v>6</v>
-      </c>
       <c r="O102">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="P102">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q102">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="R102">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S102">
+        <v>1.99</v>
+      </c>
+      <c r="T102">
+        <v>1.91</v>
+      </c>
+      <c r="U102">
+        <v>2.5</v>
+      </c>
+      <c r="V102">
         <v>2.04</v>
       </c>
-      <c r="T102">
+      <c r="W102">
         <v>1.86</v>
       </c>
-      <c r="U102">
-        <v>3.5</v>
-      </c>
-      <c r="V102">
-        <v>1.88</v>
-      </c>
-      <c r="W102">
-        <v>2.02</v>
-      </c>
       <c r="X102">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC102">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD102">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9920,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6847634</v>
+        <v>6847635</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9929,10 +9929,10 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9941,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -9950,46 +9950,46 @@
         <v>50</v>
       </c>
       <c r="L103">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="M103">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O103">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="R103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S103">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V103">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="W103">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9998,13 +9998,13 @@
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9099999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC103">
         <v>-1</v>
       </c>
       <c r="AD103">
-        <v>0.8600000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10012,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847635</v>
+        <v>6847636</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10021,13 +10021,13 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -10036,67 +10036,67 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L104">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q104">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="R104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U104">
         <v>3</v>
       </c>
       <c r="V104">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="W104">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y104">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD104">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10104,7 +10104,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847636</v>
+        <v>6847633</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10113,65 +10113,65 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105" t="s">
         <v>49</v>
       </c>
       <c r="L105">
+        <v>1.4</v>
+      </c>
+      <c r="M105">
+        <v>5.5</v>
+      </c>
+      <c r="N105">
+        <v>6</v>
+      </c>
+      <c r="O105">
+        <v>1.5</v>
+      </c>
+      <c r="P105">
+        <v>5.25</v>
+      </c>
+      <c r="Q105">
+        <v>4.75</v>
+      </c>
+      <c r="R105">
+        <v>-1.25</v>
+      </c>
+      <c r="S105">
+        <v>2.04</v>
+      </c>
+      <c r="T105">
+        <v>1.86</v>
+      </c>
+      <c r="U105">
         <v>3.5</v>
       </c>
-      <c r="M105">
-        <v>3.75</v>
-      </c>
-      <c r="N105">
-        <v>1.95</v>
-      </c>
-      <c r="O105">
-        <v>3.6</v>
-      </c>
-      <c r="P105">
-        <v>4</v>
-      </c>
-      <c r="Q105">
-        <v>1.909</v>
-      </c>
-      <c r="R105">
+      <c r="V105">
+        <v>1.88</v>
+      </c>
+      <c r="W105">
+        <v>2.02</v>
+      </c>
+      <c r="X105">
         <v>0.5</v>
       </c>
-      <c r="S105">
-        <v>1.97</v>
-      </c>
-      <c r="T105">
-        <v>1.96</v>
-      </c>
-      <c r="U105">
-        <v>3</v>
-      </c>
-      <c r="V105">
-        <v>1.98</v>
-      </c>
-      <c r="W105">
-        <v>1.92</v>
-      </c>
-      <c r="X105">
-        <v>2.6</v>
-      </c>
       <c r="Y105">
         <v>-1</v>
       </c>
@@ -10179,16 +10179,16 @@
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AD105">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -11392,7 +11392,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6847656</v>
+        <v>6847651</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11401,82 +11401,82 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L119">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M119">
         <v>3.5</v>
       </c>
       <c r="N119">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O119">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P119">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q119">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="R119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S119">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="T119">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="U119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W119">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="X119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA119">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD119">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11484,7 +11484,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847651</v>
+        <v>6847654</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11493,82 +11493,82 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L120">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="M120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O120">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q120">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R120">
         <v>-0.25</v>
       </c>
       <c r="S120">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V120">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="W120">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
         <v>-1</v>
       </c>
       <c r="AD120">
-        <v>1.01</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11576,7 +11576,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6847654</v>
+        <v>6847656</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11585,16 +11585,16 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11606,43 +11606,43 @@
         <v>49</v>
       </c>
       <c r="L121">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M121">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N121">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O121">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P121">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q121">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="R121">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T121">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="U121">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V121">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X121">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11651,16 +11651,16 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD121">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -13324,7 +13324,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6847668</v>
+        <v>6846945</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13333,82 +13333,82 @@
         <v>45280.6875</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L140">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="M140">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O140">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="P140">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q140">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="R140">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V140">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AB140">
         <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD140">
-        <v>0.4350000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13416,7 +13416,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847667</v>
+        <v>6847668</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13425,82 +13425,82 @@
         <v>45280.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L141">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="M141">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N141">
-        <v>13</v>
+        <v>1.363</v>
       </c>
       <c r="O141">
-        <v>1.222</v>
+        <v>5.5</v>
       </c>
       <c r="P141">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q141">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="R141">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U141">
         <v>3.25</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W141">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="X141">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD141">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13508,7 +13508,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6846945</v>
+        <v>6847667</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13517,64 +13517,64 @@
         <v>45280.6875</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="s">
         <v>49</v>
       </c>
       <c r="L142">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N142">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="O142">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q142">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="R142">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S142">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="U142">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X142">
-        <v>0.7</v>
+        <v>0.222</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13583,16 +13583,16 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.46</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD142">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -22156,7 +22156,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6936540</v>
+        <v>6847753</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22165,10 +22165,10 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -22186,46 +22186,46 @@
         <v>50</v>
       </c>
       <c r="L236">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="M236">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N236">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O236">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="P236">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q236">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="R236">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S236">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T236">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U236">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="V236">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="W236">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z236">
         <v>-1</v>
@@ -22234,13 +22234,13 @@
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.9299999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC236">
         <v>-1</v>
       </c>
       <c r="AD236">
-        <v>1.06</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22248,7 +22248,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6847753</v>
+        <v>6847754</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22257,82 +22257,82 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E237" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F237" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L237">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="M237">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N237">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="P237">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q237">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="R237">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S237">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="T237">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="U237">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V237">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.9199999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD237">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -22340,7 +22340,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6847755</v>
+        <v>6936540</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22349,82 +22349,82 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E238" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K238" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L238">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="M238">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N238">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O238">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="P238">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q238">
+        <v>4.2</v>
+      </c>
+      <c r="R238">
+        <v>-0.5</v>
+      </c>
+      <c r="S238">
+        <v>1.97</v>
+      </c>
+      <c r="T238">
+        <v>1.93</v>
+      </c>
+      <c r="U238">
+        <v>2.25</v>
+      </c>
+      <c r="V238">
+        <v>1.84</v>
+      </c>
+      <c r="W238">
+        <v>2.06</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
         <v>2.6</v>
       </c>
-      <c r="R238">
-        <v>0</v>
-      </c>
-      <c r="S238">
-        <v>1.95</v>
-      </c>
-      <c r="T238">
-        <v>1.95</v>
-      </c>
-      <c r="U238">
-        <v>2.5</v>
-      </c>
-      <c r="V238">
-        <v>1.87</v>
-      </c>
-      <c r="W238">
-        <v>2.03</v>
-      </c>
-      <c r="X238">
-        <v>-1</v>
-      </c>
-      <c r="Y238">
-        <v>-1</v>
-      </c>
       <c r="Z238">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC238">
         <v>-1</v>
       </c>
       <c r="AD238">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22432,7 +22432,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6847754</v>
+        <v>6907261</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22441,16 +22441,16 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E239" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -22459,64 +22459,64 @@
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L239">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="M239">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N239">
-        <v>3.1</v>
+        <v>8.5</v>
       </c>
       <c r="O239">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="P239">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q239">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="R239">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="S239">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="T239">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U239">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V239">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="W239">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AC239">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD239">
-        <v>-0.5</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22524,7 +22524,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6907261</v>
+        <v>6847755</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22533,16 +22533,16 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -22551,64 +22551,64 @@
         <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L240">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="M240">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N240">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="O240">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="P240">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q240">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="R240">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S240">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T240">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U240">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="V240">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W240">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="X240">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="AC240">
         <v>-1</v>
       </c>
       <c r="AD240">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -23260,7 +23260,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6847760</v>
+        <v>6847764</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23269,79 +23269,79 @@
         <v>45388.4375</v>
       </c>
       <c r="E248" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I248">
         <v>0</v>
       </c>
       <c r="J248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L248">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="M248">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N248">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="O248">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P248">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q248">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="R248">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S248">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="T248">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="U248">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V248">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W248">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB248">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AD248">
         <v>-1</v>
@@ -23352,7 +23352,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6847764</v>
+        <v>6847763</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23361,64 +23361,64 @@
         <v>45388.4375</v>
       </c>
       <c r="E249" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F249" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249">
         <v>0</v>
       </c>
       <c r="J249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K249" t="s">
         <v>49</v>
       </c>
       <c r="L249">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="M249">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N249">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="O249">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="P249">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q249">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="R249">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S249">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T249">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="U249">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V249">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="W249">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="X249">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y249">
         <v>-1</v>
@@ -23427,16 +23427,16 @@
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.8899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AB249">
         <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.98</v>
+        <v>0.52</v>
       </c>
       <c r="AD249">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23444,7 +23444,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6847763</v>
+        <v>6847760</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23453,82 +23453,82 @@
         <v>45388.4375</v>
       </c>
       <c r="E250" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F250" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I250">
         <v>0</v>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K250" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L250">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="M250">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N250">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O250">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="P250">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q250">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="R250">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S250">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T250">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U250">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V250">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="W250">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="X250">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="AA250">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC250">
-        <v>0.52</v>
+        <v>0.99</v>
       </c>
       <c r="AD250">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -24088,7 +24088,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7024123</v>
+        <v>7024125</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24097,82 +24097,82 @@
         <v>45395.4375</v>
       </c>
       <c r="E257" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>2</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>2</v>
+      </c>
+      <c r="K257" t="s">
+        <v>48</v>
+      </c>
+      <c r="L257">
+        <v>3.5</v>
+      </c>
+      <c r="M257">
+        <v>4</v>
+      </c>
+      <c r="N257">
+        <v>1.909</v>
+      </c>
+      <c r="O257">
+        <v>3.1</v>
+      </c>
+      <c r="P257">
+        <v>3.75</v>
+      </c>
+      <c r="Q257">
+        <v>2.15</v>
+      </c>
+      <c r="R257">
+        <v>0.25</v>
+      </c>
+      <c r="S257">
+        <v>2.02</v>
+      </c>
+      <c r="T257">
+        <v>1.88</v>
+      </c>
+      <c r="U257">
         <v>3</v>
       </c>
-      <c r="H257">
-        <v>0</v>
-      </c>
-      <c r="I257">
-        <v>1</v>
-      </c>
-      <c r="J257">
-        <v>0</v>
-      </c>
-      <c r="K257" t="s">
-        <v>49</v>
-      </c>
-      <c r="L257">
-        <v>1.363</v>
-      </c>
-      <c r="M257">
-        <v>5</v>
-      </c>
-      <c r="N257">
-        <v>7.5</v>
-      </c>
-      <c r="O257">
-        <v>1.25</v>
-      </c>
-      <c r="P257">
-        <v>6</v>
-      </c>
-      <c r="Q257">
-        <v>11</v>
-      </c>
-      <c r="R257">
-        <v>-1.75</v>
-      </c>
-      <c r="S257">
-        <v>1.93</v>
-      </c>
-      <c r="T257">
-        <v>1.97</v>
-      </c>
-      <c r="U257">
-        <v>3.5</v>
-      </c>
       <c r="V257">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="X257">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA257">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD257">
-        <v>0.8799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24180,7 +24180,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7025441</v>
+        <v>7024123</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24189,19 +24189,19 @@
         <v>45395.4375</v>
       </c>
       <c r="E258" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F258" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H258">
         <v>0</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -24210,43 +24210,43 @@
         <v>49</v>
       </c>
       <c r="L258">
-        <v>1.125</v>
+        <v>1.363</v>
       </c>
       <c r="M258">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N258">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="O258">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="P258">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q258">
         <v>11</v>
       </c>
       <c r="R258">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="S258">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T258">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U258">
         <v>3.5</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W258">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="X258">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="Y258">
         <v>-1</v>
@@ -24255,16 +24255,16 @@
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB258">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
         <v>-1</v>
       </c>
       <c r="AD258">
-        <v>1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24272,7 +24272,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7024125</v>
+        <v>7025441</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24281,82 +24281,82 @@
         <v>45395.4375</v>
       </c>
       <c r="E259" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F259" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L259">
+        <v>1.125</v>
+      </c>
+      <c r="M259">
+        <v>9</v>
+      </c>
+      <c r="N259">
+        <v>15</v>
+      </c>
+      <c r="O259">
+        <v>1.222</v>
+      </c>
+      <c r="P259">
+        <v>7</v>
+      </c>
+      <c r="Q259">
+        <v>11</v>
+      </c>
+      <c r="R259">
+        <v>-2</v>
+      </c>
+      <c r="S259">
+        <v>1.95</v>
+      </c>
+      <c r="T259">
+        <v>1.95</v>
+      </c>
+      <c r="U259">
         <v>3.5</v>
       </c>
-      <c r="M259">
-        <v>4</v>
-      </c>
-      <c r="N259">
-        <v>1.909</v>
-      </c>
-      <c r="O259">
-        <v>3.1</v>
-      </c>
-      <c r="P259">
-        <v>3.75</v>
-      </c>
-      <c r="Q259">
-        <v>2.15</v>
-      </c>
-      <c r="R259">
-        <v>0.25</v>
-      </c>
-      <c r="S259">
-        <v>2.02</v>
-      </c>
-      <c r="T259">
-        <v>1.88</v>
-      </c>
-      <c r="U259">
-        <v>3</v>
-      </c>
       <c r="V259">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W259">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB259">
-        <v>0.8799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -25560,7 +25560,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7088634</v>
+        <v>7133192</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25569,82 +25569,82 @@
         <v>45409.4375</v>
       </c>
       <c r="E273" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K273" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L273">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="M273">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N273">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="O273">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="P273">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q273">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="R273">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S273">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T273">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U273">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V273">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W273">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="X273">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y273">
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB273">
-        <v>1.02</v>
+        <v>0.485</v>
       </c>
       <c r="AC273">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD273">
-        <v>0.485</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25652,7 +25652,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7092929</v>
+        <v>7088634</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25661,82 +25661,82 @@
         <v>45409.4375</v>
       </c>
       <c r="E274" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>3</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274" t="s">
+        <v>48</v>
+      </c>
+      <c r="L274">
+        <v>1.75</v>
+      </c>
+      <c r="M274">
         <v>4</v>
-      </c>
-      <c r="H274">
-        <v>1</v>
-      </c>
-      <c r="I274">
-        <v>2</v>
-      </c>
-      <c r="J274">
-        <v>1</v>
-      </c>
-      <c r="K274" t="s">
-        <v>49</v>
-      </c>
-      <c r="L274">
-        <v>1.7</v>
-      </c>
-      <c r="M274">
-        <v>4.2</v>
       </c>
       <c r="N274">
         <v>4.333</v>
       </c>
       <c r="O274">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="P274">
+        <v>4.333</v>
+      </c>
+      <c r="Q274">
         <v>4.5</v>
       </c>
-      <c r="Q274">
-        <v>5.25</v>
-      </c>
       <c r="R274">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S274">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T274">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="U274">
+        <v>3.25</v>
+      </c>
+      <c r="V274">
+        <v>1.93</v>
+      </c>
+      <c r="W274">
+        <v>1.97</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
+        <v>-1</v>
+      </c>
+      <c r="Z274">
         <v>3.5</v>
       </c>
-      <c r="V274">
-        <v>1.98</v>
-      </c>
-      <c r="W274">
-        <v>1.92</v>
-      </c>
-      <c r="X274">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y274">
-        <v>-1</v>
-      </c>
-      <c r="Z274">
-        <v>-1</v>
-      </c>
       <c r="AA274">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC274">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
       <c r="AD274">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -25744,7 +25744,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7092930</v>
+        <v>7092929</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -25753,79 +25753,79 @@
         <v>45409.4375</v>
       </c>
       <c r="E275" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K275" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L275">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="M275">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N275">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O275">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="P275">
+        <v>4.5</v>
+      </c>
+      <c r="Q275">
+        <v>5.25</v>
+      </c>
+      <c r="R275">
+        <v>-1</v>
+      </c>
+      <c r="S275">
+        <v>1.89</v>
+      </c>
+      <c r="T275">
+        <v>2.01</v>
+      </c>
+      <c r="U275">
         <v>3.5</v>
       </c>
-      <c r="Q275">
-        <v>3.1</v>
-      </c>
-      <c r="R275">
-        <v>-0.25</v>
-      </c>
-      <c r="S275">
-        <v>2.01</v>
-      </c>
-      <c r="T275">
-        <v>1.89</v>
-      </c>
-      <c r="U275">
-        <v>2.5</v>
-      </c>
       <c r="V275">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="W275">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB275">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="AD275">
         <v>-1</v>
@@ -25836,7 +25836,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7133192</v>
+        <v>7092930</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25845,82 +25845,82 @@
         <v>45409.4375</v>
       </c>
       <c r="E276" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F276" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K276" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L276">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="M276">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N276">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O276">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="P276">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q276">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="R276">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S276">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="T276">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="U276">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V276">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="W276">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="X276">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA276">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.485</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AD276">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:30">

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -109,10 +109,10 @@
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Bayer Leverkusen</t>
+    <t>TSG Hoffenheim</t>
   </si>
   <si>
-    <t>TSG Hoffenheim</t>
+    <t>Bayer Leverkusen</t>
   </si>
   <si>
     <t>VfB Stuttgart</t>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6847534</v>
+        <v>6847535</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -732,79 +732,79 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N3">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O3">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P3">
         <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="R3">
         <v>-0.25</v>
       </c>
       <c r="S3">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <v>2.75</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X3">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA3">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AD3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6847535</v>
+        <v>6847534</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -824,79 +824,79 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4">
+        <v>2.45</v>
+      </c>
+      <c r="M4">
+        <v>3.4</v>
+      </c>
+      <c r="N4">
+        <v>2.75</v>
+      </c>
+      <c r="O4">
         <v>2.375</v>
-      </c>
-      <c r="M4">
-        <v>3.5</v>
-      </c>
-      <c r="N4">
-        <v>2.8</v>
-      </c>
-      <c r="O4">
-        <v>2.15</v>
       </c>
       <c r="P4">
         <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R4">
         <v>-0.25</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U4">
         <v>2.75</v>
       </c>
       <c r="V4">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.43</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1652,7 +1652,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2020,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>45171.4375</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>35</v>
@@ -2661,7 +2661,7 @@
         <v>45171.4375</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
         <v>40</v>
@@ -3124,7 +3124,7 @@
         <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3216,7 +3216,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>45193.4375</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
         <v>41</v>
@@ -4777,7 +4777,7 @@
         <v>45198.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
         <v>36</v>
@@ -4872,7 +4872,7 @@
         <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -6157,7 +6157,7 @@
         <v>45207.4375</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
         <v>44</v>
@@ -6525,7 +6525,7 @@
         <v>45220.4375</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
         <v>38</v>
@@ -6804,7 +6804,7 @@
         <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7997,7 +7997,7 @@
         <v>45228.5625</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
         <v>43</v>
@@ -8181,10 +8181,10 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" t="s">
         <v>32</v>
-      </c>
-      <c r="F84" t="s">
-        <v>31</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847628</v>
+        <v>6847629</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,82 +9009,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L93">
-        <v>2.8</v>
+        <v>1.062</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>2.4</v>
+        <v>19</v>
       </c>
       <c r="O93">
-        <v>3.1</v>
+        <v>1.111</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q93">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="R93">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="S93">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="U93">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="V93">
+        <v>2</v>
+      </c>
+      <c r="W93">
         <v>1.9</v>
       </c>
-      <c r="W93">
-        <v>2</v>
-      </c>
       <c r="X93">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y93">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD93">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9092,7 +9092,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6847627</v>
+        <v>6847628</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9101,82 +9101,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L94">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M94">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N94">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O94">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q94">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S94">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T94">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="U94">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V94">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="X94">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.8400000000000001</v>
+        <v>0.455</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9184,7 +9184,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847626</v>
+        <v>6847627</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9193,82 +9193,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L95">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="O95">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="P95">
         <v>3.8</v>
       </c>
       <c r="Q95">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="R95">
         <v>0</v>
       </c>
       <c r="S95">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="T95">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="U95">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W95">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y95">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD95">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9276,7 +9276,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847629</v>
+        <v>6847626</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9285,55 +9285,55 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L96">
-        <v>1.062</v>
+        <v>2.55</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>19</v>
+        <v>2.6</v>
       </c>
       <c r="O96">
-        <v>1.111</v>
+        <v>2.375</v>
       </c>
       <c r="P96">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q96">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="R96">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T96">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="U96">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="V96">
         <v>2</v>
@@ -9342,25 +9342,25 @@
         <v>1.9</v>
       </c>
       <c r="X96">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>-1</v>
+      </c>
+      <c r="AD96">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC96">
-        <v>1</v>
-      </c>
-      <c r="AD96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9469,7 +9469,7 @@
         <v>45242.47916666666</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
         <v>37</v>
@@ -9828,7 +9828,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847634</v>
+        <v>6847633</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9837,82 +9837,82 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L102">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O102">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="P102">
+        <v>5.25</v>
+      </c>
+      <c r="Q102">
+        <v>4.75</v>
+      </c>
+      <c r="R102">
+        <v>-1.25</v>
+      </c>
+      <c r="S102">
+        <v>2.04</v>
+      </c>
+      <c r="T102">
+        <v>1.86</v>
+      </c>
+      <c r="U102">
         <v>3.5</v>
       </c>
-      <c r="Q102">
-        <v>4</v>
-      </c>
-      <c r="R102">
-        <v>-0.5</v>
-      </c>
-      <c r="S102">
-        <v>1.99</v>
-      </c>
-      <c r="T102">
-        <v>1.91</v>
-      </c>
-      <c r="U102">
-        <v>2.5</v>
-      </c>
       <c r="V102">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W102">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y102">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB102">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AD102">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9920,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6847635</v>
+        <v>6847634</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9929,10 +9929,10 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9941,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -9950,46 +9950,46 @@
         <v>50</v>
       </c>
       <c r="L103">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="M103">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N103">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O103">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="R103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U103">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V103">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="W103">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>3.333</v>
+        <v>2.5</v>
       </c>
       <c r="Z103">
         <v>-1</v>
@@ -9998,13 +9998,13 @@
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
       </c>
       <c r="AD103">
-        <v>0.8300000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10012,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847636</v>
+        <v>6847635</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10021,13 +10021,13 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -10036,67 +10036,67 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="M104">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N104">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="P104">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="R104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S104">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U104">
         <v>3</v>
       </c>
       <c r="V104">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="W104">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="X104">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD104">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10104,7 +10104,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6847633</v>
+        <v>6847636</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10113,64 +10113,64 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K105" t="s">
         <v>49</v>
       </c>
       <c r="L105">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q105">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="R105">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="T105">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="U105">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V105">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="W105">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="X105">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -10179,16 +10179,16 @@
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8799999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD105">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10208,7 +10208,7 @@
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10481,7 +10481,7 @@
         <v>45256.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
         <v>46</v>
@@ -10760,7 +10760,7 @@
         <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -11125,7 +11125,7 @@
         <v>45263.5625</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
         <v>36</v>
@@ -11309,7 +11309,7 @@
         <v>45268.6875</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F118" t="s">
         <v>42</v>
@@ -11484,7 +11484,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847654</v>
+        <v>6847656</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11493,16 +11493,16 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11514,43 +11514,43 @@
         <v>49</v>
       </c>
       <c r="L120">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N120">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O120">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P120">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q120">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="R120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T120">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="U120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V120">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X120">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11559,16 +11559,16 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD120">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11576,7 +11576,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6847656</v>
+        <v>6847654</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11585,16 +11585,16 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11606,43 +11606,43 @@
         <v>49</v>
       </c>
       <c r="L121">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M121">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O121">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="P121">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="R121">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
+        <v>1.95</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
         <v>2.04</v>
       </c>
-      <c r="T121">
+      <c r="W121">
         <v>1.86</v>
       </c>
-      <c r="U121">
-        <v>2.75</v>
-      </c>
-      <c r="V121">
-        <v>2</v>
-      </c>
-      <c r="W121">
-        <v>1.9</v>
-      </c>
       <c r="X121">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11651,16 +11651,16 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD121">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11956,7 +11956,7 @@
         <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -12600,7 +12600,7 @@
         <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -12781,7 +12781,7 @@
         <v>45277.5625</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
         <v>38</v>
@@ -13057,7 +13057,7 @@
         <v>45279.6875</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
         <v>40</v>
@@ -13324,7 +13324,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6846945</v>
+        <v>6847667</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13333,64 +13333,64 @@
         <v>45280.6875</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" t="s">
         <v>49</v>
       </c>
       <c r="L140">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N140">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="O140">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="R140">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S140">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="U140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X140">
-        <v>0.7</v>
+        <v>0.222</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -13399,16 +13399,16 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.46</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD140">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13508,7 +13508,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6847667</v>
+        <v>6846945</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13517,64 +13517,64 @@
         <v>45280.6875</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="s">
         <v>49</v>
       </c>
       <c r="L142">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="M142">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="P142">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="R142">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S142">
+        <v>1.92</v>
+      </c>
+      <c r="T142">
+        <v>1.98</v>
+      </c>
+      <c r="U142">
+        <v>3</v>
+      </c>
+      <c r="V142">
+        <v>2.05</v>
+      </c>
+      <c r="W142">
         <v>1.85</v>
       </c>
-      <c r="T142">
-        <v>2.05</v>
-      </c>
-      <c r="U142">
-        <v>3.25</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>2</v>
-      </c>
       <c r="X142">
-        <v>0.222</v>
+        <v>0.7</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13583,16 +13583,16 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD142">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13796,7 +13796,7 @@
         <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -14060,7 +14060,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6847679</v>
+        <v>6847677</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14069,82 +14069,82 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L148">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="M148">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N148">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="O148">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q148">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="R148">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S148">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="T148">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V148">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W148">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z148">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
       </c>
       <c r="AD148">
-        <v>1.02</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14152,7 +14152,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6846946</v>
+        <v>6847679</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14161,10 +14161,10 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -14176,46 +14176,46 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="s">
         <v>48</v>
       </c>
       <c r="L149">
+        <v>5.25</v>
+      </c>
+      <c r="M149">
+        <v>4.75</v>
+      </c>
+      <c r="N149">
         <v>1.5</v>
       </c>
-      <c r="M149">
-        <v>4.333</v>
-      </c>
-      <c r="N149">
-        <v>6</v>
-      </c>
       <c r="O149">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="P149">
         <v>4.75</v>
       </c>
       <c r="Q149">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="R149">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="U149">
         <v>3</v>
       </c>
       <c r="V149">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W149">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -14224,19 +14224,19 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14244,7 +14244,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6847677</v>
+        <v>6846946</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14253,82 +14253,82 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E150" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L150">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="M150">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O150">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="P150">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q150">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="R150">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>3</v>
+      </c>
+      <c r="V150">
+        <v>1.91</v>
+      </c>
+      <c r="W150">
         <v>1.99</v>
       </c>
-      <c r="T150">
-        <v>1.91</v>
-      </c>
-      <c r="U150">
-        <v>2.75</v>
-      </c>
-      <c r="V150">
-        <v>2.01</v>
-      </c>
-      <c r="W150">
-        <v>1.89</v>
-      </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.9099999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC150">
         <v>-1</v>
       </c>
       <c r="AD150">
-        <v>0.8899999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14992,7 +14992,7 @@
         <v>43</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -15084,7 +15084,7 @@
         <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -15532,7 +15532,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847694</v>
+        <v>6847693</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15541,13 +15541,13 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15559,64 +15559,64 @@
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L164">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="M164">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N164">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O164">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="P164">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q164">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="R164">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S164">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="T164">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="U164">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V164">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W164">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="X164">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC164">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD164">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15624,7 +15624,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6847692</v>
+        <v>6847694</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15633,13 +15633,13 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15651,64 +15651,64 @@
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L165">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="M165">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
-        <v>4.1</v>
+        <v>2.55</v>
       </c>
       <c r="O165">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="P165">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q165">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="R165">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T165">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="U165">
         <v>2.5</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W165">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y165">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AD165">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15716,7 +15716,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6847693</v>
+        <v>6847692</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15725,10 +15725,10 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E166" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -15746,46 +15746,46 @@
         <v>50</v>
       </c>
       <c r="L166">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="M166">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N166">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O166">
         <v>1.7</v>
       </c>
       <c r="P166">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q166">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R166">
         <v>-0.75</v>
       </c>
       <c r="S166">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U166">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V166">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z166">
         <v>-1</v>
@@ -15794,13 +15794,13 @@
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
         <v>-1</v>
       </c>
       <c r="AD166">
-        <v>0.8600000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -16001,7 +16001,7 @@
         <v>45318.60416666666</v>
       </c>
       <c r="E169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F169" t="s">
         <v>45</v>
@@ -16372,7 +16372,7 @@
         <v>40</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -16544,7 +16544,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6847697</v>
+        <v>6847699</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16553,46 +16553,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
         <v>3</v>
       </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L175">
-        <v>1.111</v>
+        <v>2.9</v>
       </c>
       <c r="M175">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N175">
-        <v>19</v>
+        <v>2.25</v>
       </c>
       <c r="O175">
-        <v>1.142</v>
+        <v>3.2</v>
       </c>
       <c r="P175">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q175">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="R175">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="S175">
         <v>1.93</v>
@@ -16601,22 +16601,22 @@
         <v>1.97</v>
       </c>
       <c r="U175">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="V175">
+        <v>1.92</v>
+      </c>
+      <c r="W175">
         <v>1.98</v>
       </c>
-      <c r="W175">
-        <v>1.92</v>
-      </c>
       <c r="X175">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA175">
         <v>-1</v>
@@ -16625,10 +16625,10 @@
         <v>0.97</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD175">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16636,7 +16636,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6847699</v>
+        <v>6847697</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16645,46 +16645,46 @@
         <v>45325.47916666666</v>
       </c>
       <c r="E176" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L176">
-        <v>2.9</v>
+        <v>1.111</v>
       </c>
       <c r="M176">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N176">
-        <v>2.25</v>
+        <v>19</v>
       </c>
       <c r="O176">
-        <v>3.2</v>
+        <v>1.142</v>
       </c>
       <c r="P176">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q176">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="R176">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="S176">
         <v>1.93</v>
@@ -16693,22 +16693,22 @@
         <v>1.97</v>
       </c>
       <c r="U176">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="V176">
+        <v>1.98</v>
+      </c>
+      <c r="W176">
         <v>1.92</v>
       </c>
-      <c r="W176">
-        <v>1.98</v>
-      </c>
       <c r="X176">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
         <v>-1</v>
@@ -16717,10 +16717,10 @@
         <v>0.97</v>
       </c>
       <c r="AC176">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD176">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16924,7 +16924,7 @@
         <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -17749,7 +17749,7 @@
         <v>45332.60416666666</v>
       </c>
       <c r="E188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F188" t="s">
         <v>47</v>
@@ -17933,7 +17933,7 @@
         <v>45333.5625</v>
       </c>
       <c r="E190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F190" t="s">
         <v>44</v>
@@ -18108,7 +18108,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6847719</v>
+        <v>6847715</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18117,82 +18117,82 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L192">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M192">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N192">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="O192">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="P192">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q192">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="R192">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T192">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U192">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V192">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W192">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AB192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD192">
-        <v>0</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18200,7 +18200,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6847715</v>
+        <v>6847719</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18209,82 +18209,82 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E193" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L193">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N193">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="O193">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="P193">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q193">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="R193">
+        <v>1.25</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>1.9</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>1.93</v>
+      </c>
+      <c r="W193">
+        <v>1.97</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AA193">
+        <v>0.5</v>
+      </c>
+      <c r="AB193">
         <v>-0.5</v>
       </c>
-      <c r="S193">
-        <v>1.99</v>
-      </c>
-      <c r="T193">
-        <v>1.91</v>
-      </c>
-      <c r="U193">
-        <v>2.5</v>
-      </c>
-      <c r="V193">
-        <v>1.92</v>
-      </c>
-      <c r="W193">
-        <v>1.98</v>
-      </c>
-      <c r="X193">
-        <v>0.909</v>
-      </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
-      <c r="Z193">
-        <v>-1</v>
-      </c>
-      <c r="AA193">
-        <v>0.99</v>
-      </c>
-      <c r="AB193">
-        <v>-1</v>
-      </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD193">
-        <v>0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18485,7 +18485,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="E196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
         <v>37</v>
@@ -18853,7 +18853,7 @@
         <v>45345.6875</v>
       </c>
       <c r="E200" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F200" t="s">
         <v>46</v>
@@ -18936,7 +18936,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6847726</v>
+        <v>6847723</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18945,19 +18945,19 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E201" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201">
         <v>1</v>
@@ -18966,46 +18966,46 @@
         <v>50</v>
       </c>
       <c r="L201">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N201">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O201">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="P201">
+        <v>3.6</v>
+      </c>
+      <c r="Q201">
         <v>4.2</v>
       </c>
-      <c r="Q201">
-        <v>4.333</v>
-      </c>
       <c r="R201">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S201">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="T201">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="U201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V201">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="W201">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z201">
         <v>-1</v>
@@ -19014,13 +19014,13 @@
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.9199999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AD201">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19028,7 +19028,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6847723</v>
+        <v>6847726</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19037,19 +19037,19 @@
         <v>45346.47916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -19058,46 +19058,46 @@
         <v>50</v>
       </c>
       <c r="L202">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="M202">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N202">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="O202">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P202">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q202">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="R202">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S202">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T202">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V202">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="W202">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z202">
         <v>-1</v>
@@ -19106,13 +19106,13 @@
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1.06</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC202">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AD202">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19500,7 +19500,7 @@
         <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -20328,7 +20328,7 @@
         <v>44</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -20417,7 +20417,7 @@
         <v>45354.5625</v>
       </c>
       <c r="E217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
         <v>30</v>
@@ -21156,7 +21156,7 @@
         <v>38</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -21245,7 +21245,7 @@
         <v>45361.64583333334</v>
       </c>
       <c r="E226" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F226" t="s">
         <v>35</v>
@@ -21889,7 +21889,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F233" t="s">
         <v>33</v>
@@ -21984,7 +21984,7 @@
         <v>43</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -22441,10 +22441,10 @@
         <v>45381.47916666666</v>
       </c>
       <c r="E239" t="s">
+        <v>32</v>
+      </c>
+      <c r="F239" t="s">
         <v>31</v>
-      </c>
-      <c r="F239" t="s">
-        <v>32</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -23088,7 +23088,7 @@
         <v>37</v>
       </c>
       <c r="F246" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -23637,7 +23637,7 @@
         <v>45389.4375</v>
       </c>
       <c r="E252" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F252" t="s">
         <v>34</v>
@@ -24008,7 +24008,7 @@
         <v>46</v>
       </c>
       <c r="F256" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G256">
         <v>4</v>
@@ -24088,7 +24088,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7024125</v>
+        <v>7024123</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24097,82 +24097,82 @@
         <v>45395.4375</v>
       </c>
       <c r="E257" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>1</v>
       </c>
       <c r="J257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L257">
+        <v>1.363</v>
+      </c>
+      <c r="M257">
+        <v>5</v>
+      </c>
+      <c r="N257">
+        <v>7.5</v>
+      </c>
+      <c r="O257">
+        <v>1.25</v>
+      </c>
+      <c r="P257">
+        <v>6</v>
+      </c>
+      <c r="Q257">
+        <v>11</v>
+      </c>
+      <c r="R257">
+        <v>-1.75</v>
+      </c>
+      <c r="S257">
+        <v>1.93</v>
+      </c>
+      <c r="T257">
+        <v>1.97</v>
+      </c>
+      <c r="U257">
         <v>3.5</v>
       </c>
-      <c r="M257">
-        <v>4</v>
-      </c>
-      <c r="N257">
-        <v>1.909</v>
-      </c>
-      <c r="O257">
-        <v>3.1</v>
-      </c>
-      <c r="P257">
-        <v>3.75</v>
-      </c>
-      <c r="Q257">
-        <v>2.15</v>
-      </c>
-      <c r="R257">
+      <c r="V257">
+        <v>2.02</v>
+      </c>
+      <c r="W257">
+        <v>1.88</v>
+      </c>
+      <c r="X257">
         <v>0.25</v>
       </c>
-      <c r="S257">
-        <v>2.02</v>
-      </c>
-      <c r="T257">
-        <v>1.88</v>
-      </c>
-      <c r="U257">
-        <v>3</v>
-      </c>
-      <c r="V257">
-        <v>1.85</v>
-      </c>
-      <c r="W257">
-        <v>2.05</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
+        <v>-1</v>
+      </c>
+      <c r="AD257">
         <v>0.8799999999999999</v>
-      </c>
-      <c r="AC257">
-        <v>0</v>
-      </c>
-      <c r="AD257">
-        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24180,7 +24180,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7024123</v>
+        <v>7025441</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24189,19 +24189,19 @@
         <v>45395.4375</v>
       </c>
       <c r="E258" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F258" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H258">
         <v>0</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -24210,43 +24210,43 @@
         <v>49</v>
       </c>
       <c r="L258">
-        <v>1.363</v>
+        <v>1.125</v>
       </c>
       <c r="M258">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N258">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="O258">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="P258">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q258">
         <v>11</v>
       </c>
       <c r="R258">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="S258">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T258">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U258">
         <v>3.5</v>
       </c>
       <c r="V258">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="W258">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="X258">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="Y258">
         <v>-1</v>
@@ -24255,16 +24255,16 @@
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC258">
         <v>-1</v>
       </c>
       <c r="AD258">
-        <v>0.8799999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24272,7 +24272,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7025441</v>
+        <v>7024125</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24281,82 +24281,82 @@
         <v>45395.4375</v>
       </c>
       <c r="E259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F259" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K259" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L259">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="M259">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N259">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="O259">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="P259">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q259">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="R259">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="S259">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T259">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="U259">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V259">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W259">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X259">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24557,7 +24557,7 @@
         <v>45396.52083333334</v>
       </c>
       <c r="E262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F262" t="s">
         <v>30</v>
@@ -24741,7 +24741,7 @@
         <v>45402.4375</v>
       </c>
       <c r="E264" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F264" t="s">
         <v>45</v>
@@ -25296,7 +25296,7 @@
         <v>36</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -25480,7 +25480,7 @@
         <v>42</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G272">
         <v>3</v>
@@ -25560,7 +25560,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7133192</v>
+        <v>7088634</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25569,82 +25569,82 @@
         <v>45409.4375</v>
       </c>
       <c r="E273" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G273">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K273" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L273">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="M273">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N273">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="O273">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="P273">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q273">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="R273">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S273">
+        <v>1.88</v>
+      </c>
+      <c r="T273">
+        <v>2.02</v>
+      </c>
+      <c r="U273">
+        <v>3.25</v>
+      </c>
+      <c r="V273">
         <v>1.93</v>
       </c>
-      <c r="T273">
+      <c r="W273">
         <v>1.97</v>
       </c>
-      <c r="U273">
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
+        <v>-1</v>
+      </c>
+      <c r="Z273">
         <v>3.5</v>
       </c>
-      <c r="V273">
-        <v>2</v>
-      </c>
-      <c r="W273">
-        <v>1.9</v>
-      </c>
-      <c r="X273">
-        <v>0.444</v>
-      </c>
-      <c r="Y273">
-        <v>-1</v>
-      </c>
-      <c r="Z273">
-        <v>-1</v>
-      </c>
       <c r="AA273">
+        <v>-1</v>
+      </c>
+      <c r="AB273">
+        <v>1.02</v>
+      </c>
+      <c r="AC273">
         <v>-0.5</v>
       </c>
-      <c r="AB273">
+      <c r="AD273">
         <v>0.485</v>
-      </c>
-      <c r="AC273">
-        <v>-1</v>
-      </c>
-      <c r="AD273">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25652,7 +25652,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7088634</v>
+        <v>7092929</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25661,82 +25661,82 @@
         <v>45409.4375</v>
       </c>
       <c r="E274" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F274" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K274" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L274">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="M274">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N274">
         <v>4.333</v>
       </c>
       <c r="O274">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="P274">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q274">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="R274">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S274">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="T274">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="U274">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V274">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W274">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB274">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
       <c r="AD274">
-        <v>0.485</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -25744,7 +25744,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7092929</v>
+        <v>7092930</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -25753,79 +25753,79 @@
         <v>45409.4375</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G275">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K275" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L275">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="M275">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N275">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O275">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P275">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q275">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="R275">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S275">
+        <v>2.01</v>
+      </c>
+      <c r="T275">
         <v>1.89</v>
       </c>
-      <c r="T275">
-        <v>2.01</v>
-      </c>
       <c r="U275">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V275">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="W275">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="X275">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA275">
+        <v>-1</v>
+      </c>
+      <c r="AB275">
         <v>0.8899999999999999</v>
       </c>
-      <c r="AB275">
-        <v>-1</v>
-      </c>
       <c r="AC275">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="AD275">
         <v>-1</v>
@@ -25836,7 +25836,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7092930</v>
+        <v>7133192</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25845,82 +25845,82 @@
         <v>45409.4375</v>
       </c>
       <c r="E276" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F276" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
       <c r="J276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L276">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="M276">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N276">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O276">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="P276">
+        <v>5</v>
+      </c>
+      <c r="Q276">
+        <v>6</v>
+      </c>
+      <c r="R276">
+        <v>-1.25</v>
+      </c>
+      <c r="S276">
+        <v>1.93</v>
+      </c>
+      <c r="T276">
+        <v>1.97</v>
+      </c>
+      <c r="U276">
         <v>3.5</v>
       </c>
-      <c r="Q276">
-        <v>3.1</v>
-      </c>
-      <c r="R276">
-        <v>-0.25</v>
-      </c>
-      <c r="S276">
-        <v>2.01</v>
-      </c>
-      <c r="T276">
-        <v>1.89</v>
-      </c>
-      <c r="U276">
-        <v>2.5</v>
-      </c>
       <c r="V276">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="W276">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB276">
-        <v>0.8899999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="AC276">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AD276">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:30">
@@ -25937,7 +25937,7 @@
         <v>45409.5625</v>
       </c>
       <c r="E277" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F277" t="s">
         <v>33</v>
@@ -26305,7 +26305,7 @@
         <v>45415.64583333334</v>
       </c>
       <c r="E281" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F281" t="s">
         <v>39</v>
@@ -26952,7 +26952,7 @@
         <v>38</v>
       </c>
       <c r="F288" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -27400,7 +27400,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7180060</v>
+        <v>7179918</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27409,10 +27409,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E293" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F293" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -27430,61 +27430,61 @@
         <v>50</v>
       </c>
       <c r="L293">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="M293">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N293">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="O293">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="P293">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q293">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="R293">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S293">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="T293">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U293">
+        <v>3</v>
+      </c>
+      <c r="V293">
+        <v>1.93</v>
+      </c>
+      <c r="W293">
+        <v>1.97</v>
+      </c>
+      <c r="X293">
+        <v>-1</v>
+      </c>
+      <c r="Y293">
         <v>2.75</v>
       </c>
-      <c r="V293">
-        <v>1.89</v>
-      </c>
-      <c r="W293">
-        <v>2.01</v>
-      </c>
-      <c r="X293">
-        <v>-1</v>
-      </c>
-      <c r="Y293">
-        <v>3</v>
-      </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB293">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC293">
         <v>-1</v>
       </c>
       <c r="AD293">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27492,7 +27492,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7179918</v>
+        <v>7180060</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27501,10 +27501,10 @@
         <v>45423.4375</v>
       </c>
       <c r="E294" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -27522,61 +27522,61 @@
         <v>50</v>
       </c>
       <c r="L294">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="M294">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N294">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="O294">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="P294">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q294">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="R294">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S294">
+        <v>1.98</v>
+      </c>
+      <c r="T294">
+        <v>1.92</v>
+      </c>
+      <c r="U294">
+        <v>2.75</v>
+      </c>
+      <c r="V294">
+        <v>1.89</v>
+      </c>
+      <c r="W294">
         <v>2.01</v>
       </c>
-      <c r="T294">
-        <v>1.89</v>
-      </c>
-      <c r="U294">
+      <c r="X294">
+        <v>-1</v>
+      </c>
+      <c r="Y294">
         <v>3</v>
       </c>
-      <c r="V294">
-        <v>1.93</v>
-      </c>
-      <c r="W294">
-        <v>1.97</v>
-      </c>
-      <c r="X294">
-        <v>-1</v>
-      </c>
-      <c r="Y294">
-        <v>2.75</v>
-      </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC294">
         <v>-1</v>
       </c>
       <c r="AD294">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -27688,7 +27688,7 @@
         <v>40</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -27872,7 +27872,7 @@
         <v>42</v>
       </c>
       <c r="F298" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -28237,7 +28237,7 @@
         <v>45430.4375</v>
       </c>
       <c r="E302" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F302" t="s">
         <v>34</v>
@@ -28605,7 +28605,7 @@
         <v>45430.4375</v>
       </c>
       <c r="E306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F306" t="s">
         <v>47</v>

--- a/Germany Bundesliga I/Germany Bundesliga I.xlsx
+++ b/Germany Bundesliga I/Germany Bundesliga I.xlsx
@@ -109,10 +109,10 @@
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>TSG Hoffenheim</t>
+    <t>Bayer Leverkusen</t>
   </si>
   <si>
-    <t>Bayer Leverkusen</t>
+    <t>TSG Hoffenheim</t>
   </si>
   <si>
     <t>VfB Stuttgart</t>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6847535</v>
+        <v>6847534</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -732,79 +732,79 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3">
+        <v>2.45</v>
+      </c>
+      <c r="M3">
+        <v>3.4</v>
+      </c>
+      <c r="N3">
+        <v>2.75</v>
+      </c>
+      <c r="O3">
         <v>2.375</v>
-      </c>
-      <c r="M3">
-        <v>3.5</v>
-      </c>
-      <c r="N3">
-        <v>2.8</v>
-      </c>
-      <c r="O3">
-        <v>2.15</v>
       </c>
       <c r="P3">
         <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R3">
         <v>-0.25</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U3">
         <v>2.75</v>
       </c>
       <c r="V3">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.43</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6847534</v>
+        <v>6847535</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -824,79 +824,79 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O4">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P4">
         <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="R4">
         <v>-0.25</v>
       </c>
       <c r="S4">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>2.75</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X4">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA4">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AD4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1652,7 +1652,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2020,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6847566</v>
+        <v>6847563</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2385,64 +2385,64 @@
         <v>45171.4375</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
         <v>49</v>
       </c>
       <c r="L21">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O21">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q21">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="U21">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V21">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="W21">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="X21">
-        <v>1.6</v>
+        <v>0.222</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2451,13 +2451,13 @@
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="AD21">
         <v>-1</v>
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6847565</v>
+        <v>6847567</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2477,16 +2477,16 @@
         <v>45171.4375</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2495,28 +2495,28 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M22">
         <v>3.6</v>
       </c>
       <c r="N22">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O22">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q22">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S22">
         <v>1.95</v>
@@ -2525,31 +2525,31 @@
         <v>1.95</v>
       </c>
       <c r="U22">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W22">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X22">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6847567</v>
+        <v>6847566</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2569,46 +2569,46 @@
         <v>45171.4375</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="M23">
         <v>3.6</v>
       </c>
       <c r="N23">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q23">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="R23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>1.95</v>
@@ -2620,28 +2620,28 @@
         <v>2.75</v>
       </c>
       <c r="V23">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="W23">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.9199999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AD23">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6847563</v>
+        <v>6847565</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2664,10 +2664,10 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2682,43 +2682,43 @@
         <v>49</v>
       </c>
       <c r="L24">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="M24">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="O24">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="P24">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>2.55</v>
       </c>
       <c r="R24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
         <v>3.25</v>
       </c>
       <c r="V24">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X24">
-        <v>0.222</v>
+        <v>1.5</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2727,13 +2727,13 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AD24">
         <v>-1</v>
@@ -3124,7 +3124,7 @@
         <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3216,7 +3216,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>45193.4375</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
         <v>41</v>
@@ -4777,7 +4777,7 @@
         <v>45198.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
         <v>36</v>
@@ -4872,7 +4872,7 @@
         <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -6157,7 +6157,7 @@
         <v>45207.4375</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
         <v>44</v>
@@ -6525,7 +6525,7 @@
         <v>45220.4375</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
         <v>38</v>
@@ -6804,7 +6804,7 @@
         <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -7344,7 +7344,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6847616</v>
+        <v>6847609</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7353,79 +7353,79 @@
         <v>45227.4375</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L75">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N75">
-        <v>4.2</v>
+        <v>21</v>
       </c>
       <c r="O75">
-        <v>1.65</v>
+        <v>1.062</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q75">
-        <v>4.75</v>
+        <v>23</v>
       </c>
       <c r="R75">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="S75">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T75">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U75">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="V75">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="W75">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB75">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8300000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="AD75">
         <v>-1</v>
@@ -7436,7 +7436,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6847612</v>
+        <v>6847616</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7445,82 +7445,82 @@
         <v>45227.4375</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L76">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M76">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O76">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R76">
         <v>-0.75</v>
       </c>
       <c r="S76">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T76">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V76">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="W76">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="X76">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA76">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AD76">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7528,7 +7528,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6847609</v>
+        <v>6847615</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7537,64 +7537,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77" t="s">
         <v>49</v>
       </c>
       <c r="L77">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="N77">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="O77">
-        <v>1.062</v>
+        <v>2.45</v>
       </c>
       <c r="P77">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q77">
-        <v>23</v>
+        <v>2.75</v>
       </c>
       <c r="R77">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="S77">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="T77">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="U77">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="V77">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="W77">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="X77">
-        <v>0.06200000000000006</v>
+        <v>1.45</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7603,13 +7603,13 @@
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8799999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1.02</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD77">
         <v>-1</v>
@@ -7620,7 +7620,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6847615</v>
+        <v>6847612</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7629,64 +7629,64 @@
         <v>45227.4375</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K78" t="s">
         <v>49</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="M78">
         <v>3.6</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O78">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="P78">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q78">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S78">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="T78">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="U78">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V78">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W78">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="X78">
-        <v>1.45</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7695,16 +7695,16 @@
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8100000000000001</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD78">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7997,7 +7997,7 @@
         <v>45228.5625</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
         <v>43</v>
@@ -8181,10 +8181,10 @@
         <v>45234.47916666666</v>
       </c>
       <c r="E84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" t="s">
         <v>31</v>
-      </c>
-      <c r="F84" t="s">
-        <v>32</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -9000,7 +9000,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6847629</v>
+        <v>6847626</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -9009,55 +9009,55 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L93">
-        <v>1.062</v>
+        <v>2.55</v>
       </c>
       <c r="M93">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>19</v>
+        <v>2.6</v>
       </c>
       <c r="O93">
-        <v>1.111</v>
+        <v>2.375</v>
       </c>
       <c r="P93">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q93">
-        <v>15</v>
+        <v>2.75</v>
       </c>
       <c r="R93">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T93">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="U93">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="V93">
         <v>2</v>
@@ -9066,25 +9066,25 @@
         <v>1.9</v>
       </c>
       <c r="X93">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>-1</v>
+      </c>
+      <c r="AD93">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC93">
-        <v>1</v>
-      </c>
-      <c r="AD93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9092,7 +9092,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6847628</v>
+        <v>6847627</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9101,82 +9101,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L94">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="M94">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N94">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O94">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q94">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="R94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T94">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U94">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W94">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.455</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9184,7 +9184,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6847627</v>
+        <v>6847628</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9193,82 +9193,82 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L95">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O95">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q95">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S95">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T95">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="U95">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V95">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="X95">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8400000000000001</v>
+        <v>0.455</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9276,7 +9276,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6847626</v>
+        <v>6847629</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9285,55 +9285,55 @@
         <v>45241.47916666666</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L96">
-        <v>2.55</v>
+        <v>1.062</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="N96">
-        <v>2.6</v>
+        <v>19</v>
       </c>
       <c r="O96">
-        <v>2.375</v>
+        <v>1.111</v>
       </c>
       <c r="P96">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q96">
-        <v>2.75</v>
+        <v>15</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="S96">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="U96">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="V96">
         <v>2</v>
@@ -9342,25 +9342,25 @@
         <v>1.9</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y96">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9469,7 +9469,7 @@
         <v>45242.47916666666</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
         <v>37</v>
@@ -9828,7 +9828,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6847633</v>
+        <v>6847635</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9837,82 +9837,82 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>50</v>
+      </c>
+      <c r="L102">
+        <v>1.533</v>
+      </c>
+      <c r="M102">
+        <v>4.333</v>
+      </c>
+      <c r="N102">
+        <v>5.5</v>
+      </c>
+      <c r="O102">
+        <v>1.533</v>
+      </c>
+      <c r="P102">
+        <v>4.333</v>
+      </c>
+      <c r="Q102">
+        <v>5.75</v>
+      </c>
+      <c r="R102">
+        <v>-1</v>
+      </c>
+      <c r="S102">
+        <v>1.9</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
         <v>3</v>
       </c>
-      <c r="J102">
-        <v>2</v>
-      </c>
-      <c r="K102" t="s">
-        <v>49</v>
-      </c>
-      <c r="L102">
-        <v>1.4</v>
-      </c>
-      <c r="M102">
-        <v>5.5</v>
-      </c>
-      <c r="N102">
-        <v>6</v>
-      </c>
-      <c r="O102">
-        <v>1.5</v>
-      </c>
-      <c r="P102">
-        <v>5.25</v>
-      </c>
-      <c r="Q102">
-        <v>4.75</v>
-      </c>
-      <c r="R102">
-        <v>-1.25</v>
-      </c>
-      <c r="S102">
-        <v>2.04</v>
-      </c>
-      <c r="T102">
-        <v>1.86</v>
-      </c>
-      <c r="U102">
-        <v>3.5</v>
-      </c>
       <c r="V102">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="W102">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="X102">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC102">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD102">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9920,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6847634</v>
+        <v>6847633</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9929,82 +9929,82 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L103">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="M103">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O103">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="P103">
+        <v>5.25</v>
+      </c>
+      <c r="Q103">
+        <v>4.75</v>
+      </c>
+      <c r="R103">
+        <v>-1.25</v>
+      </c>
+      <c r="S103">
+        <v>2.04</v>
+      </c>
+      <c r="T103">
+        <v>1.86</v>
+      </c>
+      <c r="U103">
         <v>3.5</v>
       </c>
-      <c r="Q103">
-        <v>4</v>
-      </c>
-      <c r="R103">
-        <v>-0.5</v>
-      </c>
-      <c r="S103">
-        <v>1.99</v>
-      </c>
-      <c r="T103">
-        <v>1.91</v>
-      </c>
-      <c r="U103">
-        <v>2.5</v>
-      </c>
       <c r="V103">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W103">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB103">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AD103">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10012,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6847635</v>
+        <v>6847634</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10021,10 +10021,10 @@
         <v>45255.47916666666</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -10033,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -10042,46 +10042,46 @@
         <v>50</v>
       </c>
       <c r="L104">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="M104">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q104">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="R104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U104">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V104">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="W104">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>3.333</v>
+        <v>2.5</v>
       </c>
       <c r="Z104">
         <v>-1</v>
@@ -10090,13 +10090,13 @@
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC104">
         <v>-1</v>
       </c>
       <c r="AD104">
-        <v>0.8300000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10208,7 +10208,7 @@
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10481,7 +10481,7 @@
         <v>45256.5625</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
         <v>46</v>
@@ -10760,7 +10760,7 @@
         <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -11125,7 +11125,7 @@
         <v>45263.5625</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
         <v>36</v>
@@ -11309,7 +11309,7 @@
         <v>45268.6875</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
         <v>42</v>
@@ -11484,7 +11484,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6847656</v>
+        <v>6847654</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11493,16 +11493,16 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11514,43 +11514,43 @@
         <v>49</v>
       </c>
       <c r="L120">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O120">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="P120">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q120">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="R120">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
+        <v>1.95</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
         <v>2.04</v>
       </c>
-      <c r="T120">
+      <c r="W120">
         <v>1.86</v>
       </c>
-      <c r="U120">
-        <v>2.75</v>
-      </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
-      <c r="W120">
-        <v>1.9</v>
-      </c>
       <c r="X120">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11559,16 +11559,16 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD120">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11576,7 +11576,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6847654</v>
+        <v>6847656</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11585,16 +11585,16 @@
         <v>45269.47916666666</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11606,43 +11606,43 @@
         <v>49</v>
       </c>
       <c r="L121">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M121">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N121">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O121">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P121">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q121">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="R121">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T121">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="U121">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V121">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X121">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
@@ -11651,16 +11651,16 @@
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD121">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11956,7 +11956,7 @@
         <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -12600,7 +12600,7 @@
         <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -12781,7 +12781,7 @@
         <v>45277.5625</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
         <v>38</v>
@@ -13048,7 +13048,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6847669</v>
+        <v>6847665</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13057,19 +13057,19 @@
         <v>45279.6875</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -13078,40 +13078,40 @@
         <v>50</v>
       </c>
       <c r="L137">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="M137">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N137">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="O137">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="P137">
         <v>4.75</v>
       </c>
       <c r="Q137">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="R137">
         <v>-1</v>
       </c>
       <c r="S137">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T137">
-        <v>2.025</v>
+        <v>1.97</v>
       </c>
       <c r="U137">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W137">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -13126,13 +13126,13 @@
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1.025</v>
+        <v>0.97</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD137">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13140,7 +13140,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6847665</v>
+        <v>6847669</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13149,19 +13149,19 @@
         <v>45279.6875</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13170,40 +13170,40 @@
         <v>50</v>
       </c>
       <c r="L138">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="M138">
+        <v>4.5</v>
+      </c>
+      <c r="N138">
         <v>5</v>
       </c>
-      <c r="N138">
-        <v>6.5</v>
-      </c>
       <c r="O138">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="P138">
         <v>4.75</v>
       </c>
       <c r="Q138">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="R138">
         <v>-1</v>
       </c>
       <c r="S138">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="U138">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V138">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -13218,13 +13218,13 @@
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.97</v>
+        <v>1.025</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD138">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13324,7 +13324,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6847667</v>
+        <v>6847668</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13333,82 +13333,82 @@
         <v>45280.6875</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L140">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N140">
-        <v>13</v>
+        <v>1.363</v>
       </c>
       <c r="O140">
-        <v>1.222</v>
+        <v>5.5</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="R140">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U140">
         <v>3.25</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W140">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="X140">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA140">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD140">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13416,7 +13416,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6847668</v>
+        <v>6847667</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13425,82 +13425,82 @@
         <v>45280.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L141">
+        <v>1.2</v>
+      </c>
+      <c r="M141">
         <v>6</v>
       </c>
-      <c r="M141">
-        <v>5.5</v>
-      </c>
       <c r="N141">
-        <v>1.363</v>
+        <v>13</v>
       </c>
       <c r="O141">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q141">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="R141">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U141">
         <v>3.25</v>
       </c>
       <c r="V141">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD141">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13796,7 +13796,7 @@
         <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -14060,7 +14060,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6847677</v>
+        <v>6847679</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14069,82 +14069,82 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E148" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L148">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="M148">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N148">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O148">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="P148">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q148">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="R148">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="S148">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="T148">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V148">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="W148">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB148">
-        <v>0.9099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC148">
         <v>-1</v>
       </c>
       <c r="AD148">
-        <v>0.8899999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14152,7 +14152,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6847679</v>
+        <v>6846946</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14161,10 +14161,10 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -14176,46 +14176,46 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="s">
         <v>48</v>
       </c>
       <c r="L149">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="M149">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N149">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="O149">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="P149">
         <v>4.75</v>
       </c>
       <c r="Q149">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="R149">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="S149">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U149">
         <v>3</v>
       </c>
       <c r="V149">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W149">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -14224,19 +14224,19 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC149">
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14244,7 +14244,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6846946</v>
+        <v>6847677</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14253,82 +14253,82 @@
         <v>45304.47916666666</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L150">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="M150">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N150">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O150">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="P150">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q150">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="R150">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V150">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="W150">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z150">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC150">
         <v>-1</v>
       </c>
       <c r="AD150">
-        <v>0.99</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14992,7 +14992,7 @@
         <v>43</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -15084,7 +15084,7 @@
         <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -15532,7 +15532,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6847693</v>
+        <v>6847692</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15541,10 +15541,10 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15562,46 +15562,46 @@
         <v>50</v>
       </c>
       <c r="L164">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="M164">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N164">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O164">
         <v>1.7</v>
       </c>
       <c r="P164">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R164">
         <v>-0.75</v>
       </c>
       <c r="S164">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U164">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V164">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z164">
         <v>-1</v>
@@ -15610,13 +15610,13 @@
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>0.8600000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15624,7 +15624,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6847694</v>
+        <v>6847693</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15633,13 +15633,13 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15651,64 +15651,64 @@
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L165">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="M165">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N165">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O165">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="P165">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q165">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="R165">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S165">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="T165">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="U165">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V165">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W165">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="X165">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC165">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD165">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15716,7 +15716,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6847692</v>
+        <v>6847694</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15725,13 +15725,13 @@
         <v>45318.47916666666</v>
       </c>
       <c r="E166" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15743,64 +15743,64 @@
         <v>1</v>
       </c>
       <c r="K166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L166">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="M166">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N166">
-        <v>4.1</v>
+        <v>2.55</v>
       </c>
       <c r="O166">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="P166">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q166">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="R166">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T166">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="U166">
         <v>2